--- a/EUvsVirus/output/Q2.xlsx
+++ b/EUvsVirus/output/Q2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Title</t>
   </si>
@@ -37,168 +37,161 @@
     <t>Search_words</t>
   </si>
   <si>
-    <t>The Lancet Commissions Essential medicines for universal health coverage Executive summary</t>
-  </si>
-  <si>
-    <t>A. Visser I Patient Education and Counseling</t>
-  </si>
-  <si>
-    <t>CHAPTER6 6 Vaccines of the future Open access under CC BY-NC-ND license</t>
-  </si>
-  <si>
-    <t>Vaccines IMPACT OF VACCINATION PROGRAMS</t>
-  </si>
-  <si>
-    <t>Point-of-View Making vaccines "on demand" A potential solution for emerging pathogens and biodefense?</t>
-  </si>
-  <si>
-    <t>Immunizations in the United States: A Rite of Passage</t>
-  </si>
-  <si>
-    <t>Vaccines the tugboat for prevention-based animal production</t>
-  </si>
-  <si>
-    <t>The safety of vaccines Drug Discovery Today Publications online</t>
-  </si>
-  <si>
-    <t>Human vaccine research in the European Union</t>
-  </si>
-  <si>
-    <t>fcf36f814e05f960a2e197ee5a54ea3973140a9c</t>
-  </si>
-  <si>
-    <t>26774b7e05b3578b9fd5928b807b8a86bb6dca3e</t>
-  </si>
-  <si>
-    <t>3177bc777d79cbb039b561f1c4946efd50c1eeb1</t>
-  </si>
-  <si>
-    <t>e60b4fcf80aaad1476cae520377853544ce74a0f</t>
-  </si>
-  <si>
-    <t>74d93874874a832f11ca9280faae877a0f579fea</t>
-  </si>
-  <si>
-    <t>dfe23d64895beefb7e0fec49126c49d982ffe8da</t>
-  </si>
-  <si>
-    <t>76ee8f46000cb0a88954c3364df8f55dca8959cf</t>
-  </si>
-  <si>
-    <t>33aceb941234a4f2da4bf9412fbb1bccbe98eb78</t>
-  </si>
-  <si>
-    <t>2033671f63b46d3f8de49a62a080d28c6c162c15</t>
-  </si>
-  <si>
-    <t>88d38d1cbeeb119278c244e168b8289c599de138</t>
-  </si>
-  <si>
-    <t>Veronika J Wirtz, Hans V Hogerzeil, Andrew L Gray, Maryam Bigdeli, Cornelis P De Joncheere, Margaret A Ewen, Martha Gyansa-Lutterodt, Sun Jing, Vera L Luiza, Regina M Mbindyo, Helene Möller, Corrina Moucheraud, Bernard Pécoul, Lembit Rägo, Arash Rashidian, Dennis Ross-Degnan, Peter N Stephens, Yot Teerawattananon, Ellen F M &amp;apos;t Hoen, Anita K Wagner, Prashant Yadav, Michael R Reich</t>
-  </si>
-  <si>
-    <t>Adriaan Visser, Helen Dowling</t>
-  </si>
-  <si>
-    <t>Lawrence R Stanberry, Richard Strugnell</t>
-  </si>
-  <si>
-    <t>Alan R Shaw, Mark B Feinberg</t>
-  </si>
-  <si>
-    <t>Anne S De Groot, Leo Einck, Leonard Moise, Michael Chambers, John Ballantyne, Robert W Malone, Matthew Ardito, William Martin</t>
-  </si>
-  <si>
-    <t>Amanda C Cohn, Karen R Broder, Larry K Pickering</t>
-  </si>
-  <si>
-    <t>Ramadevi Nimmanapalli, Vikas Gupta</t>
-  </si>
-  <si>
-    <t>Derek T O&amp;apos;, Hagan , Rino Rappuoli, Derek T O&amp;apos;hagan</t>
-  </si>
-  <si>
-    <t>Ole F Olesen, Anna Lonnroth, Bernard Mulligan</t>
+    <t>The Essential Facts of Wuhan Novel Coronavirus Outbreak in China and Epitope-based Vaccine Designing against COVID-19</t>
+  </si>
+  <si>
+    <t>The epidemiology and pathogenesis of coronavirus disease (COVID-19) outbreak</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Quantifying dynamics of SARS-CoV-2 transmission suggests that epidemic control and avoidance is feasible through instantaneous digital contact tracing</t>
+  </si>
+  <si>
+    <t>A data-driven drug repositioning framework discovered a potential therapeutic agent targeting COVID-19</t>
+  </si>
+  <si>
+    <t>73c8af41cfdbf52c0dfba37727e3b94cb56b495e</t>
+  </si>
+  <si>
+    <t>5307fbd7cbc9b0b7e87ec4d1a8b99e544d81446f</t>
+  </si>
+  <si>
+    <t>e9b4fbbcdb0a2c1e798d159dfa699bbb02bba9f7</t>
+  </si>
+  <si>
+    <t>b40159b406d4be046f9e60d3ed65d94ea46879fb</t>
+  </si>
+  <si>
+    <t>faf3ed3d6fc359c1f310e32061e5ed414fee7017</t>
+  </si>
+  <si>
+    <t>5cb5e6a2d2fb1eb4ab85598211846a7061b24e92</t>
+  </si>
+  <si>
+    <t>c91b581d38243c502118d93fc6f71ee02ec395e4</t>
+  </si>
+  <si>
+    <t>882219fd09765ece5b362415882397e78972373e</t>
+  </si>
+  <si>
+    <t>d070dc3ef2125fd891f3e023598831e23a145880</t>
+  </si>
+  <si>
+    <t>ce5f0965088e41390e671d3d16d65ccd777efa21</t>
+  </si>
+  <si>
+    <t>Bishajit Sarkar,  Asad Ullah, Fatema Tuz Johora, Masuma Afrin Taniya, Yusha Araf</t>
+  </si>
+  <si>
+    <t>Hussin A Rothan, Siddappa N Byrareddy</t>
+  </si>
+  <si>
+    <t>Bin Tang, Sijia Li, Yuwan Xiong, Ming Tian, Jianbin Yu, Lixia Xu, Li Zhang, Zhuo Li, Jianchao Ma, Feng Wen, Zhonglin Feng, Xinling Liang, Wei Shi, Shuangxin Liu, Tang B Li, S Xiong, Y , Tian M , Yu J , Xu L , Zhang L , Li Z , Ma J , Wen F , Feng Z Liang, X , Shi W , Liu S Coronavirus, ; Lixia Xu, ; Li, Zhang , ; Feng, Wen , ; Xinling Liang, Joint First Authors： ： ： ：bin Tang,  Xiong</t>
+  </si>
+  <si>
+    <t>Luke Dray, / Stringer, / Getty, Images Comment</t>
+  </si>
+  <si>
+    <t>Yonghong Xiao, Mili Estee Torok</t>
+  </si>
+  <si>
+    <t>Catrin Sohrabi, Zaid Alsafi, Niamh O&amp;apos;neill, Mehdi Khan, Ahmed Kerwan, Ahmed Al-Jabir, Christos Iosifidis, Riaz Agha</t>
+  </si>
+  <si>
+    <t>Luca Ferretti, Chris Wymant, Michelle Kendall, Lele Zhao, Anel Nurtay, David Bonsall, Christophe Fraser</t>
+  </si>
+  <si>
+    <t>Yiyue Ge, Tingzhong Tian, Suling Huang, Fangping Wan, Jingxin Li, Shuya Li, Hui Yang, Hong Lixiang, Nian Wu, Enming Yuan, Lili Cheng, Yipin Lei, Hantao Shu, Xiaolong Feng, Ziyuan Jiang, Ying Chi, Xiling Guo, Lunbiao Cui, Liang Xiao, Zeng Li, Chunhao Yang, Zehong Miao, Haidong Tang, Ligong Chen, Hainian Zeng, Dan Zhao, Fengcai Zhu, Xiaokun Shen, Jianyang Zeng</t>
+  </si>
+  <si>
+    <t>Fang Li, Zhi Chun Feng, Yuan Shi</t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-n New tools are available to aid vaccine manufacturers in meeting challenges for new vaccine development , Many technologies that are already available continue to be improved, including adjuvants and novel vaccine delivery platforms , New methods are yet to be fully exploited, including reverse engineering (going from pathogen gene sequences to immunogenic epitopes), screening of peptide libraries, and methods to increase antigen purity, cross-protection and thermostability n Persistent, highly variable and/or novel pathogens, and complex (eg polymicrobial) infections present challenges to vaccine designers. Targets include new prophylactic vaccines that prevent the emergence of disease and new therapeutic vaccines which augment or redirect the existing immune response to control persistent infections, malignancies, autoimmune diseases and addiction n State-of-the-art technology combined with a more comprehensive understanding of disease aetiology, pathogen biology and host immunity will assist future vaccine developments to combat elusive pathogens and protect populations with special needs Ó 2011 Elsevier B.V.
+Wuhan Novel Coronavirus disease outbreak has become a global outbreak which has raised the concern of scientific community to design and discover a definitive cure against this deadly virus which has caused deaths of numerous infected people upon infection and spreading.To date, no antiviral therapy or vaccine is available which can effectively combat the infection caused by this virus. This study was conducted to design possible epitope-based subunit vaccines against the SARS-CoV-2 virus using the approaches of reverse vaccinology and immunoinformatics. Upon continual computational experimentation three possible vaccine constructs were designed and one vaccine construct was selected as the best vaccine based on molecular docking study which is supposed to effectively act against SARS-CoV-2. Later, molecular dynamics simulation and in silico codon adaptation experiments were carried out in order to check biological stability and find effective mass production strategy of the selected vaccine. Hopefully, this study will contribute to uphold the present efforts of the researches to secure a definitive treatment against this lethal virus.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Emergency Medical Countermeasures Enterprise (PHEMCE) has made great strides in strategic preparedness and response capabilities. There have been numerous advances in planning, biothreat countermeasure development, licensure, manufacturing, stockpiling and deployment. Increased biodefense surveillance capability has dramatically improved, while new tools and increased awareness have fostered rapid identification of new potential public health pathogens. Unfortunately, structural delays in vaccine design, development, manufacture, clinical testing and licensure processes remain significant obstacles to an effective national biodefense rapid response capability. This is particularly true for the very real threat of "novel pathogens" such as the avian-origin influenzas H7N9 and H5N1, and new coronaviruses such as hCoV-EMC. Conventional approaches to vaccine development, production, clinical testing and licensure are incompatible with the prompt deployment needed for an effective public health response. An alternative approach, proposed here, is to apply computational vaccine design tools and rapid production technologies that now make it possible to engineer vaccines for novel emerging pathogen and WMD biowarfare agent countermeasures in record time. These new tools have the potential to significantly reduce the time needed to design string-of-epitope vaccines for previously unknown
+Coronavirus disease 2019 (COVID-19) is a highly infective disease caused by the severe acute respiratory syndrome coronavirus 2 virus (SARS-CoV-2). Previous studies on COVID-19 pneumonia outbreak were based on information from the general population.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Vaccines have had a considerable impact on society by eliminating the threat from several infectious diseases. Although vaccines have generally proven to be safe, safety issues have arisen that have resulted in some members of the public having a poor perception of vaccines. However, the technological advances made in recent years make the development of even safer vaccines a possibility. The new generation of vaccines will be based on pure recombinant proteins, conjugates and killed viruses. In addition, studies can be conducted in large numbers of individuals to allay unjustified fears of vaccine safety. These data will increase public confidence and ensure that vaccines become better appreciated as valuable products. Widespread confidence will be inspired by the effective communication of the realities of the benefit-to-risk ratios for each vaccine.
+Comment 2 www.thelancet.com/infection Published online March 5, 2020 https://doi.org/10.1016/S1473-3099(20)30152-3crucial uncertainties such as clinical severity, extent of transmission and infection, and treatment options, and accelerate the development of diagnostics, therapeutics, and vaccines. We also need to minimise social disruption and economic impact through international, collaborative and multisectoral approaches. Most importantly, we need to communicate the epidemiology and risks of COVID-19 clearly, both to health-care workers and to the general population, and to implement infection prevention and control measures that are based on sound scientific principles.We declare no competing interests.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-The use of vaccines is saving millions of lives every year across the globe, but a number of important diseases such as HIV/AIDS, malaria, TB and hepatitis C continue to frustrate attempts to produce effective vaccines against them. Confronting these challenges will require new approaches and increased research efforts by the scientific community. The Sixth Framework Programme (FP6; 2002 -2006 of the European Commission (EC) has been an important catalyst in this direction by allocating a financial contribution of more than EUR 210 million to a wide variety of vaccine research activities, ranging from basic vaccinology, translational research to clinical application of vaccines. Taken together, around 581 research groups from 52 countries are participating in the vaccine activities of FP6. This impressive number signals a new spirit of collaborative research, which will facilitate the exploitation of the immense possibilities in modern vaccinology.
+Mobile phone apps implementing algorithmic contact tracing can speed up the process of tracing newly diagnosed individuals, spreading information instantaneously back through a past contact network to inform them that they are at risk of being infected, and thus allow them to take appropriate social distancing and testing measures. The aim of non-pharmaceutical infection prevention is to move a population towards herd protection, a state where a population maintains R 0 &lt;1, thus making it impossible for a pathogen to cause an epidemic. Here, we address epidemiological issues that affect the feasibility of an algorithmic approach to instantaneous contact tracing; ethical and implementation issues are addressed separately. First we quantify the parameters of COVID-19 in a framework that is consistent with the renewal equation formulation of epidemic spread. Second, we use an analytical solution to application of first-degree contact tracing in the renewal equation model to explore combinations of efficacy that can induce herd protection (R 0 &lt;1). With the emergence of the novel viral pathogen SARS-CoV-2, of clear potential for a global pandemic with high fatality rates and incapacitated health systems, the question of prevention has critical priority. We come to the conclusion that isolating symptomatic cases and tracing their contacts in a classical manner is not sufficiently fast to stop the spread of the epidemic and needs to be accompanied by measures of social distancing that are disruptive to a wide number of people. We show that first-degree instantaneous contact tracing, informing users when they can move safely or when to seek medical help and avoid vulnerable individuals, has the potential to stop the spread of the epidemic if used by a sufficiently large number of people with reasonable fidelity. All rights reserved. No reuse allowed without permission. author/funder, who has granted medRxiv a license to display the preprint in perpetuity.
 </t>
   </si>
   <si>
-    <t>['Executive summary\n\nEssential medicines satisfy the priority health-care needs of the population.', 'Essential medicines policies are crucial to promoting health and achieving sustainable development.', 'Sustainable Development Goal 3.8 specifi cally mentions the importance of "access to safe, eff ective, quality and aff ordable essential medicines and vaccines for all" as a central component of Universal Health Coverage (UHC), and Sustainable Development Goal 3.b emphasises the need to develop medicines to address persistent treatment gaps.The recognition of the importance of essential medicines is not new.', 'At the 1985 Nairobi Conference on the Rational Use of Drugs, government re presentatives and other stakeholders proposed a comprehensive set of essential medicines policies.', "30 years later, The Lancet's Commission on Essential Medicines Policies convened to explore these questions: what progress has been achieved?", 'Which lessons have been learned to inform future approaches?', 'And how can essential medicines policies be harnessed to promote UHC and contribute to the global sustainable develop ment agenda?', 'This report addresses these questions, with the intent to reposition essential medicines policies on the global development agenda.The Commission identifi ed fi ve areas that are crucial to essential medicines policies: paying for a basket of essential medicines, making essential medicines aff ordable, assuring the quality and safety of medicines, promoting quality use of medicines, and developing missing essential medicines.', 'The Commission located essential medicines policies within the context of current global debates about balancing trade and intellectual property policies with human rights, assuring health security, strengthening people-centred health systems, and advancing access to essential technologies.', 'For each policy area, the Commission made actionable recommendations, thereby reaffi rming essential medicines policies as a central pillar of the global health and development agenda.', 'Paying for a basket of essential medicines to promote sustainable access for all\n\nGlobally, a quarter of all health expenditure is on medicines.', 'In many countries, the main source of fi nancing for medicines is direct payment by the individual and households-this source is both highly inequitable and ineffi cient, and its reduction is a key target for UHC.', 'Furthermore, the Commission found that the available data on pharmaceutical expenditure in many countries lack suffi cient detail on the types of medicines procured or sold, public and private sector spending, and the degree of access by key population subgroups.For this report, the Commission developed a new model-based global estimate of the total fi nancing that would be needed to achieve universal access to a basic package of essential medicines in low-income and middle-income countries (LMICs).', 'A costing model was developed on the basis of disease prevalence, current or projected consumption of medicines, and international reference prices.', 'Using two consumption scenarios, the Commission estimated that between US$77·4 and $151·9 billion (or $13 to $25 per capita) is required to fi nance a basic package of 201 essential medicines (378 dosage forms) in all LMICs.', 'Thus, the Commission confi rmed that many people worldwide do not have access to even a limited basket of essential medicines.', "Countries should adapt the Commission's model to their national contexts to create a locally relevant estimate as a benchmark for measuring performance on essential medicines.", "The Commission's recom men dations on fi nancing of essential medicines are: • Governments and national health systems must provide adequate fi nancing to ensure inclusion of essential medicines in the benefi t packages provided by the public sector and all health insurance schemes.", '• Governments and national health systems must implement policies that reduce the amount of out-ofpocket spending on medicines.', '• The international community must fulfi l its human rights obligations to support governments of LICs in fi nancing a basic package of essential medicines for all, if they are unable to do so domestically.', '• Governments and national health systems must invest in the capacity to accurately track expenditure on medicines, especially essential medicines, in both the public and private sectors, disaggregated between prepaid and out-of-pocket expenditure, and among important key populations.', 'Making essential medicines aff ordable is necessary to achieve equity in access\n\nThe aff ordability of essential medicines is a core challenge for any health system working to achieve UHC, and therefore features prominently on the global agenda.', 'The complexity of the problem of aff ordability illustrates the urgent need for comprehensive policy solutions; no single policy alone can solve this problem.The lack of medicines pricing information makes it diffi cult for consumers-both individuals and health systems-to make informed decisions about purchasing medicines.', 'Scarcity of data also impedes assessments of whether individuals and households face fi nancial barriers when making out-of-pocket payments for medicines, and creates a barrier to cross-national comparisons that could inform the setting of benchmarks and the establishment of appropriate and eff ective pricing policies.Medicines benefi t packages guide procurement and reimbursement for aff ordable essential medicines.', 'Compiling these packages necessitates building capacity at national level to translate fi ndings from evidence (including health technology assessments) to local contexts, and to use the fi ndings as inputs in decision making (including when to intervene to infl uence pricing).', "Governments and other purchasers of medicines can expand their transparent sharing of information to increase effi ciency and avoid duplication of eff orts.The Commission's recommendations on making essential medicines aff ordable are: • Governments and health systems must create and maintain information systems for routine monitoring of data on the aff ordability of essential medicines, as well as price and availability, in the public and private sectors.", '• Governments must implement a comprehensive set of policies to achieve aff ordable prices for essential medicines.', '• Governments and health systems must develop national capacity to create medicines benefi t packages that guide procurement and reimbursement for aff ordable essential medicines.', '• Governments, national health systems, and the pharmaceutical industry must promote transparency by sharing health and medicines information.', 'Assuring the quality and safety of medicines is needed to prevent harm to patients\n\nDespite impressive progress, serious problems with medicine quality and safety remain, particularly in LMICs.', 'Quality and safety of medicines are compromised when manufacturers, whether by accident or intent, produce substandard products, and when the supply chain allows unsafe, and sometimes dishonest, practices during transport and delivery.', 'Global and national regulatory structures therefore require considerable and urgent reform to assure the quality and safety of medicines.', "These trends can now be leveraged to ensure continued progress for the full array of essential medicines for all countries.The Commission's recommendations on assuring the quality and safety of essential medicines are: • Global eff orts must be made to promote the harmonisation of quality assurance eff orts through the use of an international standard regulatory dossier that covers both format and content.", '• WHO should evolve the WHO/UN Prequalifi cation Programme to maintain a moving focus on new essential medicines.', '• Regulatory agencies must encourage the involvement of other stakeholders and the general public in promoting the quality and safety of essential medicines.', '• WHO and national governments must establish concrete targets and a public accountability mechanism for the performance of national regulatory authorities.Problems of inappropriate use do not arise from a single root cause-thus, addressing them requires complex and coordinated interventions.', "The Com mission's recommendations focus on strategies that enable collaboration among patients, health-care providers, insurers, supply chain managers, and others (including the pharmaceutical industry), to incentivise and support quality medicines use.", "The benefi ts of these eff orts will include improving clinical, public health, economic, and ethical outcomes.The Commission's recommendations on improving the use of essential medicines are: • Governments and the main public or private payers should establish independent pharmaceutical analytics units (or equivalent) to focus on generating infor mation for action to promote quality use, in conjunction with other objectives.", '• Pharmaceutical analytics units must collaborate with multiple stakeholders in all relevant systems to increase their engagement in and accountability for quality use of medicines, and to intervene jointly on medicines use problems.', '• Engaged stakeholder groups, led by data produced by the pharmaceutical analytics unit, should identify and prioritise local medicines use problems, identify contributing factors across the system, and develop and implement sustainable, long-term, multi-faceted interventions.A global research and development (R&amp;D) policy framework is needed to develop missing essential medicines and make them accessible to allThe present system for developing medicines is in crisis, largely failing to produce much needed products that address the health needs of millions of people worldwide.', 'The prices of new essential medicines that are developed are sometimes so high that even high-income countries face fi nancing problems.', 'Pharmaceutical companies and their shareholders are typically reluctant to invest in marketing medicines for patient populations that do not represent a profi table market.', 'A new global policy framework is needed to drastically adapt the current model and to reduce its reliance on market exclusivity as the main driver of innovation.', 'Governments need to defi ne a list of missing essential medicines to be provided under UHC schemes, and governments, non-governmental organisations, and the industry need to make the necessary R&amp;D fi nancing mechanisms available for these identifi ed needs.', 'The price of new essential medicines can then be delinked from development costs and the products can be made widely available and aff ordable through non-exclusive licensing agreements.', "The resultant decrease in price can provide the fi nancial space to more directly fi nance the identifi ed priority R&amp;D.The Commission's recommendations on developing missing essential medicines are: • Governments and WHO must take international public leadership for priority setting for essential R&amp;D, with due regard for the public health needs of LMICs.", '• Governments must lead the process towards a global research and development policy framework and agreements, which include new fi nancing mechanisms to ensure that missing essential medicines are developed and made aff ordable.', '• The international community must create a general Essential Medicines Patent Pool.', '• Governments and national stakeholders must develop and implement comprehensive national action plans to guarantee equitable access to new essential medicines.', "Measuring progress holds all stakeholders accountable\n\nThe Commission's recommendations represent a compilation of proven and promising practices to improve national policies to assure access to quality-assured, aff ordable essential medicines and their quality use as a central component of UHC.", 'Thus, the Commission proposes a set of 24 core indicators to measure progress in the implementation of comprehensive essential medicines policies.', 'Together, the proposed indicators can track the progress of countries and the global community in their eff orts to advance in the fi ve priority areas for essential medicines policies (fi nancing, aff ordability, quality and safety, use, and development of new medicines).', 'National leadership, and promoting national ownership of results, should be a priority and\n\nIntroduction\n\nEssential medicines are central to promoting health and ensuring sustainable development.', 'The Sustainable Development Goals (SDGs) adopted in September, 2015, by the member states of the UN recognise that equitable access to aff ordable, quality-assured essential medicines is a crucial step in achieving these key development targets (panel 1).', '2 SDG 3.8 specifi cally mentions the importance of "access to safe, eff ective, quality and aff ordable essential medicines and vaccines for all."', 'Throughout this report, the phrase access to essential medicines denotes a broad defi nition, also used in SDG 3.8, which encompasses the quality, safety, and effi cacy of medicines and vaccines, as well as their availability, aff ordability, and appropriate use.Assuring access to essential medicines is crucial for moving towards UHC.', 'This report presents the fi ndings of the Lancet Commission on Essential Medicines Policies, which examined fi ve core challenges that every country must address to secure access to essential medicines.Financing encompasses how funds are raised (by whom and from whom) and how resources are allocated.', 'Health fi nancing is provided by governments (from fi scal revenues), prepaid insurance plans (in the form of employer and employee contributions, or as subscriptions), and as out-of-pocket expenditure by patients and their families at the point of care (either as user fees to pay for services or to cover purchases such as medicines).', 'Donations are also used to fi nance medicines and other commodities, but represent short-term strategies to address resource gaps locally and are typically used as temporary support in emergencies or in low-resource settings.A central aspiration of UHC is to protect households from catastrophic health expenditures.', '98 UHC aims to provide fi nancial risk protection by increasing prepaid coverage, whether from the fi scus or from health insurance funds, thus decreasing reliance on out-ofpocket expenditure.', '103 The extent to which prepaid benefi ts include pharmaceutical expenditure is a crucial measure of the adequacy of the benefi t package off ered under UHC.', '15 Likewise, the extent to which a health system delivers suffi cient quantities of essential medicines is determined largely by its fi nancing capacity, implementation capacity, and system effi ciency.Disease-specifi c demand forecasts have been developed to solicit funding for priority areas such as HIV, 104 tuberculosis, 105 and malaria.', '106 However, evidence-based estimates of how much it would cost to pay for the basket of all essential medicines needed in LMICs are missing, making it diffi cult to assess the use of resources and eff ectively advocate for adequate funds.This section presents the fi rst estimate of the total cost of providing a basket of essential medicines for primary and secondary level care to the entire populations of LMICs.', 'The estimates are contextualised by providing an overview of pharmaceutical expenditures by households, governments, and donors at country level.', 'Finally, actionable recom mendations are made to ensure adequate fi nancing of the basket of essential medicines in all countries.Other topics related to fi nancing essential medicines are discussed in other sections, namely pricing and aff ordability to payers (section 2), payment of providers to improve the use of essential medicines (section 4), and fi nancing for R&amp;D of medicines (section 5).', 'Strategies that countries can use to raise funds to fi nance the basket of essential medicines are beyond the scope of this report, but are described elsewhere.', '103The aff ordability of essential medicines is a core challenge for any health system working to achieve UHC.', '126 An appropriate benefi t package, including carefully selected essential medicines, is a key component of UHC.', '127 The aff ordability of essential medicines is one of the most pressing problems facing health systems, and requires comprehensive policy solutions that promote equity and maintain fi nancial sustainability.', 'In this section, the Commission argues for concerted eff orts, across a range of policy interventions, to ensure the aff ordability of essential medicines.', 'Multiple strategies and policiesincluding pricing policies, pooled funding, leveraging buying power, managing intellectual property for singlesource medicines, and careful selection of the medicine benefi t package-are needed to address the aff ordability of both single-source and multi-source medicines.Medicines are complex products with powerful eff ects, which can be enormously helpful or disastrously harmful.', 'Likewise, medicine safety is complex, covering three dimensions: molecule-based (linked to the active ingredient), product-based (linked to the quality of the product), and use-based (linked to the prescription-eg, right dosage for right disease).', "A medicine's quality and safety cannot reliably be assessed by a consumer; even professionals need specialised training, equipment, and information.", 'Governments, therefore, have a positive obligation to protect the health of the public by assuring the quality and safety of medicines 60 through the regulation of R&amp;D, manufacture, marketing, distribution, and use.', 'This multipronged process becomes even more challenging for biological medicines with complex structures and manufacturing processes, including biosimilars.Poor-quality medicines (also referred to as substandard, spurious, falsely labelled, falsifi ed, and counterfeit; panel 8) can cause serious, even fatal, harm to patients.', 'Money spent on poor-quality medicines is wasted, at the least; often, additional costs are incurred to counteract harm.', 'At the population level, poor-quality medicines reduce health outcomes and endanger public health, for example, by contributing to the development of antimicrobial resistance and loss of public trust in the health system.The Commission believes that achieving sustainable development requires concerted eff orts to improve the quality and safety of essential medicines, through building appropriate regulatory systems as part of health systems.', 'New concepts and approaches have emerged in recent decades.', '223, 224 This section identifi es fi ve crucial areas of opportunity for improving the quality and safety of essential medicines: regulatory harmonisation, pre qualifi cation, improved procurement, enhanced surveillance, and accountability.The present system of developing new medicines is in crisis, as it largely fails to produce much-needed products to address the health needs of millions of people.', '352 When new essential medicines are developed, market exclusivity, through patents or other mechanisms, allows for pricing that potentially makes them unaff ordable, even in HICs.', '353, 354 In many cases missing essential medicines are not even developed at all.', 'Even though the early stages of R&amp;D of medicines has large public investment, the process of taking them to market is largely carried out by for-profi t companies.', 'Pharmaceutical companies and their shareholders are typically reluctant to invest in developing medicines for patient populations that do not represent a profi table market or for diseases predominantly aff ecting LMICs.', '355 The problems of high prices (section 2) and missing essential medicines are related, and both dis proportionately aff ect people in LMICs.', 'This section presents a summary of the complex and political problems ingrained in the current patent-based innovation \n\nFive core challenges for essential medicines policies\n\nAdequate fi nancing to pay for an appropriate set of essential medicines is the fi rst key challenge.', 'Medicines represent a large proportion of household expenditure on health in low-income and middle-income countries (LMICs).', '3 According to the World Health Survey, up to 9·5% of the total expenditure of poorer households in LMICs is spent on medicines, far higher than the 3·5% expended by poorer households in highincome countries (HICs).', '4 This statistic is particularly true in countries where inadequate public fi nancing of health care results in high out-of-pocket expenditure.', '5 Little evidence exists to indicate how much fi nancing would be required to pay for essential medicines for all.The focus of the second challenge is aff ordability of essential medicines, as determined by comparing the price of the product to the amount the buyer can aff ord.', 'High prices for medicines are often associated with the period of monopoly under patent protection.', 'However, even lower-priced medicines can become unaff ordable to most households in low-income countries (LICs).', '6 Aff ordability becomes a particularly serious problem when medicines are needed for chronic conditions, including non-communicable diseases (NCDs).', "Aff ordability of medicines has become a key issue for governments, as well as public and private payers for health care, regardless of a country's income level.", 'European countries aff ected by the global fi nancial crisis have reported restricted access to essential medicines.', '7 In the USA, state-funded health-care institutions that are responsible for prisoners have been sued over the poor access to new high-priced essential medicines for hepatitis C. 8 The third key challenge is assuring the quality and safety of essential medicines.', 'Poor-quality medicines seriously undermine the eff ectiveness of health care, as well as public confi dence in the health system.', 'Many incidents of harm from sub-standard and falsifi ed medicines have been recorded.', '9, 10 For example, poorquality antimalarial medicines are responsible for an estimated 122 000 deaths per year in children under 5 years in 39 sub-Saharan African countries.', '13 Medicines cannot have a positive impact on health unless they are used appropriately.', 'Nominal health coverage of a population is not suffi cient to ensure quality use of medicines.', 'Multiple factors contribute to the problems of overuse, underuse, incorrect use, and unnecessary\n\nPanel 2: New essential medicines to treat hepatitis C virus infection\n\nThe marketing of new treatments for hepatitis C virus infection in the past 5 years and the current global debate on equitable access to such treatment have placed eff ective policies for essential medicines at the centre stage of global health.', 'Details of the case succinctly illustrate each of the fi ve key challenges of essential medicines policies presented in this report: paying for essential medicines, making treatment aff ordable, assuring quality and safety, promoting quality use, and developing new essential medicines.', '18 The newly developed medicines, known as directacting antiviral medicines (DAAs), have dramatically improved the effi cacy and safety of hepatitis C treatment, off ering substantial improvements in quality of life and longevity.', 'WHO has developed a global strategy for the treatment and elimination of viral hepatitis, 19 and added four DAAs-daclatasvir, dasabuvir, simeprevir, and sofosbuvir-to the WHO Model List of Essential Medicines in 2015.', '21 National governments and other health-care payers worldwide are now working to scale up access to these medicines to all people living with hepatitis C virus infection.', 'Paying for DAAs\n\nThe most prominent question being debated is how to pay for DAAs, which are extremely costly.', '22 For example, it has been estimated that treating all eligible patients in the USA with DAAs would require an additional US$65 billion over the course of 5 years.', '23 Some US insurance plans off er treatment, but many restrict access to particular subsets of patients with hepatitis C virus infection (based on, for example, severity of illness or likelihood of benefi ting from treatment).', 'The high price of sofosbuvir (with a list price of about $84 000 for a full course of treatment) prompted an investigation by the US Senate Committee on Finance; it revealed that even though Medicare spent more than $1 billion on the medicine in 2014, less than 2·4% of patients with hepatitis C virus infection enrolled in Medicare had received treatment.', 'For example, in 2015, sofosbuvir was licensed in Malaysia where hepatitis C virus infection prevalence is estimated at 2·5% of people aged 15-64 years, mostly among men.', '29 The medicine is sold in India for $500, 29 and after Egypt introduced local production of the medicine, the price there dropped to about $330.', "Prices are expected to fall for the production of sofosbuvir, ledipasvir/sofosbuvir combination tablet, and the recently registered tablet sofosbuvir/velpatasvir for sale in 101 low-income and middle-income countries, following Gilead Sciences Inc's signing of voluntary licence agreements with 11 Indian generics companies in 2014.", '31 The Medicines Patent Pool also off ers a licence for daclatasvir for sale in 112 low-income and middle-income countries.', "Lack of access to treatment attracts criminal entities that exploit people's health needs.", "35 Falsifi ed medicines endanger patients' health and undermine trust in legitimate medicines manufacturers.", 'The best way to counter the supply of falsifi ed and substandard medicines is to ensure the availability of aff ordable, quality-assured essential medicines.', 'Promoting quality use of DAAs\n\nSubstantial risks can also result from inappropriate use of DAAs, leading to operational challenges in expanding access to DAA.', 'Inappropriate use of DAAs leads to unnecessary costs; furthermore, the high prices of DAAs might lead to partial courses of treatment or other forms of underuse as patients try to cut expenses.', '(Continues on next page) consumption of expensive medicines.', '15 Finally, certain essential medicines are missing, as noted in SDG 3.b.', 'Patent-driven research and development (R&amp;D) models have not developed many missing essential medicines.', 'Beyond neglected diseases, R&amp;D of new medicines has not been aligned with the existing and emergent burden of disease around the world.', '17 These fi ve core challenges for essential medicines policies are not new.', 'National and global economic and political interests have strongly infl uenced the development and implementation of essential medicines policies, which have implications for public health, economic development, and trade.', 'As a result, essential medicines policies are often highly contested, at both national and global levels.Simultaneously, although these polices aff ect the prevention and treatment of many diseases, essential medicines are rarely presented at the centre of the global health agenda.', 'Instead, all too often essential medicines policies are incorrectly regarded as a technical side issue for which answers are known and easily applied.', 'In this report, the Commission argues that essential medicines pose a central challenge to the sustainable development agenda, demanding creative and bold action.', 'As an example, the Commission presents the case of new essential medicines for treating hepatitis C (panel 2).', 'This case illustrates that essential medicines policies are relevant for all countries regardless of income level, and that the fi ve challenges are closely related.This report discusses how eff ective essential medicines policies have been developed and imple mented, and describes approaches to contend with remaining and emerging challenges.', 'This introduction places these arguments in the context of the historical evolution of essential medicines within broader movements for global health, and underscores how crucial essential medicines are to every health system.', 'Subsequent sections delve into each of the fi ve key challenges, analysing achievements from the past three decades, identifying lessons learnt, and making actionable, evidence-informed recommendations on best practices and promising new approaches.Finally, this report proposes a set of indicators for tracking progress on implementation of the recommendations.', 'These indicators provide the scaff olding for building national and global accountability frameworks that can support and propel countries towards eff ective essential medicines policy implementation.', 'years after Nairobi: The Lancet\'s Commission on Essential Medicines Policies\n\nThe term essential medicines is defi ned by WHO as "those that satisfy the priority health care needs of the population".', 'The concept of essential medicines emerged globally in the 1970s as part of the movement for primary health care.', 'WHO published the fi rst Model List of Essential Medicines in 1977, a year before the Alma Ata Conference on Health for All.', '37 The fi rst international conference on essential medicines policies, the Nairobi Conference on the Rational Use of Drugs (panel 3), was held in 1985.', 'It laid the foundation for many subsequent international policies related to essential medicines, including procurement, supply, prescribing and dispensing of medicines, and the regulation of promotional practices.', '30 years after Nairobi, essential medicines has become a widely accepted public policy concept.', "The Lancet's Commission on Essential Medicines Policies was established in July, 2014, to explore the progress achieved, the challenges that remain, and the lessons learnt.", '(Panel 2 continued from previous page)The concept of essential medicines proposed by WHO immediately drew mixed reactions.', 'The Lancet called the selection "desert-island drugs" but recommended applying a similar approach in developed countries.', '42 Consumer activists supported the concept as a way to reduce unbridled promotion of unnecessary and harmful medicines.', "The pharmaceutical industry argued that restricting prescribers' free choice of medicines would lead to a deterioration of health care.", '43 44 The 1984 World Health Assembly (WHA), led by Nordic countries and the Netherlands, asked WHO Director-General Halfdan Mahler to organise a global meeting to discuss the rational use of medicines.', 'The term rational use refl ected the view that medicine-related problems went beyond logistics, but were also driven by uncontrolled pharmaceutical markets.', 'At the opening, Mahler reminded participants that they were invited as experts, not as stakeholder representatives.', 'Conference of Experts on the Rational Use of Drugs\n\nA central theme of the conference was the need to restrict marketing of medicines to those that were essential.', 'The meeting stated that any national medicines policy should ensure that medicines of acceptable quality, safety, and effi cacy were available at aff ordable costs to all who needed them.', 'WHO was charged with disseminating guidelines on the development and implementation of national medicines policies.', 'Much discussion focused on making medicine information more objective and accessible; the conference agreed that governments were responsible for regulating pharmaceutical marketing and advertising.', 'There was sharp disagreement over the universality of rationalisation, and whether it should apply to both the public and private sectors, in the interests of public health.In summing up the conference, Mahler concluded that the experts had invited WHO to take a leadership role without becoming a supranational manipulator of governments, and suggested that WHO establish expert committees to produce guidelines on ethical advertising and developing national medicines policies.', "Neither industry nor consumers could oppose it, since their experts had accepted Mahler's conclusions in Nairobi.", 'Yet the WHA meeting was highly politicised, with an industry exhibition and press centre, and a problem drugs pack issued by Health Action International.', "45 The Revised Drug Strategy has guided WHO's work since, but no further global conference on essential medicines has been held.", "Implementation and the long-term impact of the Nairobi recommendations\n\nFor over two decades after Nairobi, international donors (particularly the Netherlands and the Nordic countries) gave extensive fi nancial and political support to WHO's Action Programme.", '48 WHO strengthened the standard format for exchanging regulatory i</t>
-  </si>
-  <si>
-    <t>['\n\nThe aim of the Dead Sea forum is to establish a base for international conferences, held so far in Israel, to explore the many aspects of (self)healing in health care and medicine.', 'The goals of the conferences are to encourage a better understanding of health and medicine, The self-healing capacities of people play a central role in this approach.', 'There is a new potential to cooperative politically, socially and in the most important areas of health and medicine.', 'Since most conventional methods have failed to prevent and/or treat these health problems, new approaches are required.', 'These approaches will integrate conventional and alternative techniques, inspired by a more compassionate and holistic view of the human being, nature and our planet.', 'The 3rd Dead Sea Conference, provided an overview of wide spectrum of subjects, stressing the importance integrative approaches to prevention and healing of modern diseases.', 'Elliot Dacher (USA) stressed in a historical perspective the results of the traditional objective, reductional, positivistic approach in medicine.', "The negative consequences were corrected by the post-modern approach, emphasizing multidimensional causes of diseases, intentionality, holism and personal empowerment [2] .Christine Page (UK) viewed, as stated in her abstract that 'Illness is often seen as a failure or weakness.", "Yet, many would recognize the experience as a 'wake up' call and as an opportunity for change.", 'By understanding the subtle energies, especially in relation to the chakra system, it is possible to recognize the links between personality and illness, and illness and soul growth there by enhancing the potential of the experience.', 'In her contribution she presented a review of the psychosomatics of several diseases, emphasizing the important spiritual: impulses emotional expression, autonomy in the self-healing capacities of men and women.', 'She concluded the preventive medicine cannot occur until all health care professionals acknowledge the power and the effect of the mind, body and spirit when they function in harmony.', 'In his view health promotion and preventive medicine developed during the last decades.', "He gave a rather optimistic view on a changing world with less pollution, healthy life style, and spiritual inspiration.Nimrod Sheinman (Israel), an experienced psychotherapist for cancer patients presented a lecture on 'Archetypes, metaphors and inner dialogues-guided imagery and the potentiation of health'.", 'He stressed that there is a growing field of clinical and scientific evidence pointing to the efficacy, complexity and power of mind/body medicine.', 'Beyond all the research findings and the medical investigations, the field raises some key concepts and differentiations, with crucial clinical impact and outcome: The integration of these concepts into medical practice needs a unique tlZ%apeutic languageone that would be able to touch and bridge the body and mind, transform biology, experience and quality of existence, and unite the science of medicine with the art of healing.', "It is the premise of this presentation that guided imagery-the language of metaphors, symbols and inner dialogues-perhaps the most subjective of all our clinical tools, is potentially one of the most powerful in tapping the person's true source of being and in initiating a process of both healing and transformation.He presented excellent paintings by cancer patients, illustrating their changes during guided imagery and psychosynthesis inspirited psychotherapy.Stephen Fulder (Israel) reviewed 'The health consequences of competing conventional and alternative definitions of health'.", 'They are relatively invisible concepts implicit in medicine.', 'Conventional medicine has an operational definition of health as lack of obvious pathological symptoms.', 'It can have drastic effects on our experience of illness and health.', 'He described other views on health as a response to the extremely mechanistic view of the human being within modern medicine.', 'For example the perspective of symptoms theory and the salutogenic concepts of Antonovsky reduces the power of the individual human being to protect his health, and gives responsibility to society and its institutions for health problems.', 'Alternative medicine involves a rich and ancient source of experience into the nature of health and human resistance to disease.', "Most alternative therapies i Patient Education and Counseling .30 (1997) 201-208 203 see the individual and his life's journey as the key to health or sickness.", 'The alternative therapies imply an open-ended.tiew of health, stating that it is defined only in relation to the context of that individual at that moment.', 'There is a belief in the natural will to be well, the self-healing powers, which are affirmed and supported.', 'more respect for the integrity and experience of the human being.', 'This can create a real struggle for patients, and nowhere is this better illustrated than in the prevention of chronic diseases.', 'For example a mechanistic orientation to cancer prevention can lead to fitness obsessions and the consumption of vitamins.', "Alternative medicine itself can be mechanistic for example in formula acupuncture or 'quick-fix' chiropractic, and as such unsatisfying to many patients.", "It is very helpful to expose and explore these underlying themes, so that both patients and practitioners learn more deeply the basis of the various ways on offer at present to prevent and treat disease [4] .Roger Newman Turner (UK) presented views on 'Health and healing: developing our potential' Health has been defined as the realization of the capacity for maximum enjoyment of life with or without infirmity.In spite of having greater physical, biochemical, and spiritual resources to enable to attain and maintain health.", 'An examination of the reasons we become unwell suggests it is no longer sufficient to confront the agents or symptoms of disease or even to facilitate the inherent self-healing mechanisms.', 'With so much now capable of overwhelming these it has become essential to examine and develop ways in which the healing response can be potentiated.', 'While the means to enhance healing now exist at the biochemical, physical, and psychological levels perhaps we also need to develop our own potential as healers.', "The ethos of healing should include: respect, responsibility, receptiveness, curiosity, flexibility, culture, insight in the subjective meaning of the illness.Zvi Bentwich (Israel) presented a paper on 'Conventional medicine at a crossroad-meeting the challenge of complementary medicine'.", "He stated that 'Conventional Medicine is now facing a critical stage in its development, with the growing awareness of its shortcomings, despite the tremendous technical and scientific achievements it has gained.", 'And yet, as an indicator for the shortcomings, a growing proportion of the population in all western countries, seek the help of alternative-complemental medicine, in solving various health problems that have not been solved by regular medicine.', 'The continuous growth of the complex and huge medical centers, as best representatives of modern medicine, has not helped to overcome these shortcomings.', 'This phase in the development of conventional medicine should therefore be viewed as a phase of true challenge and possible change of direction.', 'Complementary medicine presents one aspect of this challenge: (1) It presents empirical claims that need to be substantiated by regular clinical investigation.', '(4) It presents concrete examples for a better doctorpatient relationship.', "Conventional medicine should try to integrate as much as possible from complementary approaches including some of the more distant philosophies behind these disciplines'.More specific integrative models were presented by Geraldine Mitton (South Africa) on Food as medicine for body and soul, to restore a state of balance and harmony in the body.", "Guillermo Michel Sinner (Mexico) approach was philosophical:'The wounded body: towards a phenomenology of health and illness'.", "He started from Maurice Merleau-Ponty, viewing illness as a mode of being -in -the -world, emphasizing the existential ground of the 'symbolic function' and structure of illness.The presented theoretical models were one of the most interesting aspects of the conference.", 'and not time enough time to define or re-define the compelling concepts of these integrative approaches.', 'Integrative techniques and workshops\n\nBeside the more theoretical approaches of the integrative models, also integrative techniques and workshops were presented.', 'In the workshops the participants could taste the several therapeutical approaches of the specialists in the field of self-healing techniques.', 'Several of them were wellknown and often already accepted techniques in medicine: reflexiology, massage, meditation, hydrotherapy, biofeedback, and bioenergetics.', 'This may not mean that the empirical evidence does not exist, but that the need for facts is lower in case of preaching for the own community.', 'However, also a feature of traditional medicine.', 'Cancer\n\nCancer is traditionally an illness with several alternative and self-healing approaches [5] .', 'Van der Zouwe estimates that in the Netherlands about 15% of the cancer patients use alternative approaches.', "He changed to a vegetarian 'macrobiotic' diet, selected good mineral water, and most importantly watched the sun rise in the morning: 'It was in front of the morning sun that I made an exciting discovery.", "He concluded that it is the time for modern medicine to recognize the ancient wisdom of human beings to bring about their own recovery from cancer.Another personal journey concerned 'Reality and myths about breast cancer', the story of Galia Sefchovicl (Mexico).", 'How to search in the sea of alternative medicine and approaches?', "Beside these impressive personal stories, also more structural educational and counseling in cancer care were presented.Susan Silberstein (USA) gave a excellent review on 'Non-conventional cancer therapies: criteria for evaluation and rationales for implementation-helping patients decide'.", 'She stated in her abstract that as the failure of radiation and chemotherapy to cure most cancers has become more apparent in recent year, dozens of alternative cancer therapies have commanded increasing attention.', 'However, the complex world of unorthodox modalities can be confusing to patients and practitioners alike.', 'Yet there is a place in oncology for unorthodox approaches as either adjuncts or alternatives to traditional treatment.', "Three different therapeutic avenues in oncology with three distinct goals illustrate the shortcomings of conventional therapies targeting tumor reduction, the ways in which selected adjuvant treatment support host resistance, and the potential for biological repair with use of appropriate alternative modalities.Review of the major unconventional treatment classifications reveals an int~guing parallelism between experimental mainstream therapies-hypertherminas, hormone therapies and immunotherapies-and the best of the 'unproven therapies-clinical nutrition, botanical medicine and psychoneuroimmunology.Criteria for evaluating unorthodox therapies need to be stringent, with the ideal program focusing on the essential distinction between a host-oriented and a tumor-oriented approach.", 'When tumor reduction remains the primary goal, results with alternative therapies have been inconsistent and sometimes not significantly better than with orthodox methods.', "By respecting the common ground which conventional and nonconventional approaches can meet and by seeking an appropriate marriage between the body's own natural healing potential and the best that medical science has to offer, health professionals can play an important role in helping their patients to design individualized intervention plans and to make the most effective therapeutic choices'.A Dutch presentation was about a model for 'Existential counseling in cancer patients' (Visser).", 'Peoples with cancer experience a lot of existential problems.', 'At the Helen Dowling Institute people with cancer may receive psychotherapy based on experiential and existential schools in the counseling tradition.In a retrospective study among clients the counseling has been evaluated.', "The 'presence' of the therapist seems to be the main explaining mechanism to integrate the meaning of living with cancer in the clients and to raise their quality of life.Ton Staps (Netherlands) described the principles of and the experiences with 'Psycho-energetic therapy and the search for meaning'.", 'The therapy helps the patient to find the dynamic balance between the active logical process of giving meaning of being ill and the awareness of being a part of a meaningful whole.More medical approaches in the alternative cancer approaches was the treatment of carcinoma with human placental extract (Harris Coulter, USA).', "Specifically, injection seems to cause B-cells o?e tianzer patients to produce anti-suppressor antibodies which form complexes with the 'blocking factors' protecting the tumor from the action of the host immune system.", "A few cases were presented about the affectivity of this approach in cancer treatment.William Lane (USA) presented his cancer treatment by means of 'Whole shark cartilage, minerals and all, as a therapy with non-responsive cancer'.", '(Generally stage IV case) Has become widely known in alternative medicine.', "The FDA approved protocol including tumor reduction, PSA tumor marker response, quality of life measurements including Karposi's Index, blood work and other criteria.Cancer draw the attention of a lot of alternative and complementary approaches.", 'A life threatening disease urges people look for help in their existential crisis, a area with a lot of proven and speculative approaches.', "Immune approachThe title of the third Dead Sea Conference stressed 'the crisis of the immune system'.", "Nicholas Plotnikoff (USA) presented interesting, however complex, information on 'Methionine enkephalin -a new cytokine with antiviral and antitumor activities'.", 'Antivial activity was demonstrated against Herpes, AIDS, CMV, coronavirus, FluA, and Japanese Encephalitis either alone or in combination with known anti-virals.', "The type of birth experience, natural or with drugs, vaginal or caesarean, will affect the child's central nervous system.", 'There is also a lack of a biological explanation of the results of psychosocial interventions in cancer patients.', 'The studies are based on a stressor-support-coping model, developed in cooperation with researchers at the University of Miami (USA).', 'Conclusion\n\nParticipation in the Third Dead Sea Conference was a stimulating, exciting and sometimes astonishing experience.', 'There was respect for the great variety of ideas and approaches, practicalIy as well as theoretically.Only a few times the presentations raised heavy discussions, like in the discussion on the possible side effects of vaccination and on the limitations and difficulties of immunological approaches.', "The traditional re-search approach was scare, however, there were also good examples of empirical studies, like Carl Stonier's study on the effects of counseling for angina pectoris and myocardial infarction [l] , the presented studies on education and counseling for cancer patients [6] and Kim's presentation on Bee Vernon therapy for painful diseases [7] .", 'There is still a big gap between integrate approaches using the human (self) healing potention and its measurable effects in immune functioning as well as the course of diseases.', 'Due to this gap, there is a strong need for education and counseling on the integrative approaches to prevention and healing in modern diseases.']</t>
-  </si>
-  <si>
-    <t>['PART TEN • Prevention and therapy of immunologic diseases\n\nVaccines Alan R. Shaw,\n\nMark B. Feinberg\n\nVaccines represent one of the most effective and cost-effective medical and public health achievements of all time.', 'In addition to having a major beneficial impact on vaccine-preventable disease morbidity and mortality, the direct and indirect impacts of vaccination programs translate into economic savings of many billions of dollars each year.', '2 Similarly, efforts to eradicate poliomyelitis have made tremendous progress in reducing the global disease burden, and will hopefully soon overcome certain residual societal and programmatic obstacles to provide the second successful example of elimination of a major health threat by vaccination.', 'Concerted global efforts to provide measles vaccine have resulted in the control and elimination of the disease in many countries, including substantial reductions in mortality in a number of developing countries where the residual disease burden is greatest.', 'These and other examples provide clear evidence of the power of vaccines in favorably manipulating host immunity to confer dramatic public health benefits, at both the individual and population level.Vaccines are administered to healthy individuals (often to entire age cohorts or populations), to prevent diseases caused by infectious agents to which they might be exposed in the future.', 'For this reason, vaccines are unique in the way that they impact on societies and in the way that societal commitment to vaccination determines their ultimate impact.', 'Indeed, current limitations in realizing the full global potential of available vaccines relate more to existing inadequacies in health care financing and infrastructure (especially as they are manifest in developing countries), and the relative value that societies place on disease prevention, than they do to any inherent biological limitations of vaccines themselves.', 'Following the initiation of the Expanded Programme on Immunization (EPI) in 1974, global coverage for routine vaccines (such as three doses of the diphtheria-tetanus-pertussis vaccine (DPT3)) has progressively increased, but many children in resource-limited countries still fail to receive all recommended childhood immunizations.', 'Fortunately, recent acceleration of new vaccine introductions in developing countries through public and private initiatives (such as the GAVI Alliance and UNICEF) to build immunization infrastructure and provide funding of vaccine purchase (including novel funding mechanisms for vaccine procurement such as the Advanced Market Commitment (AMC) for pneumococcal conjugate vaccines and the International Financing Facility for Immunization (IFFIm)) offers hope that vaccines will one day be equitably available to all who need them.', 'Achieving this aspiration represents the focus of a recently launched initiative referred to as the Decade of Vaccines Collaboration (http:// www.dovcollaboration.org).The importance of vaccines extends beyond their use as public health tools to include their role as drivers of immunologic discovery.', 'The history of vaccine development is rich with immunologic insights that emerged from careful observations of how diseases spread in populations and how such spread differs in disease-naïve and experienced populations, as well as of how innovative experimental approaches revealed fundamental aspects of immune system function.', 'The general concept of immunity induced by prior exposure to a disease (including its specificity and potential lifelong duration) was appreciated by the ancient Greeks.', 'Use of the word "immunity" in the context of human health dates to the fourteenth century when it was applied to describe the relative susceptibility and resistance of populations to plague.', 'The subsequent successes of Edward Jenner and Louis Pasteur in the development of effective smallpox and fowl cholera immunization strategies, respectively, provided a foundation for modern immunology; Pasteur himself coined the term "vaccine" in recognition of Jenner\'s use of vaccinia virus.', "Jenner's smallpox immunization studies also provided early experimental support for the concept of immune memory.", 'The discovery of bacterial exotoxins by Emile Roux and Alexandre Yersin facilitated the discovery of antibodies and their potential use in passive immunotherapy with antitoxin antibodies by Emil von Behring and Shibasaburo Kitasato.', 'In each of these instances, vaccine development illuminated central mechanisms of immune system biology.Vaccine development today has transitioned from an approach that was once largely empirical to one that is based on the hypothesis-driven application of techniques in molecular biology and immunology.', 'Evidence for this synergy can be seen in recent studies of vaccine-elicited immune responses to illuminate the # 2013 Elsevier Ltd.• 1095 determinants of activation of innate immune responses and how these determine the magnitude and persistence of primary and memory T-and B-cell responses in humans.', 'It also provides a strong discovery stimulus provided by ongoing efforts to develop new vaccines for major infectious diseases for which vaccines are not currently available.Vaccine development today faces a number of significant challenges.', 'There exist tremendous public health needs to address major well-known pandemic diseases, including acquired immunodeficiency syndrome (AIDS), tuberculosis, and malaria, for which no effective vaccines currently exist and for which natural immunity does not provide a helpful guide for vaccine development.', 'Furthermore, there exists a need to confront effectively newly emerging and re-emerging diseases, ranging from the well-known, but constantly changing, threats from influenza pandemics to the appearance of previously unknown zoonotic infections such as the coronavirus that causes severe acute respiratory syndrome (SARS).', 'In confronting prevalent or newly emerging diseases, vaccines are looked to as the most promising line of defense.', 'However, the speed at which new infectious disease threats emerge and spread, and the fact that the pathogens that now need to be confronted may display tremendous genetic variability (e.g., human immunodeficiency virus (HIV)) or an identity that cannot now be predicted in advance (e.g., avian influenza or emerging zoonotic infectious agents like the SARS coronavirus) places unprecedented demands on the vaccine development process.In addition to these new challenges, there remain unmet needs in the derivation of vaccines that can achieve the greatest public health benefit.', 'These needs include the development of new ways to achieve more effective vaccine-elicited immune responses in neonates, whose immune systems are immature (or are impacted by maternal antibodies) (Chapter 32) 3 and in the elderly whose immune system function may be waning as a result of immune senescence (Chapter 33).', 'Fortunately, the scientific foundation provided by basic and applied immunology and the use of new methods for pathogen identification, antigen discovery, vaccine production, adjuvant development, and novel vector derivation afford important opportunities for vaccine development; additionally they present the possibility of improving on natural immunity.', 'Success in vaccine development will be predicated on continuing the historical synergy between advances in vaccine technology and basic immunologic discovery.', 'Toward that end, this chapter focuses on preventive vaccines for infectious diseases and how they are developed.', 'Although current routine vaccine recommendations are reviewed, given the active state of new vaccine introduction and evolving vaccine recommendations, as well as differences in recommendations in different countries, readers are encouraged to refer to up-to-date national resources for the most current information.', 'While vaccine approaches are also being actively explored to treat specific malignant and immunologic diseases (autoimmunity and allergy), these are beyond the scope of the current discussion.', 'Impact of vaccination programs\n\nUnlike other medical interventions, vaccines confer benefits to both individuals and populations.', '4, 5 While individuals can be protected from infection or disease by vaccine-induced immune responses, decreasing the number of susceptible hosts in a population also helps break the chain of transmission that pathogens require to spread and persist in human populations through induction of "herd immunity."', 'The benefits of herd immunity depend on achieving sufficiently high immunization rates in a population to impact pathogen transmission dynamics (including the potential for extinction of ongoing interhost transmission).', 'The requisite level of vaccination coverage of a population needed to compromise pathogen spread significantly varies between pathogens, and is influenced both by vaccine efficacy (and its duration) and by the reproductive characteristics and infectiousness of the pathogen.Analysis of the impact of vaccination programs in the USA provides an example of the beneficial impact of vaccines when used routinely and when high coverage levels are achieved.', '6 Numerous vaccines targeting important infectious diseases have been developed since tetanus toxoid-the first vaccine licensed in the USA-was introduced in 1943.', 'Once these vaccines were introduced into routine vaccination programs in the USA the annual morbidity of many vaccine-preventable diseases dramatically decreased (Table 90 .1).', 'In many instances, the disease burden from several vaccine-preventable diseases of childhood has been reduced by over 99% since vaccine introduction (e.g., diphtheria, tetanus, measles, mumps, rubella, and polio).', 'The somewhat lower rate of decline of pertussis (the annual morbidity of which has been reduced by a nonetheless impressive 86%) relates to the limited duration of vaccine-induced immunity, which is estimated to wane within 5-10 years after childhood vaccination.', 'It is anticipated that recent availability of pertussis booster vaccines for use in adolescents and adults will lead to significant further declines in pertussis morbidity.', 'Even for diseases targeted by vaccines that have been in widespread use for less time, impressive decreases in disease morbidity have been seen (e.g., varicella, hepatitis A, pneumococcal and rotavirus diseases).', 'In a notable recent demonstration of the population benefits of vaccines, introduction of the 7-valent pneumococcal conjugate vaccine (PCV-7) resulted in a decrease of 94% in rates of invasive pneumococcal disease (IPD) in children under 5 years of age within the first 7 years of its introduction, with infections caused by antibiotic-resistant Streptococcus pneumoniae also falling dramatically in this age group.', '7 In a striking related finding illustrating how vaccines can impact pathogen transmission dynamics, IPD rates also decreased significantly in non-vaccinated children, as well as in individuals over the age of 65 who had not received the vaccine.', 'Thus, direct protection by vaccination of children who represent a reservoir of infection provided, via herd immunity, significant indirect benefits to those who did not themselves receive the vaccine.', 'To address this dynamic and provide even broader protection against pneumococcal disease, vaccines of higher valency (10-valent and 13-valent PCVs) have been introduced recently.', 'Evaluation in the USA of the impact of ten vaccines routinely given as part of the childhood immunization schedule (diphtheria, tetanus, pertussis, Haemophilus influenzae b (Hib), polio; measles, mumps, rubella, hepatitis B and varicella) found that more than 20 million cases of disease and more than 42 000 deaths were averted over the lifetime of the immunized birth cohort of children.', 'When the cost of the vaccination program was compared to the economic impact of diseases prevented, these vaccines alone are estimated to save nearly $14 billion each year.', 'When including indirect economic benefits (such as the time parents take off from work to care for sick children), the annual savings to society exceed $69 billion.', '8 Progress in the development of new vaccines accelerated significantly towards the end of the twentieth century, with the development of vaccines against diseases that were not previously preventable by vaccination, but also with the development of improved versions of existing vaccines.', "Thus, the number of diseases that can be prevented by vaccines included in the US Centers for Disease Control and Prevention's (CDC) routine childhood and adolescent immunization schedules grew from 7 in 1985 to 16 by 2007 (Table 90.", '2 and Appendix A5, and see http://www.cdc.gov/vaccines/default.htm).', 'While expanded recommendations for some of these vaccines in children and adolescents have been introduced since 2007 (such as broader use of the quadrivalent meningococcal conjugate vaccine (MCV4), and the recommendation for routine use of the quadrivalent human papilloma virus vaccine (HPV4) in males), the number of targeted diseases remains constant for these age groups as of 2012.', 'Moreover, in the past several years, new vaccines have been introduced for adolescents and young adults (e.g., pertussis booster (Tdap), meningococcal conjugate, and human papillomavirus (HPV) vaccines), and older adults (e.g., Tdap and zoster vaccines) have shown that the value of vaccines extends across the human lifespan.', 'New combination vaccines have been developed to increase the simplicity and acceptability of vaccination regimens, as well as to improve overall compliance with the recommended series of vaccines.', 'Such combinations include either those that contain multiple inactivated or recombinant antigens (such as a combination diphtheria, pertussis, tetanus, Hib, and hepatitis B vaccine) or multiple live attenuated viruses (such as a combination measles, mumps, rubella, and varicella vaccine (MMRV)).', 'The development of a combination vaccine is often more complicated than simply combining individual antigens, for when antigens are administered in combination, immunologic interference is sometimes seen.', 'This necessitates titration of antigen combinations (and in the case of combinations of inactivated and/or recombinant antigens, adjuvant selection) to achieve immune responses that are not inferior to each of the antigens administered individually.Despite their readily demonstrable public health impact, the value of vaccines is often not appreciated, for when vaccine programs are successful the diseases that they cause become less prevalent and may disappear.', 'Even in developed countries, maintenance of strong immunization programs with high degree of coverage is needed where infectious diseases can travel with remarkable speed-and do so even before the extent of spread is evident.', 'Principles of immunization\n\nT h e r a p e u t i c p r i n c i p l e s Special attributes of vaccines ¡ Vaccines benefit both individuals and populations.', '¡ Vaccines represent one of the most effective and costeffective public health innovations of all time.', '¡ To be most effective, vaccines need to be administered to the targeted cohorts of individuals in advance of pathogen exposure.', '¡ With sufficiently high and prolonged immunization coverage, and depending on whether nonhuman reservoirs for pathogen persistence exist, it is possible to eradicate infectious diseases from human populations (as was accomplished with smallpox and is now being pursued for poliovirus).', '¡ For many contemporary global health threats (e.g., human immunodeficiency virus (HIV), tuberculosis, malaria, and pandemic influenza), the development of effective vaccines is considered to represent the most promising strategy for public health protection.', '¡ Unlike drugs that are administered to individuals with (or at risk for) specific diseases, vaccines are commonly administered to healthy individuals.', 'As a result, the riskto-benefit ratio for vaccines requires that vaccines meet especially high standards of safety and tolerability.The terms vaccination and immunization are often used interchangeably.', 'However, vaccination specifically refers to efforts to induce protective immune responses by administration of a vaccine, whereas immunization more generically refers to interventions-either active or passive-that seek to confer immune protection.', 'Active immunization describes the induction of immune responses by administration of a specific antigen or antigens, while passive immunization involves the administration of exogenous immunologically active substances (historically, antibodies present in sera obtained from immune individuals or animals) to confer temporary protection from an infectious pathogen or toxin.', 'Although the approaches for passive immunization waned in the later half of the twentieth century, the advent and increasing robustness of monoclonal antibody technology have led to a resurgence of interest in passive immunization.', 'Vaccines seek to engender immune responses similar to those that confer immunity to re-infection in individuals who experience (and survive) natural infection with a given pathogen.', 'In lieu of formal demonstration of a specific type of antibody or cellular immune response that contributes to prevention or accelerated clearance of an infection, most often vaccine efficacy is demonstrated first in the course of a placebo-controlled trial.', 'In this case, the "correlate of immunity" provides a benchmark against which similar vaccines can be compared.', '9 In the case of most inactivated vaccines, subunit vaccines, and recombinant vaccines that produce antibody responses, but generally limited, if any, CD8 T-cell responses, it is likely that humoral immune responses are the primary or sole protective immune mechanism.', 'In the case of live attenuated vaccines that induce both cellular and humoral immune responses against the pathogen, it is likely that both arms of the immune system act in concert to confer immunity.', 'However, the actual mechanisms of immune protection induced by either a natural infection or a vaccine are generally not understood in detail for many infectious diseases.Similarly, although vaccines depend on the induction of immunologic memory, the magnitude, character, and duration of immune memory differ between vaccines, as can the actual mechanism of immune protection.', 'For certain vaccines, such as those that protect against bacterial diseases induced via production of toxins (e.g., diphtheria or tetanus), protection induced by toxoid-based vaccines is clearly dependent on persistent antibody (IgG) and memory B-cell responses, ensuring that sufficient antitoxin antibodies are present at the time of toxin exposure to inactivate and clear the toxin.', '10 In this instance, given the relatively long incubation period of hepatitis B, memory antiviral B-cell responses induced by the vaccine can be activated, facilitating neutralization and clearance of the infection before clinical disease is manifest.', 'Although it is popularly believed that vaccines confer protection by inducing "sterilizing immunity"-wherein an infectious agent is blocked from even infecting one cell in an exposed host-this is clearly not the case for a number of vaccines.', 'For example, the inactivated poliovirus and live attenuated rotavirus vaccines do not prevent some degree of local replication of their pathogenic counterparts in the gastrointestinal tract of exposed hosts.', 'In the case of poliovirus vaccine, this is mediated by elicitation of antibody responses that block dissemination of the infection to the central nervous system; while in the case of rotavirus, as yet unidentified immune effectors limit local virus replication so that significant gastrointestinal damage does not occur following infection.', '11, 12 With the advent of new tools of systems biology, studies to more definitively illuminate the determinants of the magnitude and duration of vaccine-elicited immune responses (such as those that examine patterns of global gene expression induced after vaccination), as well to reveal novel correlates that predict the later development of protective immune responses, now represent a very active and promising area of research.', '13, 14 In addition to providing new approaches to elucidate the nature of vaccine-mediated immune protection, these new methodologies are already providing windows into a much improved understanding of immune system function in humans and will also hopefully facilitate the development of safe and effective vaccines for diseases (such as for HIV, TB, RSV and others) for which vaccines are not currently available.As described below, the major types of vaccines licensed for use include live attenuated organisms, killed or inactivated organisms, subunit vaccines consisting of purified (or partially purified) components of an organism, and subunit vaccines produced by recombinant DNA technologies.', 'Live attenuated vaccines\n\nThe use of live attenuated vaccines dates back to the early work of Jenner and Pasteur on smallpox and fowl cholera vaccines, respectively.', '15, 16 The fundamental concept of live attenuated • 90 PART TEN • Prevention and therapy of immunologic diseases vaccines is to mimic the effective host immune responses that follow natural infections.', 'Most live attenuated vaccines currently in use were derived by propagation of initially pathogenic organisms in culture on cells from different (nonhuman) species, or at nonphysiologic temperatures, for prolonged periods.', 'Driving pathogen evolution in culture to select for variants adapted to growth in heterologous cell types ex vivo often leads to the derivation of pathogen variants that grow poorly in vivo in humans and are unable to cause clinical symptoms.Vaccines developed via this approach include those used to prevent a number of viral and bacterial infections, including yellow fever, measles, mumps, rubella, polio (the "Sabin vaccine"), varicella-zoster (used both for the prevention of chickenpox and shingles) and rotavirus (one version of the available vaccines), tuberculosis, and cholera.', 'More recent technologies being applied to live attenuated vaccine development include the application of reverse genetic strategies ( Fig.', '90 .1) and those involving genetic reassortment with attenuated viral variants, as have been used to develop polyvalent live attenuated vaccines against influenza and rotavirus ( Fig.', '11, 12 The live attenuated vaccines currently in use are highly efficacious (&gt; 90%) and protection is frequently durable.', 'The efficacy of many live attenuated vaccines likely reflects the ability of the attenuated vaccine to replicate within vaccinated hosts, and to expose the immune system to pathogen-derived antigens in a manner that closely resembles the nature, location, and effects of natural infection.', 'Because live attenuated vaccines replicate within vaccinated individuals, they can induce both cellular (CD4 and CD8) and humoral (B cell) effector responses and immunologic memory.', 'In addition, as the live attenuated vaccines likely activate the host innate system in a manner similar to their pathogenic parents, they provide inherent adjuvant effects in augmenting adaptive immune responses.A key consideration in the development of any live attenuated vaccine relates to the relative balance between the ability to induce sufficient immune responses in vivo to confer protection (often associated with level of preserved replicative ability in vivo), and the ability to cause symptoms (which may also relate to the extent of in vivo replication).', 'As such, an effective but also safe and well-tolerated vaccine needs to strike a specific balance between level of attenuation and level of immunogenicity.', 'In addition, depending on the nature and number of genetic mutations responsible for the attenuated phenotype, a potential risk of reversion to a pathogenic form exists for certain vaccines.', 'For most live attenuated vaccines, this has not been observed to be a problem in clinical practice-likely because the attenuating mutations are sufficiently numerous or genetically stable.', 'One vaccine where reversion to pathogenic form was seen involved specific components of the live attenuated oral poliovirus vaccine (OPV; the "Sabin vaccine").', 'In this instance, vaccine reversion to wild-type was shown to lead rarely to cases of paralytic polio (approximately one case per million doses administered).', '17 Based on these observations and the elimination of endogenous polio transmission in many developed countries, the inactivated polio vaccine (IPV; the "Salk vaccine") was substituted for OPV.', 'Yet, should efforts to eradicate polio continue to advance, new solutions for polio vaccination will need to be developed that do not depend on currently available OPV (which can revert to pathogenic form at low frequency) or IPV (which is produced by inactivation of pathogenic polioviruses strains that will require high levels of biocontainment in a post-eradication environment) vaccines.', 'Killed or inactivated organisms\n\nThe use of physical or chemical methods to kill or otherwise inactivate a pathogenic organism represents a second major approach to vaccine production.', "While this approach has the benefit of presenting most of a pathogen's antigenic repertoire to the immune system of the immunized host, it can only be used in instances where the inactivated pathogen does not possess constituents that would confer significant toxicity.", 'Vaccines based on killed pathogens are believed to exert their protective effects via elicitation of pathogen-neutralizing antibodies and the induction of memory B-cell responses (likely in concert with CD4 T-cell memory).', 'In addition, killed vaccines are generally less immunogenic than live attenuated vaccines.', 'A number of viral and bacterial vaccines currently in use are killed/ inactivated vaccines, including whole-cell Bordetella pertussis vaccine and the influenza virus, rabies virus, and hepatitis A virus vaccines.', 'Purified subunit vaccines\n\nA number of bacteria produce toxins that represent the major pathogenic components responsible for disease in infected humans.', 'Examples include Corynebacterium diphtheriae and Clostridium tetani.', 'Detoxified versions of these toxins are referred to as "toxoids," and represent the purified components of vaccines preventing diphtheria and tetanus, respectively.', 'Toxoids have historically been produced by chemical inactivation of toxins, but more recently, genetic inactivation via targeted mutagenesis has been employed.', 'The acellular pertussis vaccine is also a purified subunit vaccine composed of a defined set of protein constituents prepared from cultured Bordetella pertussis.', 'This approach has recently been employed to generate live attenuated vaccines against rotavirus and influenza virus.', 'The strategy for generation of the pentavalent bovine-human reassortment rotavirus vaccine is shown above.', 'The pentavalent bovine-human rotavirus vaccine was generated by a "modified Jennerian" approach in which the bovine rotavirus WC3 (which is attenuated in humans as a result of host range restriction) serves as the gene donor for the backbone on to which gene segments encoding four common human rotavirus G types (G1-4) as well as one very common P type (P8) (derived from individual rotavirus isolates) were reassorted via a process of cell co-infection and subsequent selection of the recombinant viruses with the desired composition of bovine and human gene segments.', 'An analogous genetic reassortment approach has also been used to generate live attenuated influenza vaccines.', 'In this instance, three attenuated "cold-adapted" viral strains (two A types and one type B) are used in co-infections in tissue culture with recent circulating wild-type influenza strains to derive vaccine strains that include the two relevant hemagglutinin (HA) and neuraminidase (NA)-encoding gene segments admixed with the six "backbone" genes from the attenuated master donor virus for use in annual influenza vaccines.• 90 PART TEN • Prevention and therapy of immunologic diseases mechanism of immune protection conferred by purified subunit vaccines is the antibody response elicited by vaccination.', 'Antibodies directed against the capsular polysaccharides present on encapsulated bacteria also confer protective immunity in a number of important instances by inducing antibodies that exert opsonophagocytic effects (promoting phagocytosis of antibody-coated bacteria) and, in some instances, bactericidal effects.', '20 Initial successful vaccine efforts against Streptococcus pneumoniae and Neisseria meningitidis utilized purified preparations of capsular polysaccharides.', 'As a means of both augmenting antibody responses against polysaccharide antigens in young children and facilitating their persistence, the development of conjugate vaccines represented an important advance.', '21 In this approach, purified polysaccharides are chemically conjugated to a carrier protein (such as diphtheria toxoid or an outer-membrane protein complex (OMPC) derived from N. meningitidis).', 'Polysaccharide-conjugate vaccines have been produced that protect against Haemophilus influenzae b, Streptococcus pneumoniae, and N. meningitidis infections.', 'Recombinant protein subunit vaccines\n\nThe advent of recombinant DNA technologies provided a transformational event in the history of vaccine development.', 'In addition to facilitating the identification and expression of pathogen-derived protective antigens, techniques were developed that enabled their large-scale manufacture as vaccines.', 'Recombinant DNA technologies provided a new path to develop vaccines against pathogens, such as hepatitis B virus (HBV) or HPV, that could not be grown in culture.', 'In addition, recombinant methods provided the potential to derive even safer versions of available vaccines.The first recombinant vaccine developed, the recombinant hepatitis B surface antigen (HBsAg) prepared in yeast, was developed in hopes of avoiding safety concerns related to the plasma-derived HBsAg vaccine.', '22 The knowledge that immune sera could provide protection by passive immunization of naïve hosts, and that purified inactivated plasma-derived HBsAg vaccine could elicit protective antibodies, laid the groundwork for development of this recombinant vaccine.', '23 The recombinant vaccine, when combined with adjuvant (aluminium salts), elicits favorable immune responses, is highly efficacious and is well tolerated-all features that recombinant vaccines are now expected to deliver.', 'The second recombinant vaccine developed targeted prevention of Borrelia burgdorferi infection (the cause of Lyme disease), and was based on a purified recombinant version of the OspA protein.', 'This vaccine, although conferring some degree of efficacy, faced implementation challenges, and was not widely embraced.', 'As a result, it was withdrawn from the market.More recently, recombinant technology-derived purified subunit vaccines have been developed that consist of virus-like particles (VLPs) that self-assemble when the L1 protein of HPV is produced in isolation of other viral proteins ( Fig.', '24 The L1 protein is the target of virus-neutralizing antibodies and vaccines consisting of a mixture of types 16 and 18 (the cause of 70% of cases of cervical cancer) and 6 and 11 (the cause of 90% of cases of genital warts) or of HPV types 16 and 18 alone are highly efficacious and well tolerated.', '25 Interestingly, HPV VLPs induce antibody responses that exceed those that follow natural HPV infections.', '26 In light of these successes, and the power and versatility of recombinant antigen production methods, a major proportion of new vaccine development efforts involves the use of protein subunit vaccines produced by recombinant technologies.', 'Vaccines produced by this method are those that depend largely or exclusively on the induction of antibodies against individual or a selected subset of pathogen proteins.', 'Because a number of proteins produced in isolation by recombinant methods have been Prophylactic HPV Vaccines: L1 Virus-like Particles (VLPs) Bioengineered L1 proteins (5) L1 pentamer Self-assembled virus-like particle In specific instances, VLPs can be produced via a process of self-assembly of individual viral capsid proteins prod</t>
-  </si>
-  <si>
-    <t>['Introduction\n\nThe advances made in vaccine technology since Edward Jenner vaccinated the young James Phipps against smallpox have had a spectacular impact on human health over the last two centuries (see Chapter 1 e Vaccine evolution).', 'Vaccines have been fundamental in the control and elimination of many debilitating and lethal diseases, and more diseases are currently targeted for eradication by vaccination.', 'Recent major breakthroughs in immunology, molecular biology, genomics, proteomics, biochemistry and computing sciences have driven vaccine technology forward, and will continue to do so.Many challenges remain, however, including persistent or latent infections, pathogens with complex life cycles, antigenic drift and shift in pathogens subject to selective pressures, challenging populations and emerging infections.', 'To address these challenges researchers are exploring many avenues: novel adjuvants are being developed that enhance the immune response elicited by a vaccine while maintaining high levels of tolerability; methods of protective antigen identification are iterated with every success; vaccine storage and transport systems are improving (including optimising the cold chain and developing temperature-stable vaccines); and new and potentially more convenient methods of vaccine administration are being pursued.High priority targets include life-threatening diseases, such as malaria, tuberculosis (TB) and human immunodeficiency virus (HIV), as well as problematic infections caused by ubiquitous agents, such as respiratory syncytial virus (RSV), cytomegalovirus (CMV) and Staphylococcus aureus.', 'Non-traditional vaccines are also likely to become available for the management of addiction, and the prevention, treatment and cure of malignancies.This chapter is not meant as a compendium of all new-generation vaccines, but rather as an outline of the modern principles that will likely facilitate the development of future vaccines.', 'As shown in Figure 6 .1, there are several key elements that are likely to be 152 UNDERSTANDING MODERN VACCINES the foundation for the development of future vaccines.', 'This chapter will illustrate these elements and provide examples that show promise.', 'ACHIEVEMENTS OF ADJUVANTS\n\nSince the first use of an adjuvant in a human vaccine over 80 years ago, adjuvant technology has improved significantly with respect to improving vaccine immunogenicity and efficacy.', 'Over The advances in adjuvant design have been driven by parallel advances in vaccine technology as many modern vaccines consist of highly purified antigens e with low non-specific reactogenicity which require combination with adjuvants to enhance the immune response.', 'Future developments in adjuvant technology are expected to provide stronger immune priming, enhance immune responses in specific populations, and lead to antigen sparing.', 'Adjuvants to date have demonstrated an ability \n\nTHE ROLE OF ADJUVANTS IN FUTURE VACCINES\n\nNew adjuvants must aim to drive the immune response that is associated with lifelong protection.', 'New adjuvants and adjuvant combinations will play many roles in future vaccines as illustrated in Figure 6 .2.', 'Adjuvants will need to be individually selected for specific vaccine targets in order to achieve the desired goal (ie enhanced immunogenicity, induction of specific immune profile etc).', 'To deliver this aim, some adjuvants will be mixed with free antigens, while others will need to be covalently linked to the antigenic moiety as part of a complex molecule.Some examples of new adjuvants that have been evaluated in humans or that are in clinical trials are listed in Table 6 .1 (also see Chapter 4 e Vaccine adjuvants).', 'NEW APPROACHES TO ANTIGEN SELECTION AND STABILITY\n\nModern approaches to antigen design tend to eschew classical trial and error techniques in favour of identifying the type of pathogenic structures (ie antigens) that are most likely to be important immunogens based on their structural signature or physical location within the pathogen (Table 6 .2) (see Chapter 3 e Vaccine antigens).', 'NOVEL APPROACHES TO ANTIGEN IDENTIFICATION AND PURIFICATION\n\nThe T or B cell immune responses to an antigen are targeted to precise regions of the antigen (ie epitopes e either linear or three-dimensional conformational structures; in the case of protein antigens these are specific peptide epitopes).', 'Historically, simple, linear, synthetic peptide epitope vaccines have been poorly immunogenic because they lack a specific conformation and are easily degraded by a variety of extracellular and cell-surface proteases that serve to limit epitope presentation to T cells and/or result in destruction of the B-cell epitope.', 'Peptide vaccines need to Union.', 'The information included is not meant to be exhaustive but is intended to provide an overview of the subject matter.', 'Subunit and individual epitope vaccines need to be optimised to ensure adequate immunogenicity.', 'Novel strategies are being developed and exploited in order to identify antigens recognised by T and B cells, thus facilitating a more knowledge-based vaccine design.', "Reverse vaccinology\n\nReverse vaccinology combines knowledge of the pathogen's genome sequence with known protein sequences via computer analysis, to predict protein expression and post-translational modifications and identify likely vaccine candidates (see Chapter 3 e Vaccine antigens; Figure 3 .5).The development of epitope-based vaccines is one example of reverse vaccinology where computer software combines prediction algorithms to suggest sequences similar to those for pathogenic components.", 'Epitope mapping, combined with the creation of more stable poly-epitope vaccines, may lead to the successful translation of this technology into products.', 'Poly-epitope vaccines and MHC restriction\n\nMHC molecules exhibit widely varying binding specificities; a vaccine expressing a single peptide antigen would therefore only target a few MHC molecules and thus only be recognised by the T cells of individuals carrying a specific MHC phenotype.Poly-epitope technology could be used to generate a synthetic protein carrying antigenic epitopes from multiple strains or pathogens.', 'Pathogen libraries\n\nThe screening of pathogen peptide libraries is another example of new approaches to antigen discovery.', 'Where peptide screening uses antibodies, an additional consideration is the synthesis of antigens that contain the tertiary (folding/three-dimensional) structure of the native immunogen, since vaccine efficacy can be impacted by infidelities in the structure of the final product.', "Likewise, DNA expression libraries using the pathogen genomic DNA have been screened using animal model systems to identify genes encoding proteins that afford protection against infection or disease caused by the pathogen.One example is Genocea's vaccine development programmes that are built around a broad platform for the rapid discovery of T-cell antigens.", 'The process is explained in Figure 6 .3.', 'Adverse environmental conditions can result in degradation of the vaccine, rendering it non-immunogenic.', 'In order to maintain product integrity many vaccines (particularly live vaccines) must be stored at cold temperatures ( 4 C).', "The maintenance of the vaccine at this temperature from production site to distribution site, and medical office or clinic, is referred to as the 'cold chain'.", 'Maintaining the cold\n\nVACCINES OF THE FUTURE\n\nchain is much less of a challenge in resource-rich countries, but can be a major barrier to vaccine implementation in resource-limited areas.', 'Ongoing research designed to increase our understanding of vaccine degradation may address the problems associated with cold chain management and lead to the development of thermostable vaccines.The DNA vaccine process can circumvent some of the major issues resulting from recombinant protein administration.', 'The construction and production of the plasmids carrying the gene of interest together with the promoter sequences is relatively simple; antigens expressed from plasmids retain their native conformation, the gene can be readily modified to produce tailored antigens, and bacterial plasmid DNA is intrinsically immunogenic (subsequently shown to result from the pathogen-associated molecular patterns [PAMPs] it carries).', 'Additional desirable features include the ability to engineer and deliver genetic adjuvants in tandem or parallel with the antigen, the potential to deliver multiple antigen genes in one construct or within other constructs that encode adjuvanting protein(s), and the ability to induce both cellular and humoral immune responses.Despite promising data in pre-clinical testing, DNA vaccine candidates have shown only limited success in clinical settings so far.', "One of the current drawbacks of DNA vaccines is the inefficiency of conventional delivery methods for the plasmid DNA; however, Future vaccines may control persistent infections either by preventing the initial infection or disease (ie prophylactic vaccines)Aerosol delivery: 'Mass immunization of almost all susceptible children in a short period of time, has the potential of rapidly eliminating measles as a public health problem.", "Immunization by inhalation of aerosolised measles vaccine provides a procedure that could make such a mass programme possible, especially in parts of the world where measles continues to be a serious problem.'", '(Sabin et al., 1983) .Administering the measles vaccine as an aerosol, either as nebulised vaccine or as An increased understanding of human immunology and of hostepathogen interactions should enable the identification of the type(s) of immunity required to effectively prevent or control persistent infections (see Chapter 2 e Vaccine immunology).', 'Some examples of persistent infections are shown in Table 6 .8.frequently causes a well-characterised spectrum of abnormalities and disabilities, which may be severe or fatal.', 'A successful CMV vaccine has proved elusive for more than 30 years.', 'This is the first evidence that a CMV vaccine can protect against infection.An alternative approach to the development of a CMV vaccine has been to utilise DNA vaccination to induce host responses to CMV gB and phosphoprotein 65 (pp65 is another viral target).', 'Recent studies have shown that injection of combinations of plasmids, formulated with an adjuvant, can induce vaccine-specific immune responses, and can prime for effective memory responses.sensory ganglion neurons.', 'Given the complex natural history of HSV infections, vaccines could have a variety of possible risks and benefits (Table 6 .10).An effective HSV vaccine has been sought for more than 80 years.', 'Recently, an HSV-2 glycoprotein D (gD2) candidate vaccine containing the AS04 adjuvant (see Chapter 4 e Vaccine adjuvants), was tested in three large, double-blind, Phase III controlled trials.', 'The first two studies recruited volunteers with a partner with genital herpes disease and found the candidate vaccine was 73% effective against genital herpes disease in women seronegative for both HSV-1 and HSV-2 (Stanberry et al., 2002) .', "The candidate vaccine was not effective in HSV-1 seropositive women; or in In theory, pathogens are susceptible to selective pressure and an immunological environment that provides strong selective pressures should provide the 'bottleneck' that drives selection.", 'The risk of vaccine-mediated immune selection of pathogens, though certainly present, is difficult to demonstrate.', 'Moreover, peptide vaccines only use the antigenic epitope so the risk of pathogen evolution is theoretically increased.', 'However, this phenomenon has not been regularly observed in experimental studies and may reflect the complex nature of most vaccine antigens and the presence of immune responses against multiple antigens and multiple epitopes within antigens.Serotype replacement, where the distribution of specific microbial serotypes within communities changes after the introduction of vaccines, has occurred for some bacterial pathogens and may be a consequence of the use of capsular vaccines that address only a limited number of serotypes.Similarly, since their introduction in the 1940s, the use of antibiotics has exerted a selective pressure on bacterial strains leading to selection for common resistance alleles (eg the extended-spectrum beta-lactamase [ESBL] resistance of enteric bacteria and beta-lactamase resistance in gonococci).', 'To date, there has been no requirement to remodel a vaccine because of vaccine-mediated immune escape; however, new vaccines against the pneumococcus have been licensed, including additional capsular types, to expand the geographical coverage of most frequent types and, in part, to counter the observed phenomenon of serotype replacement.', 'Annual seasonal influenza infections are subject to natural antigenic drift which requires the reformulation of the vaccine when drifts occur, but there is no evidence that the deployment of the vaccine accelerates this drift.Antigenic shift, while not the result of selective pressure, gives rise to viral strains containing a mixture of the surface antigens from the parent strains.', 'One of several strategies for vaccine prevention of these infections is based on type-specific M protein epitopes.', 'However, group A streptococcal vaccine development faces many obstacles: i) the widespread diversity of circulating M protein types; ii) immunological cross-reactivity between epitopes in the M protein and several human tissues introducing an autoimmune risk; and iii) animal models are of limited value because humans are the only hosts for group A streptococci.', 'In an attempt to partially overcome some of these obstacles, a design strategy akin to that of the pneumococcal polysaccharide vaccines has been employed to generate a group A streptococci multivalent M protein-based vaccine containing type-specific determinants from 26 different M serotypes.', "This multivalent vaccine is currently in clinical development.The 'prime-boost' approachThe term 'prime boost' (or heterologous boosting) describes an approach to vaccination where one type of vaccine, such as a live-vector vaccine, is administered followed by a second type of vaccine, such as a recombinant subunit vaccine.", 'This is in contrast with the traditional method of homologous boosting in which two or more doses of the same vaccine are given successively.', 'The intent of prime-boost vaccination is to induce different types of immune responses and enhance the overall immune response, a result that may not occur if only one type of vaccine were to be given for all doses.', 'This approach has been employed in trials with, for example, TB, CMV, malaria and HIV candidate vaccines.', 'For example, in studies on new TB vaccines, subjects already primed with the live, attenuated BCG vaccine have been boosted with a subunit adjuvanted vaccine (see Tuberculosis).', 'However, substantial progress has been made towards developing veterinary vaccines which encourages investigation of the potential use of similar vaccines in humans to prevent, for example, hydatid disease (arising from infection with Echinococcus granulosus) and cysticercosis (from infection with Taenia solium).Relative to their burden on society, such diseases have a low priority for funding.', 'Continued on next page high immunoglobulin (Ig)G anti-drug antibody levels, which appear to be critical in achieving some degree of efficacy.', 'Candidate vaccines against methamphetamine addiction are also in early development.T reg cells) which limit anti-tumour immunity.', 'The key approach for therapeutic cancer vaccines is resetting the immune response to deliver anti-tumour immunity that alters or destroys cancer cells and hence eliminates or reduces the tumour.', "One strategy uses the patient's own tumour as the immunogen, thereby providing all the potential idiotypic changes that might act as TAA, in conjunction with antigen-presenting DCs harvested from the same patient and activated in vitro (see Dendritic cell vaccines).", 'There are different types of therapeutic candidate vaccines currently undergoing clinical trials for numerous types of cancer (Table 6 .14).', 'The most advanced candidates currently in Phase III are described in Chapter 4 e Vaccine adjuvants.There has been some success in the development of therapeutic cancer vaccines, with the FDA approval of the first DC vaccine Oxford BioMedica MUC1, Mucin 1 cell surface; hIL2, human cytokine interleukin-2; ASCI, antigen-specific cancer immunotherapeutics; MAGE, melanomaassociated antigen; CTL, cytotoxic T lymphocyte.', 'The information included is not meant to be exhaustive but is intended to provide an overview of the subject matter.vaccine approaches.', 'Some of the considerations for vaccines designed for use in special populations include: immunosenescence in the elderly; the poor immunological response to traditional vaccines seen in immunocompromised individuals (patients with HIV, transplant recipients); the crossing of vaccine components into the foetal bloodstream when vaccines are administered to pregnant women; and the safety and immunogenicity concerns surrounding vaccines for neonates due to their naïve and immature immune system.Individuals with cancer, HIV infection or who are asplenic can be immunocompromised as a result of their condition.', 'Eliciting a response from vaccination in immunocompromised patients may require an increase in the dose and/or number of doses; altering the dosing interval; selecting a different vaccine formulation; or administration via an alternative route.', 'Evidence in this patient population is lacking and guidelines are often based on theoretical assumptions.Live vaccines are generally contraindicated in immunocompromised or immunosuppressed individuals due to the risk of an active and symptomatic infection resulting from the vaccine itself (non-controlled replication process).', 'Encouragingly, vaccine formulations with highly purified antigens and novel adjuvants or alternative deliveries have been shown to induce more effective immune responses than the classical inactivated vaccines in immunocompromised hosts, including patients with end-stage renal diseases in pre-haemodialysis and haemodialysis (see Chapter 4 e Vaccine Adjuvants), patients with HIV and those who have received haematological stem cell transplants.', 'ISSUES AFFECTING ANTIGEN PRESENTATION\n\nThe level of antigen presentation which occurs with some current vaccines may sometimes be insufficient to drive long-lasting immune responses of high quality (see Chapter 3 e Vaccine antigens).', 'This may be due to inadequate exposure of the antigen to immature antigen-presenting cells (APCs) rapid or subimmunogenic degradation or sequestration of antigens, or lack of immunogenicity due to the physical presentation of the antigen.', 'The discovery and \n\nSelection Identification\n\nModifying vaccine formulations to increase tolerance to temperature fluctuations is likely to increase the shelf-life of the product and reduce transport and wastage issues.', '160\n\nUNDERSTANDING MODERN VACCINES refinement of new and varied options for antigen presentation is expected to allow the design of vaccines to produce specific immune profiles.', 'VIRAL VECTOR VACCINES\n\nCandidate viral vector vaccines utilise a non-pathogenic virus to carry and subsequently induce expression of genes that produce immunogenic foreign proteins at high levels in the host.', 'Viral vector vaccines, eg recombinant poxvirus vaccines, can be administered mucosally to stimulate mucosal immune responses.', 'The attenuated modified vaccinia virus Ankara (rMVA) vectors are showing promise as mucosal delivery vectors.Pre-existing immunity to the viral vaccine vector is an impediment to successful use of this approach.', 'Figure 6 .4 demonstrates how viral vaccine vectors are made.', 'DNA expressing an immunogenic transgene (the vaccine antigen) is inserted into the viral vector genome for expression following administration into the recipient; expression of the vaccine antigen can be boosted by using a variety of DNA promoters.', 'Examples of viral vector candidate vaccines in clinical development are listed in Table 6 .3.', 'BACTERIAL VECTOR VACCINES\n\nNon-pathogenic bacterial vectors have many features that make them an attractive vaccine platform.', 'Bacterial vectors can be engineered for maximum safety (eg deletion of two or more genes from the same metabolic pathway), and to express large numbers of foreign antigens ( Figure 6 .5).Two key issues affecting bacterial vaccine vectors are: a) to decide whether the optimal platform should be a bacterial vaccine in its Figure 6 .4 Viral vectors for vaccines.', 'Viral vector vaccines exploit the natural ability of viruses to infect or otherwise enter (in the case of disabled viral vectors) host cells, and then deliver pathogen-specific antigens.', 'The viral vector can then be used as a factory for production of large quantities of pathogen antigen in vivo, following introduction of the vector into the vaccine recipient, with the pathogen antigen then expressed on the surface of the infected/transduced host cells or exported out of the producer cell.MHC, major histocompatibility complex.', 'own right or a bacterial vector system to deliver exogenous antigens; and b) to determine whether re-administration of the vector, either with the same or different target antigens, will fail because of the immune response to the bacterial vector vaccine at the time of its initial administration.', 'UNDERSTANDING MODERN VACCINES\n\nInitial assessments of the feasibility of using attenuated bacterial vectors for the delivery of foreign antigens have focused on Salmonella species.', 'Bacterial vaccine vectors for humans, however, have been disappointing so far.', 'It may be necessary to develop unique bacterial vaccine vectors for delivering exogenous antigens, in which case the vectors can be modified to allow for re-use.', 'For example, if immunity against the vector, which is a major impediment to vaccine re-use, is determined by antibodies against the surface structures of the bacterium (such as lipopolysaccharide [LPS]), the dedicated vaccine vector could be developed to lack expression of LPS or to express truncated/ different forms of LPS to the target, thereby avoiding priming of the immune response and allowing for re-use of the vector and/or vaccine.', 'Some potential options for live, attenuated bacterial vectors are shown in Table 6 .4. including influenza viruses (Figure 6 .8), present major challenges for vaccine developers.Since the initiation of HIV vaccine programmes, more than 30 candidate vaccines have been tested in over 80 Phase I/II clinical trials involving more than 10,000 healthy human volunteers.', 'Regrettably, all attempts to date have failed to yield a licensed HIV vaccine.Questions remain concerning the immune mechanisms behind vaccines that achieve partial protection.', 'Regardless of the unknowns, the ability to prevent infection in at least some individuals still offers real hope that a globally effective HIV vaccine might be possible.', 'Current research is comparing the immune responses of subjects who are naturally protected against HIV with those who were infected, seeking to find the elusive immunological mechanisms of protection to help guide the design of future T-cell vaccines against the virus.Microbiome Project is a National Institutes of Health initiative that seeks to determine the relationship between human health and changes in the human microbiome.', 'Characterising microbes associated with disease-related pathogens may allow for the development of new vaccines that preserve or protect the healthy microbiome and hence could protect human health.', 'Some of the areas of current research are outlined in the box, right.Seasonal influenza vaccination in pregnancy is well tolerated and the benefiterisk profile when administered to pregnant women supports its use during pregnancy.', 'Boosting RSV immunity in pregnant women through vaccination may be another approach to protecting the newborn against RSV infection during the most vulnerable early months after birth.', "DNA VACCINES\n\nDNA vaccines are the result of the discovery in the early 1990s that the gene, rather than the encoded protein, if delivered in an 'expressible' form, could induce an immune response (see Chapter 1 e Vaccine evolution).", 'The principle behind DNA vaccines is that the antigenic molecule is produced within the host from the DNA or RNA that is injected, in contrast to more traditional vaccination where the antigen is supplied in the vaccine formulation.', 'The gene(s) for target antigen(s) is/are usually encoded in a circular plasmid expression vector under the control of promoter sequences that direct gene expression in mammalian cells, which is achieved after injection into mammals.', '166\n\nUNDERSTANDING MODERN VACCINES emerging proprietary particle-mediated delivery technology or electroporation technology seeks to improve this situation.', 'This results in an enhancement in uptake of the DNA vaccine between 10e100-fold.', 'Examples of DNA candidate vaccines in clinical development are presented in Table 6 .5.', 'DENDRITIC CELL VACCINES\n\nDendritic cell (DC) vaccines typically use monocytes harvested from the blood (in most cases from the individual who will receive the vaccine) to produce immature DCs in vitro.', 'The first Food and Drug Administration (FDA)-approved DC vaccine, designed for the treatment of prostate cancer, was licensed in 2010 (Sipuleucel-T); examples of other targets for DC vaccine therapy are presented in Table 6 .6.', 'DC vaccines offer an individualised approach to therapeutic vaccine development, but represent a specialised method of vaccination that is currently limited to aggressive cancers, and the treatment of serious, intractable infections.A comparison between the strengths and weaknesses of selected new vaccine platforms is presented in Table 6 .7.', 'New approaches to vaccine administration\n\nDeveloping administration techniques that place the vaccine directly at the site(s) where pathogens are most likely to initiate an infection (eg mucosal or respiratory sites) is likely to improve vaccine efficacy and safety.Traditional methods of vaccine administration can potentially pose a number of limitations with respect to reactogenicity, immunogenicity, convenience, efficacy, safety and cost-effectiveness.', 'The information included is not meant to be exhaustive but is intended to provide an overview of the subject matter.', 'Ongoing research on alternative experimental administration strategies includes ballistic delivery to skin (the gene gun), the transdermal patch and other intradermal methods, plus sublingual, aerosol, rectal and vaginal mucosal vaccines.', 'The main advantages of alternative delivery strategies are the potential to induce immune responses at the common portals of pathogen entry (eg oral polio vaccine replicating in the gut), potential convenience (eg ease of use of the transdermal patch), potential combination of vaccines to reduce or simplify the vaccination schedule, and reduction or elimination of administration via standard hypodermic needle injection.', 'Despite the intuitive value of these approaches, few vaccines today are administered via non-IM routes.', "Some problems have been observed with new routes of delivery, for example, after the 2000 launch of an inactivated intranasal influenza vaccine (a virosome formulation adjuvanted by heat labile enterotoxoid of Escherichia coli), post-licensure data indicated a significantly increased risk of Bell's palsy in vaccinees and forced its withdrawal from the market.", 'This experience led to a higher level of caution in the development of intranasal vaccines.', 'Today, the only example of a licensed vaccine against a latent infection is the zoster vaccine; the vaccine formulation is the high potency (about 15-fold) version of the live, attenuated varicella zoster virus (VZV) vaccine.', 'This vaccine has been used to boost the anti-VZV cell-mediated immune response in older subjects and has been shown to reduce the overall incidence of zoster by 50% in subjects aged 60 years or older (Oxman et al., 2005) .', 'Protection against miliary (disseminated) TB in children is provided by the bacille CalmetteeGuérin (BCG) vaccine, developed through culture attenuation of Mycobacterium bovis early in the 20th century, which is routinely given in many countries.', 'The vaccine, however, provides only modest and often temporary protection against pulmonary TB, and provides lower efficacy in resource-limited regions closer to the equator.', 'However, a recent Phase III trial demonstrated that protection against TB can be provided to individuals with HIV by using an inactivated whole-cell mycobacterial vaccine (von Reyn et al., 2010) .', 'The current state of TB vaccine development has been summarised in reviews by Walker et al.', '(2009) and examples of vaccines in development are shown in Table 6 .9.', 'Primary infection during pregnancy is associated with congenital infection that \n\nHerpes simplex virus\n\nThe hallmark of herpes simplex virus types 1 and 2 (HSV-1 and HSV-2) is their ability to establish and maintain latent infection in to be exhaustive but is intended to provide an overview of the subject matter.', '176\n\nUNDERSTANDING MODERN VACCINES men, regardless of their HSV seropositivity status.', 'These were the first studies to report a significant difference in vaccine efficacy between men and women.', 'This finding could have important implications for other vaccines targeting sexually transmitted diseases.', 'A third Phase III efficacy trial of the gD2 candidate vaccine in HSV-1 and HSV-2 negative women who thought themselves possibly at risk of acquiring genital herpes (a different risk population than in the original two trials) has been completed and is being analysed.', 'An initial assessment of the results of the third trial showed that the vaccine had an acceptable safety profile but the primary trial endpoint, prevention of genital herpes disease, was not met (NIAID, 2010) .', 'Although the development of the vaccine has been stopped, further analyses and comparison of the trials may guide researchers as they continue seeking vaccines to control HSV infections.', 'VACCINES FOR PATHOGENS WITH A COMPLEX LIFE CYCLE\n\nAs discussed in Chapter 2 e Vaccine immunology, some pathogens have complex life cycles.', 'One specific example is parasites, sometimes using more than a single host, where each development phase is marked by differential expression of major proteins, meaning that possible antigen targets are host-and development-phase specific.', 'Taenid worms aside, vaccines against parasites have been extremely difficult to develop and only a limited number have performed well in later-stage clinical trials.', 'Plasmodium falciparum\n\nThe protozoan parasite Plasmodium falciparum, the most common cause of malaria, has a complex life cycle, as shown in Figure 6 .7.The Plasmodium parasite has a genome encoding more than 5000 proteins, and presents different allelic and immunogenic Table 7) .', 'One of the furthest advanced of these new candidate vaccines is RTS,S/AS01.', 'The vaccine targets the pre-erythrocytic stage of the parasite (Figure 6.7) .', 'To be protective, a vaccine targeted at this phase needs to induce humoral immunity, to prevent parasites from invading the liver, and cell-mediated immunity to destroy hepatocytes that become infected in the face of the humoral immune response.', 'In Phase II studies, the RTS,S/AS01 candidate vaccine induced a strong neutralising antibody response and cell-mediated immunity, and afforded protection against malaria (Bejon et al., 2008; Abdulla et al., 2008) .', 'RTS,S/AS01 has been selected to proceed to Phase III clinical testing due to its higher efficacy compared with alternative formulations.', 'If successful, the RTS,S/AS01 candidate vaccine could be the first licensed human vaccine against a parasite.', 'Other malaria candidate vaccines in development are shown in Appendices, Supplementary Table 7 .', 'VACCINES AGAINST PATHOGENS THAT EXHIBIT ANTIGENIC VARIABILITY\n\nPathogens may mutate or recombine to change their antigenic profile.', 'Antigenic drift refers to a gradual process whereby point mutations in genes encoding antigenic proteins change the antigen sufficiently</t>
-  </si>
-  <si>
-    <t>['\n\nVaccines represent one of the most effective and cost-effective medical and public health achievements of all time.', 'In addition to having such a major beneficial impact on vaccine-preventable disease morbidity and mortality, the direct and indirect impacts of vaccination programs translate into economic savings of many billions of dollars each year.', '2 Similarly, efforts to eradicate poliomyelitis have made tremendous progress in reducing the global disease burden, and will hopefully soon overcome certain residual societal and programmatic obstacles to provide the second successful example of elimination of a major health threat by vaccination.', 'Concerted global efforts to provide measles vaccine have resulted in the control and elimination of the disease in many countries, including substantial reductions in mortality in a number of developing countries where the residual disease burden is greatest.', 'These and other examples provide clear evidence of the power of vaccines in favorably manipulating host immunity to confer dramatic public health benefits, at both the individual and population level.As vaccines are administered to healthy individuals (often to entire age cohorts or populations), to prevent diseases caused by infectious agents to which they might be exposed in the future, they differ in important ways from pharmacologic agents that are used to treat individuals in whom a disease process is already manifest (or who display predispositions to disease).', 'For this reason, vaccines are unique in the way that they impact on societies and in the way that societal commitment to vaccination determines their ultimate impact.', 'Indeed, current limitations in realizing the full global potential of available vaccines relate more to existing inadequacies in health care financing and infrastructure (especially as they are manifest in developing countries), and the relative value that societies place on disease prevention, than they do to any inherent biological limitations of vaccines themselves.', 'Fortunately, recent acceleration of new vaccine introductions in developing countries through public and private initiatives to build immunization infrastructure and provide funding of vaccine purchase offers hope that vaccines will one day be equitably available to all who need them.', '3 The importance of vaccines extends beyond their use as public health tools to include their role as drivers of immunologic discovery.', 'The history of vaccine development is rich with immunologic insights that emerged from careful observations of how diseases spread in populations and how such spread differs in disease-naïve and experienced populations, as well as of how innovative experimental approaches revealed fundamental aspects of immune system function.', 'The general concept of immunity induced by prior exposure to a disease (including its specificity and potential lifelong duration) was appreciated by the ancient Greeks.', "The subsequent successes of Edward Jenner and Louis Pasteur in the development of effective smallpox and fowl cholera immunization strategies, respectively, provided a foundation for modern immunology; Pasteur himself coined the term 'vaccine' in recognition of Jenner's use of vaccinia virus.", "Jenner's smallpox immunization studies also provided early experimental support for the concept of immune memory.", 'The discovery of bacterial exotoxins by Emile Roux and Alexandre Yersin facilitated the discovery of antibodies and their potential use in passive immunotherapy with antitoxin antibodies by Emil von Behring and Shibasaburo Kitasato.', 'In each of these instances, vaccine development illuminated central mechanisms of immune system biology.Vaccine development today has transitioned from an approach that was once largely empirical to one that is based on the hypothesis-driven application of techniques in molecular biology and immunology.', 'Evidence for this synergy can be seen in recent studies of vaccine-elicited immune responses to illuminate primary and memory T-and B-cell responses in humans, as well as the strong discovery stimulus provided by ongoing efforts to develop new vaccines for major infectious diseases for which vaccines are not currently available.Vaccine development today faces a number of significant challenges.', 'There exist tremendous public health needs to address major well-known pandemic diseases, including acquired immunodeficiency syndrome (AIDS), tuberculosis, and malaria, for which no vaccines currently exist and for which natural immunity does not provide a helpful guide for vaccine development.', 'Furthermore, there exists a need to confront effectively newly emerging and re-emerging diseases, ranging from the well-known, but constantly changing, threats from influenza pandemics to the appearance of previously unknown zoonotic infections such as the coronavirus that causes severe acute respiratory syndrome (SARS).', 'In confronting prevalent or newly emerging diseases, vaccines are looked to as the most promising line of defense.', 'However, the speed at which new infectious disease threats have been shown to emerge and spread, and the fact that the pathogens that now need to be confronted may display tremendous genetic variability (e.g., human immunodeficiency virus (HIV)) or an identity that cannot be predicted in advance (e.g., avian influenza or agents like SARS) places unprecedented demands on the vaccine development process.In addition to these new challenges, there remain unmet needs in the derivation of vaccines that can achieve the greatest public health benefit.', 'These needs include the development of new ways to achieve more effective vaccine-elicited immune responses in neonates whose immune systems are immature (or are impacted by maternal antibodies) (Chapter 32) and in the elderly whose immune system function may be waning as a result of immune senescence (Chapter 33).', 'Fortunately, the scientific foundation provided by basic and applied immunology and the use of new methods for pathogen identification, antigen discovery, vaccine production, adjuvant development, and novel vector derivation afford important opportunities for vaccine development and additionally present the possibility of improving on natural immunity.', 'Success in vaccine development will be predicated on continuing the historical synergy between advances in vaccine technology and basic immunologic discovery.', 'Toward that end, this chapter focuses on preventive vaccines for infectious diseases and how they are developed.', 'Although current routine vaccine recommendations are reviewed, given the active state of new vaccine introduction and evolving vaccine recommendations, as well as differences in recommendations in different countries, readers are encouraged to refer to up-to-date national resources for the most current information.', 'While vaccine approaches are being actively explored to modify beneficially malignant and immunologic diseases (autoimmunity and allergy), these are beyond the scope of the current discussion.n IMPACT OF VACCINATION PROGRAMS n Unlike other medical interventions, vaccines confer benefits to both individuals and populations.', "4, 5 While individuals may be protected from infection or disease by vaccine-induced immune responses, decreasing the number of susceptible hosts in a population also helps break the chain of transmission that pathogens require to spread and persist in human populations by induction of 'herd immunity. '", 'The benefits of herd immunity depend on achieving sufficiently high immunization rates in a population to impact pathogen transmission dynamics (including the potential for extinction of ongoing interhost transmission).', 'The requisite level of vaccination coverage of a population needed to compromise pathogen spread significantly varies between pathogens, and is influenced both by vaccine efficacy (and its duration) and by the reproductive characteristics and infectiousness of the pathogen.Analysis of the impact of vaccination programs in the USA provides an example of the beneficial impact of vaccines when used routinely and when high coverage levels are achieved.', '6 As shown in Tables 92.1 and 92.2, vaccination programs in the USA dramatically decreased the annual morbidity of many vaccine-preventable diseases.', 'In many instances, the disease burden from several vaccine-preventable diseases of childhood has been reduced by over 99% since vaccine introduction (e.g., diphtheria, tetanus, measles, mumps, rubella, and polio).', 'The somewhat lower rate of decline of pertussis (the annual morbidity of which has been reduced by a nonetheless impressive 83%) relates to the limited duration of vaccine-induced immunity, which is estimated to wane within 5-10 years after childhood vaccination.', 'It is anticipated that recent availability of pertussis booster vaccines for use in adolescents and adults will lead to significant further declines in pertussis morbidity.', 'Even for diseases targeted by vaccines that have been in widespread use for less time (&lt; 10 years), impressive decreases in disease morbidity have been seen (e.g., varicella, hepatitis A, and pneumococcal disease).', 'In a notable recent demonstration of the population benefits of vaccines, introduction of the 7-valent pneumococcal conjugate vaccine resulted in a decrease of 73% in disease morbidity in children under 5 years of age within the first 5 years of its introduction.', 'In a striking related finding illustrating how vaccines can impact pathogen transmission dynamics, rates of antibiotic-resistant pneumococcal infections also declined by 49% in individuals over the age of 65 who had not received the vaccine.', 'Thus, direct protection by vaccination of children who represent a reservoir of infection provided, via herd immunity, significant indirect benefits to those who did not themselves receive the vaccine.In addition to their benefits in preventing disease morbidity and mortality, routine vaccination programs are also impressively cost-effective.', 'Evaluation in the USA of the impact of ten vaccines routinely given as part of the childhood immunization schedule (diphtheria, tetanus, pertussis, Haemophilus influenzae b (Hib), polio; measles, mumps, rubella, hepatitis B and varicella) found that more than 14 million cases of disease and more than 33 500 deaths were averted over the lifetime of the immunized birth cohort of children.', '7 When the cost of the vaccination program was compared to the economic impact of diseases prevented, these vaccines alone are estimated to save nearly $10 billion each year.', 'When including indirect economic benefits (such as the time parents take off from work to care for sick children), the annual savings to society exceed $40 billion.', '8 Progress in the development of new vaccines accelerated significantly towards the end of the 20th century, with the development of vaccines against diseases that were not previously preventable by vaccination, but also with the development of improved versions of existing vaccines.', "IMPACT OF VACCINATION PROGRAMS\n\nThus, the number of diseases that can be prevented by vaccines included in the US Centers for Disease Control and Prevention's (CDC) routine childhood and adolescent immunization schedules grew from seven in 1985 to 16 in 2007 (Table 92 .3 and Fig.", 'Moreover, in the past several years, new vaccines have been introduced for adolescents and young adults (e.g., pertussis booster (Tdap), meningococcal conjugate, and human papillomavirus (HPV) vaccines), and older adults (e.g., Tdap and zoster vaccines) have shown that the value of vaccines extends across the human lifespan (Figs 92.1 and 92.2).', 'New combination vaccines have been developed to increase the simplicity and acceptability of vaccination regimens, as well as to improve overall compliance with the recommended series of vaccines.', 'Such combinations include either those that contain multiple inactivated or recombinant antigens (such as a combination diphtheria, pertussis, tetanus, Hib, and hepatitis B vaccine) or multiple live attenuated viruses (such as a combination measles, mumps, rubella, and varicella vaccine (MMRV)).', 'The development of a combination vaccine is often more complicated than simply combining individual antigens, for when antigens are administered in combination, immunologic interference is sometimes seen.', 'Despite their readily demonstrable public health impact, the value of vaccines is often not appreciated, for when vaccine programs are successful the diseases that they cause become less prevalent and may disappear.', 'Even in developed countries, maintenance of strong immunization programs with high degree of coverage is needed where infectious diseases can travel with remarkable speed -and do so even before the extent of spread is evident.n PRINCIPleS OF IMMuNIZATION n The terms vaccination and immunization are often used interchangeably.', 'However, vaccination specifically refers to efforts to induce protective immune responses by administration of a vaccine, whereas immunization more generically refers to interventions -either active or passive -that seek to confer immune protection.', 'Active immunization describes the induction of immune responses by administration of a specific antigen or antigens, while passive immunization involves the administration of exogenous immunologically active substances (historically, antibodies present in sera obtained from immune individuals or animals) to confer temporary protection from an infectious pathogen or toxin.', 'Although the approaches for passive immunization waned in the later half of the 20th century, the advent and increasing robustness of monoclonal antibody technology have led to a resurgence of interest in passive immunization.', 'PRINCIPleS OF IMMuNIZATION\n\nVaccines seek to engender immune responses similar to those that confer immunity to re-infection in individuals who experience (and survive) natural infection with a given pathogen.', 'In lieu of formal demonstration of a specific type of antibody or cellular immune response that contributes to prevention or accelerated clearance of an infection, most often vaccine efficacy is demonstrated first in the course of a placebo-controlled trial.', "In this case, the 'correlate of immunity' provides a benchmark against which similar vaccines can be compared.In the case of most inactivated vaccines, subunit vaccines, and recombinant vaccines that produce antibody responses, but generally meager CD8 T-cell responses, it is likely that humoral immune responses are the primary or sole protective immune mechanism.", 'In the case of live attenuated vaccines that induce both cellular and humoral immune responses against the pathogen, it is likely that both arms of the immune system act in concert to confer immunity.', 'However, the actual mechanisms of immune protection induced by either a natural infection or a vaccine are generally not understood in detail for many infectious diseases.Similarly, although vaccines depend on the induction of immunologic memory, the magnitude, character, and duration of immune memory differ between vaccines, as can the actual mechanism of immune protection.', 'For certain vaccines, such as those that protect against bacterial diseases induced via production of toxins (e.g., diphtheria or tetanus), protection induced by toxoid-based vaccines is clearly dependent on persistent antibody (IgG) and memory B-cell responses, ensuring that sufficient antitoxin antibodies are present at the time of toxin exposure to inactivate and clear the toxin.', '9 In this instance, given the relatively long incubation period of hepatitis B, memory antiviral B-cell responses induced by the vaccine can be activated, facilitating neutralization and clearance of the infection before clinical disease is manifest.', "Although it is popularly believed that vaccines confer protection by inducing 'sterilizing immunity' -wherein an infectious agent is blocked from even infecting one cell in an exposed host -this is clearly not the case for a number of vaccines.", 'For example, the inactivated poliovirus and live attenuated rotavirus vaccines do not prevent some degree of local replication of their pathogenic counterparts in the gastrointestinal tract of exposed hosts.', 'In the case of poliovirus vaccine, this is mediated by elicitation of antibody responses that block dissemination of the infection to the central nervous system; while in the case of rotavirus, as yet unidentified immune effectors limit local virus replication so that significant gastrointestinal damage does not occur following infection.', '10, 11 The major types of vaccines licensed for use include live attenuated organisms, killed or inactivated organisms, subunit vaccines consisting of purified (or partially purified) components of an organism, and subunit vaccines produced by recombinant DNA technologies.infectivity.', "While this approach has the benefit of presenting most of a pathogen's antigenic repertoire to the immune system of the immunized host, it can only be used in instances where the inactivated pathogen does not possess constituents that would confer significant toxicity.", 'Vaccines based on killed pathogens are believed to exert their protective effects via elicitation of pathogen-neutralizing antibodies and the induction of memory B-cell responses (likely in concert with CD4 T-cell memory).', 'In addition, killed vaccines are generally less immunogenic than live attenuated vaccines.', 'A number of viral and bacterial vaccines currently in use are killed/inactivated vaccines, including whole-cell Bordetella pertussis vaccine and the influenza virus, rabies virus, and hepatitis A virus vaccines.effects (promoting phagocytosis of antibody-coated bacteria) and, in some instances, bactericidal effects.', '17 Initial successful vaccine efforts against Streptococcus pneumoniae and Neisseria meningitidis utilized purified preparations of capsular polysaccharides.', 'As a means of both augmenting antibody responses against polysaccharide antigens in young children and facilitating their persistence, the development of conjugate vaccines represented an important advance.', '18 In this approach, purified polysaccharides are chemically conjugated to a carrier protein (such as diphtheria toxoid or an outer-membrane protein complex (OMPC) derived from N. meningitidis).', 'Polysaccharideconjugate vaccines have been produced that protect against Haemophilus influenzae b, Streptococcus pneumoniae, and N. meningitidis infections.', 'This approach has recently been employed to generate live attenuated vaccines against rotavirus and influenza virus.', 'The strategy for generation of the pentavalent bovine-human reassortment rotavirus vaccine is shown above.', "The pentavalent bovine-human rotavirus vaccine was generated by a 'modified Jennerian' approach in which the bovine rotavirus WC3 (which is attenuated in humans as a result of host range restriction) serves as the gene donor for the backbone on to which gene segments encoding four common human rotavirus G types (G1-4) as well as one very common P type (P8) (derived from individual rotavirus isolates) were reassorted via a process of cell co-infection and subsequent selection of the recombinant viruses with the desired composition of bovine and human gene segments.", 'An analogous genetic reassortment approach has also been used to generate live attenuated influenza vaccines.', "In this instance, three attenuated 'cold-adapted' viral strains (two A types and one type B) are used in co-infections in tissue culture with recent circulating wild-type influenza strains to derive vaccine strains that include the two relevant hemagglutinin (HA) and neuraminidase (NA)-encoding gene segments admixed with the six 'backbone' genes from the attenuated master donor virus for use in annual influenza vaccines.The first recombinant vaccine developed, the recombinant hepatitis B surface antigen (HBsAg) prepared in yeast, was developed in hopes of avoiding safety concerns related to the plasma-derived HBsAg vaccine.", '19 The knowledge that immune sera could provide protection by passive immunization of naïve hosts, and that purified inactivated plasmaderived HBsAg vaccine could elicit protective antibodies, laid the groundwork for development of this recombinant vaccine.', '20 The recombinant vaccine, when combined with adjuvant (alum), elicits favorable immune responses, is highly efficacious and is well tolerated -all features that recombinant vaccines are now expected to deliver.', 'The second recombinant vaccine developed targeted prevention of Borrelia burgdorferi infection (the cause of Lyme disease), and was based on a purified recombinant version of the OspA protein.', 'This vaccine, although conferring some degree of efficacy, faced implementation challenges, and was not widely embraced.', 'As a result, it was withdrawn from the market.More recently, recombinant technology-derived purified subunit vaccines have been developed that consist of virus-like particles (VLPs) that self-assemble when the L1 protein of HPV is produced in isolation of other viral proteins ( Fig.', '21 The L1 protein is the target of virusneutralizing antibodies and vaccines consisting of a mixture of types 16 and 18 (the cause of ~70% of cases of cervical cancer) and 6 and 11 (the cause of ~90% of cases of genital warts) or of HPV types 16 and 18 alone have been shown to be highly efficacious and well tolerated.', '22 Interestingly, HPV VLPs induce antibody responses that exceed those that follow natural HPV infections.', '23 In light of these successes, and the power and versatility of recombinant antigen production methods, a major proportion of new vaccine development efforts involves the use of protein subunit vaccines produced by recombinant technologies.', 'Vaccines produced by this method are those that depend largely or exclusively on the induction of antibodies against individual or a selected subset of pathogen proteins.', 'Because a number of proteins produced in isolation by recombinant methods have been observed to elicit lower immune responses than do natural infections or live attenuated vaccines, the development and use of adjuvants to optimize recombinant vaccine immunogenicity represent an important parallel area for future exploration.n VACCINe deVelOPMeNT ANd eVAluATION n As a necessary prelude to clinical evaluation of candidate vaccines in humans, extensive preclinical research and development activities are undertaken to establish that the vaccine candidate has the desired properties.', 'First, animal studies must show that the vaccine candidate raises the desired type and magnitude of immune response against the infectious agent.', 'Second, the vaccine needs to protect animals against death or disease in an appropriate challenge model, when feasible.', 'Third, the vaccine should be relatively free of serious discernible toxicities and side effects in animals when administered by the route intended for humans.', 'Fourth, it is necessary to demonstrate that the vaccine can be produced in a consistent manner by a process that is consistent with the current good manufacturing practices (cGMP) process by which the first clinical trial materials will be produced (www.fda.gov/cber/gdlns/indcgmp.pdf ).', 'lIVe ATTeNuATed VACCINeS\n\nThe use of live attenuated vaccines dates back to the early work of Jenner and Pasteur on smallpox and fowl cholera vaccines, respectively.', '12, 13 The fundamental concept of live attenuated vaccines is to mimic the effective host immune responses that follow natural infections.', 'Most live attenuated vaccines currently in use were derived by propagation of initially pathogenic organisms in culture on cells from different (nonhuman) species, or at nonphysiologic temperatures, for prolonged periods.', "Driving pathogen evolution in culture to select for variants adapted to growth in heterologous cell types ex vivo often leads to the derivation of pathogen variants that grow poorly in vivo in humans and are unable to cause clinical symptoms.Vaccines developed via this approach include those used to prevent a number of viral and bacterial infections, including yellow fever, measles, mumps, rubella, polio (the 'Sabin vaccine'), varicella-zoster (used both for the prevention of chickenpox and shingles) and rotavirus (one version of the available vaccines), tuberculosis, and cholera.", 'More recent technologies being applied to live attenuated vaccine development include the application of reverse genetic strategies ( Fig.', '92 .3) and those involving genetic reassortment with attenuated viral variants, as have been used to develop polyvalent live attenuated vaccines against influenza and rotavirus ( Fig.', '10, 11 The live attenuated vaccines currently in use are highly efficacious (&gt; 90%) and protection is frequently durable.', 'The efficacy of many live attenuated vaccines likely reflects the ability of the attenuated vaccine to replicate within vaccinated hosts, and to expose the immune system to pathogen-derived antigens in a manner that closely resembles the nature, location, and effects of natural infection.', 'Because live attenuated vaccines replicate within immunized individuals, they can induce both cellular (CD4 and CD8) and humoral (B-cell) effector responses and immunologic memory.', 'In addition, as the live attenuated vaccines likely activate the host innate system in a manner similar to their pathogenic parents, they provide inherent adjuvant effects in augmenting adaptive immune responses.A key consideration in the development of any live attenuated vaccine relates to the relative balance between the ability to induce sufficient immune responses in vivo to confer protection (often associated with level of preserved replicative ability in vivo), and the ability to cause symptoms (which may also relate to the extent of in vivo replication).', 'As such, an effective but also safe and well-tolerated vaccine needs to strike a specific balance between level of attenuation and level of immunogenicity.', 'In addition, depending on the nature and number of genetic mutations responsible for the attenuated phenotype, a potential risk of reversion to a pathogenic form exists for certain vaccines.', 'For most live attenuated vaccines, this has not been observed to be a problem in clinical practice -likely because the attenuating mutations are sufficiently numerous or genetically stable.', "One vaccine where reversion to pathogenic form was seen involved specific components of the live attenuated oral poliovirus vaccine (OPV; the 'Sabin vaccine').", 'In this instance, vaccine reversion to wild-type was shown to lead rarely to cases of paralytic polio (approximately one case per million doses administered).', "14 Based on these observations and the elimination of endogenous polio transmission in many developed countries, the inactivated polio vaccine (IPV; the 'Salk vaccine') was substituted for OPV.", 'KIlled OR INACTIVATed ORGANISMS\n\nThe use of physical or chemical methods to kill or otherwise inactivate a pathogenic organism represents a second major approach to vaccine production.', '15, 16 In most cases, treatment with chemical agents such as β-propiolactone and formaldehyde is used to eliminate pathogen\n\nPuRIFIed SuBuNIT VACCINeS\n\nA number of bacteria produce toxins that represent the major pathogenic components responsible for disease in infected humans.', 'Examples include Corynebacterium diphtheriae and Clostridium tetani.', "Detoxified versions of these toxins are referred to as 'toxoids,' and represent the purified components of vaccines preventing diphtheria and tetanus, respectively.", 'Toxoids have historically been produced by chemical inactivation of toxins, but more recently, genetic inactivation via targeted mutagenesis has been employed.', 'The acellular pertussis vaccine is also a purified subunit vaccine composed of a defined set of protein constituents prepared from cultured Bordetella pertussis.', 'The mechanism of immune protection conferred by purified subunit vaccines is the antibody response elicited by vaccination.Antibodies directed against the capsular polysaccharides present on encapsulated bacteria also confer protective immunity in a number of important instances by inducing antibodies that exert opsonophagocytic \n\nProphylactic HPV Vaccines: L1 Virus-like Particles (VLPs)\n\nBioengineered L1 proteins (5) L1 pentamer Self-assembled virus-like particle In specific instances, VLPs can be produced via a process of self-assembly of individual viral capsid proteins produced by recombinant DNA methods in cell culture systems.', 'This approach has a number of attractive aspects, including the ability to produce VLPs that accurately display conformationally correct epitopes recognized by neutralizing antibodies and the absence of pathogen-derived nucleic acids.', 'In addition, recombinant VLPs have been employed to derive safe and effective vaccines for pathogens, such as hepatitis B virus (HBV) and human papillomavirus (HPV), that cannot be grown in culture (and are thus refractory to standard vaccine approaches of attenuation or inactivation).', 'The generation of the VLPs that comprises newly developed HPV vaccines is shown.', 'The HPV L1 proteins (which represent the major capsid protein and target of virus-neutralizing, protective antibodies), derived from HPV types of interest (e.g., types 16, 18, 6, and 11) are produced via recombinant methods.', 'VLPs prepared from individual HPV types are then combined with specific adjuvants to prepare the final vaccine products.', 'VACCINe deVelOPMeNT ANd eVAluATION\n\nEven before preclinical studies are completed, vaccine developers typically begin an initial dialog with regulatory authorities (such as the Food and Drug Administration (FDA) or the European Medicines Agency (EMEA)) to set expectations about what will be necessary and sufficient for advancement to clinical studies in humans (www.fda.gov/cber/ genetherapy/isct092506sh.pdf ).Phase I studies primarily focus on detailed assessment of the safety and tolerability of a vaccine, but evaluation of its immunogenicity is also frequently conducted.', 'Generally, a phase I study includes fewer than 100 healthy volunteers divided unequally between those who receive vaccine or placebo (2 or 3 vaccinees per placebo recipient).', 'Phase I studies typically employ escalating doses of the candidate vaccine, with a dose range progressively increasing in steps of three-to fivefold often being used.', 'Blood samples are taken at prescribed intervals and analyzed for laboratory evidence of potential toxicity, as well as for evidence of vaccine-elicited immune responses.', 'A phase I study is considered successful if it demonstrates that the candidate vaccine is well tolerated or identifies any immediate safety concerns that will need to be closely monitored in potential future clinical studies.', 'Ideally, phase I studies also provide an initial indication of the optimal dose level and number of doses required.A phase II study typically includes several hundred to a few thousand volunteers (randomized between vaccine and placebo) and can assume two general design types.', 'Phase IIa studies provide additional safety data on a larger number of individuals of the intended age who receive the intended vaccine dose (who are more representative of the general population intended for vaccine use than the very healthy individuals included in the phase I study), as well as provide additional data on vaccine immunogenicity.', "Even larger phase IIb studies can provide additional data on vaccine safety and immunogenicity in subjects generally representative of those for whom the vaccine might be recommended, but importantly, also provide the first opportunity to address to answer the question, 'Does this vaccine work in humans?'", 'The size of a phase IIb study needed to detect a signal of vaccine efficacy depends on the attack rate of the infection being targeted by the vaccine.Phase II studies also present the first opportunity to identify a potential laboratory immunological correlate of protection from disease -if nature and prior experience have not already done so.', 'In order to do so, the placebo recipients in the phase II trial must experience a sufficient number of cases of disease while vaccine recipients need to exhibit significant evidence of decreased risk of infection or disease.', 'In addition, immunological measurements</t>
-  </si>
-  <si>
-    <t>['The design process-from genome to gene sequence, ready to insert in a DNA plasmid-can now be accomplished in less than 24 h. While these vaccines are by no means "standard," the need for innovation in the vaccine design and production process is great.', 'Should such vaccines be developed, their 60-d start-to-finish timeline would represent a 2-fold faster response than the current standard.', 'The Problem: Delayed Response to Emerging Infections and Biowarfare Attacks\n\nAccording to the Commission on the Prevention of Weapons of Mass Destruction (WMD) Proliferation and Terrorism, medical counter-measures such as vaccines are critically important for protecting first-responders and noncombatant (civilian) populations from the consequences of a bioterror attack.', '3, 4 As a result of renewed emphasis on biodefense, the United States\n\nA Proposed Solution: Design and Delivery of "Vaccines on Demand"\n\nRecent reports 6 of a novel H7N9 avian influenza virus emerging in China have led to even greater scrutiny of methods used to respond to infectious disease public health threats and have, in turn, provided for a "live fire" assessment of novel approaches.', 'In 2009-2010, the FastVax group began to discuss whether existing tools and vaccine production platforms could be used to accelerate the development of vaccines for emerging infectious diseases, as illustrated in Figure 1 .Traditional vaccine development for previously unknown pathogens takes place on the time scale of years.', 'The accelerated process, as proposed by our group, would begin with analysis of the genomic sequence of an emerging pathogen with immunoinformatics tools, followed by rapid design of an epitope-based vaccine containing the most immunogenic components, using an integrated in silico approach illustrated in Figure 2 .', 'Once the vaccine is designed, production and testing would involve a four-step process undertaken by the FastVax consortium arrangement, as described below.', 'Several constraints affecting the proposed approach bear mentioning; each of these is addressed in turn.T cell epitope-based vaccines provide the minimal, essential information required for protective immunity T cell epitopes are critical mediators of cellular immunity.', "They are derived from a pathogen's proteins via two pathways: (1) intracellular proteins are processed, and their constituent peptides are loaded onto major histocompatability complex (MHC) class I molecules; and (2) exogenous proteins are processed in the proteolytic compartment, and their constituent peptides are loaded onto MHC class II molecules.", 'MHC class I and class II-peptide complexes are then transported to the surface of an APC, where they are exposed to interrogation by passing T cells (CD8 + and CD4 + T cells, respectively).', 'From these different antigen processing and presentation pathways, two distinct T cell responses are generated: (1) a CD8 + cytotoxic T lymphocyte immune response that is critical for pathogen clearance, and distributed in different regions of the country that are capable of producing millions of doses of protein-based vaccines.', '5 Unfortunately, despite these important advances in the strategic preparedness of US agencies for biodefense, vaccine design remains a significant obstacle to national biodefense.', 'This is particularly true for the very real threat of as-yetundetermined pathogens for which little is known about their critical antigenic determinants and correlates of immunity, the key parameters used in vaccine design for conventional pathogens.', 'government has expended substantial resources on protecting the nation against a potential bioterror attack, creating specialized units for planning and preparedness within the Departments of Health and Human Services, Defense, Homeland Security, Agriculture, Commerce and State.Vaccine production infrastructure has also improved due to significant investments by the Federal government.', 'For example, there are now several federally subsidized "Advanced Development and Manufacturing" production facilities we applied the genome-to-vaccine approach to developing an epitope-based vaccine for avian H7n9 influenza.', 'for vaccine production, the genome-derived vaccine sequences would be sent by secure email to a plasmid DnA production facility to manufacture a DnA vaccine (Step 2); following scale-up and production, the vaccine would be distributed in a microneedle patch or another easy-to-distribute formulation (Step 3/4).', '7 on whether comparisons have to be performed to other existing genomes and epitopes.', 'Tools for carrying out the task have been applied to the development of vaccine candidates for SARS, 23 2009 H1N1 pandemic influenza, 24 smallpox, 25 and a number of other emergent and biowarfare agents, such as West Nile Virus, H. pylori and Burkholderia.', '7, [26] [27] [28] Most recently, the tools were applied in May 2013 to the design of a vaccine for H7N9, an emerging avian-origin influenza (Fig.', '29 The integration of epitope mapping into a step-by-step vaccine design process makes it possible to design vaccines in the shortest time possible once the DNA sequence from the emerging infectious disease or biowarfare pathogen is available.', 'For an epitope-based string of beads vaccine, the overall impact would be minimal, since T cell epitopes are linear; in contrast, sequence variations may compromise the structural integrity of a whole protein vaccine with negative effects on immunogenicity.How many epitopes?', 'Available evidence from animal studies suggests that the number of vaccine components (epitopes) required for full protection against disease is a small and definable subset that can be discovered using state-of-the-art computer programs such as the ones described and validated by EpiVax.', '30, 31 We have proposed that any FastVax vaccine would include a minimum of 100 broadly reactive T cell epitopes in several strings, designed to induce multi-functional immune responses that are essential for protective immunity.', '32 Careful selection of the vaccine components, comprising epitopes covering most common HLA, can provide greater than 99% coverage of diverse human populations.', 'Currently, MF59 and AS03, both oil-in-water emulsions, and virosome, a liposome formulation, are three adjuvants licensed for use in seasonal, pre-pandemic and pandemic influenza vaccines.', 'No influenza vaccines containing adjuvant are FDA approved.', 'T cell epitope vaccine responses may be enhanced through genetic immunization.', '34 DNA vaccines are self-adjuvanting through co-encoded sequences, and thus Epitope-driven vaccines offer distinct advantages that should contribute to a reconsideration of the current vaccine approval process for emergency use.', 'The use of epitopes also helps to mitigate potential safety concerns stemming from the use of intact recombinant proteins that may have undesired biological activity (e.g., enzymes, immunomodulators, cross-reactivity, toxins, etc.).', 'For example, the NP protein of Lassa has been associated with immune-suppressive activity.', '20 Genome sequencing, immunoinformatics tools and the epitope-driven approach now make it possible to develop vaccines on demand in response to emerging pathogens.', 'A Four-Step Process to Design and Deliver "Vaccines On Demand"\n\nStep one: Genome-derived, epitopedriven vaccine strategy (GD-EDV).', 'The first step to making "faster vaccines" is to design vaccine immunogens directly from pathogen genomes.', '21 For example, for emerging influenza strains, the vaccine "payload" is constructed in silico using the pathogen genome sequence provided by the World Health Organization (WHO) or posted on GISAID (http:// platform.gisaid.org/).', 'T cell epitopemapping algorithms that are integrated in a "vaccine design toolkit" developed by Martin and De Groot are applied to the genome sequences.', '22 These tools derive and concatenate those epitopes that have a high likelihood of driving an effective T cell response into a "string-of-beads" format for insertion into a vaccine delivery vehicle.', 'The process can be performed in less than 24 h; the exact length of time required for the analysis depends (2) a CD4 + T helper immune response that is essential for robust and sustained antibody and cytotoxic T lymphocyte responses.', 'After initial exposure to pathogen, memory T cells are established that respond more rapidly and efficiently upon subsequent exposure.Because epitopes provide the essential information needed to trigger a protective immune response, epitope-based vaccines can be developed to recreate this response.', 'Given the lengthy process that is usually associated with the development of killed, live-attenuated and whole-subunit vaccine approaches, an epitope-based strategy is one rational alternative, particularly when no vaccine exists and an emerging pathogen threatens human health on a global scale.T cell epitopes do not protect against infection; however, they may protect against diseaseThere is published evidence demonstrating that epitope-based vaccines can be protective.', '14 Furthermore, experts are generally in agreement that cross-reactive T cell epitopes were responsible for the limited morbidity and mortality associated with pandemic H1N1 in 2009.', '19 No "Fast Track" to vaccine-on-demand approval is currently possible under existing FDA regulations such is the case with Lassa Fever, Ebola, the encephaloviruses, and a number of other "Category A, B and C" biodefense pathogens.', 'In some cases, correlates of protection are unknown, and either an antibody-focused or a T cell-driven vaccine may prove effective.', 'Where antibodymediated immunity is critically important, T cell-driven vaccines still merit attention as potential adjuncts to more traditional whole-antigen (B cell-driven) approaches, since T cell help drives higher titer, higher affinity antibody responses.', 'Rapid clinical testing can be achieved using existing commercial clinical research organizations and clinical site networks such as the Medical Countermeasures Clinical Studies Network currently envisioned by ASPR/ BARDA.', 'Emergency use authorization approval can be based on achievement of "correlates" such as induction of broadly protective T cell or antibody responses, provided an allowed Investigational New Drug (IND) Application is in hand.One problem facing T cell-driven vaccines that are designed to stimulate HLArestricted human immune responses is that testing for correlates of immunity as described in the "Two Animal Rule" may not demonstrate the true efficacy of the product.', 'Thus alternative approaches may need to be considered.The MIMIC assay, a comprehensive measurement of localized reactogenicity, could be utilized for initial safety studies and to qualify release of the actual vaccine intended for emergency use.', '38 Additionally, in pandemic response simulations, "mock up" or example vaccines (in a specific DNA plasmid backbone) and patch delivery system could be submitted for approval by the FDA, and this formulation would be evaluated in the clinic for immunogenicity that recapitulates the influenza correlates of protective immunity already defined by CBER and EMA.', 'Correlates of protective immunity for currently approved influenza vaccines will not serve as a basis for regulatory approval of a DNA vaccine.', 'The FDA would require correlates to be determined for a new The DNA vaccine delivery platform and rational in silico design provide for a strong safety profile.', 'The DNA vaccine manufacturing process, particularly the efficient and stringent release criteria, allow for a highly pure and well-characterized final product.', 'Rational design permits in silico analysis of the vaccine sequence for identification of potential unfavorable immune responses including regulatory sequences or cross-reactive immune responses.', 'A fundamental principle of rapid biodefense vaccine production is that safety and speed are paramount for eliciting a protective immune response prior to the epidemic.Delivery vehicle.', 'The bulk vaccine product would then be coated onto premanufactured micro-needle patches that provide direct delivery to the dermis, or would be delivered using another skinbased method such as "scarification."', 'Alternatively, previously approved electroporation delivery methods 37 could be used, though this would take more time and increase the need for vaccine administration personnel training, leading to an escalation of the vaccine administration expense and more protracted timelines.Step three: Clinical trials.', 'While there are no Phase III or FDA-approved DNA vaccines, there are more than 30 Phase II trials listed in clinicaltrials.gov.', 'FDA approval of a DNA vaccine appears to be on the horizon, but until then, the FastVax DNA vaccine may encounter an additional FDA-associated barrier.', 'Implementation of a previously untested vaccine is only possible after rapidly completing initial clinical testing to the point that "emergency use authorization" can be invoked by the Secretary of Health and Human Services (HHS).', 'In some biodefense scenarios, approximate correlates of protection may have been previously identified; many such vaccines do not incorporate traditional adjuvants in their final formulation.', 'A number of strategies that are currently being evaluated may improve DNA vaccine potency for humans, including use of more efficient promoters and codon optimization, addition of traditional or genetic adjuvants, electroporation and intradermal delivery.', 'Reliable, reproducible methods for producing vaccines are currently available.', 'The FastVax consortium favors DNA vaccines because production is scalable, the vaccines are stable at room temperature, manufacturing can be easily distributed to different geographic locations, and the production method is more rapid than many other vaccine manufacturing technologies.', 'Alternative scalable and rapid production methods for accelerated vaccine production include plant-derived vaccines, phage-based vaccines and recombinant vaccines produced in cell culture.', 'Proteins produced using each of these systems have been approved by the FDA for use in humans.Rapid production of DNA vaccines.', 'The initial vaccine sequence designed in silico can be electronically provided to a production facility, where a cassette representing the vaccine genetic construct(s) is then synthesized and inserted into a standardized DNA vaccine plasmid.', 'A cGMP seed lot of bacteria containing the vaccine plasmid with cassetted payload can be rapidly produced and vialed using existing SOPs for release and characterization assays.', 'An initial manufacturing lot of plasmid vaccine would be produced from the seed lot and used to initiate safety studies.', 'To reduce time to produce sufficient vaccine product, multiple scale-up facilities could be located in different regions of the US.', 'Using current methods of DNA vaccine development, seed lot production would take one to three weeks.', 'Scale-up for DNA production is much more rapid than traditional vaccine designs; only three to four weeks would be required to produce one million doses per facility.', 'See below for discussion of Biological Agents Research Defense Agency (BARDA) appropriations for the construction of distributed vaccine production facilities.foreground with lessons applicable to influenza T cell-driven vaccine development.', 'Perhaps the most prominent example of this new focus is the expanding use of T cell-driven immunotherapy as an adjunct to cancer therapy.', 'Many of the barriers to effective T cell-driven vaccine development are being addressed and surmounted in clinical cancer trials.', 'For example, dendritic-cell pulsing vaccines using tumor antigens have moved into clinical use.', '43 ) and other anti-T regulatory cell (Treg) agents have been added to the conditioning regimen.Quite a few T cell-driven vaccines are currently in human clinical trials (reviewed by Gilbert in 2012; see ref.', 'While it is true that infectious disease T cell-driven vaccines have lagged behind T cell-driven vaccines for cancer, the regulatory pathway for T cell vaccines is improving, since more than 250 cancer vaccines that are based on T cell-driven immune responses are in clinical trials.', 'This was demonstrated in the case of influenza, following vaccination of study participants with a multi-antigen vaccine.', 'Following exposure to live influenza virus, two of 11 vaccinees and five of 11 control subjects developed laboratoryconfirmed influenza (symptoms plus virus shedding).', 'Symptoms of influenza were less pronounced in the vaccinees and there was a significant reduction in the number of days of virus shedding in those vaccinees who developed influenza (mean of 1.09 d in controls, 0.45 d in vaccinees, p = 0.036) 45, 46 for a final efficacy of 60%, which is better than many vaccines currently available.', 'This is a major milestone for T cell vaccines for infectious disease, as it is one of the first vaccines to reach a Phase 2 clinical trial and none have reached Phase 3.', 'While one cannot directly extrapolate from this trial nor the many cancer T cell-driven immunotherapy trials to state that the approach will work for all types involve redundancy and higher costs, it would allow for the rapid production and scale-up of vaccines at any given moment.', 'Each site would need to utilize the same manufacturing process to ensure consistency across vaccine batches, and entities would need to be willing to share their specific methodologies to harmonize an approach.', 'Assuming that a dose would constitute 0.2 mg of DNA vaccine and that each site has several 240 L fermenters (either as back-ups or for parallel growth), one million doses (200 g) per site could be produced in a three-to four-week period.', 'BARDA recently invested hundreds of millions of dollars in distributed influenza vaccine production; adapting these facilities for DNA vaccine production would be an added but not insurmountable expense (as compared with the initial investment).', '39 An in vitro assay like the MIMIC system could serve as a release characteristic of the multi-site lots that would run in parallel with the patch loading, preventing a single problematic DNA vaccine batch from impeding the release of patches generated with other batches.', 'Summary\n\nA number of technological advances are moving T cell-driven vaccines to the influenza vaccine and will not rely on related, but different, vaccines already approved.', 'Advance trials will establish correlates of protection for a FastVax influenza vaccine to serve as a basis for regulatory review in an emergency.', 'In a pandemic, a novel FastVax sequence composition might be rapidly tested in a small, swiftly completed safety and immunogenicity trial, much like EMA precedence for annual influenza vaccine updates.Step four: Approval and emergency use authorization.', 'One means of obtaining initial FDA review, experience and oversight for the FastVax vaccine-on-demand system would be to firmly establish the immunogenicity of an existing, clinicaltrial-ready DNA influenza virus vaccine in a patch or scarification delivery system.', 'Demonstration that the vaccine candidate meets influenza correlates of protection criteria with an acceptable profile in human trials would inform regulatory review for products of similar composition, much as current regulatory policy supports annual marketing re-authorization despite changes in influenza subunit vaccine composition (from trivalent to quadrivalent) to reflect seasonal shifts and drifts.Timely approval by the FDA to allow distribution of product in response to a rapidly emerging threat would require close cooperation between the vaccine manufacturer and the Agency.', 'The manufacturer can assist by providing clinical safety and efficacy data for a variety of vaccine products based on standardized vaccine platform, manufacturing, specifications, operating procedures and method of delivery.', 'If the manufacturer can establish predictable immunogenicity of epitopes in a demonstrated safe and reproducible vaccine platform and rapidly perform Phase I and Phase II trials establishing safety and immunogenicity in terms of a surrogate endpoint that predicts clinical benefit, the Agency may be able to provide a rapid review and emergency use allowance/authorization; release of the vaccine would then be possible through emergency use authorization by the HHS Secretary.Scale up.', 'To reduce the time to vaccine production, manufacturing sites could be pre-inspected and maintained at a state of operational readiness.', 'Strategic [62] [63] [64] Over the past five years, the authors of this report have advanced a number of T cell-driven vaccines described to the point of formulation and delivery studies.', 'Vaccines for many of the high-priority biodefense pathogens and emerging or re-emerging infectious diseases under development are not currently available, and evidence that T cell-mediated immune response is critically important for protection against these pathogens is emerging.', '43, [65] [66] [67] [68] [69] Members of the FastVax consortium are well aware that there are many obstacles to overcome before the proposed "rapid response" or FastVax platform for biodefense vaccines can be implemented.', 'Nonetheless, there is a critical national need for an accelerated vaccine design, development and production process that can be accomplished in weeks, not months, in the event of a serious infectious disease outbreak or biowarfare attack.', 'The need for new vaccines for protecting against bioterror pathogens and emerging infectious disease is great, and we would argue that, for the reasons cited above, the time to advance these vaccines to the clinic is now.', 'Disclosure of Potential Conflicts of Interest\n\nADG and WDM are senior officers and majority shareholders at EpiVax, Inc., a privately owned immunoinformatics and vaccine design company located in Providence, RI, USA.', 'LE and RWM have been paid consultants of EpiVax on vaccine development programs.', 'The authors of vaccines against infectious disease, successful implementation of the T celldriven approach in a range of contexts suggests that it is worth pursuing.Immunome-mining (computational immunology) tools have played a major role in the design and development of T cell-driven vaccines for infectious diseases.', 'The process was first termed "vaccinomics" by Brusic and Petrovsky in 2002, 47 then "reverse vaccinology" by Rappuoli in 2003, 48 and more recently, "immunomederived or genome-derived vaccine design" by Pederson, 49 De Groot and Martin, 50 and Doytchinova, Taylor, and Flower.', 'In short, the T cell-driven approach to developing vaccines is based on these fundamental principles: Payload + Adjuvant + Delivery vehicle = Vaccine.T cell-driven vaccines also offer some significant advantages over conventional vaccines for infectious diseases.', 'For example, despite strain-to-strain variation at the protein level, immunoinformatics tools can be used to identify highly conserved T cell epitopes that are immunogenic and broadly representative or universal, covering a wide range of variant strains; our group has published results for TB, HIV, smallpox, HCV and H. pylori, 16, [52] [53] [54] [55] [56] [57] [58] and additional evidence can be found in literature published by other gene-to-vaccine researchers (e.g., Sette and Newman, Brusic, Petrovsky, Reche, and He).', '59, 60 Furthermore, epitope-based vaccines limit the antigenic load, diminishing the need to manufacture and administer large quantities of immunogen, much of which is immunologically irrelevant.']</t>
-  </si>
-  <si>
-    <t>['\n\nWe must plan for the future, because people who stay in the present will remain in the past.-Abraham LincolnIn 1796, when Jenner showed successful inoculation of humans with cowpox to protect them from the devastation of smallpox, a revolution in science and medicine began [1] .', 'The most extraordinary success of immunizations was the worldwide eradication of smallpox.', 'Declared in 1980, smallpox eradication was achieved through an unprecedented collaborative international initiative, led by the World Health Organization, establishing an example for other vaccine-preventable diseases [1] .', 'Vaccination since has led to elimination of wild-type poliomyelitis and indigenous measles in the United States, both major causes of pediatric morbidity and mortality in the prevaccine era [4, 5] .An integral part of achieving these successes was establishment of a federal immunization infrastructure, which followed the introduction of polio vaccination in the 1950s [3] .', 'As a result, coverage levels for most routinely recommended childhood vaccines in the United States are approaching or have surpassed the US Department of Health and Human Services Healthy People 2010 goal of 90% coverage [6] .Immunizations have changed the scope of pediatric practice in the United States.', 'Likewise, although Haemophilus influenzae type b (Hib) was the leading cause of meningitis in young children before availability of Hib vaccines in 1985, most newly trained pediatricians will never see a case of invasive Hib [7] .', 'This article reviews the US immunization program with an emphasis on its role in ensuring that vaccines are effective, safe, and available and highlights several new vaccines and recommendations that will affect the health of children and adolescents and the practice of pediatric medicine in future decades.', 'United States immunization program\n\nChildhood and adolescent immunization scheduleThe Centers for Disease Control and Prevention (CDC), American Academy of Family Physicians, and American Academy of Pediatrics (AAP) annually publish a childhood and adolescent immunization schedule.', 'The Advisory Committee on Immunization Practices (ACIP), with input from many liaison organizations, periodically reviews the schedule to ensure consistency with new vaccine developments and policies [8] .', 'The first combined immunization schedule was published in 1995 and recommended six vaccines containing antigens against nine infectious diseases [9] : diphtheria and tetanus toxoids and whole-cell pertussis vaccine (DTP); tetanus and diphtheria toxoids (Td); measles, mumps, and rubella vaccine (MMR); Hib; oral polio vaccine (OPV); and hepatitis B virus vaccine.', 'Ten years later in February 2005, there were ten vaccines against 13 [8] .', 'Immunization policy\n\nBefore a vaccination becomes part of routine clinical pediatric practice, three steps need to be taken: (1) the FDA must license the vaccine, (2) the ACIP and the Committee on Infectious Diseases of the AAP and AAFP must recommend the vaccine for use, and (3) the vaccine must be subsidized to cover children without private health insurance.', 'Numerous government and partner organizations participate in bringing a vaccine from the bench into the clinic.', 'Before FDA licensure, a new vaccine goes through 10 to 15 years of preclinical testing and clinical trials, costing pharmaceutical companies millions of dollars in new development costs.', 'Before testing the vaccine in humans, a company files an Investigational New Drug application with the FDA followed by three phases of clinical trials that are performed to study vaccine safety, immunogenicity, and efficacy (Table 3 ) [10] .', 'After completion of the prelicensure clinical trials, the manufacturer files a Biologics Licensure Application (BLA), and the FDA, with input from its advisory committee, determines if data support vaccine safety, immunogenicity, and efficacy ( Fig.', 'After licensure, monitoring for rare adverse events continues for some vaccines through formal phase IV trials conducted by the FDA and manufacturer.After FDA licensure of a new vaccine, information about the vaccine is reviewed by the ACIP.', 'To formulate recommendations, the ACIP establishes subject-specific working groups to review and synthesize data months to Ensuring that all US children and adolescents, regardless of health insurance status or income level, have access to recommended immunizations requires a complex system of financing comprised of private and public funding mechanisms (Table 4 ).', 'In 2002, 57% of US children received vaccines purchased through the public sector, and 43% received vaccines purchased through the private sector.', 'Most of the public-purchase vaccines are financed through the Vaccines for Children (VFC) program, an entitlement program established in 1994 as part of the Social Security Act [11, 12] .', 'These programs provide support for states to provide immunizations to children who do not qualify for the VFC program but who are not covered by private insurance.', "Fourteen states, referred to as ''universal'' purchase states, use a combination of federal and state funding to purchase and distribute vaccines recommended for children to all immunization providers in private and public sectors.", 'The remaining 36 states purchase vaccines for uninsured and underinsured chil- immunizations in the us dren who are not eligible for VFC.', 'In addition, insurance provides vaccines for children in the private sector.', 'Immunization program challenges\n\nAs the number of vaccines has increased and the scope of the immunization program has expanded, new challenges have emerged.', 'The increasing cost of vaccines, vaccine shortages, and immunization safety are important concerns the immunization program will continue to address in coming years.The rising cost of fully immunizing a child in the United States is due to the increasing number of vaccines and the increasing price of existing vaccines.', 'The cost of immunizing a child through 6 years of age in 2003 was $436 per child for all vaccines, not including influenza vaccine [12] .', 'Increasingly, state and local health departments are required to make difficult choices about which vaccines to purchase using public funds, including Section 317 grant funds.', 'The addition of new, effective childhood and adolescent vaccines to the schedule has the potential to create serious funding challenges in the future.Despite the increasing costs of immunization programs, numerous studies have shown that vaccination continues to be a cost-effective public health intervention.', 'These studies show the need to continue to identify adequate funding sources to support immunization recommendations [13] [14] [15] [16] .', "An Institute of Medicine (IOM) report on vaccine financing released in 2004 concluded, ''alternatives to current vaccine pricing and purchasing programs are required to sustain stable investment in development of new vaccine products and attain their social benefits for all'' [17] .In addition to the increasing cost of vaccines, an unparalleled number of vaccine shortages in the United States has had a substantial impact on vaccine delivery.", 'From 2000 through 2005, vaccine shortages and changes in routine recommendations occurred for 9 of the 12 diseases for which childhood and adolescent vaccination is recommended (Fig.', 'The shortages affected millions of children and health care providers, even triggering suspension of vaccine school entry requirements [24, 25] .', 'Two vaccine shortages (PCV7 and tetanus and diphtheria toxoids [Td]) lasted nearly 2 years, one (PCV7) occurred twice [26] , and one (inactivated influenza vaccine, 2004-05 season) halved the US influenza vaccine supply virtually overnight [17, 22] .The causes of these widespread vaccine shortages are multifactorial.', 'One important long-term factor is the decrease in number of vaccine manufacturers of childhood vaccines routinely recommended in the United States.', "In 1977, a federal immunization working group expressed concern about the stability of the US vaccine supply in the setting of ''a steady attrition of specific pharmaceutical manufacturers from the entire field of biologics'' [17] .", 'In 1993, six manufactures produced the six vaccines.', 'In 2005, although four vaccines (PCV7, varicella, influenza, and MCV4) have been added to the recommended schedule, the number of manufacturers decreased to five.', 'In addition, there are single manufacturers for four of the childhood and adolescent vaccines (MMR, varicella, PCV7, and MCV4).', 'In response to concerns over fragility of the US vaccine supply, the General Accounting Office and National Vaccine Advisory Committee conducted in-depth reviews of the vaccine shortages and concluded that future disruptions in vaccine supply are likely to continue, and proposed solutions [17, 27] .Vaccines are administered routinely to healthy children and must uphold a scrupulously high safety standard; however, no vaccine is completely safe.', 'In 1986, the National Childhood Vaccine Injury Act was passed creating a compensation program for families affected by childhood vaccine-associated adverse events.', 'Several other government programs and committees to ensure the safety of the vaccine supply also were created by this Act ( Table 5) .As many vaccine-preventable diseases approach or reach elimination in the United States, continuing to balance the risks and benefits of each vaccine becomes increasingly important [28] .', 'OPV, formerly recommended for routine use in the United States, was associated with vaccine-associated paralytic poliomyelitis (1 case among 2.4 million vaccine doses distributed).', 'In 2000, the ACIP recommended using IPV for all doses of polio vaccine.', 'Public perceptions of vaccine safety are a challenge to the continued success of the vaccination program.', 'New parents and younger physicians grew up without appreciation of the morbidity and mortality of immunizations in the us several vaccine-preventable diseases.', 'Two current prominent public vaccine safety concerns are the perceived causal association between MMR and autism and thimerosal-containing vaccines and autism.', 'Between 2001 and 2004, this independent expert committee published eight reports related to immunization safety concerns.', 'With respect to autism, the IOM concluded that the body of epidemiologic evidence favors rejection of a causal relationship between the MMR vaccine and autism.', 'The committee also concluded that there is no relationship between thimerosal-containing vaccines and autism [30] .', 'None of the eight IOM reports recommended a policy review of the current vaccine recommendations or change in the immunization schedule.To help ensure safety of vaccines, a robust infrastructure consisting of several systems has been established to monitor vaccine safety after vaccine licensure.', 'The Vaccine Adverse Event Reporting System, operated jointly by CDC and FDA, is a national passive surveillance system used to detect early warning signals and generate hypotheses about possible new vaccine adverse events or changes in frequency of recognized events [31] .', 'Intussusception associated with receipt of rotavirus vaccine, leading to the withdrawal of the vaccine from the market in 1999, was an adverse event detected by the Vaccine Adverse Event Reporting System [31, 32] .', 'A third system is the Vaccine Safety Datalink, which consists of large linked databases from health maintenance organizations.', 'Associations between serious medical events and immunizations can be evaluated through the Vaccine Safety Datalink.', 'The newest system is the Clinical Immunization Safety Assessment Centers network, which consists of selected clinical academic medical centers in partnership with CDC to study the pathophysiology of vaccine reactions and develop clinical management protocols for affected patients [34] .', 'Of the 10 vaccines routinely recommended for children and adolescents, only two, Td vaccine and the MCV4, are recommended for all adolescents [8] .', 'In 1996, as a result of growing concern about morbidity associated with vaccine-preventable diseases in the hard-to-reach adolescent population, the ACIP recommended expanding efforts to immunize adolescents (11-21 years old) by establishing a routine vaccination visit at 11 to 12 years old [35] .', 'The anticipated addition of several new adolescent vaccines to the recommended schedule has stimulated a reappraisal of the approaches that most effectively and efficiently would increase the proportion of adolescents who receive newly recommended vaccines and develop ways to integrate these approaches with other adolescent health, education, and development programs.', 'Vaccines in the spotlight\n\nSimilar to all aspects of clinical medicine, immunization recommendations continuously change as new vaccines are licensed and new information becomes available.', 'Since 1990, several new vaccination recommendations were implemented for existing and new vaccines.', 'Notable examples are PCV7 and the hepatitis B vaccine; new recommendations for both have affected children and health care providers.', 'Several vaccines with expected FDA licensure in the near future likely will alter the US immunization program and preventive health care practices ( Table 6 ).', 'Vaccines with a pediatric or adolescent focus under review by the ACIP are relevant to the prevention of pertussis, human papillomavirus (HPV), influenza, varicella, and rotavirus.', 'This section presents a summary of these vaccines in addition to information on PCV7, hepatitis B vaccine, and MCV4.', 'The potential impact of vaccines on the distant horizon also will be highlighted.', 'Emphasis is on how recent and upcoming policy decisions might affect children and adolescents, health care providers, and society during the next decade.', 'Pneumococcal conjugate vaccine\n\nPCV7 was recommended for routine use in infants in the United States beginning in 2000.', 'In addition to decreasing the burden of pediatric pneumococcal disease, PCV7 may have an impact on reducing pediatric antibiotic prescriptions and procedures such as blood cultures in young, febrile children [42] .The decline in invasive pneumococcal disease is beyond what would be expected from childhood vaccination, given vaccine efficacy and PCV7 coverage data, suggesting that herd immunity may play a role in protecting unimmunized people from invasive disease [37] .', 'Reduced nasopharyngeal carriage of vaccinecontaining serotypes in vaccinated children is believed to contribute to development of herd immunity against pneumococcus.', 'One study noted an increase in the proportion of cases of invasive pneumococcal disease resulting from nonvaccine serotypes, but the total number of cases was not changed [38] .', 'This study supports the need for continued pneumococcal surveillance in the post-PCV7 era [43] .', 'Hepatitis B\n\nHepatitis B vaccine holds a unique place in the US immunization schedule because they are the only vaccines licensed for neonates and the only licensed vaccine that prevents cancer.', 'The continued evolution of hepatitis B vaccine recommendations reflects many of the challenges associated with vaccines that will be licensed in the near future.Before 1982, an estimated 200,000 to 300,000 people in the United States were infected annually with hepatitis B virus, including approximately 20,000 children [44] .', 'Although most vaccine-preventable diseases are spread via contact or airborne droplets, hepatitis B infection is spread via exposure to infected blood or blood products, sexual contact, and injection devices.', 'Although adults have a 10% chance of developing chronic hepatitis B virus infection, infants infected perinatally who do not receive hepatitis B immunoglobulin and vaccine at birth have a 90% chance of developing chronic infection.', 'Twenty-five percent of these infections lead to hepatocellular carcinoma [45] .The complexity of hepatitis B transmission required a vaccination strategy to protect infants and high-risk adults from infection.', 'The first ACIP hepatitis B recommendation in 1982 was to vaccinate groups known to be at high risk for hepatitis B virus infection, such as health care workers, men who have sex with men, and intravenous drug users [46] .', 'In 1984, the ACIP expanded recommendations to include infants born to mothers who were hepatitis B surface antigen (HBsAg) positive.', 'Vaccinating high-risk groups continued to be difficult because no foundation existed to vaccinate adolescents and adults who already were participating in high-risk activities.', 'Neonatal vaccination works by protecting the infant from contracting hepatitis after vertical or horizontal exposure.', 'Infant vaccination eventually will provide protection against hepatitis B virus to adolescents who may engage in high-risk activities before exposure.', 'Meningococcal vaccines\n\nFrom 2000 to 2002, approximately 2400 to 3000 cases of invasive meningococcal disease occurred annually in the United States [48] .', 'Evidence also showed that college freshmen living in dormitories have a modestly increased risk of meningococcal disease (4.6 cases per 100,000) compared with other persons the same age [49] .A meningococcal polysaccharide (MPS) vaccine containing the antigens of serogroups A, C, Y, and W135 has been used in the United States since licensure in 1981.', 'This vaccine protects against the serogroups that cause approximately two thirds of meningococcal disease that occurs in persons 18 to 23 years old in the United States.', 'More than half of cases in infants are due to serogroup B, however, for which a licensed vaccine does not exist in the United States [49] .', 'Similar to other polysaccharide vaccines, MPS induces a T cell-independent immune response resulting in poor long-term immunity and inconsistent immunogenicity in children younger than 2 years old.', 'Before February 2005, MPS vaccine was recommended for groups at high risk for meningococcal disease and for outbreak control.', 'Educating college freshmen about the potential for the MPS vaccine to prevent severe infection also was recommended.', 'Some states required proof of vaccination or vaccine waiver for entry into colleges and universities [49] .Employing the same technology used to develop PCV7, a meningococcal serogroup C conjugate vaccine was licensed in the United Kingdom in 1999.', 'The vaccine was introduced into the routine infant schedule, with catch-up vaccination for older children and adolescents.', 'In the 2 years after introduction of infant meningococcal conjugate vaccine, the incidence of serogroup C meningococcal disease declined by 87% in vaccinated persons and at least 34% in unvaccinated persons, suggesting the vaccine produced herd immunity [48] .In the United States, a quadrivalet meningococcal conjugate vaccine (serogroups A, C, Y, and W-135) (MCV4) was licensed on January 14, 2005, for use in persons 11 to 55 years old.', 'In the United States, meningococcal conjugate vaccines for use in children younger than 11 years of age are under study.', 'Pertussis vaccine\n\nPertussis remains endemic in the United States despite high immunization coverage rates of infants and young children [51] .', 'In summer 2004, two manufacturers submitted BLAs to the FDA for use of adolescent and adult pertussis vaccines in the United States (tetanus toxoid, reduced diphtheria toxoid and acellular pertussis vaccine adsorbed (Tdap).', 'The BLA indication for one vaccine includes persons 10 to 18 years old, and the other includes persons 11 to 64 years old.Policymakers are reviewing several strategies for pertussis vaccination in adolescents and adults.', 'The expected impact of adolescent pertussis vaccination would be to reduce the risk of pertussis in vaccinated adolescents.', 'Finally, vaccinating women during pregnancy and vaccinating neonates against pertussis have been raised as potential strategies to improve control of pertussis, although pertussis vaccines for these indications are unlikely to be licensed in the United States in the near future [59, 60] .', 'Human papillomavirus vaccine\n\nMore than 200 types of papillomaviruses have been recognized on the basis of DNA sequence analyses [61] .', 'In the United States and Europe, HPV 16 accounts for approximately 50% of the cases of cervical cancer, with types 18, 31, and 45 accounting for an additional 25% to 30% of cases [62] .HPV is one of the most common causes of sexually transmitted diseases in men and women worldwide, causing almost all of the morbidity and mortality associated with cervical cancer [61] .', 'Epidemiologic studies have shown that the risk of contracting genital HPV infection and cervical cancer is related directly to sexual activity.', 'Several specific factors increase the risk of becoming infected with HPV, including multiple sexual partners at any time, having sex with a person who has had multiple sexual partners, sexual activity at an early age, presence of other sexually transmitted diseases, and HPV type.Vaccination against high-risk HPV types could reduce substantially the incidence of cervical cancer.', 'Administration of HPV-16 vaccine has been shown to reduce the incidence of HPV-16 infection and HPV-related cervical intraepithelial neoplasia [63] .', 'In addition, a bivalent HPV vaccine was efficacious in preventing persistent cervical infections with HPV-16 and HPV-18 and associated cytologic abnormalities and lesions [64] .', 'Currently, two HPV vaccines are in the final stages of phase III testing.', 'One vaccine contains HPV types 16, 18, 6, and 11, and the second HPV vaccine contains types 16 and 18.', 'Applications for licensure are expected to be filed with the US FDA in late 2005 or 2006.', 'Rotavirus vaccine\n\nRotavirus is a common cause of gastrointestinal tract illness in young children.', 'In the United States, rotavirus disease leads to an estimated 600,000 clinic visits, 50,000 to 60,000 hospital admissions, and 20 to 40 deaths annually [33] .The first rotavirus vaccine was licensed in the United States in 1998 and was removed from the market and from the immunization schedule in 1999 because of an association with intussusception.', 'This vaccine was a tetravalent rhesus human reassortant vaccine [65, 66] .', 'Currently, several other rotavirus vaccines are in different stages of development.', 'Two late-stage vaccines have completed phase III clinical trials.', 'One vaccine is derived from a monovalent human strain, and the other is a pentavalent bovine-human reassortant vaccine.', 'Large-scale phase III trials did not show an association of these vaccines with intussusception, but postlicensure monitoring is planned.', 'In January 2005, Mexico became the first country to make a new rotavirus vaccine available.', 'The manufacturer of the second rotavirus vaccine plans to release it first in the United States after licensure by the US FDA.', 'After licensure in the United States, educational efforts that address identifiable barriers to achieving practitioner advocacy and patient acceptance will be necessary to ensure implementation of rotavirus vaccine recommendations [67] .', 'Ensuring physician acceptance of the vaccine is critical to achieving high coverage levels [67] .', 'Varicella vaccine\n\nVaricella vaccine, licensed for use in the United States in 1995, is a live, attenuated virus vaccine developed from the vesicles of a healthy infected child with chickenpox.', 'This vaccine is recommended as a single dose for children 12 months to 12 years old.', 'Before varicella vaccine became widely used, varicella was one of the most recognizable rashes seen by pediatricians and was associated with 11,000 hospitalizations and 100 deaths in the United States each year [68] .', 'In 2003, the vaccine had 85% coverage levels, resulting in a significant decrease in mortality, morbidity, and hospitalizations attributable to varicella [68] .Breakthrough varicella infections in vaccinated children occur in 15% of children exposed to varicella.', 'Vaccine effectiveness for prevention of moderate disease (N 50 lesions and complications requiring a visit to a clinician) was 92% [69] .', 'A second dose of varicella vaccine has been approved by the FDA and is being considered for the routine childhood vaccination schedule.The impact of varicella vaccine on the incidence of zoster infections in adults in the United States is unknown.', 'Varicella vaccine may protect children receiving the vaccine from zoster when they become adults.', 'Studies suggest, however, that continued exposure to varicella protects latently infected adults [70] .', 'Vaccination in children could lead to an increase in zoster incidence in unvaccinated adults because exposure to varicella-infected children has declined, but zoster surveillance is limited.', 'A vaccine to prevent herpes zoster in adults is under investigation.', 'Influenza vaccines\n\nSince the worldwide influenza pandemic of 1918 that caused an estimated 25 to 50 million deaths, the control of influenza circulation has been a major challenge to clinicians and public health experts.', 'The threat of an unpredictable influenza pandemic and the concern about avian influenza heighten the importance of preventing morbidity and mortality caused by epidemics of influenza disease in the United States, which cause more than 250,000 hospitalizations and more than 36,000 deaths annually [71] .', 'Implementing the expansion of influenza vaccine recommendations to 6-to 23-month-old children and prioritizing vaccine during influenza vaccine shortages are important issues the US immunization program faces regarding influenza prevention.Influenza virus contains eight major proteins, including hemagglutinin (HA), which controls viral penetration and attachment, and neuraminidase (NA), which controls viral particle release and spread.', 'Major changes in HA and NA, called antigenic shifts, are associated with emergence of novel influenza viruses to which little or no immunity exists in the exposed population.', 'Influenza vaccines are developed yearly based on antigenic drifts.', 'Worldwide surveillance established by the World Health Organization allows predictions to be made regarding antigenic drifts, which enables vaccine to be updated before the start of an influenza season.', 'Recommendations for which influenza strains should be included in the vaccine are made in early spring before influenza season.', 'Three influenza types are formulated and combined to make a new trivalent vaccine each year.Two types of influenza vaccines are licensed for use in the United States.', 'One is an inactivated vaccine recommended for persons 6 months of age in highrisk groups and their close contacts.', 'The second is a cold adapted, live, nasally administered vaccine licensed for healthy people 5 to 49 years of age, including close contacts of high-risk persons.', 'The ACIP and AAP recommended in 2004 to expand influenza vaccine recommendations to include all children 6 to 23 months old and household contacts of children up to 23 months old as well as to continue immunization of all children in high-risk groups.', 'The influenza vaccine is unique to the recommended childhood and adolescent immunization schedule because it is the only vaccine that requires a visit during a certain time of year and that requires annual immunization.', 'In addition, children 6 months to 8 years old are recommended to have two doses of influenza vaccine administered 1 month apart if they previously have never been vaccinated for influenza [76] .', 'Vaccines on the horizon\n\nVaccine development is expanding to include products against cancers, chronic diseases, and other infectious diseases.', 'Vaccines against inflammatory diseases for which an infectious cause has not been identified, such as multiple sclerosis and rheumatoid arthritis, are being developed as therapeutic vaccines.', 'Scientists effectively are using new biologic tools to improve existing vaccines.', 'New technologies also are being used to improve vaccine delivery systems, producing better combination, oral, and intranasal vaccines.The science behind new vaccines continues to advance at a remarkable pace, driven by an evolving understanding of the cellular and molecular processes involved in different responses of the immune system [78] .', 'Adjuvants to vaccines are now being used not only to create an immune response, but also to focus the immune response down a desired path [79] .', 'DNA vaccines, plasmids of DNA encoding the desired antigen, also are being developed with the intention of simplifying vaccine production and eliminating the possible risk of organism reversion [78] .', 'As was true during the time of Jenner, vaccines continue to push the frontiers of science and medicine.In 2000, the IOM published a report prioritizing development of vaccines to be used in the United States.', 'The IOM committee considered vaccines that could be licensed within 20 years directed against conditions of domestic health importance [80] .', 'Health benefits of these vaccines were measured by a standard health outcome measure, quality-adjusted life years gained.', 'These vaccines were placed into categories of most favorable to least favorable (Box 2).', 'Since publication of this report, PCV7 has been licensed for infants beginning at 2 months of age (most favorable category), and HPV vaccine (more favorable category) and rotavirus vaccine administered to infants (favorable category) are on the near horizon as discussed in this article.', 'Institute of Medicine report on vaccines for the twenty-first century Most favorable: vaccination strategy would save money Cytomegalovirus vaccine administered to 12-year-olds Influenza virus vaccine administered to the general population (once per person every 5 years) Insulin-dependent diabetes mellitus therapeutic vaccine Multiple sclerosis therapeutic vaccine Rheumatoid arthritis therapeutic vaccine Group B streptococcus vaccine given to women during first pregnancy and to high-risk adults Streptococcus pneumoniae vaccine given to infants and 65-year-olds More favorable: vaccination strategy would incur small costs (b$10,000) for each QALY* Chlamydia vaccine administered to 12-year-olds Helicobacter pylori vaccine administered to infants Hepatitis C vaccine administered to infants Herpes simplex virus vaccine administered to 12-year-olds HPV vaccine administered to 12-year-olds Melanoma therapeutic vaccine Mycobacterium tuberculosis vaccine administered to highrisk populations Neisseria gonorrhoeae vaccine administered to 12-year-olds Respiratory syncytial virus vaccine administered to infants and 12-year-olds Favorable: vaccination strategy would incur moderate costs (N$10,000 but b$100,000) per QALY gained Parainfluenza virus vaccine administered to infants and women during their first pregnancy Rotavirus vaccine administered to infants Group A streptococcus vaccine administered to infants Group B streptococcus vaccine given to high-risk adults and low utilization in 12-year-olds or women during their first pregnancy (SARS), and avian influenza virus (H5N1).', 'The ongoing outbreak of H5N1 influenza in Asia, associated with high mortality rates, has stimulated research of a vaccine that has the potential to thwart a possible major influenza pandemic.', 'Circulating H5N1 viruses may adapt to humans through genetic mutation or reassortant with human influenza strains, allowing for human-to-human transmission, facilitated by the fact that most humans lack preexisting immunity owing to lack of previous exposure [81] .', 'These emerging infectious diseases and the need to prevent them add further complexity to immunization schedules of the future.', 'Except for pertussis, diphtheria, and Less favorable: vaccination strategy would incur significant costs (N$100,000-N$1 million per QALY gained) Borrelia burgdorferi vaccine given to resident infants born in and immigrants of any age to geographically defined highrisk areas Coccidioides immitis vaccine given to resident infants born in and immigrants of any age to geographically defined highrisk areas Enterotoxigenic Escherichia coli vaccine administered to infants and travelers Epstein-Barr virus vaccine administered to 12-year-olds Histoplasma capsulatum vaccine given to resident infants born in and immigrants of any age to geographically defined highrisk areas Neisseria meningitidis type b vaccine given to infants Shigella vaccine given to infants a</t>
-  </si>
-  <si>
-    <t>['Vaccination of the animals against various infectious diseases prevailing in different geographical regions is the key measure of good husbandry practices and contributes a major role in maintaining animal health and minimizing economic losses due to production losses from infectious diseases.The term vaccine ("vacca," meaning cow) was coined by Luis Pasteur in honor of Edward Jenner who used cowpox lesion as a substitute of smallpox scab to protect from smallpox infection in humans and establish the concept of vaccination.', 'Around a century after him, Luis Pasteur made three vaccines for rabies, fowl cholera, and anthrax through the process of attenuation.', 'Further, in 1886 Daniel Elmer Salmon and Theobald Smith gave the concept of inactivated or killed vaccine.', 'Presently most of the vaccines used for immunization of animals or humans are either live or inactivated in nature.', 'The conventional veterinary vaccines protect animals against the potential dangers of many infectious diseases.', 'Vaccination is the most effective way to prevent the transmission and the spread of animal disease epidemics which subsequently provide full security and public health.The impact of veterinary vaccines is witnessed by the success of the Global Rinderpest Eradication Program which was a large-scale international collaboration involving vaccination, trade restrictions, and disease surveillance.', 'Vaccines against other diseases like brucellosis, rabies, foot and mouth disease (FMD) are being used as the main instruments in the eradication program of the respective diseases globally.', 'In addition to assisting in the eradication program of animal diseases, vaccines also combat the emergence of drug-resistant pathogens and emergence of new diseases.Since the first use of a vaccine, the research for vaccinology in the past 200 years has generated continuous technical breakthroughs and led to substantial improvements in human and animal health.', 'Various developments have taken place with regard to types of vaccines and methods of immunization.', 'However, it is only during the last two decades where the veterinary world has observed significant development of novel prophylactics which are facilitated by the advent of biotechnological tools and techniques, and discovery of antigen/gene delivery systems or recombinant vaccines developed using biotechnological tools or genetic engineering represents an alternative strategy by which the limitations of conventional vaccines are taken care of.', 'A number of genetically-engineered vaccines which are rationally designed such as, live flavivirus chimera vaccine (WN-FV) (PreveNile), live double-gene deleted [deleted glycoprotein E (gE 2 ) and deleted thymidine kinase (tk 2 )] bovine herpesirus type 1 strain (Hiprabovis IBR Marker), and feline immune deficiency vaccine (Fel-O-Vax) have already been introduced in the veterinary market.The infectious animal diseases outbreaks are generally due to viruses, bacteria, or parasites.', 'The vaccine against all pathogens is not available as there are some existing limitations in developed vaccines or difficulties in vaccine development.', 'Reasons for unavailability of vaccines for certain diseases include that either it is not technically possible to develop vaccines that provide adequate protection against the etiological agent or it is not possible to develop safe and effective vaccines, or it may become ineffective in a short duration as pathogens change their characteristics.', 'Many countries have vaccines against most viral or bacterial diseases but lack vaccines against parasitic diseases.', 'Although there are difficulties in developing commercial vaccines against parasites, a few vaccines against parasitic infestation like coccidiosis in poultry and parasitic bronchitis in cattle caused by the nematode Dictyocaulus viviparous are available.', 'Vaccines and one health\n\nFor better public health food security, disease-free body and healthy ecosystems are the main tenets.', 'These can only be achieved by coordinated approaches to produce safe food, access to interdisciplinary medicine, and evaluation and reduced use of hazardous chemical and physical agents on the ecosystem.', 'The World Health Organization (WHO), Food and Agriculture Organization, and the World Organization for Animal Health (OIE) together promoted a comprehensive approach for better public health called "one health" (McConnell, 2014) .', 'One health activity also includes public health threats at the human-animalecosystem interface (antibiotic resistance) and provides guidance on how to reduce these risks (Vandersmissen and Welburn, 2014; Hoelzer et al., 2018) .The world population is growing at a faster pace and is expected to reach more than 9 billion in 2050.', 'Veterinary vaccines contribute immensely to the maintenance of health and productivity of animals.', 'The effective use of vaccines against various diseases could be an important component to meet present and future food demands.In addition to preventing diseases against food animals, it is also important in preventing disease in companion animals and wildlife which subsequently has an important impact on reducing the incidence of zoonotic diseases in human.', 'Vaccines for diseases of companion animals and horses have helped humans to keep animals in the household and enhanced human-animal bonding to enrich the lives of both animals and humans.', 'Without rabies vaccines, it is unlikely that humans would have been willing to keep cats and dogs as pets.Antibiotic resistance is the major concern in both veterinary and human medicine and arose due to excessive and indiscriminate application of antibiotics in treatment and as a feed additive in food animals.', 'Vaccine acts on the bacteria by eliciting host-immune response either through humoral or cellmediated immunity and there is no possibility to get resistance against host immunity (Vandersmissen and Welburn, 2014; Hoelzer et al., 2018) .', 'Bacterial vaccines minimize the treatment cost in food producing and companion animals which also involves the least use of antibiotics.', 'Availability of inexpensive vaccines may reduce reliance on antibiotics for animal health.', 'Live-attenuated vaccine is a live microorganism with very little or no pathogenicity which cannot cause disease but has the ability to induce protective immunity.', 'The immunity generated by live vaccines persist a longer duration and there is no need for adjuvant (van Gelder and Makoschey, 2012; Jorge and Dellagostin, 2017) .', 'The limitations of live vaccines are adverse reaction and reversion of virulence inside the host.', 'Examples: Brucella abortus S-19, Peste-des-petits ruminants virus vaccine, sheeppox vaccine, canine parvovirus vaccine, canine distemper vaccine, Newcastle vaccine, etc.', 'Inactivated vaccines\n\nInactivated vaccines consist of killed bacteria or virus of one or more species or serotypes, mixed with an appropriate adjuvant .', 'The vaccine microorganism is usually grown in bulk in a suitable system (cell culture, egg embryo, or bacterial media) and inactivated by physical (heat and ultravioletrays) or chemical means (formaldehyde, beta-propiolactone, and binary ethyleneimine) which denature either surface proteins (surface effect) or damage the nucleic acid of vaccine virus (Meeusen et al., 2007) .', 'These vaccines are comparatively easy to produce than live vaccines but provide a shorter duration of immunity.', 'Further, most of the viruses have multiple serotypes or continuously changing antigenic structures (e.g., FMD virus and influenza viruses) and one serotype does not provide protection to other serotypes, therefore, vaccine candidates for inactivated vaccines should be continuously evaluated to provide coverage against the outbreaks.', 'Examples of such include FMD vaccine, bluetongue virus vaccine, bovine viral diarrhea virus vaccine, rabies virus vaccines, etc.', "The vaccines against diseases of toxins' origin are produced by inactivating native toxins by physical or chemical means and mixed with adjuvants .", 'For example, the production of recombinant toxins does not require many biosafety precautions because the toxic domain of the protein is removed by biotechnological tool (Arimitsu et al., 2004) .', 'Examples of such include tetanus toxoid, anthrax protective antigen toxoid, and clostridium type A toxoid, etc.', 'Subunit vaccine\n\nSubunit vaccines contain one or more fragments or full-length proteins of a pathogen instead of the whole pathogen to elicit protective immunity in the host .', 'Compared to conventional vaccines, these vaccines are safe to administer, nonreplicating, easy to produce, cost effective, and have no deleterious effect due to unwanted antigenic materials.', 'This type of strategy is common in aviral subunit vaccine called split vaccine.', 'The recombinant subunit vaccines are made by identification and selection of protective antigen gene coding region followed by their cloning in suitable vector and expression in a heterologous host system such as bacteria, yeast, mammalian and insect.', 'Escherichia coli is used extensively for protein expression as heterologous host besides limitation in the form of yield, posttranslational modification and folding of expressed recombinant proteins.', 'The limitations of E. coli expression system were improved by the introduction of methylotropic yeast (Pichia pastoris) which has the capacity of posttranslational modification and folding of expressed recombinant proteins.', 'Since the subunit vaccines induce less immunity in comparison to whole bacteria or viral vaccine, they are used with a suitable adjuvant.', 'Examples of such include Newcastle disease virus (NDV) subunit vaccine using hemagglutinin-neuraminidase (HN) gene, FMDV subunit vaccine using VP-1 gene, porcine circovirus type-2 (PCV-2) subunit vaccine based on open reading frame-2 (commercialized) and prM, and E envelope proteinbased subunit vaccine of Japanese encephalitis.', 'Virus-like particle vaccines\n\nMultiprotein structures that mimic the conformation and authentic structure of an empty viral capsid but are devoid of genetic material are called virus-like particles (VLPs).', 'Therefore they may be a better substitute for inactivated and live vaccines.', 'VLP has been successfully employed in two licensed vaccines, hepatitis B and human papilloma virus but there is no report of licensed veterinary vaccine until now.', 'Vectored vaccines\n\nThe live vector, having the foreign protective antigen coding gene of a bacteria or virus used for eliciting the immune response against the protective antigen is called a vectored vaccine.', 'The live vectors are attenuated virus or bacteria which act as a backbone to deliver large amounts of exogenous gene inside the host .', 'have been tested for their capability to carry the heterologous genes and their expression inside the host (Rizzi et al., 2012) .', 'They provide long lasting immunity due to being viable in nature and because they do not need any adjuvant.', 'Currently, the canary poxvirus vector system has been used for vaccines against rabies virus, canine distemper virus, feline leukemia virus, and equine influenza virus.', 'The bacterial recombinant BCG has significant potential to express a large number of antigens and can induce solid immunity.', 'The use of transgenic plants engineered to produce and deliver immunogenic antigens via food sources has potential perspective in vaccine industries.', 'Plant-based vaccine trials have been conducted for various parasitic diseases including poultry coccidiosis, schistosomosis, porcine cysticercosis, and ascariosis.', 'Plant-derived rabies G protein expressed in tomato, tobacco, and spinach on oral administration in mice mount local and systemic immune response (Shams, 2005) .', 'Besides, in attempt to form edible vaccine for rabies, vaccinia, canarypox, adenovirus, and yeast; they were employed for expression of neutralizing G protein of rabies and used as a delivery system.', 'Rabies vaccine in the form of consumable bait (edible vaccine; raboral V-RG coated in fishmeal and fish oil) was successfully used for vaccination of wildlife such as raccoon, fox, etc.', 'DNA vaccine\n\nNaked DNA plasmid having the protein coding gene of viral, bacteria, or parasites and that can express it in mammalian cells are defined as DNA vaccine (Paludan and Bowie, 2013) .', 'In addition to a desired exogenous antigenic gene, the plasmid contains a strong eukaryotic promoter, polyA tail, multiple cloning sites, and suitable selective marker.', 'The basic aim of DNA vaccine system is that the antigen can be expressed directly by the cells of the host in a way similar to that occurring during viral infection and expressed antigen after processing will be represented either via major histocompatibility complex-I or major histocompatibility complex-II leading to cellular and humoral immune responses (Shi et al., 2014; Meeusen et al., 2007) .', 'DNA vaccines were administrated either by intramuscular (I/M) injection or using a DNA particle delivery system called gene gun.', 'Immunization of animals with DNA vaccine is comparatively safer than the use of other conventional vaccines as later unnecessarily expose the host to a wide variety of antigen .', 'A few examples of DNA vaccines are West Nile virus vaccine (first approved DNA vaccine), influenza virus DNA vaccine (passed clinical trial for ponies), and feline immune deficiency virus.', 'Developments in veterinary vaccinology\n\nSince, the discovery of the smallpox vaccine by Jenner in the 19th century, various forms of vaccines have been developed by using advanced recombination technology .', 'Around two to three decades ago the veterinary vaccines used were mostly live attenuated, inactivated vaccines and toxoid but with recent advances in immunology and molecular biology, and sophisticated forms of genetically-engineered vaccines have been introduced.', 'Although, live-attenuated vaccines are able to induce both cellular and humoral immune responses, they also can produce some side effects.', 'Killed/inactivated vaccines are typically safer but may be less effective than attenuated vaccines whereas, commercial vaccines based on toxoids are difficult to produce.', 'The side reactions, safety issues, effectiveness, etc.', 'are certain issues of aforementioned vaccine and warranted the requirement of better and safer vaccines which can help in the prevention and control of animal diseases.A genetically-engineered vaccine has the potential to alleviate limitations of conventional vaccines.', 'Efforts to develop more effective vaccines against a large number of diseases using genetic engineering are in progress around the world.', 'Genetically-engineered or recombinant vaccines are developed based on rationally designed recombinant and highly purified antigens through epitopes mapping and their prediction.', 'Currently, a number of subunit or vectored veterinary vaccines using biotechnological tool have been commercialized ( Hemorrhagic septicemia (HS), an acute and highly fatal disease of cattle and buffalo, is caused by Pasteurella multocida.', 'The other alternative to control and prevention of HS is by vaccination of animals in endemic areas prior to the expected outbreak of HS.', 'Immunity generated in HS is serotype-specific therefore selection of vaccine candidates depend upon circulating serotypes in that geographical regions.', 'Various strategies have been used to develop HS vaccines such as killed vaccines (bacterins), live-attenuated, cellular vaccines, and genetically-engineered vaccines (Myint et al., 1987; Verma and Jaiswal, 1998; Hodgson et al., 2005) .', 'But killed vaccines are used commonly for the vaccination against HS.', 'Bacterins used against HS include formalized bacterin, aluminum hydroxide gel, and oil adjuvant vaccines (OIE, 2017) .', 'Among these, aluminum hydroxide gel vaccine and oil adjuvant vaccines elicit a good immune response in the studies conducted in many Asian countries including India during the last few years, and are the vaccine of choice.', 'New generation vaccine strains based on attenuation organism, protein subunit, and DNA fragments were also tested experimentally to get safer vaccines (Golshani and Buozari, 2017) but none of them are yet commercialized for immunization purpose.', 'The animals can be protected by vaccination with a single dose of sterne spore vaccine which is an attenuated noncapsulated spore-forming anthrax bacilli (Grabenstein, 2003) .', 'Further, E. coli expressed protective antigen of anthrax bacillus (cap 1 Tox 1 ) was also evaluated in New Zealand white and rhesus macaques but until today there was no commercialized recombinant vaccine for field use (Chawla et al., 2009; Kaur et al., 2013) .', 'Current vaccines used for immunization are based on whole cell killed preparation (bacterin), cell membrane extract, and purified outer envelope (Bolin et al., 1991; Cullen et al., 2002; Bharti et al., 2003) .', 'Most killed vaccines are of animal use while very few are licensed for human use.', 'Some recombinant vaccines based on outer membrane proteins, leptospira immunoglobuline-like proteins, and lipoproteins of leptospira were also experimentally evaluated but none of them are available for immunization purpose (Silveira et al., 2017; Faine et al., 1999; Levett, 2001) .', 'Good management practices and test and slaughter policy are used for the control and prevention of these diseases in bovines.', 'The efficacy of a live vaccine made from the attenuated strain of M. bovis, BCG has proven variable and use of this vaccine might hinder the interpretation of current diagnostic tests (Balseiro et al., 2017; Cousins, 2001) .', 'Both inactivated and modified live (MLV) Salmonella vaccines are licensed for immunization of cattle (Danielle, 2006; Adem and Bushra, 2016) .', 'Most of the inactivated commercial vaccines are bivalent in nature and have S. Dublin and S. typhimurium formulated with suitable adjuvant (aluminum hydroxide).', 'A genetically-altered aroA mutant S. Dublin live vaccine is also used for immunization of farm animals in different developed countries (Duncan et al., 1987) .', 'Further, gram-negative core antigen bacterins such as ENDOVAC-Bovi (S. typhimurium lacking polysaccharide repeat of LPS) and J5 or J5-VAC (LPS core antigen made from mutant strain of E. coli) are commercially available, and it is claiming that they can cross protect animals from other endotoxin-producing bacteria such as E. coli, Salmonella, P. multocida, and Manheimia hemolytica.Besides, autogenous vaccines are also recommended to protect animals on the basis of prevalent Salmonella types on farms.', 'Therefore killed bacteria with fimbria or extracted fimbria with or without LT toxoid (heat labile enterotoxin) are used for immunization of dams before parturition.', 'Commercial vaccines for cows include E. coli F5 isolates or F5 adhesin while purified F4, F5, F6, or F41 fimbria or killed E. coli expressing these fimbriae with or without LT toxoid are used for immunization of sows.', 'Further, liveattenuated, oral subunit vaccine having purified fimbria and poly (lactide co glycolide) (PLGA)-encapsulated fimbria or live vaccine was also evaluated for prevention of colonization (Edelman et al., 1993) .', 'For prevention of EHEC, whole bacteria, adhesin-intimin, fimbria, type III secretion system were tried (Smith, 2014) (Jamal and Belsham, 2013; Poonsuk et al., 2018) .', 'Therefore which serotype or subtype is used as a vaccine candidate depends on the circulating FMDV type in that geographical areas/ countries.', 'In India, trivalent vaccine having "O, Asia-1 and A" serotypes are being used for vaccination of cattle and buffaloes (Jamal and Belsham, 2013) .', 'Further, low quality vaccines, the simultaneous presence of various circulating types of FMDV in different countries and wildlife reservoir (African buffalo) are the main constraints in the control and eradication of this dreaded disease.', 'It is associated with exposure of rabid animals, and incubation period of the disease depends on the extent of bite, site of bite from the brain, and quantum of virus entered by saliva at the bite wound (Blanton et al., 2009 ).', 'The disease is reported from all the geographical areas of the world except Antarctica and has around 100% mortality in humans and animals.', 'Over the last 100 years, a number of vaccines such as inactivated, MLV, and recombinant have been developed for the control and prevention of disease (Muller et al., 2001; Xiang et al., 2003; Singh et al., 2017) .', 'The neural origin vaccines have been discontinued due to their adverse effects and use of animals for the propagation of the virus.', 'Nowadays modern vaccines, cell culture, and embryonated egg-based inactivated vaccines (Beta-propiolactone) are being used prophylactically (preexposure) and therapeutically (postexposure) to protect humans and animals against rabies (Singh et al., 2017) .', 'These modern vaccines are now available in most developing countries and have been successful to minimize the number of human exposures.', 'Further, recombinant vaccines lack residual pathogenicity caused by rabies because they contain only single nonvirulent gene products.', 'Various vectors such as animal poxvirus, human and canine adenoviruses encoding rabies virus glycoprotein G have been tested in different targets (dog, cat, fox, and raccoon) and nontarget wild animals via oral route (rabbit, deer, etc.).', 'Among these vaccines, a vaccinia-based recombinant vaccine is used for immunization of wild animals as edible bait and are playing an important role in the prevention of rabies virus from wild animals to other domestic animals and humans (Yang et al., 2013) .', 'The oral vaccines are Raboral V-RG (vaccinia recombinant virus expressing G protein) and with Rabigen SAG2 (double mutant avirulent strain SAG2).', "An earlier practice to control the disease was to immunize the animals with Plowright's live-attenuated tissue culture rinderpest vaccine (heterologous vaccine) but its use was stopped due to hindrance in the serosurveillance of rinderpest .", 'These vaccines are efficacious, safe, and provide a long-term protection to small ruminants.', 'Presently, MLV vaccine and inactivated vaccines are used for the control of the disease in various continents of the world (Bhanuprakash et al., 2009; Chand et al., 2015) .', 'As the immunity in BTV is serotype-specific and there are so many circulating serotypes in a geographical area at a time, the vaccine formulation is very difficult and challenging.', 'Because of this reason, multivalent vaccines are used for immunization of animals.', 'MLV vaccine produces viremia in animals which leads to further transmission of the virus and causes abortion, therefore this vaccine is generally not recommended for vaccination.', 'Presently in India pentavalent vaccine having BTV-1, 2, 10, 16, and 23 serotypes are used for the vaccination (Reddy et al., 2010) .', 'VLP-based genetically-engineered vaccine was also attempted but due to serotype-specific immunity and genetic drift in serotypes, this strategy was not successful (Chand et al., 2015) .', 'Sheep pox and goat pox\n\nSheep pox and goat pox are diseases of sheep and goats caused by sheep pox (SPV) and goat pox virus (GPV) of the genus Capripoxvirus and characterized with pyrexia, generalized lesion, internal pox lesion, and lymphadenopathy (Bhanuprakash et al., 2011; Madhavan et al., 2016) .', 'For the prevention of disease both live-attenuated and inactivated vaccines are available, however inactivated vaccine provides a short duration of protection (Bhanuprakash et al., 2012; Boumart et al., 2016) .', 'Liveattenuated vaccine elicits long-term protection against SPV and GPV but its use is limited due to stimulation of pock lesion or death for some animals.', 'Usually, the homologous vaccination strategy is useful for the protection of animals and locally prevalent strains are used as vaccine strains for immunization of sheep and goats (Rao and Bandyopadhyay, 2000) .', 'In India, live-attenuated vaccine incorporated with RM-65 strain for sheep pox and Uttarkashi strain of goat pox is currently used for immunization of sheep and goats, respectively (Madhavan et al., 2016) .', 'For prevention of disease live-attenuated vaccines are used.', 'Currently, live-attenuated vaccine strains such as Chinese strain, Weybridge strain, Thiverval and lapinized virus, produced by the repeated passage of virus in tissue culture of porcine origin (PK-15) and rabbit are used for immunization of pigs (Blome et al., 2017) .', 'Additionally, E2 protein-based marker vaccine is also used for differentiation between infected and vaccinated animals (Huang et al., 2014) .', 'Recently a chimeric pestivirus vaccine "CP7_E2alf" was found safe and efficacious following oral administration and licensed for the oral immunization of pig (Eblé et al., 2014a,b) .', 'The causative agent of this vectorborn disease is Japanese encephalitis virus (JEV), a member of genus Flavivirus and transmitted by thebite of Culex mosquitoes (Basu and Dutta, 2017) .', 'Infections in pigs lead to significant reproductive problems causing abortion, still-birth, and birth defects while horses suffer from pyrexia and neurological manifestations leading to death (Lindahl et al., 2013) .', 'Both inactivated and live-attenuated vaccines are available for pigs, horses, and humans.', 'A genetically-engineered JE vaccine that combines the attenuated JEV strain and yellow fever vaccine virus is also available for humans (Janewongwirot et al., 2016) .', 'Both MLV and inactivated vaccines are used for immunization of animals (Beer et al., 2000) .', 'It is considered that inactivated vaccine is safer than MLV and therefore MLV vaccine is not recommended to pregnant animals in their first 6 months.', 'In contrast to NCP biotypes, most modern modified-live vaccines use CP biotypes of BVDV as these types of virus are not able to establish persistent infection in fetus.', 'Marker vaccines based on glycoprotein E-2 expressed in baculovirus or transgenic plant and BVDV E-2 DNA vaccines have also been evaluated for immune response (Thomas et al., 2013) .', 'Recently, truncated glycoprotein E-2 fused with single chain antibody (APCH) subunit vaccine (Pecora et al., 2015) (Vedevax) expressed in baculovirus was commercialized for field use.', 'Therefore vaccine formulations require either one or both genotypes depending upon the prevalence of BVDV in a particular continent or geographical strata.', 'To address this aforementioned problem, a novel mosaic polypeptide chimeras having three protective determinants; of BVDV-1a, BVDV-1b and BVDV-2 genotypes using adenovirus vector construct (adBVDV prototype vaccine) was evaluated and found better immunogenic with heterologous protection (Lokhandwala et al., 2017) .', 'Infectious bovine rhinotracheitis\n\nIt is one of the agents of bovine respiratory disease complex characterized by inflammation of nose and trachea of cattle.', 'Latent animals become clinically infected once again due to recrudescence of virus by stressful stimuli and subsequent reexcretion of infectious virus acts as a source of infection for other susceptible animals of the herd.', 'Around 200 vaccines have been licensed for immunization against IBR worldwide.', 'Conventional vaccines include either live or inactivated BoHV-1 strain while marker vaccines are gene deleted type mutants.', 'A double-gene deleted (gE 2 and tk 2 ) Bovine Herpes Virus type 1 vaccine is commercially available (van Engelenburg et al., 1994) .', 'These vaccines are effective in preventing clinical disease and reducing virus transmission but are not able to prevent infection from field virus.', 'Most of the European countries have banned the use of conventional live vaccine and are strictly using marker vaccines for effective protection and serosurveillance with the aim of disease eradication.', 'Majority of these vaccines are licensed for immunization of pregnant animals.', 'Most of these vaccines are licensed for use in the United States or European countries and manufactured by Zoetis UK, MSD Animal Health and Laboratorios Hipra, Spain.', 'Avian influenza, swine influenza, equine influenza, and canine influenza are the most common types of influenza virus A infection in birds, pigs, equines, and canines, respectively (Webster et al., 1992; Yoo et al., 2018) .', 'Avian influenza on the basis of the presence of single or several basic amino acids at the cleavage site in haemagglutinin are classified into low pathogenicity avian influenza (LPAI) and highly pathogenicity avian influenza (HPAI) virus .', 'Both types affect different avian species but wild and migratory birds act as a reservoir of LPAI.', 'OIE has defined avian influenza as "an infection of poultry caused by any influenza A virus with HPAI and by H5 and H7 subtypes with low pathogenicity (H5/H7 LPAI)."', 'Affected birds exhibit varying clinical manifestations from mild to severe respiratory, nervous, gastrointestinal, and reproductive system disease and sometimes birds are dead without any clinical appearance (Horby, 2014) .', 'Further, LPAI viruses also cause a considerable loss due to anorexia, respiratory signs, reduce egg production, and less weight gain.', 'OIE recommended eradication of HPAI virus from poultry due to severe economic consequences in poultry industries in terms of reduced egg production, low quality of eggs, mortality, and evolution of new antigenic mutants via antigenic shift and drift posing a threat to humans.', 'Currently inactivated mono and bivalent vaccines having H5 and H7 strains and live recombinant vaccines (fowlpox-H5) are available for immunization of poultry (Swayne, 2012) .', 'The reverse genetic-based recombinant H5N1 vaccine was also evaluated in mice and found to be a promising candidate vaccine against HPAI in poultry (Sedova et al., 2012; Lee and Song, 2013) .', 'Good management practices in swine farming and use of vaccines can limit the swine influenza and consequently the possibility of human transmission.', 'Most of the available licensed vaccines have inactivated whole virus of H1 or H3 subtypes.', 'For immunization of pigs bivalent vaccine having H1N1 and H3N2 are used through I/M route and are protective to antigenically identical or similar strains.', 'Recently intranasal poly I: C adjuvanted vaccine was found more protective compared to conventional vaccines (Kim et al., 2015) .', 'Further polyvalent vaccines containing multiple H1 and H3 clusters were commercialized with the goal of protection from new emerging antigenic cluster within subtypes of H1 and H3 (MaxiVac Excell 5.0, Merck Animal Health, Summit, NJ, USA; FluSure XP, Zoetis, Florham Park, NJ, USA).', 'New generation vaccines based on reverse genetic strategy to make attenuated-live vaccine, DNA vaccine, subunit vaccine, and vectored 5 based vaccine were also evaluated experimentally for immunization of pigs but only alphavirus-like replicon particles (RP) having gene encoding the HA of a cluster IV H3N2 virus was licensed for pig use ("Swine Influenza Vaccine, RNA"; Harris vaccines, Ames, IA, USA) (Abente et al., 2019) .Equine influenza, a highly contagious respiratory disease of equine characterized with high temperature, nasal discharge, coughing, with high morbidity, and occasional mortality in foal and donkeys is one of most important infectious respiratory disease of equine worldwide.', 'Three different types; inactivated whole virus/ subunit-ISCOM-matrix or ISCOM, live-attenuated and vector-based equine influenza vaccines are available commercially (Dilai et al., 2018) .', 'The currently licensed inactivated vaccines contain H3N8 and H7N7 strains while live-attenuated vaccines have cold-adopted H3N8 strain.', 'Subunit vaccines have either HA or both HA and NA proteins formulated with a suitable adjuvant.', 'Canary pox virus vector is used for expression of HA gene expression after injection in the host.', 'Currently inactivated and recombinant vaccines are used most frequently for immunization of horses.', 'For prevention of winter dysentery, there is no dedicated vaccine.', "However MLV coronavirus vaccine (BOVILIS Coronavirus, Intervet/Merck Animal Health) which is recommended for calves' diarrhea caused by bovine coronavirus.", 'Further, a solubilized antigen from BCoV-infected cells combined with an oil adjuvant was tested as a prototype vaccine to be used against winter dysentery (Takamura et al., 2000 (Tak</t>
-  </si>
-  <si>
-    <t>['PII: S1359-6446(04)03234-9w The introduction of vaccines into medical practice at the beginning of the last century has had an extraordinary impact on human health, and represents an unparalleled success story in modern medicine.', 'Vaccines are broadly considered to be the safest and most effective medical intervention strategy.', 'In conjunction with the introduction of antibiotics and modern hygiene, vaccines have significantly contributed to a steady decline in the mortality and morbidity that is caused by infectious diseases (Table 1) .', 'Vaccines have been responsible for the eradication of the virus that causes smallpox, and significant efforts are underway to eradicate poliovirus.', 'The eradication of naturally occurring smallpox also resulted in the elimination of the need for continued vaccination, the ultimate success for a vaccine.', 'A recent review highlighted the value of vaccination, but also emphasized that vaccines are often underused and undervalued [1] .Each year, pediatric vaccines prevent up to three million deaths worldwide and protect &gt;750,000 children from serious disability.', 'Nevertheless, the issue of vaccine safety has been with us since vaccination was first established in the 19th century ( Figure 1 ) and continues to attract intense scrutiny [2] .', 'Although pediatric vaccines have been used safely for decades, there has been a relatively recent shift in the public perception of their safety.', 'As a result of vaccination policy, the incidence of several vaccine-preventable diseases in Western societies is now low, for example, diphtheria and tetanus (Table 1 ).', "However, this approach ignores societal responsibilities and fails to appreciate the crucial role of 'herd immunity', which prevents the circulation of pathogens and protects the whole population.", 'Vaccines are not 100% effective, and so there will always be a susceptible population who are more prone to adverse consequences of infection, including immunocompromised individuals or people with a genetic susceptibility.', 'The population of susceptible people will increase as health care improvements extend the life expectancy of people suffering from chronic diseases.', 'Vaccines are often mandatory to ensure protection for all, not just the individual who might choose not to be vaccinated.', 'Here, the safety of vaccines is described and real safety problems are highlighted.', 'In addition, safety issues that have been widely publicized without supporting evidence are discussed.', 'Current vaccines and safety concerns\n\nImmunization policy in the USA is predominantly determined by the Advisor y Committee on Immunization Practices (ACIP; http://www.cdc.gov/nip/acip), which is an advisory group to the US Public Health Service and the Centers for Disease Control and Prevention (CDC; http://www.cdc.gov).Infants that are vaccinated according to the current guidelines will receive up to 18 separate injections for protection against 12 different infectious diseases by the time they are two years of age.', 'Nevertheless, when detailed studies have been undertaken, the possibility of a causative link with vaccination has mostly been eliminated or not proven, including claims of a link between hepatitis B vaccine and multiple sclerosis (MS) [3, 4] .', 'Many approaches are currently being evaluated to facilitate vaccination without the use of needles, including mucosal delivery of vaccines and other technologies and devices such as topical immunization.', 'However, none of these strategies is as yet close to being established for routine use [5] .Although a claim of complete safety is impossible for any medical intervention, with almost 100 years of accumulated evidence involving many billions of doses, it can be stated with confidence that vaccines have an enviable and exemplary safety profile.', 'However, some vaccines have been shown to cause safety problems in a minority of individuals (Table 3) .', 'Vaccines are administered annually to hundreds of millions of infants and therefore the level of scrutiny will continue to be intense.', 'Consequently, the safety hurdles for the approval of new vaccines will be high, with rigorous and detailed evaluations being routine.', 'When vaccines have shown safety problems (Table 3) , important lessons have been learned and approaches have been modified to avoid repeating the problem.', 'Hence, even rare adverse events can have a negative impact on vaccines if they are broadly reported and not put into the context of their relative occurrence versus the benefit afforded by the vaccine.', 'To prevent this, and to support vaccination policy, public health agencies, industry, academia and responsible journalists all have a role to play in ensuring that the benefits of vaccines are explained while acknowledging that adverse events do occur.', 'Although this article will focus principally on the developed world, the global perspective of the World Health Organization (http://www.who.int) on the safety of vaccines was recently discussed [6] .', 'Reviews of technologies that can improve the safety of vaccine administration [7] and a report on the first international symposium on vaccine safety [8] have also been recently published.', 'A recent example can be used to highlight vaccine safety and to illustrate how the vaccine community responded to an apparent problem with a marketed product.', 'In 1998, a live, oral rotavirus vaccine was introduced onto the market for immunization of infants, but a year later this product was withdrawn because of an association with intussusception, a rare but serious obstruction of the intestine.', 'Before licensure, only five cases of intussusception were reported in 10,000 vaccine recipients versus one case in 4633 placebo recipients [9] .', 'However, nine months after licensure, the CDC recommended that vaccination should be suspended and the existing data evaluated further to investigate the relationship between the vaccine and intussusception [9] .', 'Subsequent epidemiological studies appeared to confirm an excess of cases of intussusception after administration of the first dose [10] and the recommendation for use of the vaccine was withdrawn by the ACIP.', 'Moreover, the safety database required to allow licensure for subsequent rotavirus vaccines has been expanded and studies are now underway in 60,000 infants for second-generation products.', 'The story of the rotavirus vaccine in the USA brings up an important issue in relation to safety and/or benefit analysis.', 'The vaccine was removed from the list of recommended vaccines because of the low level of incidence of a potentially serious adverse event, but rotavirus infection is not normally fatal in the USA.', 'Although the administration of the rotavirus vaccine could have prevented many of these deaths, once the recommendation had been withdrawn in the USA, it was considered unethical to promote the vaccine in the developing world despite the fact that it would have saved many lives.', 'Fortunately, second-generation rotavirus vaccines are now moving through late stages of development and testing, including safety evaluations in large numbers of infants.Moreover, it appears that the original vaccine might be 848 DDT Vol.', "9 Oral polio virus Reversion to virulence Live vaccines now require larger and more stable deletions before approval [52] Live oral rotavirus Intussusception Vaccine no longer recommended and the required safety database has been expanded for future products [9] Inactivated measles Atypical measles Vaccine removed from the market [53] Intranasal flu with bacterial Bell's palsy (facial paralysis) Vaccine removed from the market [54] toxin adjuvantWhole-cell pertussis vaccine Reactogenic Removed from market in the majority of the developed world [17] Anthrax -cell-free filtrate product (anthrax vaccine adsorbed)\n\nReactogenic\n\nPurified recombinant protein will be available in the near future [55] Swine flu Guillain-Barré syndrome Vaccination discontinued [56] reintroduced onto the market (http://www2.niaid.nih.gov/ Newsroom/Releases/rotavirus04.htm), following a reevaluation of the existing safety data [11] .", 'A historical perspective on vaccine safety\n\nLong before the development of molecular methods that enable the specific engineering of recombinant viruses, a live, attenuated oral poliovirus vaccine (OPV) was developed using empirical methods involving the passage of virus in cell culture.', 'However, shortly after the introduction of OPV, sporadic cases of vaccine-associated paralytic polio were reported at a level of one per 750,000 recipients [12] .', 'In rare situations, the few attenuating mutations that are present in one vaccine strain could potentially cause the live OPV to revert to virulence.', 'Nevertheless, the OPV vaccine has continued to be used worldwide and could be responsible for eradicating polio infection in the next few years.', 'However, as the level of polio falls, OPV is gradually being replaced with an alternative killed, inactivated polio vaccine (IPV), which cannot cause polio even in the most susceptible individuals.', 'An important lesson is that future live vaccines will not be acceptable unless there is a clear understanding of their molecular attenuation and the potential for reversion to virulence has been eliminated, either as a result of the size or the number of attenuating deletions.', 'Molecular biology techniques have now made it possible to prevent live viruses from reverting to virulence.The history of the development of IPV also taught the vaccine community a second important lesson.', 'Long after the introduction of IPV into clinical use, it was discovered that early IPV was contaminated with simian virus 40 (SV40) from the cell line used to produce the vaccine.', 'Although SV40 is oncogenic in several species, extensive investigations have shown that the use of contaminated IPV did not result in an increase in the rate of cancers in vaccine recipients [13] .', 'Nevertheless, as a result of this problem, the rules and regulations that control the use of cell-culture systems in vaccines were extensively improved and they continue to evolve today to meet additional challenges, including the need to use media and reagents from animals that have been proven to be free of transmissible spongiform encephalitis (TSE).Vaccines against whooping cough were first developed in the 1940s by formalin inactivation of bacterial cells and were later combined with tetanus and diphtheria toxoids to create the first combination vaccines.', 'Although the whole-cell vaccines were effective at protecting against whooping cough, concerns about adverse reactions began to accumulate in the 1970s, particularly with regard to seizures and infantile spasms [14, 15] .', 'Public opinion turned against whole-cell vaccines and their use declined, which predictably resulted in an upsurge in the incidence of disease and mortality from whooping cough [16] .', 'It was finally established that in extreme cases the whole-cell pertussis vaccine could cause acute transient fever, hypotonichyporesponsive episodes, inconsolable crying and seizures, but there was no evidence that the vaccine caused chronic neurological problems [17] .', 'However, the negative publicity and poor acceptance of the whole-cell vaccine resulted in extensive research to identify the protective antigens against pertussis.', 'In the early 1980s, several companies [including GlaxoSmithKline (http://www.gsk.com), Aventis Pasteur (http://www.aventispasteur.com), Wyeth Lederle (http://www.whale.to/v/wyeth1.htm) and Chiron Vaccines (http://www.chiron.com)] initiated programs to evaluate the potency of subunit vaccines, which could be combined with tetanus and diphtheria vaccines.', "The development of subunit pertussis vaccines can be considered the start of the 'minimalist' approach to vaccine development, in which only the necessary antigens are included in the vaccine [18] .", 'Several of these products were shown to be effective in protecting against disease and have now replaced whole-cell vaccines in most of the developed world.', 'However, because of the increased cost, subunit pertussis vaccines are not yet available in the developing world.', 'Can vaccines cause autoimmune disease?', 'Predominantly as a consequence of the success of vaccines, the morbidity and mortality associated with many acute childhood infectious diseases has been replaced by an increasing incidence of more chronic disorders, for example, diabetes, MS, autism, asthma and allergy.', 'A recent study involving more than 739,000 children born in Denmark between 1990 and 2000 showed that there was no support for a causal relationship between childhood vaccines and diabetes [19] .', 'This was consistent with a previous study that had found no association between type I diabetes and any of the recommended childhood vaccines in the USA [20] .', 'A possible relationship between hepatitis B vaccine and MS was also raised and investigated, but the results from two large-scale studies established that there is no significant association between hepatitis B vaccination and MS [3, 4] .', 'Moreover, there is no evidence that routine vaccines, including hepatitis B, can increase the risk of exacerbation of MS [21] .', 'Indeed, accumulated data have established that the hepatitis B vaccine, which is a purified recombinant protein, is among the safest vaccines developed to date.', '[22] recently reviewed the evidence that vaccines could cause autoimmune 849 DDT Vol.', 'Can vaccines cause anaphylaxis?', 'Although the problem can be caused by exposure to a range of materials in everyday life, vaccineassociated anaphylaxis has also been reported [23] .', 'However, anaphylaxis is a rare occurrence and, after administration of 7,644,049 vaccine doses, only five potential cases of vaccine-associated anaphylaxis have been reported (giving a risk of 0.65 cases per million doses), none of which resulted in death [23] .', 'In addition to antigens, vaccines contain several other components, including preservatives, adjuvants and manufacturing residuals.', 'Although it is not always clear which components might be responsible for anaphylaxis, gelatin and egg proteins are present in some vaccines at sufficient levels to induce hypersensitivity reactions.', 'Vaccines are not the only source of such materials and susceptible individuals are likely to encounter these agents at some point in their lives, even if they are not vaccinated.', "Exposure in a physician's office, where the reaction can be treated, is preferable to an uncontrolled situation in which the exposure could occur elsewhere.", 'The levels of mercury, aluminium, formaldehyde, albumin, antibiotics and yeast proteins that are present in vaccines have not been shown to be harmful to humans or experimental animals [24] .', 'Current controversies in vaccination\n\nThe removal of thiomersal (thimerosal), a mercury-containing preservative, from childhood vaccines was recommended by the American Academy of Pediatrics in 1999 (http://www.cdc.gov/nip/vacsafe/concerns/thimerosal).', 'The recommendation to remove thiomersal caused significant problems and heightened public fears that children had already been damaged by the use of vaccines containing this component.', 'However, there was no evidence to indicate that the low levels of mercury contained in vaccines could cause harmful effects (http://www.who.int/ vaccine_safety/topics/thiomersal/en).', "Unfortunately, the publicity over this issue resulted in the perception that all vaccines containing mercury were 'unsafe' for children and as a consequence some children at high risk for developing serious complications of influenza infection did not receive vaccines.Adjuvants are added to vaccines to improve their immunogenicity [26] and were first introduced in the 1920s in combination with tetanus and diphtheria toxoid vaccines.", 'Although the safety of vaccines adsorbed to alum has been established over 70 years of use [27] , questions are still asked concerning safety.', 'Alum-adsorbed vaccines can induce local reactions (e.g.', 'Although alum-adsorbed vaccines have been linked to a previously unknown inflammatory muscle disorder called macrophagic myofascitis [30] , there is no evidence to support an association of this minor local lesion with any systemic disease (http://www.who.int/ vaccine_safety/topics/aluminium/en).', 'Because alum favors the induction of T-helper cell (Th) type 2 immune responses, including immunoglobulin E antibody responses, it has been suggested that alum could contribute to the development of allergic reactions (Th2-mediated) in predisposed individuals, but there is no evidence to support this.', 'The article concluded that routine vaccinations are not a risk factor for asthma or eczema [31] .The highest profile vaccine controversy in recent years has been the unsubstantiated link between measles, mumps and rubella (MMR) vaccine and autism in the UK.', '[32] suggested that the measles vaccine was a possible contributory factor to the development of autism in predisposed children.', 'This incident has become a salutary lesson in how important it is to ensure that scientific information is conveyed to the public in an appropriate manner that precludes interpretations that are not supported by the facts.', "However, the number of deaths is declining (30% drop between 1999 and 2002) with the broader use of the MMR vaccine.It has been conjectured that too many vaccines are administered simultaneously and that the concomitant administration of multiple vaccines results in the immune system being 'overloaded'.", 'There is no evidence to support this proposal and infants have an enormous capacity to respond safely and effectively to multiple vaccines [34] .', 'For example, the whole-cell pertussis vaccine alone contains many more antigens than are currently administered to children in routine vaccination.', 'A recent review article directly addressed the concerns of parents about the possibility that multiple vaccines can weaken the immune system of an infant and concluded that there was no evidence to support this [35] .', "The success of childhood vaccines has been partially blamed for the 'hygiene hypothesis', which suggests that because infants do not contract infections early in life their immune systems are tilted (Th2 responses) towards generating atopic disease later in life, including allergy and asthma.", 'Thus, even when vaccines are accepted as being useful and effective, they are still highlighted as a potential cause of long-term problems.', 'However, vaccines only prevent a few of the many infections that can be contracted by children and thus even fully vaccinated children will still be infected with pathogens that can have an impact on their developing immune systems.', "There is some evidence that the established tuberculosis (TB) vaccine Mycobacterium bovis Bacillus Calmette-Guérin (BCG) might result in a 'protective' effect against the development of allergy [36] ; this is probably because this whole-cell vaccine induces a potent Th1 response that might affect the response to some other vaccines administered at similar times [37] .", 'The balance of safety versus benefit for vaccines\n\nThere are several recent examples that demonstrate the impact of vaccines in reducing mortality and morbidity.', 'The introduction of protein-polysaccharide conjugate vaccines against Neisseria meningitidis serogroup C in the UK showed a clear reduction in the number of deaths [38] (Figure 2) , as did the recent introduction of the Pneumococcus conjugate vaccine [39] .', 'A similar outcome had been achieved in the 1980s with the introduction of the first conjugate vaccine against Hemophilus influenzae type b (Hib) [40] .', 'All of these vaccines are safe and well tolerated, with the occurrence of adverse events a rarity.', 'Hence, the safety of vaccines needs to be considered in light of their impact in reducing death and disease.In addition to the positive impact of vaccines, there have also been incidents of adverse consequences as a result of a failure to vaccinate.', "This has sometimes been a consequence of the perception of the public of a 'problem' with vaccine safety, including measles or hepatitis B, but is also the result of a change in vaccination policy.", 'unsubstantiated but resulted in the public losing confidence in the vaccine [42] .', 'The experience in Japan enabled a clear correlation to be made between vaccination policy, the establishment of herd immunity and a positive impact of vaccines in preventing death and disability in a susceptible population [43] .', 'Technologies to improve vaccine safety\n\nSeveral approaches have been developed recently that have the potential to produce safer vaccines.', "The use of the genomic information that is available on important microorganisms and the approach termed 'reverse vaccinology' enables the identification of novel recombinant antigens that have the potential to be excellent vaccine candidates [44] .", 'Based on the experience with the recombinant hepatitis B vaccine, it is expected that these highly purified recombinant antigens will prove to be much safer than traditional vaccines.', "Several novel vaccine adjuvants with improvements over alum are currently undergoing clinical and preclinical testing, including 'delivery systems' that are designed to promote the uptake of antigens into key cells of the immune system and potent immunopotentiators that are designed to have a higher specificity for the activation of these cells [45] .", 'The most significant barrier to the development of new adjuvants has been the requirement for safety, but an emulsionbased adjuvant (MF59) was introduced onto the European market in 1997 [46] and additional approaches are expected to follow in the coming years.', "Improvements in genetic engineering approaches, including the approach of 'reverse genetics', now enable the production of viral vectors with predetermined genetic defects, which should improve their safety.", 'alphaviruses) will result in improvements in safety over the traditional approaches [47] .', 'At present, the biggest problem for vaccine safety worldwide is the inappropriate reuse of needles in developing countries, which results in infection with blood-borne pathogens such as HIV and hepatitis C virus (HCV).', 'However, important developments in the use of auto-disposable syringes and in needle-free vaccine-delivery systems will minimize these problems [5] .', 'Overall, the increasing use of postlicensure safety studies (often called Phase IV studies) for new vaccine products will ensure that safety issues that arise even at low levels will be identified quickly, as has already been demonstrated with the oral rotavirus vaccine.', 'Furthermore, there is an increasing awareness that infectious agents often cause chronic diseases, and many of these might be prevented or even treated with novel vaccines (e.g.', 'Therapeutic vaccines would be able to sustain a higher level of adverse events than traditional vaccines, particularly if used in an oncology setting or to treat a life threatening infectious disease, because they would be used in people who were already sick or infected.', 'Hence, the benefit-to-risk ratio would be significantly shifted in favor of the vaccine and the level of scrutiny in relation to safety would be changed.', "However, society does not currently value 'prevention' as high as it values therapy.", 'Unfortunately, the economic value of vaccines is undervalued when compared with pharmaceutical drugs and this has resulted in many companies choosing not to invest in vaccines.', 'The UK government recently expressed concern that the small number of companies producing vaccines signifies that the supply of vaccines is in danger [49] .', 'The economic disincentive to invest in vaccines is heightened by the risks of liability.', 'To promote the use of vaccines and to encourage active participation, attempts to understand the negative perceptions of some for vaccines must be made [50] .', 'Although the vast majority of people receive only benefit from vaccines, these people are silent.', 'If these are the only people who voice an opinion, the overall perception of vaccines could be that they do more harm than good.', 'Although the medical community has generally been successful at convincing people about the benefit of childhood vaccines, education of the population about the benefit of vaccines in later life must be improved.', 'In the coming years, the availability of vaccines that will be targeted at adolescent and elderly individuals will increase.', 'All of us in the vaccine community have a role to play in educating the public to have a greater appreciation of the value of vaccines to ensure that lives are not lost prematurely to preventable infectious diseases.', 'The numbers of available vaccines will increase as a consequence of the growing awareness that chronic diseases can be caused by infectious agents.Overall, the field of vaccinology has evolved considerably over the past century and much has been learned, although sometimes through unfortunate mistakes.', 'Today, there is the potential to develop highly purified and safe vaccines that are predominantly based on recombinant proteins or protein-polysaccharide conjugates.', 'These vaccines will eliminate the problems previously encountered with whole-cell and live-attenuated products.', 'Moreover, mechanisms are now in place to enable evaluations in large numbers of people that directly address some of the concerns about the potential for vaccines to induce diabetes, autism and MS, among others.', 'However, the key to enhancing confidence in vaccination is total transparency about the real and unsubstantiated issues in vaccine safety.']</t>
-  </si>
-  <si>
-    <t>['Introduction\n\nVaccines work by presenting an antigen to the immune system, which respond by evoking an immune response that ameliorates the effects of an infectious pathogen or a disease process.', 'Vaccines can either be prophylactic or therapeutic, and the antigen material can either be live attenuated pathogens, killed or inactivated forms of these pathogens, or purified or recombinant material such as proteins.Vaccine research has seen a remarkable renaissance during the last decade.', 'In the private sector, recent commercial successes such as the human papilloma virus (HPV) vaccine have triggered small and even large pharmaceutical companies to initiate or renew their interest in vaccines.', 'This trend has been further supported by the appearance of novel financing mechanisms such as Product Development Partnerships (PDPs), and the introduction of market-related incentives such as the Vaccine Fund, the Advanced Market Commitment (AMC) and the International Financing Facility for vaccines.There are several reasons for the public sector to engage actively in vaccine research and to support the development of new 0264-410X/$ -see front matter © 2008 Elsevier Ltd. All rights reserved.', 'doi:10.1016/j.vaccine.2008.11.064 vaccines.', 'Firstly, vaccines are one of the most effective ways to protect people against infectious diseases and thereby actively promote better health and quality of life, locally as well as globally [4] .', 'Secondly, vaccines are one of the most cost-effective measures for public health [5] .', 'Safe and effective prophylactic vaccines are significantly more cost-effective than repeated application of drugs or other treatments.', 'Vaccines can therefore release resources, which can be used elsewhere in the health system.', 'Thirdly, the development of vaccines against extraordinary pathogens such as HIV may be so technically and scientifically challenging that it may never occur without sustained support and active contribution from the public sector.', 'Last but not least, vaccines against pathogens such as dengue or malaria, which are mainly (or only) prevalent in low-income countries, are unlikely to be developed unless the public sector subsidises and supports research.', 'European support to vaccine research\n\nEurope has a long and successful tradition for vaccine research in both public and private institutions.', 'Two-thirds of global vaccine R&amp;D is conducted by European firms and almost 90% of all vaccine production takes place in Europe [6] .', 'As a region, Europe is therefore well positioned to take on new challenges in vaccine research, and exploit the immense opportunities that are opening up in this field of science.', 'The Sixth Framework Programme for Research (FP6) of the EC, which was adopted in 2002, gave an opportunity to provide further momentum to vaccine research with a European dimension.', 'During the course of FP6 (2002) (2003) (2004) (2005) (2006) , more than EUR 210 million was allocated by the EC to initiate a total of 66 projects with a focus on vaccines or vaccine-related research ( Table 1 ).', 'Most projects, namely 41, were funded with a view to develop vaccine candidates for a specific disease.', 'Finally, capacity building, clinical investigations and implementation research of existing vaccines received a total funding of nearly EUR 30 million to support 9 projects.', 'In addition, an EC contribution of EUR 200 million was made to the European and Developing Countries Clinical Trials Partnership (EDCTP) initiative, which uses its resources to support capacity building and clinical trials of new vaccines and treatments for HIV/AIDS, malaria and TB in sub-Saharan Africa.Projects of different magnitudes have been supported within each category of research.', 'Smaller and focused research activities have mostly been supported as Specific Targeted Research Projects (STREP) or in a few cases as Cooperative Research for small-and medium-sized enterprises (COOP).', 'The smaller and more flexible STREP projects are well suited for early stage research, whereas the larger and multidisciplinary IPs may act both to take up new discoveries from STREP projects, while also delivering mature project results for clinical applications or further downstream development by industry organisations, the EDCTP or public-private partnerships.', 'Another project type, the Network of Excellence (NoE) has been applied in a few areas as a special tool to structure and coordinate the European research community around common research agendas.', 'The small-est type of projects, Strategic Support Actions (SSA) has been used to support activities such as harmonization of research standards, conferences, workshops or training schemes.', 'Basic vaccinology\n\nResearch in basic vaccinology has been supported with more than EUR 46 million during the course of FP6.', 'The funding has been used to initiate 16 research consortia, all of which are focused on knowledge and technologies with broader relevance for vaccine development.', 'The projects cover a wide range of aspects, but 3 activity areas have received particular attention, namely mucosal vaccinology, post-genomic vaccinology and dendritic cells as vaccine targets.Many infectious diseases are caused by pathogens that enter the human body through mucosal surfaces.', 'This includes serious diseases such as HIV/AIDS, TB, influenza and sexually transmitted diseases.', 'The Muvapred consortium is coordinated by Novartis Vaccines, and the project comprises 29 research organisations from the public sector in Europe, the biotech industry and African research institutions.', 'The project started in December 2003 and has since explored several new approaches for mucosal vaccination and has provided new solutions to overcome the technical difficulties of sampling the human mucosal immune system.', 'The Muvapred consortium is complemented by the Savinmucopath project, which aims to develop mucosa specific vaccines against bacterial infections.', 'The Munanovac project explores the use of nanoparticles for mucosal immunization, while the Epivac project is focused on transdermal immunisation.', 'Taken together, these projects cover a wide range of research in delivery of vaccines through new routes of administration.', 'More than 40% of the total EC contribution to basic vaccinology has been allocated to these 4 projects, demonstrating the importance of this area within the EC portfolio of vaccine research.The use of new genomic data for better selection of candidate antigens is an important aspect of contemporary vaccinology, and this is also reflected in the EC portfolio of projects.', 'The Compuvac project gathers 15 partners in a joint effort to develop a platform for rational design and standardized evaluation of genetic vaccines.', 'The BACABS project aims to build a standard approach for selection of new vaccine candidates on the basis of structural determinants.', 'Most of the current vaccines work by inducing an antibody response, but vaccination against diseases such as AIDS, cancer and auto-immune diseases may also require a concurrent cytotoxic T-cell response.', 'In this effort, Dec-Vac is complemented by DC-Vacc and Theravac, which explore the potential future use of dendritic cells as natural adjuvants and targets for a broad range of vaccines.', 'Besides the 3 areas above, a number of projects have addressed other areas of basic vaccinology, ranging from the use of new vectors for vaccine development (Mvactor) to the establishment of a virtual immune system (Immunogrid).', 'The projects on basic vaccinology are thus covering a wide range of activities with a common aim of establishing new methods and novel technologies for future vaccine research across a range of diseases.', 'Disease specific vaccine research\n\nMost of the vaccine research activities under FP6 is tightly associated to a single disease or pathogen.', 'Poverty-related diseases (HIV/AIDS, malaria and TB)\n\nThe combat against the 3 major poverty-related diseases (PRDs) is an established priority within the European Commission [7] , and a major component of FP6 has therefore been support to vaccine research in this area.', 'More than half of all projects focused on HIV/AIDS, reflecting the huge challenges for vaccine research in this particular area.', 'The Avip consortium comprises 20 research groups from Europe and Africa with an aim to generate novel AIDS vaccine candidates, based on combinations of HIV regulatory (Tat and/or Rev, and/or Nef) and structural (Env and/or Gag/Pol) proteins.', 'The largest malaria project is EMVDA, which aims to select, develop and test candidate vaccines directed against the asexual blood stages of malaria parasites.', 'The project is coordinated by the European Malaria Vaccines Initiative (EMVI), which has access to a number of very different synthetic antigens such as MSP1, MSP2, MSP3, GLURP, EBA 175, AMA1, LSA3, STARP, and Exp-1.', 'The project covers pre-clinical and early clinical development of subunit vaccines such as MVA-Ag85A, Mtb72f and Ag85B-ESAT6, but also new live attenuated vaccines such as rBCG-UreC-Hly and Mtb-PhoP.', "Collectively, the TB-Vac consortium therefore comprises the world's most comprehensive portfolio of TB vaccine candidates in current development.", 'A more recent example stems from November 2002, when SARS (Severe Acute Respiratory Syndrome), a hitherto unknown infectious disease, was reported in Guangdong in China, and quickly spread to Hong Kong, Taiwan, Singapore, Vietnam and Canada before it was contained [8] .', 'These events underline the importance of supporting vaccine research for new and re-emerging infectious diseases.', 'While existing seasonal flu vaccines have been highly effective in the management of influenza, there is a thus number of obstacles to the development of safe and effective vaccines for pandemic influenza.', 'Vaccine research for both influenza and SARS has been initiated under FP6, and most of the projects are focused on pandemic influenza and how to increase preparedness for potential future outbreaks.', 'The largest project, FluVacc, is developing an improved technology for quickly producing new live attenuated influenza vaccines based on reverse genetics.', 'The Hepacivac project aims to develop a prophylactic and potentially therapeutic vaccine against the hepatitis C virus.', 'The aim of this 5-year project (2007-2011) is to undertake formal pre-clinical testing of the two most promising vaccine candidates, and subsequently progress these to early clinical testing in healthy volunteers as well as chronically infected individuals.', 'The group of NIDs is not clearly defined, but broadly comprises infectious diseases, which are often forgotten due to limited incidence or economical incentives to develop prevention or treatments.', 'The EC has supported vaccine research in neglected infectious diseases since the early 1980s, and 8 projects with a total EC contribution of EUR 15 mill were initiated during FP6.', 'Non-infectious diseases\n\nThe possibility of creating vaccines for a host of non-infectious diseases such as cancer, neurodegenerative diseases and autoimmune diseases provides one of the most exciting fields for current vaccine research.', 'It holds the potential to meet a huge unmet medical need or provide an alternative to traditional treatments that are costly, only partially effective and associated with adverse effects.', "With the exception of a vaccine project against Alzheimer's disease (Mimovax), the efforts in this area are concentrated on cancer vaccines and the projects are targeting some of the major cancers, such as lung cancer, melanoma, and carcinoma.", 'The projects are mostly focused on identification of specific tumour antigens that are selectively present in cancer cells, and therefore provide a potential immune target for a vaccine approach.', 'The largest single project, Cancerimmunotherapy, gathers 22 partners for developing a therapeutic vaccine against melanoma and potentially other cancer types.', 'Within this project, different vaccine approaches will be tested and compared, using both peptides and RNA as immunogens and with different types of immunological adjuvants and dendritic cells.', 'The field of vaccines for non-infectious diseases is highly promising, but there are still many fundamental roadblocks to be overcome.', 'As such, some of the EC funded activities in basic vaccinology will undoubtedly also benefit the future advancement of vaccines for non-infectious diseases.', 'Clinical research and capacity building\n\nVaccines can contribute enormously to public health if they are used appropriately.', 'The implementation of new vaccines in the public health sector, and the improved use of existing vaccines are both critical factors for optimizing the impact of vaccinations.', 'To achieve this, a detailed understanding of disease epidemiology and vaccine protection is necessary.', 'Furthermore, a thorough understanding of the socio-economic benefits of individual vaccines must support decisions about vaccine campaigns.', 'Finally, researchers and health personnel must receive appropriate and sufficient training to obtain a better understanding of vaccinology and the impact of different vaccines in the field.', 'The largest single initiative in clinical vaccine research under FP6 is the Europrise network-of-excellence.', 'The aim of Europrise is to better synergise European research on new preventive technologies for HIV/AIDS, including both microbicides and vaccine research.', 'Another NoE, DC-Thera, is focused on the clinical application of vaccines based on dendritic cells.', 'The EC has also supported a number of projects with focus on networking of activities, harmonization of clinical activities (e.g.', 'Finally, the important aspect of human capacity building through training of scientists from developing countries has been supported in various ways.', 'Concluding remarks\n\nThe great success of vaccines in the past and present should be used as inspiration to intensify research in this area of life science even further.', 'A number of important infectious diseases such as HIV/AIDS, malaria and hepatitis C continue to escape attempts to produce effective vaccines against them.', 'Vaccines against other infectious diseases such as TB exist, but are only partially effective and need dramatic improvement to respond to the real public health needs.', 'To confront these challenges in vaccine research, the creation and strengthening of partnerships between multiple stakeholders is necessary.One of the characterizing features of the EC Framework programme is the strong focus on cooperation between researchers in different countries.', 'Around 581 research groups from 52 countries are thus participating in the ongoing EC supported vaccine research projects (Fig.', 'This trend is expected to become significantly more pronounced in Framework Programme 7 (2007 Programme 7 ( -2013 .Another key priority has been partnerships between scientists in different sectors.', 'The result has been that more industry partners have joined vaccine research projects in FP6 than in any previous framework programme.', 'The industry partners include a wide range of companies, ranging from small and medium-sized enterprises (SMEs) in the biotech sector to some of the largest vaccine manufacturers in the world.', 'In total, more than 20% of all partners in the vaccine projects under FP6 came from the private industry sector.The FP6 vaccine projects were all initiated between 2003 and 2007, and with a typical duration of 3-5 years.', 'Many more results can be expected as the various projects evolve during the coming years.', 'FP7 will also continue to support research in clinical applications and basic vaccinology with a broad applicability.', 'Last but not least, FP7 will also provide continued support to research in a range of non-infectious diseases, where vaccine approaches are becoming increasingly relevant.', 'FP7 is thus a potential source of sustained support to a wide range of vaccine research activities.', 'Furthermore, an overall focus on translational research in the health theme of FP7 makes it feasible that many of the promising results in vaccine research obtained during the course of FP6 can be accelerated and translated into application.']</t>
-  </si>
-  <si>
-    <t>['medicine', 'ex', 'medicine', 'medicine', 'vaccine', 'medicine', 'medicine', 'ex', 'approach', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'support', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'support', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'vaccine', 'medicine', 'vaccine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'support', 'ex', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'approach', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'existing', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'prevention', 'medicine', 'medicine', 'medicine', 'ex', 'approach', 'medicine', 'medicine', 'ex', 'approach', 'medicine', 'support', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'approach', 'medicine', 'support', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'ex', 'ex', 'medicine', 'support', 'ex', 'support', 'ex', 'medicine', 'support', 'ex', 'medicine', 'medicine', 'support', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'support', 'medicine', 'support', 'medicine', 'medicine', 'medicine', 'support', 'via', 'ex', 'via', 'medicine', 'ex', 'vaccine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'support', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'approach', 'medicine', 'support', 'medicine', 'ex', 'medicine', 'approach', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'vaccine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'ex', 'medicine', 'medicine', 'support', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'approach', 'medicine', 'medicine', 'prevention', 'medicine', 'medicine', 'support', 'approach', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'alternative', 'ex', 'medicine', 'support', 'ex', 'medicine', 'medicine', 'support', 'ex', 'medicine', 'support', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'existing', 'medicine', 'ex', 'medicine', 'existing', 'ex', 'ex', 'approach', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'existing', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'alternative', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'approach', 'medicine', 'ex', 'ex', 'medicine', 'medicine', 'existing', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'prevention', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'existing', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'ex', 'ex', 'ex', 'ex', 'medicine', 'ex', 'support', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'support', 'medicine', 'support', 'support', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'ex', 'ex', 'medicine', 'via', 'medicine', 'ex', 'medicine', 'support', 'medicine', 'support', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'medicine', 'medicine', 'support', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'ex', 'medicine', 'support', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'existing', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'existing', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'ex', 'ex', 'medicine', 'ex', 'ex', 'vaccine', 'medicine', 'approach', 'medicine', 'alternative', 'ex', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'support', 'ex', 'ex', 'medicine', 'ex', 'ex', 'support', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'medicine', 'approach', 'medicine', 'medicine', 'medicine', 'medicine', 'approach', 'medicine', 'ex', 'medicine', 'support', 'ex', 'medicine', 'support', 'ex', 'medicine', 'medicine', 'medicine', 'support', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'existing', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'approach', 'medicine', 'existing', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'existing', 'ex', 'ex', 'ex', 'medicine', 'ex', 'approach', 'medicine', 'ex', 'medicine', 'alternative', 'medicine', 'medicine', 'medicine', 'ex', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'via', 'via', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'approach', 'medicine', 'ex', 'medicine', 'prevention', 'ex', 'ex', 'medicine', 'medicine', 'medicine', 'vaccine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'via', 'medicine', 'ex', 'ex', 'medicine', 'approach', 'medicine', 'medicine', 'vaccine', 'existing', 'ex', 'vaccine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'vaccine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'existing', 'medicine', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'vaccine', 'medicine', 'medicine', 'medicine', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'support', 'ex', 'ex', 'support', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'prevention', 'ex', 'medicine', 'via', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'via', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'support', 'ex', 'support', 'ex', 'approach', 'medicine', 'approach', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'approach', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'approach', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'approach', 'ex', 'approach', 'medicine', 'medicine', 'ex', 'ex', 'medicine', 'approach', 'medicine', 'medicine', 'ex', 'medicine', 'support', 'ex', 'approach', 'ex', 'medicine', 'approach', 'ex', 'medicine', 'ex', 'ex', 'ex', 'ex', 'medicine', 'ex', 'ex', 'medicine', 'approach', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'support', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'via', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'via', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'existing', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'support', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'approach', 'medicine', 'ex', 'ex', 'ex', 'ex', 'ex', 'vaccine', 'ex', 'medicine', 'medicine', 'existing', 'medicine', 'ex', 'medicine', 'existing', 'medicine', 'ex', 'medicine', 'medicine', 'approach', 'medicine', 'medicine', 'ex', 'vaccine', 'ex', 'ex', 'medicine', 'support', 'alternative', 'medicine', 'support', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'support', 'medicine', 'medicine', 'support', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'support', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'support', 'medicine', 'ex', 'ex', 'medicine', 'ex', 'existing', 'ex', 'medicine', 'ex', 'via', 'ex', 'ex', 'ex', 'ex', 'approach', 'medicine', 'medicine', 'approach', 'medicine', 'ex', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'support', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'support', 'ex', 'approach', 'medicine', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'vaccine', 'approach', 'medicine', 'ex', 'ex', 'via', 'medicine', 'ex', 'approach', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'support', 'ex', 'approach', 'medicine', 'ex', 'medicine', 'support', 'ex', 'medicine', 'medicine', 'approach', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'existing', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'existing', 'medicine', 'support', 'ex', 'existing', 'ex', 'existing', 'ex', 'existing', 'ex', 'medicine', 'medicine', 'medicine', 'ex', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'medicine', 'ex', 'existing', 'ex', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'ex', 'medicine', 'ex', 'ex', 'medicine', 'ex', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'ex', 'medicine', 'support', 'medicine', 'medicine', 'support', 'ex', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'support', 'ex']</t>
-  </si>
-  <si>
-    <t>['medicine', 'ex', 'approach', 'medicine', 'medicine', 'approach', 'approach', 'alternative', 'approach', 'prevention', 'approach', 'medicine', 'approach', 'ex', 'ex', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'medicine', 'ex', 'alternative', 'ex', 'medicine', 'medicine', 'ex', 'medicine', 'ex', 'ex', 'alternative', 'medicine', 'ex', 'alternative', 'alternative', 'ex', 'support', 'ex', 'prevention', 'prevention', 'ex', 'alternative', 'medicine', 'ex', 'ex', 'ex', 'ex', 'ex', 'medicine', 'ex', 'medicine', 'alternative', 'medicine', 'medicine', 'ex', 'medicine', 'medicine', 'ex', 'approach', 'medicine', 'approach', 'ex', 'ex', 'approach', 'approach', 'approach', 'medicine', 'ex', 'ex', 'medicine', 'approach', 'alternative', 'approach', 'alternative', 'ex', 'medicine', 'ex', 'approach', 'alternative', 'medicine', 'ex', 'alternative', 'ex', 'approach', 'alternative', 'approach', 'alternative', 'medicine', 'support', 'ex', 'alternative', 'approach', 'ex', 'ex', 'ex', 'ex', 'approach', 'alternative', 'ex', 'ex', 'approach', 'alternative', 'medicine', 'approach', 'alternative', 'ex', 'approach', 'ex', 'approach', 'ex', 'via', 'ex', 'ex', 'support', 'ex', 'approach', 'approach', 'ex', 'approach', 'approach', 'prevention']</t>
-  </si>
-  <si>
-    <t>['prevention', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'existing', 'prevention', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'support', 'ex', 'ex', 'approach', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'via', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'via', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'existing', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'approach', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'via', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'approach', 'via', 'prevention', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'approach', 'via', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'via', 'vaccine', 'approach', 'vaccine', 'vaccine', 'approach', 'via', 'vaccine', 'approach', 'vaccine', 'prevention', 'vaccine', 'ex', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'via', 'vaccine', 'approach', 'approach', 'vaccine', 'vaccine', 'via', 'vaccine', 'ex', 'vaccine', 'alternative', 'ex', 'vaccine', 'via', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'via', 'prevention', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'medicine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'medicine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'via', 'vaccine', 'vaccine', 'alternative', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'support', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'alternative', 'via', 'ex', 'via', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'ex', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'approach', 'alternative', 'via', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'via', 'existing', 'ex', 'vaccine', 'ex', 'vaccine', 'via', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'via', 'alternative', 'ex', 'prevention', 'ex', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'prevention', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'approach', 'alternative', 'ex', 'ex', 'vaccine', 'ex', 'vaccine', 'approach', 'alternative', 'vaccine', 'ex', 'vaccine', 'vaccine', 'support', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'alternative', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'alternative', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'prevention', 'vaccine', 'prevention', 'approach', 'alternative', 'via', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'support', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'approach', 'via', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'ex', 'approach', 'vaccine', 'via', 'ex', 'ex', 'vaccine', 'approach', 'vaccine', 'ex', 'approach', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'approach', 'alternative', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'vaccine', 'via', 'ex', 'approach', 'vaccine', 'approach', 'vaccine', 'prevention', 'ex', 'vaccine', 'ex', 'ex', 'ex', 'ex', 'ex', 'ex', 'ex', 'ex', 'via', 'ex', 'vaccine', 'approach', 'via', 'vaccine', 'ex', 'etc', 'vaccine', 'ex', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'ex', 'vaccine', 'approach', 'ex', 'ex', 'vaccine', 'via', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'support', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'via', 'ex', 'vaccine', 'vaccine', 'via', 'via', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'approach', 'ex', 'vaccine', 'approach', 'via', 'ex', 'alternative', 'ex', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'approach', 'vaccine', 'approach', 'ex', 'vaccine', 'approach', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'prevention', 'ex', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'ex', 'support', 'ex', 'ex', 'vaccine', 'approach', 'approach', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'via', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'ex', 'existing', 'ex', 'vaccine', 'approach', 'alternative', 'existing', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'approach', 'existing', 'ex', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine']</t>
-  </si>
-  <si>
-    <t>['vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'etc', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'approach', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'via', 'ex', 'vaccine', 'mapping', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'alternative', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'vaccine', 'alternative', 'via', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'approach', 'existing', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support', 'approach', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'approach', 'vaccine', 'ex', 'alternative', 'ex', 'vaccine', 'alternative', 'via', 'vaccine', 'approach', 'via', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'approach', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'approach', 'vaccine', 'approach', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'prevention', 'vaccine', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'ex', 'ex', 'vaccine']</t>
-  </si>
-  <si>
-    <t>['vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'existing', 'prevention', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'ex', 'vaccine', 'support', 'ex', 'ex', 'approach', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'via', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'via', 'vaccine', 'vaccine', 'vaccine', 'ex', 'existing', 'ex', 'vaccine', 'prevention', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'approach', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'via', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'approach', 'via', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'approach', 'via', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'via', 'prevention', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'ex', 'vaccine', 'via', 'vaccine', 'via', 'ex', 'vaccine', 'approach', 'approach', 'vaccine', 'vaccine', 'via', 'vaccine', 'medicine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'via', 'vaccine', 'vaccine', 'alternative', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'support', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'alternative', 'via', 'ex', 'via', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'via', 'alternative', 'ex', 'ex', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'support', 'approach', 'alternative', 'ex', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'alternative', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'approach', 'via', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'support', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'ex', 'approach', 'vaccine', 'via', 'ex', 'ex', 'vaccine', 'approach', 'vaccine', 'ex', 'approach', 'ex', 'approach', 'ex', 'approach', 'ex', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'via', 'ex', 'approach', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'ex', 'ex', 'ex', 'ex', 'ex', 'ex', 'via', 'ex', 'vaccine', 'approach', 'via', 'vaccine', 'ex', 'ex', 'alternative', 'ex', 'vaccine', 'via', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'via', 'prevention', 'ex', 'vaccine', 'via', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'ex', 'vaccine', 'via', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'support', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'via', 'ex', 'vaccine', 'vaccine', 'via', 'via', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'via', 'vaccine', 'approach', 'ex', 'vaccine', 'approach', 'via', 'ex', 'alternative', 'ex', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'approach', 'vaccine', 'approach', 'ex', 'vaccine', 'vaccine', 'via', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'vaccine', 'ex', 'support', 'ex', 'ex', 'vaccine', 'approach', 'approach', 'ex', 'vaccine', 'vaccine', 'medicine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'via', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'ex', 'existing', 'ex', 'vaccine', 'approach', 'alternative', 'existing', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'ex', 'vaccine', 'approach', 'via', 'vaccine']</t>
-  </si>
-  <si>
-    <t>['vaccine', 'vaccine', 'prevention', 'vaccine', 'approach', 'via', 'vaccine', 'existing', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'approach', 'vaccine', 'via', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'via', 'ex', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'via', 'vaccine', 'mapping', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'etc', 'ex', 'approach', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'mapping', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'approach', 'alternative', 'ex', 'vaccine', 'ex', 'existing', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'existing', 'ex', 'vaccine', 'approach', 'alternative', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'alternative', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'vaccine', 'via', 'existing', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'support', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'vaccine']</t>
-  </si>
-  <si>
-    <t>['medicine', 'ex', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'medicine', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'support', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support', 'alternative', 'medicine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'medicine', 'vaccine', 'existing', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'support', 'vaccine', 'vaccine', 'via', 'ex', 'vaccine', 'vaccine', 'ex', 'ex', 'ex', 'ex', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'ex', 'vaccine', 'via', 'prevention', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'medicine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'via', 'medicine', 'ex', 'vaccine', 'vaccine', 'existing', 'ex', 'ex', 'ex', 'vaccine', 'vaccine', 'ex', 'via', 'ex', 'vaccine', 'support', 'vaccine', 'vaccine', 'ex', 'ex']</t>
-  </si>
-  <si>
-    <t>['vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'medicine', 'approach', 'ex', 'vaccine', 'vaccine', 'vaccine', 'medicine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'etc', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'etc', 'vaccine', 'vaccine', 'ex', 'ex', 'etc', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'via', 'vaccine', 'ex', 'via', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'etc', 'vaccine', 'ex', 'vaccine', 'ex', 'via', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'etc', 'via', 'prevention', 'vaccine', 'vaccine', 'mapping', 'vaccine', 'vaccine', 'alternative', 'prevention', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'prevention', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'prevention', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'via', 'etc', 'prevention', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'via', 'via', 'via', 'via', 'ex', 'ex', 'via', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'via', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'alternative', 'vaccine', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'via', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'via', 'etc', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'etc']</t>
-  </si>
-  <si>
-    <t>['medicine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'vaccine', 'support', 'prevention', 'vaccine', 'vaccine', 'approach', 'vaccine', 'via', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'ex', 'vaccine', 'support', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'alternative', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'support', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support', 'vaccine', 'support', 'vaccine', 'vaccine', 'support', 'vaccine', 'support', 'vaccine', 'ex', 'vaccine', 'support', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'vaccine', 'approach', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'approach', 'ex', 'approach', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine']</t>
-  </si>
-  <si>
-    <t>['vaccine', 'vaccine', 'vaccine', 'support', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support', 'ex', 'vaccine', 'support', 'vaccine', 'support', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'existing', 'support', 'ex', 'vaccine', 'support', 'vaccine', 'support', 'ex', 'ex', 'support', 'support', 'vaccine', 'vaccine', 'ex', 'vaccine', 'approach', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support', 'vaccine', 'vaccine', 'vaccine', 'ex', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'support', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'support', 'vaccine', 'ex', 'vaccine', 'alternative', 'ex', 'vaccine', 'approach', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'existing', 'ex', 'vaccine', 'vaccine', 'support', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'support', 'support', 'vaccine', 'vaccine', 'ex', 'vaccine', 'vaccine', 'support', 'vaccine', 'ex', 'vaccine', 'vaccine', 'vaccine', 'ex', 'support', 'approach', 'support', 'vaccine', 'support', 'vaccine', 'vaccine']</t>
+    <t xml:space="preserve">Abstract
+The global spread of SARS-CoV-2 requires an urgent need to find effective therapeutics for the treatment of COVID-19. We developed a data-driven drug repositioning framework, which applies both machine learning and statistical analysis approaches to systematically integrate and mine large-scale knowledge graph, literature and transcriptome data to discover the potential drug candidates against SARS-CoV-2. The retrospective study using the past SARS-CoV and MERS-CoV data demonstrated that our machine learning based method can successfully predict effective drug candidates : bioRxiv preprint against a specific coronavirus. Our in silico screening followed by wet-lab validation indicated that a poly-ADP-ribose polymerase 1 (PARP1) inhibitor, CVL218, currently in Phase I clinical trial, may be repurposed to treat COVID-19. Our in vitro assays revealed that CVL218 can exhibit effective inhibitory activity against SARS-CoV-2 replication without obvious cytopathic effect. In addition, we showed that CVL218 is able to suppress the CpG-induced IL-6 production in peripheral blood mononuclear cells, suggesting that it may also have anti-inflammatory effect that is highly relevant to the prevention immunopathology induced by SARS-CoV-2 infection. Further pharmacokinetic and toxicokinetic evaluation in rats and monkeys showed a high concentration of CVL218 in lung and observed no apparent signs of toxicity, indicating the appealing potential of this drug for the treatment of the pneumonia caused by SARS-CoV-2 infection. Moreover, molecular docking simulation suggested that CVL218 may bind to the N-terminal domain of nucleocapsid (N) protein of SARS-CoV-2, providing a possible model to explain its antiviral action. We also proposed several possible mechanisms to explain the antiviral activities of PARP1 inhibitors against SARS-CoV-2, based on the data present in this study and previous evidences reported in the literature. In summary, the PARP1 inhibitor CVL218 discovered by our data-driven drug repositioning framework can serve as a potential therapeutic agent for the treatment of COVID-19. author/funder. All rights reserved. No reuse allowed without permission. : bioRxiv preprint known evidences reported in the literature, we also discussed several putative mechanisms of the anti-SARS-CoV-2 effects for CVL218 or other PARP1 inhibitors to be involved in the treatment of COVID-19. Overall, our results indicated that the PARP1 inhibitor CVL218 identified by our drug repositioning pipeline may serve as an effective therapeutic agent against COVID-19.ResultsThe overview of our data-driven drug repositioning framework is shown in Figure 1A . We first constructed a virus related knowledge graph consisting of drug-target interactions, protein-protein interactions and similarity networks from publically available databases (Methods). Three different types of nodes (i.e., drugs, human targets and virus targets) within the knowledge graph were connected through edges describing their interactions, associations or similarities to establish bridges of information aggregation and knowledge mining. We then applied a network-based knowledge mining algorithm to predict an initial list of drug candidates that can be potentially used to treat SARS-CoV-2 infection ( Figure 1B and Methods). Next, we further narrowed down the list of drug candidates with the previously reported evidences of antiviral activities based on the text mining results from the large-scale literature texts, which were derived through a deep learning based relation extraction method named BERE [4] ( Figure 1C and Methods), followed by a minimum of manual checking. After that, we used the connectivity map analysis approach [5] with the gene expression profiles of ten SARS-CoV-infected patients [6] to further refine the list of drug candidates against SARS-CoV-2 ( Figure 1D , Table 1, Table S1 and Methods). The above screening process revealed that a poly-ADP-ribose polymerase 1 (PARP1) inhibitor PJ-34 could potentially have the antiviral activities against SARS-CoV-2. 4 author/funder. All rights reserved. No reuse allowed without permission.
+</t>
+  </si>
+  <si>
+    <t>['https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprintTo date, there is no effective antiviral therapies that can combat the Coronavirus infections and hence the treatments are only supportive.', 'This experiment is carried out to design novel epitope-based vaccine against four proteins of SARS-CoV-2 i.e., nucleocapsid phosphoprotein which is responsible for genome packaging and viral assembly [96] ; surface glycoprotein that is responsible for membrane fusion event during viral entry [97] [98] ; ORF3a protein that is responsible for viral replication, characterized virulence, viral spreading and infection [99] and membrane glycoprotein which mediates the interaction of virions with cell receptors [100] using the approaches of reverse vaccinology.Reverse vaccinology refers to the process of developing vaccines where the novel antigens of a virus or microorganism or organism are detected by analyzing the genomic and genetic information of that particular virus or organism.', 'These tools are used to dissect the genome and genetic makeup of a pathogen for developing a potential vaccine.', 'Reverse vaccinology approach of vaccine development also allows the scientists to easily understand the antigenic segments of a virus or pathogen that should be given more emphasis during the vaccine development.', 'This method is a quick, cheap, efficient, easy and cost-effective way to design vaccine.', 'Reverse vaccinology has successfully been used for developing vaccines to fight against many viruses i.e., the Zika virus, Chikungunya virus etc.', '[ \n\nMaterials and Methods:\n\nThe current experiment was conducted to develop potential vaccines against the Wuhan novel coronavirus (strain SARS-CoV-2) (Wuhan seafood market pneumonia virus) exploiting the strategies of reverse vaccinology (Figure 01 ).', "Next, the selected antigenic protein sequences were analyzed by ExPASy's online tool and ProtParam (https://web.expasy.org/protparam/) to determine their physicochemical properties i.e., the number of amino acids, theoretical pI, extinction co-efficient, aliphatic index and grand average of hydropathicity (GRAVY) etc.", 'The toxicity prediction of the selected epitopes was carried out using ToxinPred server (http://crdd.osdd.net/raghava/toxinpred/) using SVM (support vector method) based method, keeping all the parameters default.', 'Molecular Docking of the Selected Epitopes\n\nMolecular docking analysis is one of the essential steps in reverse vaccinology to design vaccines.In this step, peptide-protein docking was performed to predict the binding of epitopes with various antibodies or the MHC receptors [122] .', 'Later, possible solutions are predicted from these patches and RMSD (root mean square deviation) scores are applied to the candidate solutions.', 'Vaccines\n\nThe antigenicity of the constructed vaccines was predicted by the online server VaxiJen v2.0 (http://www.ddg-pharmfac.net/vaxijen/VaxiJen/VaxiJen.htm) using the tumor model where the threshold was set at 0.4.', 'The allergenicity of the predicted vaccines were determined by two online tools for improving the prediction accuracy i.e., AlgPred (http://crdd.osdd.net/raghava/algpred/) and AllerTop v2.0 (https://www.ddg-pharmfac.net/AllerTOP/).', 'MEME/MAST motif prediction was used to predict the allergenicity of the vaccines by AlgPred [136] .', 'Later, ProtParam (https://web.expasy.org/protparam/) was used to predict different physicochemical properties of the predicted vaccines [109] .', 'Secondary and Tertiary Structure Prediction of the Vaccine Constructs\n\nThe secondary structure generation of the vaccine constructs were performed using online server, PRISPRED (http://bioinf.cs.ucl.ac.uk/psipred/), which is a simple and easy secondary structure generating tool [137] [138] .', 'The secondary structures of the vaccine constructs were predicted using the PRISPRED 4.0 prediction method.', 'Next, another online tool, NetTurnP v1.0 (http://www.cbs.dtu.dk/services/NetTurnP/) was used to predict the β-sheet structure of the predicted vaccines [139] .', 'The 3D structures of the vaccines were then generated using online server RaptorX (http://raptorx.uchicago.edu/) [140] - [142] .From the secondary structure analysis, it was determined that, the CV-1 had the highest percentage of the amino acids (67.1%) in the coil formation as well as the highest percentage of amino acids (8%) in the beta-strand formation.', 'CV-1 and CV-2 vaccines had 02 domains, whereas, CV-3 had only one domain.', 'Moreover, three different templates were used for generating3D structures of the three different vaccines.', 'The RaptorX server used the templates for generating the 3D structures of the query vaccine constructs [177] .', 'https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprint\n\n3D Structure Refinement and Validation\n\nProtein structure refinement is an important step in vaccine design because when protein 3D structures are predicted by online tools, they may lack the true, native structure.', 'The refinement of the structures can convert the low resolution predicted model to high resolution predicted model The three vaccine constructs were refined and then validated in the 3D structure refinement and validation step.', 'https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprint\n\nVaccine Protein Disulfide Engineering\n\nDisulfide bonds are important characteristics of protein because they provide stability to the proteins.', 'For this reason, to predict the correct disulfide interactions, the vaccine protein disulfide engineering was carried out with the aid of Disulfide by Design 2 v12.2 (http://cptweb.cpt.wayne.edu/DbD2/) server which predicts the potential sites within a protein structure that have higher possibility of undergoing disulfide bond formation [147] .', 'For this reason, the Cα-Cβ-Sγ angle was kept default (114.6° ±10) [148] [149].In protein disulfide engineering, disulfide bonds were generated within the 3D structures of the vaccine constructs.', 'The selected amino acid pairs of CV-1 formed the mutant version of the original vaccines (Figure 08) .', 'https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprintIn protein-protein docking, the constructed SARS-CoV-2 vaccines were analyzed by docking against some MHC alleles as well as the toll like receptors (TLRs).', 'Since the different portions of the MHC molecules are encoded by different MHC alleles, the constructed vaccines should have very good binding affinity towards these segments of the MHC complex [150] .', 'For this reason, the vaccine constructs of Wuhan novel coronavirus were docked against TLR-8 (PDB ID: 3W3M).', 'From the docking experiment, one best vaccine was selected based on the docking score.', 'Molecular Dynamic Simulation\n\nThe molecular dynamics (MD) simulation study was of the best selected vaccine construct was carried out using the online MD simulation tool, iMODS (http://imods.chaconlab.org/).', 'Codon Adaptation and In Silico Cloning\n\nThe best predicted vaccine from the previous steps, was reverse transcribed to a possible DNA sequence which is supposed to express the vaccine protein in a target organism.', 'The cellular machinery of that particular organism could use the codons of the newly adapted DNA sequence efficiently for producing the desired vaccine.', 'Codon adaptation is a necessary step of vaccine design because this step provides the effective prediction of the DNA sequence of a vaccineconstruct.', 'The best predicted vaccine was used for codon adaptation by the Java Codon Adaptation Tool or JCat server (http://www.jcat.de/).', 'The codon adaptation index (CAI) value of 1.0 of CV-1 indicated that the DNA sequences contained higher proportion of the codons that should be used by the cellular machinery of the target organism E. coli strain K12 (codon bias).For this reason, the production of the CV-1 vaccine should be carried out efficiently [183] [184] .The GC content of the improved sequence was 51.34% (Figure 11) .', 'The results of the codon adaptation study of the constructed vaccine, CV-1.. CC-BY 4.0 International license author/funder.', 'T-cell and B-cell Epitope Prediction and their Antigenicity, Allergenicity and Topology Determination\n\nThe MHC class-I and MHC class-II epitopes, determined for potential vaccine construction.', 'Later, the epitopes with high antigenicity, nonallergenicity and non-toxicity were selected for vaccine construction.', 'Table 08 lists the predicted B-cell epitopes of the two proteins and Table 09 lists the epitopes that followed the mentioned criteria and were selected for further analysis and vaccine construction.', 'https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprint \n\nVaccine Construction\n\nAfter successful docking, three vaccines were constructed using the selected epitopes which is supposed to be directed to fight against the SARS-CoV-2.', 'To construct the vaccines, three different adjuvants were used i.e., beta defensin, L7/L12 ribosomal protein and HABA protein and different linkers i.e., EAAAK, GGGS, GPGPG and KK linkers were used at their appropriate positions.PADRE sequence is an important sequence which was used in vaccine construction.', 'It has the capability to increase the potency of the vaccines with minimal toxicity.', 'The newly constructed vaccines were designated as: CV-1, CV-2 and CV-3 (Table 11) .. CC-BY 4.0 International license author/funder.', 'All the three vaccine constructs were found to be antigenic as well as non-allergenic.', 'https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprint \n\nProtein-Protein Docking Study\n\nThe protein-protein docking study was carried out to find out the best constructed COVID-19vaccine.', 'The vaccine construct with the best result in the molecular docking, was considered as the best vaccine construct.', 'According to docking results, it was found that CV-1 was the best constructed vaccine.', 'However, CV-2 showed the best binding affinity (ΔG scores) with DRB3*0202 (- showed the best results in the protein-protein docking study, it was considered as the best vaccine construct among the three constructed vaccines (Figure 09 &amp; Table 15 ).', 'Later, the molecular dynamics simulation study and in silico codon adaptation studies were conducted only on the CV-1 vaccine.', 'So, the simulation is carried out to determine the relative stability of the vaccine protein.', 'Discussion\n\nThe current study was designed to construct possible vaccines against the Wuhan Novel Coronavirus 2019 (SARS-CoV-2), which is the cause of the recent outbreak of the deadly viral disease, COVID-19 in China.', 'For this reason, possible vaccines were predicted in this study to fight against this lethal virus.', 'To carry out the vaccine construction, four candidate proteins of the virus were identified and selected from the NCBI database.', 'Because the nucleocapsid phosphoprotein and surface glycoprotein were found to be antigenic, they were taken into consideration for vaccine construction.The physicochemical property analysis was conducted for the two predicted antigenic proteins.The extinction coefficient can be defined as the amount of light that is absorbed by a particular compound at a certain wavelength [186] [187] .', 'The aliphatic index of a protein corresponds to the relative volume occupied by the aliphatic amino acids in the side chains of the protein, for example: alanine, valine etc.', 'The possible T-cell and Bcell epitopes of the selected proteins were determined by the IEDB (https://www.iedb.org/) server.The epitopes with high antigenicity, non-allergenicity and non-toxicity were selected to vaccine construction.', 'The B-cell epitopes (predicted by the server) that were more than ten amino acids long were taken into consideration and the antigenic and non-allergenic epitopes were selected for vaccine construction.', 'However, among the selected epitopes, QLESKMSGK, LIRQGTDYKHWP, GVLTESNKK and TSNFRVQPTESI generated the best docking scores.After the successful docking study, the vaccine construction was performed.', 'The vaccines, with three different adjuvants, were constructed and designated as: CV-1, CV-2 and CV-3.', 'Since all the three vaccines were found to be antigenic, they should be able to induce good immune response.', 'Moreover, the conventional approach of vaccine development have raised many safety concerns in many pre-clinical and clinical trials.', 'The subunit vaccines like the vaccines predicted in the study could overcome such difficulties [196] - [200] .', 'Finally, this study recommends CV-1 as the best vaccine to be an effective worldwide treatment based on the strategies employed in the study to be triggered against SARS-CoV-2 infection.', 'Prevention of the newly emerging infection is very challenging as well as mandatory.', 'In this study, potential subunit vaccines were designed against the SARS-CoV-2 using various methods of reverse vaccinology and immunoinformatics.', 'To design the vaccines, the highly antigenic viral proteins as well as epitopes were used.', 'Various computational studies of the suggested vaccine constructs revealed that these vaccines might confer good immunogenic response.', 'For this reason, if satisfactory results are achieved in various in vivo and in vitro tests and trials, these suggested vaccine constructs might be used effectively for vaccination to prevent the coronavirus infection and spreading.', 'Therefore, our present study should help the scientists to develop potential vaccines and therapeutics against the Wuhan Novel Coronavirus 2019.', 'Acknowledgements\n\nAuthors acknowledge the members of Swift Integrity Computational Lab, Dhaka, Bangladesh, a virtual platform of young researchers for their support during the preparation of the manuscript.']</t>
+  </si>
+  <si>
+    <t>['Early reports predicted the onset of a potential Coronavirus outbreak given the estimate of a reproduction number for the 2019 Novel (New) Coronavirus (COVID-19, named by WHO on Feb 11, 2020) which was deemed to be significantly larger than 1 (ranges from 2.24 to 3.58) [3] .The chronology of COVID-19 infections is as follows.', 'By January 2, 2020, 41 admitted hospital patients had been identified as having laboratory-confirmed COVID-19 infection, less than half of these patients had underlying diseases, including diabetes, hypertension, and cardiovascular disease [6] .', 'It was concluded that the COVID-19 is not a super-hot spreading virus (spread by one patient to many others), but rather likely spread due to many patients getting infected at various locations throughout the hospital through unknown mechanisms.', 'As of January 22, 2020, a total of 571 cases of the 2019-new coronavirus (COVID-19) were reported in 25 provinces (districts and cities) in China [7] .', 'On January 25, 2020, a total of 1975 cases were confirmed to be infected with the COVID-19 in mainland China with a total of 56 deaths [8] .', 'The first case of COVID-19 infection confirmed in the United States led to the https://doi.org/10.1016/j.jaut.2020.102433 Received 10 February 2020; Received in revised form 17 February 2020; Accepted 18 February 2020 description, identification, diagnosis, clinical course, and management of this case.', 'Further, the first case of human-to-human transmission of COVID-19 was reported in the US on January 30, 2020 (https://www.cdc.gov/media/ releases/2020/p0130).', 'Symptoms\n\nThe symptoms of COVID-19 infection appear after an incubation period of approximately 5.2 days [12] .', 'The period from the onset of COVID-19 symptoms to death ranged from 6 to 41 days with a median of 14 days [8] .', 'The most common symptoms at onset of COVID-19 illness are fever, cough, and fatigue, while other symptoms include sputum production, headache, haemoptysis, diarrhoea, dyspnoea, and lymphopenia [5, 6, 8, 13] .', '2) .It is important to note that there are similarities in the symptoms between COVID-19 and earlier betacoronavirus such as fever, dry cough, dyspnea, and bilateral ground-glass opacities on chest CT scans [6] .', 'However, COVID-19 showed some unique clinical features that include the targeting of the lower airway as evident by upper respiratory tract symptoms like rhinorrhoea, sneezing, and sore throat [15, 16] .', 'Importantly, whereas patients infected with COVID-19 developed gastrointestinal symptoms like diarrhoea, a low percentage of MERS-CoV or SARS-CoV patients experienced similar GI distress.', 'Therefore, it is important to test faecal and urine samples to exclude a potential alternative route of transmission, specifically through health care workers, patients etc ( Fig.', 'Pathogenesis\n\nThe severe symptoms of COVID-19 are associated with an increasing numbers and rate of fatalities specially in the epidemic region of China.', 'The percentage of death among the reported 2684 cases of COVID-19 was approximately 2.84% as of Jan 25, 2020 and the median age of the deaths was 75 (range 48-89) years [8] .Patients infected with COVID-19 showed higher leukocyte numbers, abnormal respiratory findings, and increased levels of plasma pro-inflammatory cytokines.', 'One of the COVID-19 case reports showed a patient at 5 days of fever presented with a cough, coarse breathing sounds of both lungs, and a body temperature of 39.0°C.', "The patient's sputum showed positive real-time polymerase chain reaction results that confirmed COVID-19 infection [14] .", 'The main pathogenesis of COVID-19 infection as a respiratory system targeting virus was severe pneumonia, RNAaemia, combined with the incidence of ground-glass opacities, and acute cardiac injury [6] .', 'Significantly high blood levels of cytokines and chemokines were noted in patients with COVID-19 infection that included IL1-β, IL1RA, IL7, IL8, IL9, IL10, basic FGF2, GCSF, GMCSF, IFNγ, IP10, MCP1, MIP1α, MIP1β, PDGFB, TNFα, and VEGFA.', 'Transmission\n\nBased on the large number of infected people that were exposed to the wet animal market in Wuhan City where live animals are routinely sold, it is suggested that this is the likely zoonotic origin of the COVID- 19 .', 'Initial reports identified two species of snakes that could be a possible reservoir of the COVID-19.', 'Genomic sequence analysis of COVID-19 showed 88% identity with two bat-derived severe acute respiratory syndrome (SARS)-like coronaviruses [19, 20] , indicating that mammals are the most likely link between COVID-19 and humans.', 'Several reports have suggested that person-to-person transmission is a likely route for spreading COVID-19 infection.', 'This is supported by cases that occurred within families and among people who did not visit the wet animal market in Wuhan [13, 21] .', 'Person-to-person transmission occurs primarily via direct contact or through droplets spread by coughing or sneezing from an infected individual.', 'Importantly, the sequence of the receptor-binding domain of COVID-19 spikes is similar to that of SARS-CoV.', 'This data strongly suggests that entry into the host cells is most likely via the ACE2 receptor [20] .', 'Phylogenetic analysis\n\nWorld Health Organisation (WHO) has classified COVID-19 as a β CoV of group 2B [23] .', 'Ten genome sequences of COVID-19 obtained from a total of nine patients exhibited 99.98% sequence identity [19] .', 'The genetic sequence of the COVID-19 showed more than 80% identity to SARS-CoV and 50% to the MERS-CoV [5, 19] , and both SARS-CoV and MERS-CoV originate in bats [24] .', 'Thus, the evidence from the phylogenetic analysis indicates that the COVID-19 belongs to the genus betacoronavirus, which includes SARS-CoV, that infects humans, bats, and wild animals [25] .COVID-19 represents the seventh member of the coronavirus family that infects humans and has been classified under the orthocoronavirinae subfamily.', 'The COVID-19 forms a clade within the subgenus sarbecovirus [25] .', 'Based on the genetic sequence identity and the phylogenetic reports, COVID-19 is sufficiently different from SARS-CoV and it can thus be considered as a new betacoronavirus that infects humans.', 'The COVID-19 most likely developed from bat origin coronaviruses.', 'Another piece of evidence that supports the COVID-19 is of bat origin is the existence of a high degree of homology of the ACE2 receptor from a diversity of animal species, thus implicating these animal species as possible intermediate hosts or animal models for COVID-19 infections [20] .', 'Therapeutics/treatment options\n\nThe person-to-person transmission of COVID-19 infection led to the isolation of patients that were administered a variety of treatments.', 'At present, there are no specific antiviral drugs or vaccine against COVID-19 infection for potential therapy of humans.', 'The treatment that have so far been attempted showed that 75 patients were administrated existing antiviral drugs.', 'Thus, these therapeutic agents can be considered to treat COVID-19 infection [27] .', 'These include the clinical candidate EIDD-2801 compound that has shown high therapeutic potential aganist seasonal and pandemic influenza virus infections and this represents another potential drug to be considered for the treatment of COVID-19 infection [28] .', 'Along those lines, until more specific therapeutics become available, it is reasonable to consider more broad-spectrum antivirals that provide drug treatment options for COVID-19 infection include Lopinavir/Ritonavir, Neuraminidase inhibitors, peptide (EK1), RNA synthesis inhibitors.', 'It is clear however, that more research is urgently needed to identify novel chemotherapeutic drugs for treating COVID-19 infections.', 'In order to develop pre-and post-exposure prophylaxis against COVID-19, there is an urgent need to establish an animal model to replicate the severe disease currently observed in humans.', 'Several groups of scientists are currently working hard to develop a nonhuman primate model to study COVID-19 infection to establish fast track novel therapeutics and for the testing of potential vaccines in addition to providing a better understanding of virus-host interactions.7.', 'Future directions to control the spread of the disease Extensive measures to reduce person-to-person transmission of COVID-19 are required to control the current outbreak.', 'The early death cases of COVID-19 outbreak occurred primarily in elderly people, possibly due to a weak immune system that permits faster progression of viral infection [8, 12] .', 'Physical contact with wet and contaminated objects should be considered in dealing with the virus, especially agents such as faecal and urine samples that can potentially serve as an alternative route of transmission [15, 16] .', 'China and other countries including the US have implemented major prevention and control measures including travel screenings to control further spread of the virus [13] .', 'Epidemiological changes in COVID-19 infection should be monitored taking into account potential routes of transmission and subclinical infections, in addition to the adaptation, evolution, and virus spread among humans and possible intermediate animals and reservoirs.']</t>
+  </si>
+  <si>
+    <t>['Introduction\n\nIn late December 2019, an outbreak of a novel coronavirus disease (COVID-19) was reported in Wuhan, a city in the Hubei Province of China.', "COVID-19 pneumonia has had a significant impact on people's health and social activity behavior and on economic development.", 'The Chinese government reported that 78,195 cases of COVID-19 had been confirmed, 2491 cases were suspected and 2718 patients had died as of February 26, 2020 [2] .', 'The outbreak of COVID-19 led to the closure of Wuhan, workers were delayed to work, and schools were closed across China.', 'Because hemodialysis patients are older and have more underlying diseases, Page 4 of 15 they likely are more susceptible to SARS-CoV-2 pneumonia than the general population.This report describes the clinical characteristics of COVID-19 pneumonia in a hemodialysis patient and reviews our management of this individual as well as measures to reduce transmission to other hemodialysis patients and staff.', 'The Chinese Guangdong Center for Disease Prevention and Control (CDC) reported SARS-CoV-2 virus nucleic acid tests were positive in throat swab samples two times.', 'Based on epidemiological characteristics and these findings, we diagnosed COVID-19 pneumonia.As soon as COVID-19 pneumonia was diagnosed, the patient was transferred to a specialty hospital and received hemodialysis in a room with isolation facilities designated for COVID-19 patients.', 'Although all hemodialysis patients wear a face mask during dialysis, the other 42 patients who had a potential exposure to COVID-19 due to receiving dialysis in the same room were also transferred to the isolation ward of the specialty hospital with regular dialysis for 14 days.', 'Because of universal precautions taken by the medical staff, the staff were tested for SARS-CoV-2 virus nucleic acid negative, and not isolated.The patient was treated with oxygen support via nasal cannula, regular hemodialysis, antihypertensive medications, moxifloxacin (400 mg daily) and lopinavir/ritonavir (two tablets twice daily) antiviral therapy.', 'Page 6 of 15\n\nIn this report, we describe the clinical course of a hemodialysis patient who developed COVID-19.', 'The clinical presentation of the patient was similar to atypical symptom COVID-19 patients.', 'Lymphopenia is common in patients with COVID-19 and might be a critical factor associated with disease severity and mortality in general patients [9] .', 'Cao and colleagues reported that the most common laboratory abnormalities were depressed total lymphocytes, prolonged prothrombin time, and elevated lactate dehydrogenase in COVID-19 pneumonia [10] .', 'Given these limitations and the high prevalence of comorbid conditions, COVID-19 pneumonia diagnosis in hemodialysis patients is dependent on clinical epidemiology, radiographic findings, and viral nucleic acids testing.Lopinavir/ritonavir is a combination antiviral medicine used to treat human immunodeficiency virus (HIV) that is metabolized by the liver; the active ingredient, lopinavir, is a protease inhibitor [11] .', 'Our results suggest that lopinavir/ritonavir may improve the course of COVID-19 pneumonia in patients with hemodialysis, although the lack of a control patient makes this conclusion somewhat subjective.', 'Because of liver clearance and higher protein binding capacity of lopinavir/ritonavir, no dosing adjustments are necessary in the treatment of hemodialysis patients [14] .Given the likely immunosuppression and the high prevalence of comorbid conditions among dialysis patients, the hemodialysis population may be particularly vulnerable to COVID-19 pneumonia, making efforts to promptly identify individuals with SARS-CoV-2 virus and implement steps to limit the spread of the virus critical ( Figure 2 ).', 'We also implemented a policy whereby it was mandated that the "COVID-19 Pneumonia Screening Registration Form" be completed (Box 1).', 'For non-suspected patients with potential COVID-19 exposure or from epidemic areas within the last 2 weeks, we performed hemodialysis in an isolation area within the hemodialysis facility.All patients with temperature above 37.3 0 C or respiratory symptoms were considered as suspected cases and were referred to the Emergency Department for evaluation; this assessment included routine serum chemistries and a complete blood count, CRP, procalcitonin, chest CT imaging and pharynx SARS-CoV-2 virus nucleic acid to rule out SARS-CoV-2 virus infections.', 'Dialysis facility staff adhered to infection control measures recommended by European\n\nCentre for Disease Prevention and Control (ECDC) [15] , including use of a waterproof disposable gown, cap, gloves, face shields, and an N95 facemask.', 'The dialysis machine was kept in a room in the COVID-19 isolation ward between dialysis sessions and was only used for patients who had contracted COVID-19.', 'Because of these rigorous practices by medical staff, they were allowed to continue to work and return home per their usual routines.In summary, we describe a hemodialysis patient with COVID-19 pneumonia.']</t>
+  </si>
+  <si>
+    <t>['Looming threat of COVID-19 infection in Africa: act collectively, and fast\n\nBecause of the high volume of air traffic and trade between China and Africa, 1 Africa is at a high risk for the introduction and spread of the novel coronavirus disease 2019 (COVID-19); although only Egypt has reported the first case, from a non-national.', '2 The greatest concern for public health experts is whether COVID-19 will become a pandemic, with sustained year-round transmission, similar to influenza, as is now being observed in several countries.', 'With neither treatment nor vaccines, and without pre-existing immunity, the effect might be devastating because of the multiple health challenges the continent already faces: rapid population growth and increased movement of people; existing endemic diseases, such as human immunodeficiency virus, tuberculosis, and malaria; remerging and emerging infectious pathogens such as Ebola virus disease, Lassa haemorrhagic fever, and others; and increasing incidence of non-communicable diseases.Models that enable the continent to better allocate scarce resources to better prepare and respond to the COVID-19 epidemic are crucial.', "The modelling study by Marius Gilbert and colleagues in The Lancet 4 identifies each African country's risk of importation of COVID-19 from China, using data on the volume of air travel from three airports in provinces in China to African countries.", 'The study provides a valuable tool that can help countries in Africa prioritise and allocate resources as they prepare to respond to the potential introduction and spread of COVID-19.The study should also be interpreted in light of the fast-evolving nature of the COVID-19 outbreak.', 'Although these measures might delay, but not stop, 5 the importation risk of COVID-19 into Africa, their implementation is still worthwhile.', 'Second, although Beijing, Shanghai, and Fujian do not report the highest number of cases of COVID-19 in China, the volume of travel from these cities to Africa is high, which might increase the risk of exporting cases to Africa.', 'Lastly, almost half of the flights from Africa to China are operated by Ethiopian Airlines, so it is possible that cases might pass through Ethiopia and affect destination countries.The report by Gilbert and colleagues 4 provides an important tool to map out the continental risk for the spread of COVID-19 in Africa, which should be used to inform a framework of action to prepare the continent for any potential importation and spread of COVID-19.', 'The strategy must be comprehensive, and member states, donors, and partners should immediately commit to releasing financial resources to support country-customised implementation plans derived from the strategy.', 'To help develop a common strategy that will allow for effective coordination, collaboration, and communication, the African Union Commission, Africa Centres for Disease Control and Prevention (Africa CDC), and WHO, in partnership with African countries, have established the Africa Taskforce for Coronavirus Preparedness and Response (AFTCOR).', 'The partnership has six work streams: laboratory diagnosis and subtyping; surveillance, including screening at points of entry and cross-border activities; infection prevention and control in healthcare facilities; clinical management of people with severe COVID-19; risk communication; and supply-chain management and stockpiles.', 'Because mitigating the potential spread of COVID-19 in Africa will require rapid detection and containment, the laboratory work streams of AFTCOR, Africa CDC, and WHO are working closely to expeditiously scale up diagnostic testing capacity linked to enhanced surveillance and monitoring-eg, at the beginning of February, only two countries in Africa had the diagnostic capacity to test for COVID-19.', 'However, as of Feb 25, 2020, more than 40 countries would have been capacitated to accurately diagnose COVID-19 infection, thanks to the coordination efforts of AFTCOR.', 'Second, any effective preparedness and response strategy for COVID-19 requires a committed political will; as such, the African Union Commission, Africa CDC, and WHO convened, on Feb 22, 2020, in Addis Ababa, Ethiopia, an emergency meeting of all ministers of health of 55 member states to commit to acting fast and collectively to develop and implement a coordinated continent-wide strategy.', 'To prevent the occurrence of a social, health security, and economic tragedy, actions agreed at the emergency ministerial meeting will need to be acted on quickly, before any additional COVID-19 cases are introduced to the continent, and result in sustained human-tohuman transmission.', 'The potential social, economic, and security devastation that COVID-19 could cause in Africa should be enough of an incentive for African governments to invest immediately in preparedness for the worst-case scenario.', 'Third, commitment and release of financial resources from partners and donors before a crisis hits Africa will help anticipate demand and address supply chain management, mapping, and stockpiling of COVID-19 response needs, such as large quantities of personal protective equipment, gloves, surgical masks, coveralls, and hoods, and medical countermeasures like antiviral agents.', 'Supplies of these items will be limited in Africa because of reduced manufacturing capacity.Fourth, national, regional, and international organisations need to cooperate and collaborate to optimise limited supplies, using a whole of government approach.', 'Medical staff at major hospitals must be trained in the proper protocols of quarantining individuals who are at-risk of COVID-19 infection, as well as isolation and safe treatment of patients who test positive.', 'Africa needs to be supported to act now, and needs to act fast.JNN is the director of the Africa CDC and a WHO special envoy on COVID-19.']</t>
+  </si>
+  <si>
+    <t>['Taking the right measures to control COVID-19\n\nThe outbreak of coronavirus disease 2019 (COVID-19), which originated in Wuhan, China, in December, 2019, has been declared a public health emergency of international concern by WHO.', 'In the face of the rapidly spreading disease and a large number of infected people, there is an urgent need for effective infection prevention and control measures.', 'However, some of the measures that have been introduced have no scientific basis and have proven to be ineffective.First, although COVID-19 is spread by the airborne route, air disinfection of cities and communities is not known to be effective for disease control and needs to be stopped.', '3, 4 Second, in the use of personal protective equipment, we should try to distinguish different risk factors, adopt different epidemic prevention measures, and reduce the waste of personal protective equipment, as these resources are already in short supply.', 'Although surgical masks are in widespread use by the general population, there is no evidence that these masks prevent the acquisition of COVID-19, although they might slightly reduce the spread from an infected patient.', '5 Third, the practice of blocking traffic and lockdown of villages is of no value for the prevention and control of COVID-19.', 'Since the outbreak of COVID-19, some countries have suspended flights to and from China, and prevented Chinese people from travelling to their countries; both of these actions violate WHO International Health Regulations.', '6 Similarly, in community prevention and control of the disease, the measures taken by individual villages and communities to seal off roads are of no value.', '7 Such measures could result in civil unrest and reduce compliance with infection prevention and control advice.Fourth, public health education must be based on scientific evidence to reduce the anxiety and distress caused by misinformation.', '8 Fifth, WHO has made it clear that there are currently no known effective treatments for COVID-19 and does not recommend the use of antiviral drugs, antibiotics, glucocorticoids, or traditional Chinese medicine.', 'Despite this, there have been reports of the use of oseltamivir, lopinavir/ritonavir, prednisone, antibiotics, and traditional Chinese medicine for the treatment of patients with COVID-19.', '9 Care should be taken to not give patients drugs of unknown efficacy, which might be detrimental to critically ill patients with COVID-19; clinical trials are urgently required in this context.', '10 Likewise, the development of a vaccine is an urgent public health priority.COVID-19 is an emerging infectious disease of global public health concern.', 'Efforts to control the COVID-19 epidemic are likely to require an evidence-based, multifactorial approach.']</t>
+  </si>
+  <si>
+    <t>['The causative agent was identified from throat swab samples conducted by the Chinese Centre for Disease Control and Prevention (CCDC) on 7th January 2020, and was subsequently named Severe Acute Respiratory Syndrome Coronavirus 2 (SARS-CoV-2).', 'The disease was named COVID-19 by the World Health Organization (WHO) [2] .To date, most SARS-CoV-2 infected patients have developed mild symptoms such as dry cough, sore throat, and fever.', 'Notably, patients who required intensive care support were older and had multiple comorbidities including cardiovascular, cerebrovascular, endocrine, digestive, and respiratory disease.', 'WHO global health emergency\n\nOn 30th January 2020, the WHO declared the Chinese outbreak of COVID-19 to be a Public Health Emergency of International Concern posing a high risk to countries with vulnerable health systems.', 'The emergency committee have stated that the spread of COVID-19 may be interrupted by early detection, isolation, prompt treatment, and the implementation of a robust system to trace contacts [5] .', 'In light of this, various bodies have committed to making articles pertaining to COVID-19 immediately available via open access to support a unified global response [6] .https://doi.org/10.1016/j.ijsu.2020.02.034 Received 3 February 2020; Received in revised form 17 February 2020; Accepted 24 February 2020\n\nGlobal response\n\nEfforts aimed at deciphering the pathophysiology of COVID-19 have led to the EU mobilising a €10,000,000 research fund to "contribute to more efficient clinical management of patients infected with the virus, as well as public health preparedness and response" [7] .', "Regarding diagnostic testing, US-based companies such as Co-Diagnostics and the Novacyt's molecular diagnostics division Primerdesign have launched COVID-2019 testing kits for use in the research setting [8, 9] .", 'The United Kingdom (UK) government have also invested £20,000,000 to help develop a COVID-19 vaccine [10] .', 'Strikers are demanding that the border to mainland China be closed completely to prevent further COVID-19 transmission.', "In addition, growing fears regarding China's economy has led the Chinese central bank to invest ¥150 billion to support the stability of the currency market [13] .", 'Confirmed UK cases and British response\n\nAs of 4th March 2020, a total of 16,659 tests for COVID-19 have been conducted across the UK.', 'Any detected cases of COVID-19 should be transferred to an Airborne High Consequence Infectious Diseases (HCID) centre, including the two principal centres in England (the Royal Free Hospital in London and the Newcastle Royal Victoria Infirmary).The DoH and UK Chief Medical Officers have also advised individuals having visited Wuhan and the Hubei Province in the last 14 days to remain indoors and to call NHS 111.', 'Viral transmission and spread\n\nThere are currently few studies that define the pathophysiological characteristics of COVID-19, and there is great uncertainty regarding its mechanism of spread.', 'However, there is an increasing body of evidence to suggest that human-to-human transmission may be occurring during the asymptomatic incubation period of COVID-19, which has been estimated to be between 2 and 10 days [20] [21] [22] .As of 3rd March 2020, 90,870 cases of COVID-19 have been confirmed, 80,304 of which are confined to China.', 'Prevention\n\nVarious bodies including the WHO and US Centers for Disease Control and Prevention (CDC) have issued advice on preventing further spread of COVID-19 [20, 24] .', 'They recommend avoiding travel to highrisk areas, contact with individuals who are symptomatic, and the consumption of meat from regions with known COVID-19 outbreak.', 'Diagnosis\n\nClinical features of COVID-19 include dry cough, fever, diarrhoea, vomiting, and myalgia.', 'The WHO and CDC have both issued guidance on key clinical and epidemiological findings suggestive of a COVID-19 infection (Table 1 ) [27] .', 'Patients may present with an elevated C-reactive protein, erythrocyte sedimentation rate, lactate dehydrogenase, creatinine, and a prolonged prothrombin time [4] .Full genome sequencing and phylogenetic analysis on fluid from bronchoalveolar lavage can confirm COVID-2019 infection [29] .', 'Treatment\n\nAt present, no effective antiviral treatment or vaccine is available for COVID-19.', 'However, a randomized multicentre controlled clinical trial is currently underway to assess the efficacy and safety of abidole in patients with COVID-19 (ChiCTR2000029573).', 'Oseltamivir, a neurominidase inhibitor, is currently being used by medical staff in China for suspected infections despite the lack of any conclusive evidence regarding its effectiveness on COVID-19.', 'The current reported mortality for COVID-19 is approximately 3.4% compared with 9.6% for SARS [37] and 34.4% for Middle East respiratory syndrome (MERS) [38] .', 'The clinical features of COVID-19 versus its distance relative SARS are summarised in Table 2 .', 'To date, COVID-19 has been shown to have a mean incubation period of 5.2 days and a median duration from the onset of symptoms to death of 14 days [22, 39] , which is comparable to that of MERS [40] .', "All forms of public transportation including long-distance bus routes, metros, express railways, and aviation were uncompromisingly sealed off -a process facilitated by China's mega city-region infrastructure [43] .", 'Outside of China, aviation restrictions are being employed.', 'COVID-19 pathophysiology\n\nCOVID-19 is caused by SARS-CoV-2, a betacoronavirus.', 'The wider consequences of COVID-19\n\nChina is integral to nearly every sector of the global economy.', 'The recent outbreak of the COVID-19 has already challenged an economy strained by trade wars with the US; national growth hit a 30year low in 2019 [58] .', 'The key difference between COVID-19 and SARS however is the complexity of supply chains that China is now enmeshed in.', 'Lessons learned from the COVID-19 outbreak\n\nThe international response to COVID-19 has been more transparent and efficient when compared to the SARS outbreak.', 'However, several learning points should be taken away from COVID-19 in the event of future outbreaks (Table 3) .', 'Conclusion\n\nThe recent COVID-19 outbreak has been deemed a global health emergency.', 'It is perhaps clear that quarantine alone may not be sufficient to prevent the spread of COVID-19, and the global impact of this viral infection is one of heightening concern.', 'Further research is undoubtedly required to help define the exact mechanism of human-to-human and animal-to-human transmission to facilitate the development of a virus-specific vaccine.', 'Evidently, the pandemic potential of COVID-19 demands rigorous surveillance and on-going monitoring to accurately track and potentially predict its future host adaptation, evolution, transmissibility, and pathogenicity.', 'However, the rapidly evolving nature of the COVID-2019 epidemic, ever changing statistics, and constant unravelling of new research findings represents a major limitation to the present review.']</t>
+  </si>
+  <si>
+    <t>['Introduction\n\nThe new viral pathogen SARS-CoV-2 emerged in late 2019, leading to exponential rise of new cases and causing tens of thousands of documented cases of COVID-19 disease to date.', 'No treatment is currently available, and while the development of a vaccine is proceeding as fast as possible, the need to test any candidates for safety in humans means that vaccines will not be available for several months at the earliest.', 'Rather than comparing transmission through these different physical routes, here we compare different transmission routes that are more closely aligned to their implications for prevention.', 'Environmental transmission: transmission via contamination, and specifically in a way that would not typically be attributable to contact with the source in a contact survey (i.e.', 'we exclude from this transmission pairs who were in extended close contact, but for whom in reality the infectious dose passed via the environment instead of more directly).', 'We acknowledge that boundaries between these categories may be blurred, but these broadly have different implications for prevention.', 'These will be spelled out in future work on modelling different prevention approaches, and may be mapped to other modelling studies, some old and general ( 5 ) ( 6 ) and one more specific to COVID-19 ( 7 ) .Evidence exists that each of these routes of transmission is possible: symptomatic ( 8 ) , pre-symptomatic ( 9 ) ; asymptomatic ( 10 ) ; and environmental ( 8 ) .', 'For prevention, the crucial information is the relative frequency of different routes of transmission: finite resources must be divided between different intervention strategies.Li et al ( 8 ) presented self-reported data on exposure for the first 425 cases in Wuhan.', 'By devoting considerable resources including police investigation, 75 of the 92 cases of local transmission have been traced back to their presumed exposure, either to a known case or to a location linked to spread (https://infographics.channelnewsasia.com/covid-19/coronavirus-singapore-clusters.html?cid=FBcna).', 'However, linking two cases generally includes the possibility that one infected the other pre-symptomatically and only later became symptomatic; furthermore, linking cases via a location generally includes the possibility of environmentally mediated transmission.', 'The distribution is lognormal with mean 5.5 days, median 5.2 days and standard deviation 2.1 days, and is included with our results in Figure 2 .Generation time distribution.', 'We did not take that approach here: we directly estimated the generation time distribution from 40 source-recipient pairs for whom direct transmission is suspected, and where time of onset of symptoms is known for both source and recipient.', 'The distribution is best described by a Weibull distribution with mean and median equal to 5.0 days and standard deviation of 1.9 days, shown in Figure  2 .', 'We used a Bayesian approach with an uninformative prior (transmission before or after symptoms equally likely).', 'https://doi.org/10.1101/2020.03.08.20032946 doi: medRxiv preprint one full infection, via that route -asymptomatic, pre-symptomatic, symptomatic or environmental -which we define to be R A , R P , R S and R E respectively.', 'This effect can be calculated through use of the renewal equation, as was recently done to calculate the distribution of time from onset of COVID-19 symptoms to recovery or death ( 15 ) (see Supplementary Information) .', 'The correction due to the epidemic dynamics is small compared to parameter uncertainties.We developed our mathematical model of infectiousness into a web application where users can test the effect of alternative parameter combinations: https://bdi-pathogens.shinyapps.io/covid-19-transmission-routesInterventions.', 'An algorithmic approach, embedded in a phone App or operating system, can make the contact tracing and notification instantaneous, and enables information to be spread to contacts whether recalled or not.', 'This approach is mathematically solved analytically in Supplement Information for the case of algorithmic instantaneous contact tracing of first-degree (i.e.', 'We suggest that a simple algorithm for first degree instantaneous contact tracing in the form of a mobile phone app could dramatically reduce onwards transmission from contacts, to a level that is sufficient to reach herd protection and so stop the virus from spreading in a population.Our estimate of R 0 is lower than most previous published estimates, for example ( 16 ) ( 17 ) ( 8 ) , which have assumed SARS-like generation times; emerging evidence for shorter generation times for COVID-19 results in a smaller R 0 .', 'We provide two approaches suggesting that between a third and a half of transmissions occur from pre-symptomatic individuals.', 'For SARS, the corresponding estimate was almost zero ( 5 ) , immediately telling us that different containment strategies will be needed for COVID-19.', 'While preparing this manuscript, results supporting a large role for pre-symptomatic submission were shared: Tindale et al.', 'found that serial intervals in Tianjin and Singapore were on average 2-3 days shorter than incubation periods ( https://github.com/carolinecolijn/ClustersCOVID19/blob/master/COVID_19_Singapore_Tianjin_analysi sSUPP-joined.pdf ), consistent with our estimate of a shorter generation time.Cleaning and decontamination are being deployed to varying levels in different settings, and improved estimates would help inform this as a priority.', 'For SARS, there were seemingly almost no asymptomatic infections ( 18 ) , whereas asymptomatic infection has been widely reported for COVID-19, e.g.', 'Published models ( 5 ) ( 20 ) ( 6 ) ( 7 ) suggest that in practice manual contact tracing can only improve on this to a limited extent.We have developed a web interface to explore the uncertainty in our modelling assumptions https://bdi-pathogens.shinyapps.io/covid-19-transmission-routes .', 'The probability that infection occurred before onset of symptoms for the infector was estimated for each transmission pair using a Bayesian approach based on the best fit for the generation time distribution (see Supplementary Information) .']</t>
+  </si>
+  <si>
+    <t>['How will country-based mitigation measures influence the course of the COVID-19 epidemic?', 'In our view, COVID-19 has developed into a pandemic, with small chains of transmission in many countries and large chains resulting in extensive spread in a few countries, such as Italy, Iran, South Korea, and Japan.', '1 Most countries are likely to have spread of COVID-19, at least in the early stages, before any mitigation measures have an impact.What has happened in China shows that quarantine, social distancing, and isolation of infected populations can contain the epidemic.', '1 This impact of the COVID-19 response in China is encouraging for the many countries where COVID-19 is beginning to spread.', 'In both places, COVID-19 has been managed well to date, despite early cases, by early government action and through social distancing measures taken by individuals.The course of an epidemic is defined by a series of key factors, some of which are poorly understood at present for COVID-19.', 'With R 0 values for COVID-19 in China around 2·5 in the early stages of the epidemic, 2 we calculate that approximately 60% of the population would become infected.', '3 By contrast, for COVID-19, the serial interval is estimated at 4·4-7·5 days, which is more similar to SARS.', '4 First among the important unknowns about COVID-19 is the case fatality rate (CFR), which requires information on the denominator that defines the number infected.', 'We are unaware of any completed large-scale serology surveys to detect specific antibodies to COVID-19.', 'Best estimates suggest a CFR for COVID-19 of about 0·3-1%, 4 which is higher than the order of 0·1% CFR for a moderate influenza A season.', 'The incubation period for COVID-19 is about 5-6 days.', '7 There have been few clinical studies to measure COVID-19 viraemia and how it changes over time in individuals.', 'In one study of 17 patients with COVID-19, peak viraemia seems to be at the end of the incubation period, 8 pointing to the possibility that viraemia might be high enough to trigger transmission for 1-2 days before onset of symptoms.', 'If these patterns are verified by more extensive clinical virological studies, COVID-19 would be expected to be more like influenza A than SARS.', 'For SARS, peak infectiousness took place many days after first symptoms, hence the success of quarantine of patients with SARS soon after symptoms started 7 and the lack of success for this measure for influenza A and possibly for COVID-19.The third uncertainty is whether there are a large number of asymptomatic cases of COVID-19.', 'Estimates suggest that about 80% of people with COVID-19 have mild or asymptomatic disease, 14% have severe disease, and 6% are critically ill, 9 implying that symptom-based control is unlikely to be sufficient unless these cases are only lightly infectious.The fourth uncertainty is the duration of the infectious period for COVID-19.', 'The infectious period is typically short for influenza A, but it seems long for COVID-19 on the basis of the few available clinical virological studies, perhaps lasting for 10 days or more after the incubation period.', '10 What do these comparisons with influenza A and SARS imply for the COVID-19 epidemic and its control?', 'COVID-19 had a doubling time in China of about 4-5 days in the early phases.', '3 Second, the COVID-19 epidemic could be more drawn out than seasonal influenza A, which has relevance for its potential economic impact.', 'Third, the effect of seasons on transmission of COVID-19 is unknown; 11 however, with an R 0 of 2-3, the warm months of summer in the northern hemisphere might not necessarily reduce transmission below the value of unity as they do for influenza A, which typically has an R 0 of around 1·1-1·5.', '12 Closely linked to these factors and their epidemiological determinants is the impact of different mitigation policies on the course of the COVID-19 epidemic.A key issue for epidemiologists is helping policy makers decide the main objectives of mitigation-eg, minimising morbidity and associated mortality, avoiding an epidemic peak that overwhelms health-care services, keeping the effects on the economy within manageable levels, and flattening the epidemic curve to wait for vaccine development and manufacture on scale and antiviral drug therapies.', '13 For COVID-19, the potential economic impact of self-isolation or mandated quarantine could be substantial, as occurred in China .No vaccine or effective antiviral drug is likely to be available soon.', 'Vaccine development is underway, but the key issues are not if a vaccine can be developed but where phase 3 trials will be done and who will manufacture vaccine at scale.', 'The number of cases of COVID-19 are falling quickly in China, 4 but a site for phase 3 vaccine trials needs to be in a location where there is ongoing transmission of the disease.', 'Manufacturing at scale requires one or more of the big vaccine manufacturers to take up the challenge and work closely with the biotechnology companies who are developing vaccine candidates.', 'This process will take time and we are probably a least 1 year to 18 months away from substantial vaccine production.So what is left at present for mitigation is voluntary plus mandated quarantine, stopping mass gatherings, closure of educational institutes or places of work where infection has been identified, and isolation of households, towns, or cities.', 'Some of the lessons from analyses of influenza A apply for COVID-19, but there are also differences.', 'Broader-scale social distancing provides time for the health services to treat cases and increase capacity, and, in the longer term, for vaccines and treatments to be developed.', 'This approach underway in northern Italy will provide valuable data on the effectiveness of such measures.', 'The greater the reduction in transmission, the longer and flatter the epidemic curve (figure), with the risk of resurgence when interventions are lifted perhaps to mitigate economic impact.The key epidemiological issues that determine the impact of social distancing measures are what proportion of infected individuals have mild symptoms and whether these individuals will self-isolate and to what effectiveness; how quickly symptomatic individuals take to isolate themselves after the onset of symptoms; and the duration of any non-symptomatic infectious period before clear symptoms occur with the linked issue of how transmissible COVID-19 is during this phase.Individual behaviour will be crucial to control the spread of COVID-19.', '15 This plan is light on detail, given the early stages of the COVID-19 epidemic and the many uncertainties, but it outlines four phases of action entitled contain, delay, research, and mitigate.', 'Italy, South Korea, Japan, and Iran are at the mitigate phase and trying to provide the best care possible for a rapidly growing number of people with COVID-19.The known epidemiological characteristics of COVID-19 point to urgent priorities.', 'Shortening the time from symptom onset to isolation is vital as it will reduce transmission and is likely to slow the epidemic (appendices 2, 3) However, strategies are also needed for reducing household transmission, supporting home treatment and diagnosis, and dealing with the economic consequences of absence from work.', 'Peak demand for health services could still be high and the extent and duration of presymptomatic or asymptomatic transmission-if this turns out to be a feature of COVID-19 infection-will determine the success of this strategy.', '17 Super-spreading events are inevitable, and could overwhelm the contact tracing system, leading to the need for broader-scale social distancing interventions.Data from China, South Korea, Italy, and Iran suggest that the CFR increases sharply with age and is higher in people with COVID-19 and underlying comorbidities.', '19 These events underline the importance of enhanced support for health-care infrastructure and effective procedures for protecting staff from infection.In northern countries, there is speculation that changing contact patterns and warmer weather might slow the spread of the virus in the summer.', '11 \n\nFigure: Illustrative simulations of a transmission model of COVID-19\n\nA baseline simulation with case isolation only (red); a simulation with social distancing in place throughout the epidemic, flattening the curve (green), and a simulation with more effective social distancing in place for a limited period only, typically followed by a resurgent epidemic when social distancing is halted (blue).', 'These are not quantitative predictions but robust qualitative illustrations for a range of model choices.See Online for appendices 2, 3 R 0 of 2·5 or higher, reductions in transmission by social distancing would have to be large; and much of the changes in transmission of pandemic influenza in the summer of 2009 within Europe were thought to be due to school closures, but children are not thought to be driving transmission of COVID-19.', 'Data from the southern hemisphere will assist in evaluating how much seasonality will influence COVID-19 transmission.Model-based predictions can help policy makers make the right decisions in a timely way, even with the uncertainties about COVID-19.', 'Ongoing data collection and epidemiological analysis are therefore essential parts of assessing the impacts of mitigation strategies, alongside clinical research on how to best manage seriously ill patients with COVID-19.There are difficult decisions ahead for governments.', 'Government communication strategies to keep the public informed of how best to avoid infection are vital, as is extra support to manage the economic downturn.']</t>
+  </si>
+  <si>
+    <t>['Introduction\n\nThe outbreak of the pneumonia named COVID-19 caused by the novel coronavirus SARS-CoV-2 (2019-nCoV) has infected over 110,000 people worldwide by 8th March, 2020.', 'Apart from China, other countries or regions including South Korea, Iran, and Europe have reported a rapid increase in the number of COVID-19 cases, implying that this novel coronavirus has posed a global health threat.', 'Under the current circumstance of the absence of the specific vaccines and medicines against SARS-CoV-2, it is urgent to discover effective therapies especially drugs to treat the resulting COVID-19 disease and prevent the virus from further spreading.', 'Considering that the development of a new drug generally takes years, probably the best therapeutic shortcut is to apply the drug repositioning strategy (i.e., finding the new uses of old drugs) [1, 2, 3] to identify the potential antiviral effects against SARS-CoV-2 of existing drugs that have been approved for clinical use or to enter clinical trials.', 'Those existing drugs with potent antiviral efficacy can be directly applied to treat COVID-19 in a short time, as their safety has been verified in principle in clinical trials.In this study, we applied a data-driven framework that combines both machine learning and statistical analysis methods to systematically integrate large-scale available coronavirus-related data and identify the drug candidates against SARS-CoV-2 from a set of over 6000 drug candidates (mainly including approved, investigational and experimental drugs).', 'In addition, we found that in human peripheral blood mononuclear cells (PBMCs), CVL218 is able to suppress the CpG-induced production of IL-6, which has been reported previously to be of high relevance to the viral pathogenesis of COVID-19, especially for those intensive care unit (ICU) patients infected by SARS-CoV-2.', 'Cyclosporine, a calcineurin inhibitor approved as an immunomodulatory drug [11] , was observed to block the replication of SARS-CoV [12] , and also successfully predicted by our approach.', 'More specifically, olaparib inhibited SARS-CoV-2 replication by 15.48% at a concentration of 3.2 µM, while CVL218 reached 35 .16% reduction at a concentration of 3 µM.Notably, the antiviral efficacy of CVL218 even surpassed arbidol, which is one of the standard treatments for COVID-19 in the Diagnosis and Treatment Protocol for Novel Coronavirus Pneumonia (Trial Version 6) promulgated by the Chinese government (http://www.nhc.gov.cn/yzygj/s7653p/202002/8334a8326dd94d329df 351d7da8aefc2/files/b218cfeb1bc54639af227f922bf6b817.pdf).', 'Remdesivir, which has entered the clinical trials for the treatment of COVID-19 (https://clinicaltrials.gov/ct2/show/NCT04257656), was also tested in this assay for comparison.', 'All together, the results of these in vitro assays indicated that CVL218 can be further evaluated as a potential therapeutic agent for treating COVID-19.', 'These findings supported a hypothesis that rapid production of IL-6 might be a possible mechanism leading to the deleterious clinical manifestations in viral pathogenesis [24] .', 'The pathological role of IL-6 in SARS-CoV-2 infection indicated that IL-6 blockade may provide a feasible therapy for the treatment of COVID-19.To test whether CVL218 is able to regulate the IL-6 production in vitro, we stimulated the IL-6 production of the peripheral blood mononuclear cells (PMBCs) by CpG-ODN 1826, which is an effective stimulator of cytokines and chemokines.', 'These results provided an in vitro evidence to support CVL218 as a potential therapeutic agent for treating pro-inflammatory response caused by SARS-CoV-2 infection.2.5.', 'Therefore, we also used the experimentally solved structure of HCoV-OC43-N-NTD complexed with PJ-34 as a reference to analyze our docking results.Our docking results (more details can also be found in Supplementary \n\nDiscussion\n\nIn this study we reported a top down data integration approach by combining both machine learning and statistical analysis techniques, followed by web-lab experimental validation, to identify potential drug candidates for treating SARS-CoV-2 infection.', 'We showed that the PARP1 inhibitor CVL218 discovered by our in silico drug repurposing framework may have the therapeutic potential for the treatment of COVID-19.', 'Although we mainly conducted in vitro assays to experimentally validate the anti-SARS-CoV-2 effects of olaparib and CVL218 due to limited time, it is natural to speculate that other PARP1 inhibitors may also have antiviral activities against SARS-CoV-2 infection, based on our computational prediction and experimental validation results.Based on the data present in this study and the previously known evidences reported in the literature, we propose several potential mechanisms to help understand the involvement of PARP1 inhibitors in the treatment of COVID-19 ( Figure 6 ).', 'First, during the life cycle of the coronavirus, PARP1 inhibitors may inhibit the viral growth through suppressing viral replication and impeding the binding of the nucleocapsid protein to viral RNAs [31, 34, 35, 36] , which can also be supported by our molecular docking results (see Section 2.6).', 'All these studies suggest that PARP1 inhibitors are of high relevance to the treatment of the novel pneumonia caused by SARS-CoV-2 infection, possibly via their roles in modulating inflammatory response.Notably, current pathological studies have shown that the severe patients infected by SARS-CoV-2 generally have higher plasma levels of IL-2, IL-6, IL-10, TNFα, IFN-γ [25, 27, 28, 29] , implying a high risk of the inflammatory-associated cytokine storm after viral infection.', 'In addition, reduction and functional exhaustion of T cells have also been observed in COVID-19 patients [27] .', 'Therefore, blocking the overactive inflammatory response may be an effective strategy for the treatment of COVID-19, particularly for those ICU patients infected by SARS-CoV-2.', 'https://doi.org/10.1101/2020.03.11.986836 doi: bioRxiv preprint body drug targeting IL-6, has been recommended for the treatment of COVID-19 in the Diagnosis and Treatment Protocol for Novel Coronavirus Pneumonia (Trial Version 7) promulgated by the Chinese government (http://www.nhc.gov.cn/yzygj/s7653p/20e964.pdf), which also highlights the vital role of anti-inflammatory response in current therapeutics against SARS-CoV-2.', 'Fortunately, there are numerous existing pre-clinical and clinical studies on repurposing PARP1 inhibitors into non-oncological diseases, including the aforementioned acute diseases (e.g., acute respiratory distress syndrome (ARDS), stroke) [52] and chronic diseases (e.g., rheumatoid arthritis and vascular diseases) [52, 53] .', 'Such a tissue specific enrichment in lung may bring an extra advantage for CVL218 to be used for the anti-SARS-CoV-2 purpose, as lung is the therapeutically targeted tissue for COVID-19.', 'The unlabeled corpus that we used in this work for text-mining the coronavirus related drugs was obtained from approximately 2.2 million PMC full-text articles, with entities of interest annotated using the aforementioned named entity recognition approach.', 'Connectivity map analysis\n\nWe used the transcriptome analysis approach to further filter the potential drug candidates for treating the COVID-19 patients infected by SARS-CoV-2.', 'Due to the lack of gene expression data from the SARS-CoV-2 infected patients, we used those from the SARS-CoV infected patients to screen the potential therapeutic drug candidates against COVID-19.', 'https://doi.org/10.1101/2020.03.11.986836 doi: bioRxiv preprint where Z infected stands for the z-scores of the SARS-CoV infected patients, X infected and X healthy stand for the gene expression values in logarithm scale of the infected and healthy persons, respectively, median(·) stands for the median operation, MAD(·) stands for the median absolute deviation operation, and C = 1.4826 is a constant for normalization.', 'The monkeys were observed twice daily for viability/mortality and for any change in behavior, reaction to treatment or ill-health.', 'Statistical analysis\n\nAll data represent the means ± standard deviations (SDs) of n values, where n corresponds to the number of data points used.', 'https://doi.org/10.1101/2020.03.11.986836 doi: bioRxiv preprint Y109, Y111, R149, P151) participate in the interaction with olaparib via hydrophobic interactions.43 author/funder.']</t>
+  </si>
+  <si>
+    <t>['\n\nSince the end of 2019, an outbreak of the 2019 novel coronavirus disease (COVID-19) 1 has fast spread widely.', 'By 19 February 2020, over 70 000 laboratory-confirmed COVID-19 have been reported, with over 1800 patients died.', 'At least 12 neonates have been diagnosed with COVID-19.', 'Neonatologists belonging to the Chinese Neonatologist Association of Chinese Doctor Association have proposed measurements for the prevention and control of COVID-19 in neonates.The delivery room or operating room serving suspected or confirmed infected mothers should be specially prepared, preferably with negative pressure.', 'Neonatal resuscitation is performed according to the Neonatal Resuscitation Program seventh edition as usual.Newborns are considered at high risk of COVID-19 in case that they are born to mothers diagnosed with COVID-19, or have close contact with someone with probable or confirmed COVID-19, or live in or travel to the epidemic area.', 'All infants with suspected COVID-19 should be isolated and monitored regardless of whether or not they present with symptoms.', 'Diagnosis of neonatal COVID-19 could be confirmed if the suspected patients have positive nucleic acid test for COVID-19 from the respiratory tract, stool or blood specimens.', '4 Infants with highly suspected or confirmed COVID-19 should be referred to the designated neonatal ward.', 'Due to the strong infectivity of COVID-19, negative pressure isolation rooms are recommended.After admission, the following prevention and control strategies should be adequately performed.', 'Avoid breast feeding from COVID-19 mother until recovery.', "Strict hand hygiene and disinfecting environment protocol are required.The patients could be discharged if the following requirements are met: (1) the temperature returned to normal for more than 3 days; (2) respiratory symptoms and chest radiography improved dramatically;(3) nasopharyngeal and pharyngeal swabs, and sputum show negative for COVID-19 for two consecutive times (with at least a 24-hour interval).COVID-19 outbreak might bring psychological stress to the patient's parents and medical staff.", 'Appropriate psychological support is needed.Due to the limited cases and clinical evidence in neonatal COVID-19, the proposal will be continuously modified based on accumulated clinic evidence and experience.']</t>
+  </si>
+  <si>
+    <t>['support', 'approach', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'etc', 'vaccine', 'etc', 'support', 'vaccine', 'via', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'covid', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'covid', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'etc', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'alternative', 'etc', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'support', 'via', 'covid', 'via', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'support', 'covid', 'covid', 'vaccine', 'existing', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'covid', 'alternative', 'prevention', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid', 'support', 'via', 'covid', 'covid', 'covid', 'covid', 'covid', 'medicine', 'covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'existing', 'vaccine', 'covid', 'covid', 'covid', 'covid', 'covid', 'support', 'prevention', 'covid', 'prevention', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'mapping', 'approach', 'covid', 'covid', 'support']</t>
+  </si>
+  <si>
+    <t>['covid', 'prevention', 'covid', 'prevention', 'covid', 'covid', 'prevention', 'covid', 'prevention', 'prevention', 'covid', 'medicine', 'covid', 'medicine', 'covid', 'covid', 'vaccine', 'covid', 'approach']</t>
+  </si>
+  <si>
+    <t>['prevention', 'covid', 'support', 'covid', 'covid', 'covid', 'support', 'via', 'covid', 'covid', 'vaccine', 'covid', 'support', 'covid', 'covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'covid', 'covid', 'covid', 'covid', 'via', 'via', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'vaccine', 'prevention', 'via', 'via', 'prevention', 'covid', 'prevention', 'approach', 'prevention', 'covid', 'via', 'via', 'approach', 'via', 'approach', 'via', 'covid', 'covid', 'alternative', 'approach', 'approach', 'covid', 'approach', 'covid', 'support', 'covid', 'covid', 'covid', 'approach']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'vaccine', 'vaccine', 'covid', 'vaccine', 'vaccine', 'vaccine', 'covid', 'vaccine', 'approach', 'covid', 'covid', 'covid', 'support', 'covid', 'covid', 'support', 'covid', 'covid', 'covid', 'covid', 'support']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'vaccine', 'medicine', 'existing', 'covid', 'existing', 'covid', 'approach', 'covid', 'covid', 'covid', 'support', 'covid', 'support', 'approach', 'covid', 'covid', 'support', 'via', 'covid', 'covid', 'covid', 'existing', 'covid', 'approach', 'covid', 'approach', 'covid', 'via', 'via', 'via', 'via']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid', 'covid', 'support']</t>
   </si>
 </sst>
 </file>
@@ -593,19 +586,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>15158</v>
+        <v>349</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -616,19 +612,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15777</v>
+        <v>28792</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -636,16 +632,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>14268</v>
+        <v>17045</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -656,22 +658,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>25541</v>
+        <v>27534</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -679,48 +678,45 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>26862</v>
+        <v>18274</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>10559</v>
+        <v>18427</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -728,22 +724,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>26068</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -751,22 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>29210</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
+        <v>22700</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -774,51 +770,45 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>14202</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>22554</v>
+        <v>11860</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/EUvsVirus/output/Q2.xlsx
+++ b/EUvsVirus/output/Q2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Title</t>
   </si>
@@ -37,76 +37,88 @@
     <t>Search_words</t>
   </si>
   <si>
+    <t>The epidemiology and pathogenesis of coronavirus disease (COVID-19) outbreak</t>
+  </si>
+  <si>
     <t>The Essential Facts of Wuhan Novel Coronavirus Outbreak in China and Epitope-based Vaccine Designing against COVID-19</t>
   </si>
   <si>
-    <t>The epidemiology and pathogenesis of coronavirus disease (COVID-19) outbreak</t>
+    <t>Original Article</t>
+  </si>
+  <si>
+    <t>The deadly coronaviruses: The 2003 SARS pandemic and the 2020 novel coronavirus epidemic in China</t>
+  </si>
+  <si>
+    <t>New regulatory strategies to manage medicines shortages in Europe</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Quantifying dynamics of SARS-CoV-2 transmission suggests that epidemic control and avoidance is feasible through instantaneous digital contact tracing</t>
-  </si>
-  <si>
-    <t>A data-driven drug repositioning framework discovered a potential therapeutic agent targeting COVID-19</t>
+    <t>Computers and viral diseases. Preliminary bioinformatics studies on the design of a synthetic vaccine and a preventative peptidomimetic antagonist against the SARS-CoV-2 (2019-nCoV, COVID-19) coronavirus</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 infection does not significantly cause acute renal injury: an analysis of 116 hospitalized patients with COVID-19 in a single hospital, Wuhan, China</t>
+  </si>
+  <si>
+    <t>First two months of the 2019 Coronavirus Disease (COVID-19) epidemic in China: real- time surveillance and evaluation with a second derivative model</t>
+  </si>
+  <si>
+    <t>5307fbd7cbc9b0b7e87ec4d1a8b99e544d81446f</t>
   </si>
   <si>
     <t>73c8af41cfdbf52c0dfba37727e3b94cb56b495e</t>
   </si>
   <si>
-    <t>5307fbd7cbc9b0b7e87ec4d1a8b99e544d81446f</t>
-  </si>
-  <si>
-    <t>e9b4fbbcdb0a2c1e798d159dfa699bbb02bba9f7</t>
-  </si>
-  <si>
-    <t>b40159b406d4be046f9e60d3ed65d94ea46879fb</t>
-  </si>
-  <si>
-    <t>faf3ed3d6fc359c1f310e32061e5ed414fee7017</t>
+    <t>74b00f19c3af87d1081644f02490ba250f57b7ca</t>
+  </si>
+  <si>
+    <t>cd4f5118038ae33283d34a15f8c3888f00e247bc</t>
+  </si>
+  <si>
+    <t>63495fd69b9b1e72e551e992d16552853cb5aee0</t>
+  </si>
+  <si>
+    <t>882219fd09765ece5b362415882397e78972373e</t>
+  </si>
+  <si>
+    <t>fea50730d7cdcd7c728f98c31fe20aeb8af5e350</t>
+  </si>
+  <si>
+    <t>1e45cd5feb7928bbc8bcd524d9c6b7adeae08a6b</t>
   </si>
   <si>
     <t>5cb5e6a2d2fb1eb4ab85598211846a7061b24e92</t>
   </si>
   <si>
-    <t>c91b581d38243c502118d93fc6f71ee02ec395e4</t>
-  </si>
-  <si>
-    <t>882219fd09765ece5b362415882397e78972373e</t>
-  </si>
-  <si>
-    <t>d070dc3ef2125fd891f3e023598831e23a145880</t>
-  </si>
-  <si>
-    <t>ce5f0965088e41390e671d3d16d65ccd777efa21</t>
+    <t>469ed0f00c09e2637351c9735c306f27acf3aace</t>
+  </si>
+  <si>
+    <t>Hussin A Rothan, Siddappa N Byrareddy</t>
   </si>
   <si>
     <t>Bishajit Sarkar,  Asad Ullah, Fatema Tuz Johora, Masuma Afrin Taniya, Yusha Araf</t>
   </si>
   <si>
-    <t>Hussin A Rothan, Siddappa N Byrareddy</t>
-  </si>
-  <si>
-    <t>Bin Tang, Sijia Li, Yuwan Xiong, Ming Tian, Jianbin Yu, Lixia Xu, Li Zhang, Zhuo Li, Jianchao Ma, Feng Wen, Zhonglin Feng, Xinling Liang, Wei Shi, Shuangxin Liu, Tang B Li, S Xiong, Y , Tian M , Yu J , Xu L , Zhang L , Li Z , Ma J , Wen F , Feng Z Liang, X , Shi W , Liu S Coronavirus, ; Lixia Xu, ; Li, Zhang , ; Feng, Wen , ; Xinling Liang, Joint First Authors： ： ： ：bin Tang,  Xiong</t>
-  </si>
-  <si>
-    <t>Luke Dray, / Stringer, / Getty, Images Comment</t>
-  </si>
-  <si>
-    <t>Yonghong Xiao, Mili Estee Torok</t>
+    <t>Miyssa I Abdelmageed, Abdelrahman H Abdelmoneim, Mujahed I Mustafa, Nafisa M Elfadol, Naseem S Murshed, Shaza W Shantier, Abdelrafie M Makhawi</t>
+  </si>
+  <si>
+    <t>Yongshi Yang, Fujun Peng, Runsheng Wang, Kai Guan, Taijiao Jiang, Guogang Xu, Jinlyu Sun, Christopher Chang</t>
+  </si>
+  <si>
+    <t>Umberto M Musazzi, Domenico Di Giorgio, Paola Minghetti</t>
+  </si>
+  <si>
+    <t>B Robson</t>
+  </si>
+  <si>
+    <t>Luwen Wang, Xun Li, Hui Chen, Shaonan Yan, Yan Li, Dong Li, Zuojiong Gong,  Zuojiong,  Yan Li</t>
   </si>
   <si>
     <t>Catrin Sohrabi, Zaid Alsafi, Niamh O&amp;apos;neill, Mehdi Khan, Ahmed Kerwan, Ahmed Al-Jabir, Christos Iosifidis, Riaz Agha</t>
   </si>
   <si>
-    <t>Luca Ferretti, Chris Wymant, Michelle Kendall, Lele Zhao, Anel Nurtay, David Bonsall, Christophe Fraser</t>
-  </si>
-  <si>
-    <t>Yiyue Ge, Tingzhong Tian, Suling Huang, Fangping Wan, Jingxin Li, Shuya Li, Hui Yang, Hong Lixiang, Nian Wu, Enming Yuan, Lili Cheng, Yipin Lei, Hantao Shu, Xiaolong Feng, Ziyuan Jiang, Ying Chi, Xiling Guo, Lunbiao Cui, Liang Xiao, Zeng Li, Chunhao Yang, Zehong Miao, Haidong Tang, Ligong Chen, Hainian Zeng, Dan Zhao, Fengcai Zhu, Xiaokun Shen, Jianyang Zeng</t>
-  </si>
-  <si>
-    <t>Fang Li, Zhi Chun Feng, Yuan Shi</t>
+    <t>Xinguang Chen, Bin Yu</t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
@@ -115,83 +127,83 @@
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Coronavirus disease 2019 (COVID-19) is a highly infective disease caused by the severe acute respiratory syndrome coronavirus 2 virus (SARS-CoV-2). Previous studies on COVID-19 pneumonia outbreak were based on information from the general population.
+Background: New endemic disease has been spread across Wuhan City, China on December 2019. Within few weeks, the World Health Organization (WHO) announced a novel coronavirus designated as coronavirus disease 2019 . In late January 2020, WHO declared the outbreak of a "public-health emergency of international concern" due to the rapid and increasing spread of the disease worldwide. Currently, there is no vaccine or approved treatment for this emerging infection; thus the objective of this study is to design a multi epitope peptide vaccine against COVID-19 using immunoinformatics approach. Method: Several techniques facilitating the combination of immunoinformatics approach and comparative genomic approach were used in order to determine the potential peptides for designing the T cell epitopes-based peptide vaccine using the envelope protein of 2019-nCoV as a target. Results: Extensive mutations, insertion and deletion were discovered with comparative sequencing in COVID-19 strain. Additionally, ten peptides binding to MHC class I and MHC class II were found to be promising candidates for vaccine design with adequate world population coverage of 88.5% and 99.99%, respectively. Conclusion: T cell epitopes-based peptide vaccine was designed for COVID-19 using envelope protein as an immunogenic target. Nevertheless, the proposed vaccine is rapidly needed to be validated clinically in order to ensure its safety, immunogenic profile and to help on stopping this epidemic before it leads to devastating global outbreaks.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Comment 2 www.thelancet.com/infection Published online March 5, 2020 https://doi.org/10.1016/S1473-3099(20)30152-3crucial uncertainties such as clinical severity, extent of transmission and infection, and treatment options, and accelerate the development of diagnostics, therapeutics, and vaccines. We also need to minimise social disruption and economic impact through international, collaborative and multisectoral approaches. Most importantly, we need to communicate the epidemiology and risks of COVID-19 clearly, both to health-care workers and to the general population, and to implement infection prevention and control measures that are based on sound scientific principles.We declare no competing interests.
+Medicine shortages have been spreading in European countries. In many cases, the unavailability of medicinal products has a substantial impact on the capability of National Healthcare Systems in ensuring the continuity of care. Shortages originate from multifactorial causes. In particular, they can be due to supply-related factors (e.g., manufacturing issues, regulatory issues, logistics, distribution) and demand-related ones (e.g., fluctuating drug demand, parallel market, tendering, price and reimbursement policies). However, some extraordinary geopolitical events (e.g., Brexit) may also affect medicines' availability. The capability of European Regulatory Authorities and other stakeholders, which are involved in the pharmaceutical distribution chain and the healthcare assistance services, to define suitable problem-solving strategies has been limited for years by the fragmentation of the European regulatory framework, starting from the lack of a univocal definition of a medicine shortage. Only in 2019, the EMA and HMA joint task force released the first harmonized "shortage" definition in the European Economic Area (EEA) and guidance on public communication. This manuscript aims to review the current European regulatory framework on medicine shortages. To support the activities of regulators, manufacturers and other healthcare professionals, an algorithm was also proposed to be used as a harmonized procedure to determine the shortage/unavailability impact on public health and to rationalize the problem-solving strategies adopted in all different settings.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-Mobile phone apps implementing algorithmic contact tracing can speed up the process of tracing newly diagnosed individuals, spreading information instantaneously back through a past contact network to inform them that they are at risk of being infected, and thus allow them to take appropriate social distancing and testing measures. The aim of non-pharmaceutical infection prevention is to move a population towards herd protection, a state where a population maintains R 0 &lt;1, thus making it impossible for a pathogen to cause an epidemic. Here, we address epidemiological issues that affect the feasibility of an algorithmic approach to instantaneous contact tracing; ethical and implementation issues are addressed separately. First we quantify the parameters of COVID-19 in a framework that is consistent with the renewal equation formulation of epidemic spread. Second, we use an analytical solution to application of first-degree contact tracing in the renewal equation model to explore combinations of efficacy that can induce herd protection (R 0 &lt;1). With the emergence of the novel viral pathogen SARS-CoV-2, of clear potential for a global pandemic with high fatality rates and incapacitated health systems, the question of prevention has critical priority. We come to the conclusion that isolating symptomatic cases and tracing their contacts in a classical manner is not sufficiently fast to stop the spread of the epidemic and needs to be accompanied by measures of social distancing that are disruptive to a wide number of people. We show that first-degree instantaneous contact tracing, informing users when they can move safely or when to seek medical help and avoid vulnerable individuals, has the potential to stop the spread of the epidemic if used by a sufficiently large number of people with reasonable fidelity. All rights reserved. No reuse allowed without permission. author/funder, who has granted medRxiv a license to display the preprint in perpetuity.
+ZG and YL made substantial contributions to the study concept and design. LW was in charge of the manuscript draft. XL, CH, SY and DL took responsibility for obtaining written consent from patients, obtaining ethical approval, collecting samples, and confirming data accuracy. LW and ZG participated in drafting the manuscript, and revising it on the basis of reviewers' comments. LW made substantial contributions to data acquisition, analysis, and interpretation.We declare no competing interests.With the permission of the corresponding authors, we can provide participant data without names and identifiers, but not the study protocol, statistical analysis plan, or informed consent form. Data can be provided after the Article is published. Once the data can be made public, the research team will provide an email address for communication. The corresponding authors have the right to decide whether to share the data or not based on the research objectives and plan provided.All rights reserved. No reuse allowed without permission. author/funder, who has granted medRxiv a license to display the preprint in perpetuity.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
-The global spread of SARS-CoV-2 requires an urgent need to find effective therapeutics for the treatment of COVID-19. We developed a data-driven drug repositioning framework, which applies both machine learning and statistical analysis approaches to systematically integrate and mine large-scale knowledge graph, literature and transcriptome data to discover the potential drug candidates against SARS-CoV-2. The retrospective study using the past SARS-CoV and MERS-CoV data demonstrated that our machine learning based method can successfully predict effective drug candidates : bioRxiv preprint against a specific coronavirus. Our in silico screening followed by wet-lab validation indicated that a poly-ADP-ribose polymerase 1 (PARP1) inhibitor, CVL218, currently in Phase I clinical trial, may be repurposed to treat COVID-19. Our in vitro assays revealed that CVL218 can exhibit effective inhibitory activity against SARS-CoV-2 replication without obvious cytopathic effect. In addition, we showed that CVL218 is able to suppress the CpG-induced IL-6 production in peripheral blood mononuclear cells, suggesting that it may also have anti-inflammatory effect that is highly relevant to the prevention immunopathology induced by SARS-CoV-2 infection. Further pharmacokinetic and toxicokinetic evaluation in rats and monkeys showed a high concentration of CVL218 in lung and observed no apparent signs of toxicity, indicating the appealing potential of this drug for the treatment of the pneumonia caused by SARS-CoV-2 infection. Moreover, molecular docking simulation suggested that CVL218 may bind to the N-terminal domain of nucleocapsid (N) protein of SARS-CoV-2, providing a possible model to explain its antiviral action. We also proposed several possible mechanisms to explain the antiviral activities of PARP1 inhibitors against SARS-CoV-2, based on the data present in this study and previous evidences reported in the literature. In summary, the PARP1 inhibitor CVL218 discovered by our data-driven drug repositioning framework can serve as a potential therapeutic agent for the treatment of COVID-19. author/funder. All rights reserved. No reuse allowed without permission. : bioRxiv preprint known evidences reported in the literature, we also discussed several putative mechanisms of the anti-SARS-CoV-2 effects for CVL218 or other PARP1 inhibitors to be involved in the treatment of COVID-19. Overall, our results indicated that the PARP1 inhibitor CVL218 identified by our drug repositioning pipeline may serve as an effective therapeutic agent against COVID-19.ResultsThe overview of our data-driven drug repositioning framework is shown in Figure 1A . We first constructed a virus related knowledge graph consisting of drug-target interactions, protein-protein interactions and similarity networks from publically available databases (Methods). Three different types of nodes (i.e., drugs, human targets and virus targets) within the knowledge graph were connected through edges describing their interactions, associations or similarities to establish bridges of information aggregation and knowledge mining. We then applied a network-based knowledge mining algorithm to predict an initial list of drug candidates that can be potentially used to treat SARS-CoV-2 infection ( Figure 1B and Methods). Next, we further narrowed down the list of drug candidates with the previously reported evidences of antiviral activities based on the text mining results from the large-scale literature texts, which were derived through a deep learning based relation extraction method named BERE [4] ( Figure 1C and Methods), followed by a minimum of manual checking. After that, we used the connectivity map analysis approach [5] with the gene expression profiles of ten SARS-CoV-infected patients [6] to further refine the list of drug candidates against SARS-CoV-2 ( Figure 1D , Table 1, Table S1 and Methods). The above screening process revealed that a poly-ADP-ribose polymerase 1 (PARP1) inhibitor PJ-34 could potentially have the antiviral activities against SARS-CoV-2. 4 author/funder. All rights reserved. No reuse allowed without permission.
+Background: Similar to outbreaks of many other infectious diseases, success in controlling the novel 2019 coronavirus infection requires a timely and accurate monitoring of the epidemic, particularly during its early period with rather limited data while the need for information increases explosively. Methods: In this study, we used a second derivative model to characterize the coronavirus epidemic in China with cumulatively diagnosed cases during the first 2 months. The analysis was further enhanced by an exponential model with a close-population assumption. This model was built with the data and used to assess the detection rate during the study period, considering the differences between the true infections, detectable and detected cases. Results: Results from the second derivative modeling suggest the coronavirus epidemic as nonlinear and chaotic in nature. Although it emerged gradually, the epidemic was highly responsive to massive interventions initiated on January 21, 2020, as indicated by results from both second derivative and exponential modeling analyses. The epidemic started to decelerate immediately after the massive actions. The results derived from our analysis signaled the decline of the epidemic 14 days before it eventually occurred on February 4, 2020. Study findings further signaled an accelerated decline in the epidemic starting in 14 days on February 18, 2020. Conclusions: The coronavirus epidemic appeared to be nonlinear and chaotic, and was responsive to effective interventions. The methods used in this study can be applied in surveillance to inform and encourage the general public, public health professionals, clinicians and decision-makers to take coordinative and collaborative efforts to control the epidemic.
 </t>
   </si>
   <si>
+    <t>['Early reports predicted the onset of a potential Coronavirus outbreak given the estimate of a reproduction number for the 2019 Novel (New) Coronavirus (COVID-19, named by WHO on Feb 11, 2020) which was deemed to be significantly larger than 1 (ranges from 2.24 to 3.58) [3] .The chronology of COVID-19 infections is as follows.', 'By January 2, 2020, 41 admitted hospital patients had been identified as having laboratory-confirmed COVID-19 infection, less than half of these patients had underlying diseases, including diabetes, hypertension, and cardiovascular disease [6] .', 'It was concluded that the COVID-19 is not a super-hot spreading virus (spread by one patient to many others), but rather likely spread due to many patients getting infected at various locations throughout the hospital through unknown mechanisms.', 'As of January 22, 2020, a total of 571 cases of the 2019-new coronavirus (COVID-19) were reported in 25 provinces (districts and cities) in China [7] .', 'On January 25, 2020, a total of 1975 cases were confirmed to be infected with the COVID-19 in mainland China with a total of 56 deaths [8] .', 'The first case of COVID-19 infection confirmed in the United States led to the https://doi.org/10.1016/j.jaut.2020.102433 Received 10 February 2020; Received in revised form 17 February 2020; Accepted 18 February 2020 description, identification, diagnosis, clinical course, and management of this case.', 'Further, the first case of human-to-human transmission of COVID-19 was reported in the US on January 30, 2020 (https://www.cdc.gov/media/ releases/2020/p0130).', 'Symptoms\n\nThe symptoms of COVID-19 infection appear after an incubation period of approximately 5.2 days [12] .', 'The period from the onset of COVID-19 symptoms to death ranged from 6 to 41 days with a median of 14 days [8] .', 'The most common symptoms at onset of COVID-19 illness are fever, cough, and fatigue, while other symptoms include sputum production, headache, haemoptysis, diarrhoea, dyspnoea, and lymphopenia [5, 6, 8, 13] .', '2) .It is important to note that there are similarities in the symptoms between COVID-19 and earlier betacoronavirus such as fever, dry cough, dyspnea, and bilateral ground-glass opacities on chest CT scans [6] .', 'However, COVID-19 showed some unique clinical features that include the targeting of the lower airway as evident by upper respiratory tract symptoms like rhinorrhoea, sneezing, and sore throat [15, 16] .', 'Importantly, whereas patients infected with COVID-19 developed gastrointestinal symptoms like diarrhoea, a low percentage of MERS-CoV or SARS-CoV patients experienced similar GI distress.', 'Therefore, it is important to test faecal and urine samples to exclude a potential alternative route of transmission, specifically through health care workers, patients etc ( Fig.', 'Pathogenesis\n\nThe severe symptoms of COVID-19 are associated with an increasing numbers and rate of fatalities specially in the epidemic region of China.', 'The percentage of death among the reported 2684 cases of COVID-19 was approximately 2.84% as of Jan 25, 2020 and the median age of the deaths was 75 (range 48-89) years [8] .Patients infected with COVID-19 showed higher leukocyte numbers, abnormal respiratory findings, and increased levels of plasma pro-inflammatory cytokines.', 'One of the COVID-19 case reports showed a patient at 5 days of fever presented with a cough, coarse breathing sounds of both lungs, and a body temperature of 39.0°C.', "The patient's sputum showed positive real-time polymerase chain reaction results that confirmed COVID-19 infection [14] .", 'The main pathogenesis of COVID-19 infection as a respiratory system targeting virus was severe pneumonia, RNAaemia, combined with the incidence of ground-glass opacities, and acute cardiac injury [6] .', 'Significantly high blood levels of cytokines and chemokines were noted in patients with COVID-19 infection that included IL1-β, IL1RA, IL7, IL8, IL9, IL10, basic FGF2, GCSF, GMCSF, IFNγ, IP10, MCP1, MIP1α, MIP1β, PDGFB, TNFα, and VEGFA.', 'Transmission\n\nBased on the large number of infected people that were exposed to the wet animal market in Wuhan City where live animals are routinely sold, it is suggested that this is the likely zoonotic origin of the COVID- 19 .', 'Initial reports identified two species of snakes that could be a possible reservoir of the COVID-19.', 'Genomic sequence analysis of COVID-19 showed 88% identity with two bat-derived severe acute respiratory syndrome (SARS)-like coronaviruses [19, 20] , indicating that mammals are the most likely link between COVID-19 and humans.', 'Several reports have suggested that person-to-person transmission is a likely route for spreading COVID-19 infection.', 'This is supported by cases that occurred within families and among people who did not visit the wet animal market in Wuhan [13, 21] .', 'Person-to-person transmission occurs primarily via direct contact or through droplets spread by coughing or sneezing from an infected individual.', 'Importantly, the sequence of the receptor-binding domain of COVID-19 spikes is similar to that of SARS-CoV.', 'This data strongly suggests that entry into the host cells is most likely via the ACE2 receptor [20] .', 'Phylogenetic analysis\n\nWorld Health Organisation (WHO) has classified COVID-19 as a β CoV of group 2B [23] .', 'Ten genome sequences of COVID-19 obtained from a total of nine patients exhibited 99.98% sequence identity [19] .', 'The genetic sequence of the COVID-19 showed more than 80% identity to SARS-CoV and 50% to the MERS-CoV [5, 19] , and both SARS-CoV and MERS-CoV originate in bats [24] .', 'Thus, the evidence from the phylogenetic analysis indicates that the COVID-19 belongs to the genus betacoronavirus, which includes SARS-CoV, that infects humans, bats, and wild animals [25] .COVID-19 represents the seventh member of the coronavirus family that infects humans and has been classified under the orthocoronavirinae subfamily.', 'The COVID-19 forms a clade within the subgenus sarbecovirus [25] .', 'Based on the genetic sequence identity and the phylogenetic reports, COVID-19 is sufficiently different from SARS-CoV and it can thus be considered as a new betacoronavirus that infects humans.', 'The COVID-19 most likely developed from bat origin coronaviruses.', 'Another piece of evidence that supports the COVID-19 is of bat origin is the existence of a high degree of homology of the ACE2 receptor from a diversity of animal species, thus implicating these animal species as possible intermediate hosts or animal models for COVID-19 infections [20] .', 'Therapeutics/treatment options\n\nThe person-to-person transmission of COVID-19 infection led to the isolation of patients that were administered a variety of treatments.', 'At present, there are no specific antiviral drugs or vaccine against COVID-19 infection for potential therapy of humans.', 'The treatment that have so far been attempted showed that 75 patients were administrated existing antiviral drugs.', 'Thus, these therapeutic agents can be considered to treat COVID-19 infection [27] .', 'These include the clinical candidate EIDD-2801 compound that has shown high therapeutic potential aganist seasonal and pandemic influenza virus infections and this represents another potential drug to be considered for the treatment of COVID-19 infection [28] .', 'Along those lines, until more specific therapeutics become available, it is reasonable to consider more broad-spectrum antivirals that provide drug treatment options for COVID-19 infection include Lopinavir/Ritonavir, Neuraminidase inhibitors, peptide (EK1), RNA synthesis inhibitors.', 'It is clear however, that more research is urgently needed to identify novel chemotherapeutic drugs for treating COVID-19 infections.', 'In order to develop pre-and post-exposure prophylaxis against COVID-19, there is an urgent need to establish an animal model to replicate the severe disease currently observed in humans.', 'Several groups of scientists are currently working hard to develop a nonhuman primate model to study COVID-19 infection to establish fast track novel therapeutics and for the testing of potential vaccines in addition to providing a better understanding of virus-host interactions.7.', 'Future directions to control the spread of the disease Extensive measures to reduce person-to-person transmission of COVID-19 are required to control the current outbreak.', 'The early death cases of COVID-19 outbreak occurred primarily in elderly people, possibly due to a weak immune system that permits faster progression of viral infection [8, 12] .', 'Physical contact with wet and contaminated objects should be considered in dealing with the virus, especially agents such as faecal and urine samples that can potentially serve as an alternative route of transmission [15, 16] .', 'China and other countries including the US have implemented major prevention and control measures including travel screenings to control further spread of the virus [13] .', 'Epidemiological changes in COVID-19 infection should be monitored taking into account potential routes of transmission and subclinical infections, in addition to the adaptation, evolution, and virus spread among humans and possible intermediate animals and reservoirs.']</t>
+  </si>
+  <si>
     <t>['https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprintTo date, there is no effective antiviral therapies that can combat the Coronavirus infections and hence the treatments are only supportive.', 'This experiment is carried out to design novel epitope-based vaccine against four proteins of SARS-CoV-2 i.e., nucleocapsid phosphoprotein which is responsible for genome packaging and viral assembly [96] ; surface glycoprotein that is responsible for membrane fusion event during viral entry [97] [98] ; ORF3a protein that is responsible for viral replication, characterized virulence, viral spreading and infection [99] and membrane glycoprotein which mediates the interaction of virions with cell receptors [100] using the approaches of reverse vaccinology.Reverse vaccinology refers to the process of developing vaccines where the novel antigens of a virus or microorganism or organism are detected by analyzing the genomic and genetic information of that particular virus or organism.', 'These tools are used to dissect the genome and genetic makeup of a pathogen for developing a potential vaccine.', 'Reverse vaccinology approach of vaccine development also allows the scientists to easily understand the antigenic segments of a virus or pathogen that should be given more emphasis during the vaccine development.', 'This method is a quick, cheap, efficient, easy and cost-effective way to design vaccine.', 'Reverse vaccinology has successfully been used for developing vaccines to fight against many viruses i.e., the Zika virus, Chikungunya virus etc.', '[ \n\nMaterials and Methods:\n\nThe current experiment was conducted to develop potential vaccines against the Wuhan novel coronavirus (strain SARS-CoV-2) (Wuhan seafood market pneumonia virus) exploiting the strategies of reverse vaccinology (Figure 01 ).', "Next, the selected antigenic protein sequences were analyzed by ExPASy's online tool and ProtParam (https://web.expasy.org/protparam/) to determine their physicochemical properties i.e., the number of amino acids, theoretical pI, extinction co-efficient, aliphatic index and grand average of hydropathicity (GRAVY) etc.", 'The toxicity prediction of the selected epitopes was carried out using ToxinPred server (http://crdd.osdd.net/raghava/toxinpred/) using SVM (support vector method) based method, keeping all the parameters default.', 'Molecular Docking of the Selected Epitopes\n\nMolecular docking analysis is one of the essential steps in reverse vaccinology to design vaccines.In this step, peptide-protein docking was performed to predict the binding of epitopes with various antibodies or the MHC receptors [122] .', 'Later, possible solutions are predicted from these patches and RMSD (root mean square deviation) scores are applied to the candidate solutions.', 'Vaccines\n\nThe antigenicity of the constructed vaccines was predicted by the online server VaxiJen v2.0 (http://www.ddg-pharmfac.net/vaxijen/VaxiJen/VaxiJen.htm) using the tumor model where the threshold was set at 0.4.', 'The allergenicity of the predicted vaccines were determined by two online tools for improving the prediction accuracy i.e., AlgPred (http://crdd.osdd.net/raghava/algpred/) and AllerTop v2.0 (https://www.ddg-pharmfac.net/AllerTOP/).', 'MEME/MAST motif prediction was used to predict the allergenicity of the vaccines by AlgPred [136] .', 'Later, ProtParam (https://web.expasy.org/protparam/) was used to predict different physicochemical properties of the predicted vaccines [109] .', 'Secondary and Tertiary Structure Prediction of the Vaccine Constructs\n\nThe secondary structure generation of the vaccine constructs were performed using online server, PRISPRED (http://bioinf.cs.ucl.ac.uk/psipred/), which is a simple and easy secondary structure generating tool [137] [138] .', 'The secondary structures of the vaccine constructs were predicted using the PRISPRED 4.0 prediction method.', 'Next, another online tool, NetTurnP v1.0 (http://www.cbs.dtu.dk/services/NetTurnP/) was used to predict the β-sheet structure of the predicted vaccines [139] .', 'The 3D structures of the vaccines were then generated using online server RaptorX (http://raptorx.uchicago.edu/) [140] - [142] .From the secondary structure analysis, it was determined that, the CV-1 had the highest percentage of the amino acids (67.1%) in the coil formation as well as the highest percentage of amino acids (8%) in the beta-strand formation.', 'CV-1 and CV-2 vaccines had 02 domains, whereas, CV-3 had only one domain.', 'Moreover, three different templates were used for generating3D structures of the three different vaccines.', 'The RaptorX server used the templates for generating the 3D structures of the query vaccine constructs [177] .', 'https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprint\n\n3D Structure Refinement and Validation\n\nProtein structure refinement is an important step in vaccine design because when protein 3D structures are predicted by online tools, they may lack the true, native structure.', 'The refinement of the structures can convert the low resolution predicted model to high resolution predicted model The three vaccine constructs were refined and then validated in the 3D structure refinement and validation step.', 'https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprint\n\nVaccine Protein Disulfide Engineering\n\nDisulfide bonds are important characteristics of protein because they provide stability to the proteins.', 'For this reason, to predict the correct disulfide interactions, the vaccine protein disulfide engineering was carried out with the aid of Disulfide by Design 2 v12.2 (http://cptweb.cpt.wayne.edu/DbD2/) server which predicts the potential sites within a protein structure that have higher possibility of undergoing disulfide bond formation [147] .', 'For this reason, the Cα-Cβ-Sγ angle was kept default (114.6° ±10) [148] [149].In protein disulfide engineering, disulfide bonds were generated within the 3D structures of the vaccine constructs.', 'The selected amino acid pairs of CV-1 formed the mutant version of the original vaccines (Figure 08) .', 'https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprintIn protein-protein docking, the constructed SARS-CoV-2 vaccines were analyzed by docking against some MHC alleles as well as the toll like receptors (TLRs).', 'Since the different portions of the MHC molecules are encoded by different MHC alleles, the constructed vaccines should have very good binding affinity towards these segments of the MHC complex [150] .', 'For this reason, the vaccine constructs of Wuhan novel coronavirus were docked against TLR-8 (PDB ID: 3W3M).', 'From the docking experiment, one best vaccine was selected based on the docking score.', 'Molecular Dynamic Simulation\n\nThe molecular dynamics (MD) simulation study was of the best selected vaccine construct was carried out using the online MD simulation tool, iMODS (http://imods.chaconlab.org/).', 'Codon Adaptation and In Silico Cloning\n\nThe best predicted vaccine from the previous steps, was reverse transcribed to a possible DNA sequence which is supposed to express the vaccine protein in a target organism.', 'The cellular machinery of that particular organism could use the codons of the newly adapted DNA sequence efficiently for producing the desired vaccine.', 'Codon adaptation is a necessary step of vaccine design because this step provides the effective prediction of the DNA sequence of a vaccineconstruct.', 'The best predicted vaccine was used for codon adaptation by the Java Codon Adaptation Tool or JCat server (http://www.jcat.de/).', 'The codon adaptation index (CAI) value of 1.0 of CV-1 indicated that the DNA sequences contained higher proportion of the codons that should be used by the cellular machinery of the target organism E. coli strain K12 (codon bias).For this reason, the production of the CV-1 vaccine should be carried out efficiently [183] [184] .The GC content of the improved sequence was 51.34% (Figure 11) .', 'The results of the codon adaptation study of the constructed vaccine, CV-1.. CC-BY 4.0 International license author/funder.', 'T-cell and B-cell Epitope Prediction and their Antigenicity, Allergenicity and Topology Determination\n\nThe MHC class-I and MHC class-II epitopes, determined for potential vaccine construction.', 'Later, the epitopes with high antigenicity, nonallergenicity and non-toxicity were selected for vaccine construction.', 'Table 08 lists the predicted B-cell epitopes of the two proteins and Table 09 lists the epitopes that followed the mentioned criteria and were selected for further analysis and vaccine construction.', 'https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprint \n\nVaccine Construction\n\nAfter successful docking, three vaccines were constructed using the selected epitopes which is supposed to be directed to fight against the SARS-CoV-2.', 'To construct the vaccines, three different adjuvants were used i.e., beta defensin, L7/L12 ribosomal protein and HABA protein and different linkers i.e., EAAAK, GGGS, GPGPG and KK linkers were used at their appropriate positions.PADRE sequence is an important sequence which was used in vaccine construction.', 'It has the capability to increase the potency of the vaccines with minimal toxicity.', 'The newly constructed vaccines were designated as: CV-1, CV-2 and CV-3 (Table 11) .. CC-BY 4.0 International license author/funder.', 'All the three vaccine constructs were found to be antigenic as well as non-allergenic.', 'https://doi.org/10.1101/2020.02.05.935072 doi: bioRxiv preprint \n\nProtein-Protein Docking Study\n\nThe protein-protein docking study was carried out to find out the best constructed COVID-19vaccine.', 'The vaccine construct with the best result in the molecular docking, was considered as the best vaccine construct.', 'According to docking results, it was found that CV-1 was the best constructed vaccine.', 'However, CV-2 showed the best binding affinity (ΔG scores) with DRB3*0202 (- showed the best results in the protein-protein docking study, it was considered as the best vaccine construct among the three constructed vaccines (Figure 09 &amp; Table 15 ).', 'Later, the molecular dynamics simulation study and in silico codon adaptation studies were conducted only on the CV-1 vaccine.', 'So, the simulation is carried out to determine the relative stability of the vaccine protein.', 'Discussion\n\nThe current study was designed to construct possible vaccines against the Wuhan Novel Coronavirus 2019 (SARS-CoV-2), which is the cause of the recent outbreak of the deadly viral disease, COVID-19 in China.', 'For this reason, possible vaccines were predicted in this study to fight against this lethal virus.', 'To carry out the vaccine construction, four candidate proteins of the virus were identified and selected from the NCBI database.', 'Because the nucleocapsid phosphoprotein and surface glycoprotein were found to be antigenic, they were taken into consideration for vaccine construction.The physicochemical property analysis was conducted for the two predicted antigenic proteins.The extinction coefficient can be defined as the amount of light that is absorbed by a particular compound at a certain wavelength [186] [187] .', 'The aliphatic index of a protein corresponds to the relative volume occupied by the aliphatic amino acids in the side chains of the protein, for example: alanine, valine etc.', 'The possible T-cell and Bcell epitopes of the selected proteins were determined by the IEDB (https://www.iedb.org/) server.The epitopes with high antigenicity, non-allergenicity and non-toxicity were selected to vaccine construction.', 'The B-cell epitopes (predicted by the server) that were more than ten amino acids long were taken into consideration and the antigenic and non-allergenic epitopes were selected for vaccine construction.', 'However, among the selected epitopes, QLESKMSGK, LIRQGTDYKHWP, GVLTESNKK and TSNFRVQPTESI generated the best docking scores.After the successful docking study, the vaccine construction was performed.', 'The vaccines, with three different adjuvants, were constructed and designated as: CV-1, CV-2 and CV-3.', 'Since all the three vaccines were found to be antigenic, they should be able to induce good immune response.', 'Moreover, the conventional approach of vaccine development have raised many safety concerns in many pre-clinical and clinical trials.', 'The subunit vaccines like the vaccines predicted in the study could overcome such difficulties [196] - [200] .', 'Finally, this study recommends CV-1 as the best vaccine to be an effective worldwide treatment based on the strategies employed in the study to be triggered against SARS-CoV-2 infection.', 'Prevention of the newly emerging infection is very challenging as well as mandatory.', 'In this study, potential subunit vaccines were designed against the SARS-CoV-2 using various methods of reverse vaccinology and immunoinformatics.', 'To design the vaccines, the highly antigenic viral proteins as well as epitopes were used.', 'Various computational studies of the suggested vaccine constructs revealed that these vaccines might confer good immunogenic response.', 'For this reason, if satisfactory results are achieved in various in vivo and in vitro tests and trials, these suggested vaccine constructs might be used effectively for vaccination to prevent the coronavirus infection and spreading.', 'Therefore, our present study should help the scientists to develop potential vaccines and therapeutics against the Wuhan Novel Coronavirus 2019.', 'Acknowledgements\n\nAuthors acknowledge the members of Swift Integrity Computational Lab, Dhaka, Bangladesh, a virtual platform of young researchers for their support during the preparation of the manuscript.']</t>
   </si>
   <si>
-    <t>['Early reports predicted the onset of a potential Coronavirus outbreak given the estimate of a reproduction number for the 2019 Novel (New) Coronavirus (COVID-19, named by WHO on Feb 11, 2020) which was deemed to be significantly larger than 1 (ranges from 2.24 to 3.58) [3] .The chronology of COVID-19 infections is as follows.', 'By January 2, 2020, 41 admitted hospital patients had been identified as having laboratory-confirmed COVID-19 infection, less than half of these patients had underlying diseases, including diabetes, hypertension, and cardiovascular disease [6] .', 'It was concluded that the COVID-19 is not a super-hot spreading virus (spread by one patient to many others), but rather likely spread due to many patients getting infected at various locations throughout the hospital through unknown mechanisms.', 'As of January 22, 2020, a total of 571 cases of the 2019-new coronavirus (COVID-19) were reported in 25 provinces (districts and cities) in China [7] .', 'On January 25, 2020, a total of 1975 cases were confirmed to be infected with the COVID-19 in mainland China with a total of 56 deaths [8] .', 'The first case of COVID-19 infection confirmed in the United States led to the https://doi.org/10.1016/j.jaut.2020.102433 Received 10 February 2020; Received in revised form 17 February 2020; Accepted 18 February 2020 description, identification, diagnosis, clinical course, and management of this case.', 'Further, the first case of human-to-human transmission of COVID-19 was reported in the US on January 30, 2020 (https://www.cdc.gov/media/ releases/2020/p0130).', 'Symptoms\n\nThe symptoms of COVID-19 infection appear after an incubation period of approximately 5.2 days [12] .', 'The period from the onset of COVID-19 symptoms to death ranged from 6 to 41 days with a median of 14 days [8] .', 'The most common symptoms at onset of COVID-19 illness are fever, cough, and fatigue, while other symptoms include sputum production, headache, haemoptysis, diarrhoea, dyspnoea, and lymphopenia [5, 6, 8, 13] .', '2) .It is important to note that there are similarities in the symptoms between COVID-19 and earlier betacoronavirus such as fever, dry cough, dyspnea, and bilateral ground-glass opacities on chest CT scans [6] .', 'However, COVID-19 showed some unique clinical features that include the targeting of the lower airway as evident by upper respiratory tract symptoms like rhinorrhoea, sneezing, and sore throat [15, 16] .', 'Importantly, whereas patients infected with COVID-19 developed gastrointestinal symptoms like diarrhoea, a low percentage of MERS-CoV or SARS-CoV patients experienced similar GI distress.', 'Therefore, it is important to test faecal and urine samples to exclude a potential alternative route of transmission, specifically through health care workers, patients etc ( Fig.', 'Pathogenesis\n\nThe severe symptoms of COVID-19 are associated with an increasing numbers and rate of fatalities specially in the epidemic region of China.', 'The percentage of death among the reported 2684 cases of COVID-19 was approximately 2.84% as of Jan 25, 2020 and the median age of the deaths was 75 (range 48-89) years [8] .Patients infected with COVID-19 showed higher leukocyte numbers, abnormal respiratory findings, and increased levels of plasma pro-inflammatory cytokines.', 'One of the COVID-19 case reports showed a patient at 5 days of fever presented with a cough, coarse breathing sounds of both lungs, and a body temperature of 39.0°C.', "The patient's sputum showed positive real-time polymerase chain reaction results that confirmed COVID-19 infection [14] .", 'The main pathogenesis of COVID-19 infection as a respiratory system targeting virus was severe pneumonia, RNAaemia, combined with the incidence of ground-glass opacities, and acute cardiac injury [6] .', 'Significantly high blood levels of cytokines and chemokines were noted in patients with COVID-19 infection that included IL1-β, IL1RA, IL7, IL8, IL9, IL10, basic FGF2, GCSF, GMCSF, IFNγ, IP10, MCP1, MIP1α, MIP1β, PDGFB, TNFα, and VEGFA.', 'Transmission\n\nBased on the large number of infected people that were exposed to the wet animal market in Wuhan City where live animals are routinely sold, it is suggested that this is the likely zoonotic origin of the COVID- 19 .', 'Initial reports identified two species of snakes that could be a possible reservoir of the COVID-19.', 'Genomic sequence analysis of COVID-19 showed 88% identity with two bat-derived severe acute respiratory syndrome (SARS)-like coronaviruses [19, 20] , indicating that mammals are the most likely link between COVID-19 and humans.', 'Several reports have suggested that person-to-person transmission is a likely route for spreading COVID-19 infection.', 'This is supported by cases that occurred within families and among people who did not visit the wet animal market in Wuhan [13, 21] .', 'Person-to-person transmission occurs primarily via direct contact or through droplets spread by coughing or sneezing from an infected individual.', 'Importantly, the sequence of the receptor-binding domain of COVID-19 spikes is similar to that of SARS-CoV.', 'This data strongly suggests that entry into the host cells is most likely via the ACE2 receptor [20] .', 'Phylogenetic analysis\n\nWorld Health Organisation (WHO) has classified COVID-19 as a β CoV of group 2B [23] .', 'Ten genome sequences of COVID-19 obtained from a total of nine patients exhibited 99.98% sequence identity [19] .', 'The genetic sequence of the COVID-19 showed more than 80% identity to SARS-CoV and 50% to the MERS-CoV [5, 19] , and both SARS-CoV and MERS-CoV originate in bats [24] .', 'Thus, the evidence from the phylogenetic analysis indicates that the COVID-19 belongs to the genus betacoronavirus, which includes SARS-CoV, that infects humans, bats, and wild animals [25] .COVID-19 represents the seventh member of the coronavirus family that infects humans and has been classified under the orthocoronavirinae subfamily.', 'The COVID-19 forms a clade within the subgenus sarbecovirus [25] .', 'Based on the genetic sequence identity and the phylogenetic reports, COVID-19 is sufficiently different from SARS-CoV and it can thus be considered as a new betacoronavirus that infects humans.', 'The COVID-19 most likely developed from bat origin coronaviruses.', 'Another piece of evidence that supports the COVID-19 is of bat origin is the existence of a high degree of homology of the ACE2 receptor from a diversity of animal species, thus implicating these animal species as possible intermediate hosts or animal models for COVID-19 infections [20] .', 'Therapeutics/treatment options\n\nThe person-to-person transmission of COVID-19 infection led to the isolation of patients that were administered a variety of treatments.', 'At present, there are no specific antiviral drugs or vaccine against COVID-19 infection for potential therapy of humans.', 'The treatment that have so far been attempted showed that 75 patients were administrated existing antiviral drugs.', 'Thus, these therapeutic agents can be considered to treat COVID-19 infection [27] .', 'These include the clinical candidate EIDD-2801 compound that has shown high therapeutic potential aganist seasonal and pandemic influenza virus infections and this represents another potential drug to be considered for the treatment of COVID-19 infection [28] .', 'Along those lines, until more specific therapeutics become available, it is reasonable to consider more broad-spectrum antivirals that provide drug treatment options for COVID-19 infection include Lopinavir/Ritonavir, Neuraminidase inhibitors, peptide (EK1), RNA synthesis inhibitors.', 'It is clear however, that more research is urgently needed to identify novel chemotherapeutic drugs for treating COVID-19 infections.', 'In order to develop pre-and post-exposure prophylaxis against COVID-19, there is an urgent need to establish an animal model to replicate the severe disease currently observed in humans.', 'Several groups of scientists are currently working hard to develop a nonhuman primate model to study COVID-19 infection to establish fast track novel therapeutics and for the testing of potential vaccines in addition to providing a better understanding of virus-host interactions.7.', 'Future directions to control the spread of the disease Extensive measures to reduce person-to-person transmission of COVID-19 are required to control the current outbreak.', 'The early death cases of COVID-19 outbreak occurred primarily in elderly people, possibly due to a weak immune system that permits faster progression of viral infection [8, 12] .', 'Physical contact with wet and contaminated objects should be considered in dealing with the virus, especially agents such as faecal and urine samples that can potentially serve as an alternative route of transmission [15, 16] .', 'China and other countries including the US have implemented major prevention and control measures including travel screenings to control further spread of the virus [13] .', 'Epidemiological changes in COVID-19 infection should be monitored taking into account potential routes of transmission and subclinical infections, in addition to the adaptation, evolution, and virus spread among humans and possible intermediate animals and reservoirs.']</t>
-  </si>
-  <si>
-    <t>['Introduction\n\nIn late December 2019, an outbreak of a novel coronavirus disease (COVID-19) was reported in Wuhan, a city in the Hubei Province of China.', "COVID-19 pneumonia has had a significant impact on people's health and social activity behavior and on economic development.", 'The Chinese government reported that 78,195 cases of COVID-19 had been confirmed, 2491 cases were suspected and 2718 patients had died as of February 26, 2020 [2] .', 'The outbreak of COVID-19 led to the closure of Wuhan, workers were delayed to work, and schools were closed across China.', 'Because hemodialysis patients are older and have more underlying diseases, Page 4 of 15 they likely are more susceptible to SARS-CoV-2 pneumonia than the general population.This report describes the clinical characteristics of COVID-19 pneumonia in a hemodialysis patient and reviews our management of this individual as well as measures to reduce transmission to other hemodialysis patients and staff.', 'The Chinese Guangdong Center for Disease Prevention and Control (CDC) reported SARS-CoV-2 virus nucleic acid tests were positive in throat swab samples two times.', 'Based on epidemiological characteristics and these findings, we diagnosed COVID-19 pneumonia.As soon as COVID-19 pneumonia was diagnosed, the patient was transferred to a specialty hospital and received hemodialysis in a room with isolation facilities designated for COVID-19 patients.', 'Although all hemodialysis patients wear a face mask during dialysis, the other 42 patients who had a potential exposure to COVID-19 due to receiving dialysis in the same room were also transferred to the isolation ward of the specialty hospital with regular dialysis for 14 days.', 'Because of universal precautions taken by the medical staff, the staff were tested for SARS-CoV-2 virus nucleic acid negative, and not isolated.The patient was treated with oxygen support via nasal cannula, regular hemodialysis, antihypertensive medications, moxifloxacin (400 mg daily) and lopinavir/ritonavir (two tablets twice daily) antiviral therapy.', 'Page 6 of 15\n\nIn this report, we describe the clinical course of a hemodialysis patient who developed COVID-19.', 'The clinical presentation of the patient was similar to atypical symptom COVID-19 patients.', 'Lymphopenia is common in patients with COVID-19 and might be a critical factor associated with disease severity and mortality in general patients [9] .', 'Cao and colleagues reported that the most common laboratory abnormalities were depressed total lymphocytes, prolonged prothrombin time, and elevated lactate dehydrogenase in COVID-19 pneumonia [10] .', 'Given these limitations and the high prevalence of comorbid conditions, COVID-19 pneumonia diagnosis in hemodialysis patients is dependent on clinical epidemiology, radiographic findings, and viral nucleic acids testing.Lopinavir/ritonavir is a combination antiviral medicine used to treat human immunodeficiency virus (HIV) that is metabolized by the liver; the active ingredient, lopinavir, is a protease inhibitor [11] .', 'Our results suggest that lopinavir/ritonavir may improve the course of COVID-19 pneumonia in patients with hemodialysis, although the lack of a control patient makes this conclusion somewhat subjective.', 'Because of liver clearance and higher protein binding capacity of lopinavir/ritonavir, no dosing adjustments are necessary in the treatment of hemodialysis patients [14] .Given the likely immunosuppression and the high prevalence of comorbid conditions among dialysis patients, the hemodialysis population may be particularly vulnerable to COVID-19 pneumonia, making efforts to promptly identify individuals with SARS-CoV-2 virus and implement steps to limit the spread of the virus critical ( Figure 2 ).', 'We also implemented a policy whereby it was mandated that the "COVID-19 Pneumonia Screening Registration Form" be completed (Box 1).', 'For non-suspected patients with potential COVID-19 exposure or from epidemic areas within the last 2 weeks, we performed hemodialysis in an isolation area within the hemodialysis facility.All patients with temperature above 37.3 0 C or respiratory symptoms were considered as suspected cases and were referred to the Emergency Department for evaluation; this assessment included routine serum chemistries and a complete blood count, CRP, procalcitonin, chest CT imaging and pharynx SARS-CoV-2 virus nucleic acid to rule out SARS-CoV-2 virus infections.', 'Dialysis facility staff adhered to infection control measures recommended by European\n\nCentre for Disease Prevention and Control (ECDC) [15] , including use of a waterproof disposable gown, cap, gloves, face shields, and an N95 facemask.', 'The dialysis machine was kept in a room in the COVID-19 isolation ward between dialysis sessions and was only used for patients who had contracted COVID-19.', 'Because of these rigorous practices by medical staff, they were allowed to continue to work and return home per their usual routines.In summary, we describe a hemodialysis patient with COVID-19 pneumonia.']</t>
-  </si>
-  <si>
-    <t>['Looming threat of COVID-19 infection in Africa: act collectively, and fast\n\nBecause of the high volume of air traffic and trade between China and Africa, 1 Africa is at a high risk for the introduction and spread of the novel coronavirus disease 2019 (COVID-19); although only Egypt has reported the first case, from a non-national.', '2 The greatest concern for public health experts is whether COVID-19 will become a pandemic, with sustained year-round transmission, similar to influenza, as is now being observed in several countries.', 'With neither treatment nor vaccines, and without pre-existing immunity, the effect might be devastating because of the multiple health challenges the continent already faces: rapid population growth and increased movement of people; existing endemic diseases, such as human immunodeficiency virus, tuberculosis, and malaria; remerging and emerging infectious pathogens such as Ebola virus disease, Lassa haemorrhagic fever, and others; and increasing incidence of non-communicable diseases.Models that enable the continent to better allocate scarce resources to better prepare and respond to the COVID-19 epidemic are crucial.', "The modelling study by Marius Gilbert and colleagues in The Lancet 4 identifies each African country's risk of importation of COVID-19 from China, using data on the volume of air travel from three airports in provinces in China to African countries.", 'The study provides a valuable tool that can help countries in Africa prioritise and allocate resources as they prepare to respond to the potential introduction and spread of COVID-19.The study should also be interpreted in light of the fast-evolving nature of the COVID-19 outbreak.', 'Although these measures might delay, but not stop, 5 the importation risk of COVID-19 into Africa, their implementation is still worthwhile.', 'Second, although Beijing, Shanghai, and Fujian do not report the highest number of cases of COVID-19 in China, the volume of travel from these cities to Africa is high, which might increase the risk of exporting cases to Africa.', 'Lastly, almost half of the flights from Africa to China are operated by Ethiopian Airlines, so it is possible that cases might pass through Ethiopia and affect destination countries.The report by Gilbert and colleagues 4 provides an important tool to map out the continental risk for the spread of COVID-19 in Africa, which should be used to inform a framework of action to prepare the continent for any potential importation and spread of COVID-19.', 'The strategy must be comprehensive, and member states, donors, and partners should immediately commit to releasing financial resources to support country-customised implementation plans derived from the strategy.', 'To help develop a common strategy that will allow for effective coordination, collaboration, and communication, the African Union Commission, Africa Centres for Disease Control and Prevention (Africa CDC), and WHO, in partnership with African countries, have established the Africa Taskforce for Coronavirus Preparedness and Response (AFTCOR).', 'The partnership has six work streams: laboratory diagnosis and subtyping; surveillance, including screening at points of entry and cross-border activities; infection prevention and control in healthcare facilities; clinical management of people with severe COVID-19; risk communication; and supply-chain management and stockpiles.', 'Because mitigating the potential spread of COVID-19 in Africa will require rapid detection and containment, the laboratory work streams of AFTCOR, Africa CDC, and WHO are working closely to expeditiously scale up diagnostic testing capacity linked to enhanced surveillance and monitoring-eg, at the beginning of February, only two countries in Africa had the diagnostic capacity to test for COVID-19.', 'However, as of Feb 25, 2020, more than 40 countries would have been capacitated to accurately diagnose COVID-19 infection, thanks to the coordination efforts of AFTCOR.', 'Second, any effective preparedness and response strategy for COVID-19 requires a committed political will; as such, the African Union Commission, Africa CDC, and WHO convened, on Feb 22, 2020, in Addis Ababa, Ethiopia, an emergency meeting of all ministers of health of 55 member states to commit to acting fast and collectively to develop and implement a coordinated continent-wide strategy.', 'To prevent the occurrence of a social, health security, and economic tragedy, actions agreed at the emergency ministerial meeting will need to be acted on quickly, before any additional COVID-19 cases are introduced to the continent, and result in sustained human-tohuman transmission.', 'The potential social, economic, and security devastation that COVID-19 could cause in Africa should be enough of an incentive for African governments to invest immediately in preparedness for the worst-case scenario.', 'Third, commitment and release of financial resources from partners and donors before a crisis hits Africa will help anticipate demand and address supply chain management, mapping, and stockpiling of COVID-19 response needs, such as large quantities of personal protective equipment, gloves, surgical masks, coveralls, and hoods, and medical countermeasures like antiviral agents.', 'Supplies of these items will be limited in Africa because of reduced manufacturing capacity.Fourth, national, regional, and international organisations need to cooperate and collaborate to optimise limited supplies, using a whole of government approach.', 'Medical staff at major hospitals must be trained in the proper protocols of quarantining individuals who are at-risk of COVID-19 infection, as well as isolation and safe treatment of patients who test positive.', 'Africa needs to be supported to act now, and needs to act fast.JNN is the director of the Africa CDC and a WHO special envoy on COVID-19.']</t>
-  </si>
-  <si>
-    <t>['Taking the right measures to control COVID-19\n\nThe outbreak of coronavirus disease 2019 (COVID-19), which originated in Wuhan, China, in December, 2019, has been declared a public health emergency of international concern by WHO.', 'In the face of the rapidly spreading disease and a large number of infected people, there is an urgent need for effective infection prevention and control measures.', 'However, some of the measures that have been introduced have no scientific basis and have proven to be ineffective.First, although COVID-19 is spread by the airborne route, air disinfection of cities and communities is not known to be effective for disease control and needs to be stopped.', '3, 4 Second, in the use of personal protective equipment, we should try to distinguish different risk factors, adopt different epidemic prevention measures, and reduce the waste of personal protective equipment, as these resources are already in short supply.', 'Although surgical masks are in widespread use by the general population, there is no evidence that these masks prevent the acquisition of COVID-19, although they might slightly reduce the spread from an infected patient.', '5 Third, the practice of blocking traffic and lockdown of villages is of no value for the prevention and control of COVID-19.', 'Since the outbreak of COVID-19, some countries have suspended flights to and from China, and prevented Chinese people from travelling to their countries; both of these actions violate WHO International Health Regulations.', '6 Similarly, in community prevention and control of the disease, the measures taken by individual villages and communities to seal off roads are of no value.', '7 Such measures could result in civil unrest and reduce compliance with infection prevention and control advice.Fourth, public health education must be based on scientific evidence to reduce the anxiety and distress caused by misinformation.', '8 Fifth, WHO has made it clear that there are currently no known effective treatments for COVID-19 and does not recommend the use of antiviral drugs, antibiotics, glucocorticoids, or traditional Chinese medicine.', 'Despite this, there have been reports of the use of oseltamivir, lopinavir/ritonavir, prednisone, antibiotics, and traditional Chinese medicine for the treatment of patients with COVID-19.', '9 Care should be taken to not give patients drugs of unknown efficacy, which might be detrimental to critically ill patients with COVID-19; clinical trials are urgently required in this context.', '10 Likewise, the development of a vaccine is an urgent public health priority.COVID-19 is an emerging infectious disease of global public health concern.', 'Efforts to control the COVID-19 epidemic are likely to require an evidence-based, multifactorial approach.']</t>
+    <t>['\n\nHowever, COVID-19 differs from other previous strains in having several critical residues at 2019-nCoV receptor-binding motif (particularly Gln493) which provide advantageous interactions with human ACE2 [15] .', 'This difference in affinity possibly explains why the novel coronavirus is more contagious than those other viruses.At present, there is no vaccine or approved treatment for humans, but Chinese traditional medicine, such ShuFengJieDu Capsules and Lianhuaqingwen Capsule, could be possible treatments for COVID-19.', 'However, there are no clinical trials approving the safety and efficacy for these drugs [22] .The main concept within all the immunizations is the ability of the vaccine to initiate an immune response in a faster mode than the pathogen itself.', 'Although traditional vaccines, which depend on biochemical trials, induced potent neutralizing and protective responses in the immunized animals but they can be costly, allergenic, time consuming and require in vitro culture of pathogenic viruses leading to serious concern of safety [23, 24].', 'Thus the need for safe and efficacious vaccines is highly recommended.Peptide-based vaccines do not need in vitro culture making them biologically safe, and their selectivity allows accurate activation of immune responses [25, 26] .', 'The core mechanism of the peptide vaccines is built on the chemical method to synthesize the recognized B-cell and T-cell epitopes that are immunodominant and can induce specific immune responses.', 'Therefore, in this study, we aimed to design a peptide-based vaccine to predict epitopes from corona envelope (E) protein using immunoinformatics analysis [29] [30] [31] [32] [33] [34] .', 'While rapid further studies are recommended to prove the efficiency of the predicted epitopes as a peptide vaccine against this emerging infection.', 'Materials and Methods\n\nWorkflow summarizing the procedures for the epitope-based peptide vaccine prediction is shown in Fig.', '1 Figure 1: Descriptive workflow for the epitope-based peptide vaccine prediction.', 'Data retrieval:\n\nFull genebank files of the complete genomes and annotation of COVID-19(NC_04551) SARS-CoV(FJ211859), MESA-CoV(NC_019843), HCoV-HKU1(AY884001), (HCoV-OC43 (KF923903), HCoV-NL63 (NC_005831) and HCoV-229E (KY983587) were retrieved from the National Center of Biotechnology Information (NCBI); while The FASTA format of envelope (E) protein (YP_009724392.1) , spike (S)protein (YP_009724390.1), nucleocapsid (N) protein (YP_009724397.2) and membrane (M) protein (YP_009724393.1) of 2019-nCoV and the envelope (E) protein of two Chinese and two American sequences (YP009724392.1, QHQ71975.1, QHO60596.1 and QHN73797.1) were obtained from the NCBI.', 'The sequences of E protein were retrieved from UniProt were run in BioEdit to determine the conserved sites through ClustalW in the application settings [37] .Sequence alignment of COVID-19envelope protein was done using BioEdit software which shows total conservation across four sequences which were retrieved from China and USA ( \n\nThe Molecular Evolutionary Genetics Analysis (MEGA):\n\nMEGA (version 10.1.6) is software for the comparative analysis of molecular sequences.', 'Prediction of T-cell epitopes:\n\nIEDB tools were used to predict the conserved sequences (10-mersequence) from HLA class I and class II T-cell epitopes by using artificial neural network (ANN) approach [40] [41] [42] .', 'Due to the diverse binding sites of epitopes with different HLA allele, the most promising epitope candidates were calculated for population coverage against the whole world, China and Europe population to get and ensure a universal vaccine [47, 48] .', 'Sequences of proposed epitopes were selected from COVID-19 reference sequence using UCSF Chimera 1.10 and saved as a PDB file.The obtained files were then optimized and energy minimized.', 'Red lines indicate match between genes from the two genomes blue lines indicates inversion which represents same sequences in the two genomes but they are organized in the opposite direction, and the lower windows represents COVID-19and its genes started from ARFLAB and ends with N genes.', 'https://doi.org/10.1101/2020.02.04.934232 doi: bioRxiv preprint\n\nDiscussion:\n\nDesigning of a novel vaccine is very crucial to defending the rapid endless of global burden of disease [56] [57] [58] [59] .', 'In the last few decades, biotechnology has advanced rapidly; alongside with the understanding of immunology which assisted the rise of new approaches towards rational vaccines design [60] .', 'Peptide-based vaccines are designed to elicit immunity particular pathogens by selectively stimulating antigen specific for B and T cells [61] .Applying the advanced bioinformatics tools and databases, various peptide-based vaccines could be designed where the peptides act as ligands [62] [63] [64] .', 'This approach has been used frequently in Saint Louis encephalitis virus [65] , dengue virus [66] , chikungunya virus [67] proposing promising peptides for designing vaccines.The COVID-19 is an RNA virus which tends to mutate more commonly than the DNA viruses [68] .', 'These mutations lied on the surface of the protein, which make COVID-19 more superior than other previous strains by inducing its sustainability leaving the immune system in blind spot [69] .In our present work, different peptides were proposed for the designing of vaccine against COVID-19 (Fig.', 'In the beginning, the whole genome of COVID-19 was analyzed by comparative genomic approach to determine the potential antigenic target [70] .', 'Artemis Comparative Tool (ACT) was used to analyze human Coronavirus (HCov-HKU1) reference sequence vs. Wuhan-Hu-1 COVID-19.', 'New genes; ORF8 and ORF6; were found inserted in COVID-19 which were absent in HCov-HKU1 that might be acquired by the horizontal gene transmission [71] .', 'Multiple sequence alignment (MSA) was performed using ClustalW for the seven strains of coronavirus, which are COVID-19(NC_04551), SARS-CoV (FJ211859), MESA-CoV (NC_019843), HCoV-HKU1 (AY884001), HCoV-OC43 (KF923903), HCoV-NL63 (NC_005831) and HCoV-229E (KY983587).', 'The maximum likelihood phylogenetic tree revealed that COVID-19 is found in the same clade of SARS-CoV, thus the two strains are highly related to each other (Fig.', 'Vaccines that effectively generate cell-mediated response are needed to provide protection against the invading pathogen.', 'Thus designing vaccine against T cell is much more important.Choosing protein E as the antigenic site, the binding affinity to MHC molecules was then evaluated.', '21 peptides were found to bind MHC class I with different affinities (Table 1) , from which ten peptides were selected for vaccine design based on the number of alleles and world population percentage ( Table 2 ; Fig.', '5 ).Analysis in IEDB MHC II binding prediction tool resulted in prediction of 61 peptides (Table 2) , from which ten peptides were selected for vaccine design based on the number of alleles and world population percentage (Table 3 The copyright holder for this preprint (which was not peer-reviewed) is the .', 'https://doi.org/10.1101/2020.02.04.934232 doi: bioRxiv preprint groove with MHC residues with least binding energy -13.2 kcal/mol, -11 kcal/mol and -11.3 kcal/mol, respectively (Fig.6C, D and E) .Although both flu and anti-HIV drugs are used currently in China for treatment of COVID-19, and chloroquine phosphate, an old drug for treatment of malaria, has recently found to have apparent efficacy and acceptable safety against 79] ; nevertheless more studies are required to standardize these therapies.', 'In addition, there has been some success in the development of mouse models of MERS-CoV and SARS-CoV infection, and candidate vaccines where the envelope (E) protein is mutated or deleted have been described [80] [81] [82] [83] [84] [85] [86] .', 'To best of our knowledge, this is the first study to identify certain peptides in envelope (E) protein as candidates for COVID-19.', 'Accordingly, these epitopes were strongly recommended as promising epitopes vaccine candidate against T cell.', 'Conclusion:\n\nExtensive mutations, insertion and deletion were discovered in COVID-19 strain using the comparative sequencing.', 'Among which the peptides YVYSRVKNL, SLVKPSFYV and LAILTALRL show high potentiality for vaccine design with adequate world population coverage.', 'T cell epitope-based peptide vaccine was designed for COVID-19 using envelope protein as an immunogenic target; nevertheless, the proposed vaccine rapidly needs to be validated clinically ensuring its safety and immunogenic profile to help on stopping this epidemic before it leads to devastating global outbreaks.', 'Acknowledgement:\n\nThe authors acknowledge the Deanship of Scientific Research at University of Bahri for the supportive cooperation.']</t>
+  </si>
+  <si>
+    <t>['An examination of the structure of the viruses and the mechanism of infection may help elucidate and provide information for the development of effective treatment and possibly vaccines.', 'The other aim is to review the epidemiology, pathogenesis, clinical characteristics, diagnosis and management of patients infected with SARS-CoV-2 to better understand this deadly coronavirus and suggest prevention, treatment and management strategies.', 'The earliest patients infected with SARS-CoV-2 in Wuhan ultimately caused the epidemic known as COronaVIrus Disease 2019 (COVID-2019).', 'Lack of effective treatment\n\nTo date, there is no anti-viral therapeutics that specifically targets human coronaviruses, so treatment is only supportive.', 'However, clinical evidence does not support the use of corticosteroid treatment for SARS-CoV-2 lung injury [42] .', 'Vaccines that have been developed are either not effective, or in some cases have been reported to be involved in the selection of novel pathogenic CoVs via recombination of circulating strains [12, 22, 40] .', 'Vaccine development can be a challenge.', 'It is noteworthy that almost 20 years after SARS, there is still no vaccine for coronavirus.', 'Due to the lack of medications or a vaccine, the options for early intervention were limited to public health measures [45] .The steps that led to the containment of SARS can be illustrated by the events that occurred in Beijing.', 'Timely and accurate reporting of the status of the epidemic and scientific guidance on prevention and infection control played important roles in stabilizing people and overcoming the epidemic [45] [46] [47] [48] .', 'Vaccine development\n\nAfter SARS, development of a vaccine appeared to be the best approach to prevent future SARS-CoV epidemics.', 'However, there were many obstacles in SARS vaccine development.', 'Although several candidate vaccines against SARS-CoV have been produced and tested, at present, unfortunately, there is no FDA approved vaccine against SARS.', 'It is worth noting that a nucleic acid fragment of the SARS-CoV-2 was detected by Guangzhou Centers for Disease Control and Prevention (CDC) on a doorknob touched by a confirmed patient [69] .', 'tested the SARS-CoV-2 in amniotic fluid, cord blood, neonatal throat swab, and breastmilk samples from six confirmed SARS-CoV-2 pregnant women, and all samples tested negative for the virus, which suggests that there is currently no evidence for intrauterine infection caused by vertical transmission in women who develop COVID-19 pneumonia in late pregnancy [76] .', 'Common symptoms of COVID-19 include fever, fatigue, and dry cough.', 'provided first-hand data regarding COVID-19 [26] .', 'Their study reported the clinical features of the first 41 patients admitted to the designated hospital in Wuhan who were laboratory-confirmed COVID-19 by January 2, 2020.', 'The effectiveness of SARS-CoV-2 rapid diagnosis in preventing spread of disease\n\nSeveral rapid and sensitive detection tests have been developed for the prevention and control of the SARS-CoV-2 outbreak.', 'The pathogenesis of COVID-19\n\nCurrent understanding of the pathogenesis of HCoVs infection is still limited, especially for SARS-CoV-2.', 'As the rise of IL-1β is a downstream indicator of cell pyroptosis, this may suggest that cell pyroptotic activity is likely to be activated and involved in the pathogenesis of COVID-19 patients.', 'Nevertheless, as both classical and nonclassical pyroptosis signaling can induce the release of IL-1β, it is unclear which pathway is involved in COVID-19.', 'Based on existing data, SARS-CoV-2 is likely to cause cell pyroptosis, especially in lymphocytes, through the activation of NLRP3 inflammasome.', 'The N protein contains two domains, both of which can bind virus RNA genomes via different mechanisms.', 'Unfortunately, there are significant conformational differences between SARS-CoV and SARS-CoV-2 such that the commercially available monoclonal antibodies against SARS-CoV do not react with SARS-CoV-2 [97] .SARS-CoV-2 may directly bind to ACE2 positive cholangiocytes but not necessarily hepatocytes via specific expression of ACE2 in healthy liver tissues using cell RNA-seq data of two independent cohorts [126] .', 'Though the respiratory systems is a primary target of SARS-CoV-2, bioinformatic analysis of single-cell transcriptomes datasets of lung, esophagus, gastric, ileum and colon reveal that the digestive system is also a potential route of entry for COVID-19, as ACE2 was not only highly expressed in lung AT2 cells, esophagus upper and stratified epithelial cells but also in absorptive enterocytes from the ileum and colon [127] .', 'This activates the most comprehensive and rigorous prevention and control measures for health and safety.', 'A team of professionals from the NHC and China CDC was sent to conduct field investigations and implement disease control and prevention measures.', 'In order to prevent health care workers from being infected, the NHC ensured enough supplies of isolation gowns, gloves and masks and issued a technical guideline for the prevention and control of infection caused by the novel coronavirus [128] .', 'Disseminate information\n\nThe NHC also formulated a community prevention and control program for SARS-CoV-2 pneumonia to strengthen community-level epidemic prevention measures to control the spread of the outbreak [129] .', 'All communities screen patients with fever within the community and monitor and report suspected cases with COVID-19.', 'Various forms of health education have been carried out in the community to disseminate knowledge of epidemic prevention and control, such as using masks and washing hands correctly.', 'The NHC issued guidelines for the protection of people at different levels of risk for COVID-19 [130] .', 'Treatment and management\n\nThere is no clear, unified and effective treatment plan for COVID-19.', 'However, severe cases should be hospitalized, and critical cases should be admitted to the ICU as soon as possible.Supportive therapy includes bedrest, adequate nutrition, monitoring vital signs and oxygen saturation, prevention of dehydration and maintaining water, electrolyte, and acid-base balance.', "Journal of Autoimmunity xxx (xxxx) xxxx infections, treat underlying diseases and provide organ function support according to the patients' condition such as that reported by Chen et all that involved the administration of intravenous immunoglobulin therapy to 27 of such patients [37] .", '[42] suggested that corticosteroid should not be used for the treatment of SARS-CoV-2-induced lung injury or shock, because of the lack of evidence that patients with COVID-19 will benefit from corticosteroid.', "In Guan's study, 632 patients were given intravenous antibiotics, and 30 patients were given antifungal medications [85] .At present, there is no evidence-based medicine to support the effectiveness of antiviral drugs for COVID-19.", 'The previous experience of treating SARS-CoV, MERS-CoV or influenza infections guides the selection of antiviral agents for COVID-19.', 'The anti-viral drug remdesivir (Gilead®) is in clinical trials to treat COVID-19 in Wuhan [132] .', 'Based on the structural information of clinical effective medicines for SARS-CoV-2, Liu et al.', 'predicted 10 commercial medicines which may function as inhibitors of SARS-CoV-2, including colistin, valrubicin, icatibant, bepotastine, epirubicin, etc.', 'suggested that baricitinib may reduce both the viral entry and inflammation [134] .Lu reported that remdesivir may have the greatest potential for the successful treatment of SARS-CoV-2, but the efficacy and safety of remdesivir in COVID-19 needs further evaluation [135] .', 'The New England Journal of Medicine reported that the first case of COVID-19 confirmed in the United States was treated with intravenous remdesivir and demonstrated clinical improvement [71] .', 'Chinese traditional medicine suggests Shufengjiedu and Lianhuaqingwen, which have played a role in the prevention and treatment of new infectious respiratory diseases, may be of benefit [138, 139] .Anxiety and fear often exist in suspected or confirmed patients.', 'Development of vaccines for coronavirus\n\nResearch institutions and pharmaceutical companies worldwide are stepping up research and development for a coronavirus vaccine.', "Virus strains have been isolated from patients' samples and provide the basis for research and development of a vaccine for the novel coronavirus.", 'Although vaccines have been developed for SARS-CoV and MERS-CoV, these are not commercially available [12, 14, 141] .', 'Since the emergence of SARS-CoV and MERS-CoV, basic research on coronaviruses and advances in vaccine preparation technology can significantly shorten the development time of new coronavirus vaccines.', 'However, the difficulties and challenges of developing an effective vaccine have been discussed earlier, and the key to a successful vaccine program is to vaccinate people before an outbreak occurs, not begin to develop the vaccine during the outbreak.', 'Development of animal models that faithfully mimic SARS-CoV-2 infection in humans is critical not only in providing a more refined understanding of the pathogenic mechanisms involved but also to serve as a screening model for potential chemotherapeutic agents and vaccines.', 'Guidelines for the future\n\nRecommendations for the prevention and management of coronavirus epidemics are summarized in Fig.', 'In addition, actively mobilizing the population to participate in epidemic prevention and control is critical, and this can be achieved by accurate information dissemination and ongoing updates.', 'Real-time updating the information of the epidemic situation can help to alleviate panic and reduce societal anxiety.', 'A strong public health surveillance system to guide the response to the outbreak is important in the face of a lack of effective therapeutics or vaccines.', 'Last but not least, use of the Internet and the media to conduct health education for the people, publicize the correct knowledge of prevention, and offer online consultation to guide patients to seek medical treatment correctly are additional strategies that can be implemented to achieve viral containment.', 'Every year millions of people are infected by influenza despite the existence of a yearly vaccine.', 'Compared with influenza, the number of patients who have died of coronavirus infection is less, but the virulence and mortality rate of coronavirus is significantly higher.Clinically, the patients with COVID-19 have no upper respiratory symptoms (such as runny nose, sneezing, sore throat).', 'The development of a vaccine for coronavirus is a critical step in prevention, but it may not be effective for future strains, and we must be ready for the next epidemic.']</t>
+  </si>
+  <si>
+    <t>["Introduction\n\nMedicine shortages have risen worldwide, straining the capability of National Healthcare Systems in ensuring patients' access to pharmacological therapies (Beck et al., 2019; Jia and Zhao, 2017, Schwartzberg et al., 2017) .", "Moreover, extraordinary geopolitical events [e.g., Brexit, Coronavirus disease (COVID-19) outbreak in China] can also have a strong influence on the resilience of the pharmaceutical chain and the patients' access to therapies.", "However, the kaleidoscopic regulatory framework on shortage is not the only critical factor, but the heterogenicity of the National legislation, reimbursement and price policies, and medicines' market around Europe limited the establishment of a solid European emergency plan to solve the shortage problem.Considering that numerous factors cause shortages, a univocal problem-solving strategy cannot be established at the European level.", '126a of Directive 2001/83/EC) and, therefore, to make medicines available on the National market.', "For example, besides the granting of National marketing authorizations, a small English-speaking country like Malta ensures its medicines' supply mainly by Art.", 'For example, the new medicine traceability system introduced in the EU by the Regulation (EU) 2016/161 increased the costs of both the production and the distribution of medicinal products, affecting the economic sustainability of the all actors involved in the pharmaceutical supply chain (e.g., MAHs, parallel distributors).', 'As a consequence, rational and practical shortage emergency plans should originate from stronger cooperation among European countries and based on the assessment of pros/cons balance at a supranational level.This manuscript aims to review the current upgrade of the European regulatory framework on medicine shortages and to propose a theoretical approach for 1) determining the shortage/unavailability impact on the capability of the National Healthcare Systems and 2) rationalizing the problem-solving strategies to be adopted in function of the leading cause of shortage (e.g., production, price and importation/exportation).', 'Such an approach would be useful to the European Regulatory Authorities in the harmonization of the metrics around the Union.', 'lie-ferengpass) and those that compromise the patient therapies in the absence of available therapeutic alternatives (i.e.', 'In Italy, the Italian Medicines Agency (AIFA) distinguishes between carenze, which identifies all manufacturing-related shortages including also those caused by MAH voluntary withdrawal (temporary or permanent), and indisponibilità, which identifies the unavailability of a medicinal product in a specific geographical area due to inefficiencies of the pharmaceutical distribution chain (Di Giorgio et al., 2019) .', 'Single National points of contact (SPOC) have been created to facilitate sharing of the information about nationwide medicine shortages and the coordination of emergency plans among the competent National Authorities and the EMA.', 'Consequently, delivery-related issues due to regional supply disruption or inefficient National redistribution of stock are explicitly out of the definition, leaving to National Authorities plenty of room in establishing their approaches to prevent the unavailability issues.', 'Moreover, MAHs are asked to provide detailed information about the product, the nature and time of the shortage, the availability of alternative medicinal products, the population affected by shortage and the risk for patient safety or a reduction in treatment access (Annex to the guideline).', 'Such information is then used by the competent Authority to triage and assess the shortage of risks.The second HMA/EMA guideline, "Good practice guidance for communication to the public on medicines\' availability issues", aimed to enhance and align the European communication on a shortage to improve the awareness of healthcare professionals and patients and the cooperation among European stakeholders (EMA and HMA, 2019b).Several key recommendations are provided to National Authorities about what should be publicly available on shortages or unavailability due to revocation/cessations of the marketing authorization.', 'For each ongoing/expected shortage, the systematic list should report details about the affected medicinal product, the shortage duration and cause, the adopted mitigation strategies, the advice for healthcare professionals, including potential alternative medicinal products and recommendation to change in clinical practice/in use of medicine.', 'In May 2019 more than 30 organisations representing patients, consumers, healthcare professionals and public health advocates stimulated the European Commission to do more in identifying the factors leading to medicines shortages and providing clear and transparent information on the root causes (Various Associations, 2019a).', 'In particular, it has been highlighted the need to find collaborative solutions for medicine shortages to coordinate EU and National policies and communication campaigns.', 'Moreover, they also underlined the importance of improving the monitoring of shortages and cooperation in the EU by the establishment of a priority ranking of shortages to address "high-risk" medicinal products efficiently without introducing disproportionate initiatives that could have opposite effects to the ones intended.Although the HMA/EMA guidelines released in 2019 represent an essential first step to provide a harmonized solution for the shortages in Europe, the proposed approach seems perfectible.', 'As reported by the Royal Dutch Pharmacists Association Farmanco® platform, the continuity of treatments is ensured in about 90% of the medicine shortage cases by the medicine substitution with therapeutic alternatives (PGEU, 2019).', "valsartan, losartan irbesartan) produced by some manufacturers, the blockage of the drug substances' production and multiple medicines' recalls caused severe shortages in most of the European countries (EMA, 2019b).", '"Antibodies to medicine shortages"\n\nConsidering such critical issues and the latest position papers of stakeholder associations (Various Associations, 2019a,b), the establishment of harmonized metrics to classify the impact of medicine shortage on the National Healthcare Systems is a mandatory step to enhance the cooperation among competent National Authorities of the European countries and to rationalize the efforts to mitigate them.', 'However, in the end, the existing problem-solving strategies aimed to face the same issue: the medicine unavailability for the patients and the increased risks for their health (Phuong et al., 2019) .', 'Consequently, in the estimation of the shortage impact on the patient needs, this aspect should be primary for harmonizing the existing metrics and rationalizing the problem-solving strategies to be adopted.', 'In this way, the resulting metrics allow promoting, on the one hand, the harmonization of the risk assessment of the shortages at EU level and, on the other hand, the rationalization of the preventing management strategies in a cause-specific matter.Such a procedure may be fully integrable with other existing and adopted strategies and, therefore, it may be an added value for both European Regulatory Authorities and other subjects involved in the National pharmaceutical distribution chains and healthcare systems (e.g., manufacturers, wholesalers, hospitals, pharmacies, insurance companies, regional healthcare Authorities).', 'Considering that the negative effects of a medicine shortage strongly varies according to the type of treated disease and the real-world patient assess to therapies, a procedure to assign the overall score for shortage impact (i.e.', 'high, medium, low) may be designed on three levels: I) type of disease to be treated, II) the availability of therapeutic alternatives and III) the market shares of the product in a specific country in comparison to the available alternatives.', '2 , the first step is to classify the medicinal products for which a shortage is expected/ongoing based on the therapeutic indications (Level I), namely: A) products for life-supporting, life-sustaining or rare diseases, B) products for severe or debilitating diseases (acute or chronic), C) products for other diseases.', 'A shortage of a lifesupporting medicinal product resulted in a higher impact on patient health than one used to treat a nonserious illness, such as allergic rhinitis.', 'The score assignment for a medicinal product can be carried out adopting the principles of the VEN (Vital-Essential-Non-essential) analysis (WHO, 2003) or other approaches.', 'Alternatively, an indication of how a competent National Authority considers much essential medicine may be indirectly obtained from the official documentation provided to support its inclusion/exclusion from the list of reimbursed medicines.', 'Level II -The availability of therapeutic alternatives\n\nThe seriousness of the shortage impact on public health is also influenced by the existence of therapeutic alternatives that can ensure the continuity of the care (PGEU, 2019) .', 'The lower the number of therapeutic alternatives on the market, the higher the negative effect of the shortage on public health.', 'Moreover, medicines with negligible market share (lower than 2% of the total demand of reference for the product in shortage) should not be taken into account as well, since their negligible impact in preserving patient access to therapies.', 'The differences among scores are based on the criticality associated with the medicine interchangeability.', 'It is the case of medicinal products for which there are alternatives with the same ATClevel III (e.g., penicillins vs tetracyclines) or IV alternatives (e.g., amoxicillin vs ampicillin).', 'In both cases, the efficacy/safety patterns of two alternatives may not be the same and, therefore, the substitution cannot be automatically carried out by the community pharmacists.', 'Level III -The market shares of the product\n\nThe existence of therapeutic alternatives may not be enough to mitigate the negative effect of a medicine shortage.', "Indeed, if the therapeutic alternative has low market shares, the MAHs supply cannot be enough to fulfil the patients' needs during the crisis.", 'The risks of shortage for the low-market-share alternatives is also increased for a ripple effect.', 'Regardless of the presence of therapeutic alternatives on the market, the lower the supplier number, the greater the number of drug shortages.', 'Therefore, for algorithm level III, the higher the market shares of a medicine (expressed as annual volumes) in comparison to the existing therapeutic alternatives, the higher the potential risks for the public health in case of shortage.Consequently, the following scores were empirically defined (Table 1) : 1) a market share higher than 50% of the entire National market; 2) a market share between 25 and 50%; 3) a market share lower than 25%.', "Manufacturers' strategies to reduce shortages\n\nA medicine shortage may be caused by a blockage of the production for different causes (e.g., the unavailability of raw materials, qualityfailures, GMP no-compliance, quality defects).", 'The application of a modern pharmaceutical quality system promotes a systematic and continuous evaluation, understanding and refining of the formulation and the manufacturing process by the identification of the critical material attributes and process parameters and by the determination of the existing functional relationship between such factors and the responses (i.e.', 'The implementation of the quality risk management plan, including shortage-specific prevention and management plan, was proposed to enhance the resilience of manufacturers to shortages, (ISPE, 2014; PDA, 2014; Panzitta et al., 2017) .', "For products with a high shortage impact, the establishment of a shortage prevention plan seemed essential to ensure an appropriate and continued supply to fulfil patients' needs.", 'Strategies to improve economic sustainability\n\nMedicine prices are cited among the causes of shortages worldwide (Jia and Zhao, 2017; Bochenek et al., 2018; Heiskenen et al., 2017; De Weerdt et al., 2015b; Dave et al., 2018) .', 'In this context, MAHs may not be able to fulfil appropriately the guidance reported in the ISPE drug shortage prevention plan as suggested by the last HMA/ EMA guideline (EMA and HMA, 2019a) .', 'In this context, European associations representing manufacturers, parallel distributors, pharmaceutical full-line wholesalers and industrial pharmacists recently stressed the need of establishing proper reward actions by the competent Authorities for supporting their activities to comply with regulation upgrades (e.g., Falsified Medicines Directive) (Various Associations, 2019b).The application of economic incentives to MAHs has been proposed as a solution to prevent shortages.', 'However, a similar approach cannot be fully applied in the EU, considering the fragmentation of the European price and reimbursement policies (WHO, 2018) .', 'Unlike the AIFA list of medicinal products in shortage (more than 2000 items) (AIFA, 2019a), the import-authorization list includes only medicinal products for with no therapeutic alternatives are available on the Italian market.', 'Regardless of the procedure required at the National level, the medicine importation is, in most of the cases, the unique possibility for healthcare professionals to ensure the continuity of care to patients if a National therapeutic alternative is not available.', 'However, an excessive recourse to parallel imports from other European countries may harm medicine unavailability in other ones for a ripple effect.', 'This effect may be worsened by uncontrolled medicine movements for economic reasons by parallel trade, under the Art.', 'However, restriction criteria for medicines affected by shortage are not harmonized at the EU level.', 'In Greece, the ban was first applied to vaccines and then extended to all medicinal products in shortages.', 'In Italy, the competent Authorities adopted a combined approach to prevent that exportations could worsen the products shortages/unavailabilities.', "Since the MAH had communicated the medicine shortage from 6th November 2019 to 15th January 2020 for manufacturing issues, the exportation ban was activated by the AIFA to prevent any medicine depletion of the National stock that could affect the patient's access to therapy.", "In this context, the exportation ban established by AIFA aimed to preserve the National product stocks for removing as long as possible the onset of famotidine shortage.Here again, the establishing a unique decision tree to support National decision about medicine importation/exportation could be useful to reduce the fragmentation of shortage-mitigating strategies among European countries and to improve the effectiveness of the National strategic plan to satisfy the patients' needs, without altering the National regulatory framework.As shown in Fig.", 'In the case of high-impact products, fast authorization procedures should also be adopted to speed up the importation from other EU (parallel imports) or extra-EU countries with similar pharmaceutical quality standards to the EU, from which the medicine can be exported without any ripple effect.', 'On the other side, it may not be convenient in the case of low-shortage-impact products, since therapeutic alternatives are available at the National level, and they may worsen the shortage situation in other European countries.', 'Moreover, a similar decision tree can also be used to support National Competent Authorities in the adoption of regulatory pathways such as Art.', '126a of Directive 2001/83/EC to ensure the availability of medicines in a specific market, particularly for those with a high shortage impact on public health.The blockage/restriction of exportations can be feasible as preventing/mitigating strategies in specific circumstances.', 'Indeed, therapeutically equivalent medicinal products can be substituted with therapeutic alternatives without compromising the safety of patients.', 'For mediumshortage-impact products, the adoption of exportation restrictions should be evaluated case-by-case based on the availability of other therapeutic options.Moreover, the promising results obtained by some National competent Authorities (e.g., AIFA) suggested that setting up cooperation schemes between administration and other stakeholders, fostering a responsible approach in managing crisis in medicines supply, also allowing, for instance, surveillance/verification programs that may represent rational and effective preventive strategies to monitor the activities of exporting wholesalers and distributors for reducing the risks of product unavailability.', 'However, for low-and medium-impact products, the development of protocols to rationalize the clinical medicine substitution or to activate importation procedures may be more effective.', 'However, it is essential to avoid alarmism in patients, especially when therapeutic alternatives are promptly available.', 'Although further studies in real-world settings are needed to complete the validation of the procedure and decision trees, the approach proposed in this article may contribute to improving the information sharing and cooperation among European countries.', 'Indeed, risk-assessment and risk-management strategies adopted by professionals (e.g., pharmacists) and other stakeholders can be rationalized and harmonized based on the medicines shortage impact scores calculated by a competent National Authority.Moreover, the structure of procedure and decision trees may be adapted and used as a model to build up risk-management strategies for local needs of a specific healthcare assistance setting (e.g., single hospital).', 'For these activities, the involvement of EMA scientific committees can be considered an added value for supporting the efforts of competent National Authorities.', 'In this context, the establishment of permanent consultation or task force groups is desirable both at National and European levels for speeding up the resolution of medicine shortage emergency.']</t>
+  </si>
+  <si>
+    <t>['How will country-based mitigation measures influence the course of the COVID-19 epidemic?', 'In our view, COVID-19 has developed into a pandemic, with small chains of transmission in many countries and large chains resulting in extensive spread in a few countries, such as Italy, Iran, South Korea, and Japan.', '1 Most countries are likely to have spread of COVID-19, at least in the early stages, before any mitigation measures have an impact.What has happened in China shows that quarantine, social distancing, and isolation of infected populations can contain the epidemic.', '1 This impact of the COVID-19 response in China is encouraging for the many countries where COVID-19 is beginning to spread.', 'In both places, COVID-19 has been managed well to date, despite early cases, by early government action and through social distancing measures taken by individuals.The course of an epidemic is defined by a series of key factors, some of which are poorly understood at present for COVID-19.', 'With R 0 values for COVID-19 in China around 2·5 in the early stages of the epidemic, 2 we calculate that approximately 60% of the population would become infected.', '3 By contrast, for COVID-19, the serial interval is estimated at 4·4-7·5 days, which is more similar to SARS.', '4 First among the important unknowns about COVID-19 is the case fatality rate (CFR), which requires information on the denominator that defines the number infected.', 'We are unaware of any completed large-scale serology surveys to detect specific antibodies to COVID-19.', 'Best estimates suggest a CFR for COVID-19 of about 0·3-1%, 4 which is higher than the order of 0·1% CFR for a moderate influenza A season.', 'The incubation period for COVID-19 is about 5-6 days.', '7 There have been few clinical studies to measure COVID-19 viraemia and how it changes over time in individuals.', 'In one study of 17 patients with COVID-19, peak viraemia seems to be at the end of the incubation period, 8 pointing to the possibility that viraemia might be high enough to trigger transmission for 1-2 days before onset of symptoms.', 'If these patterns are verified by more extensive clinical virological studies, COVID-19 would be expected to be more like influenza A than SARS.', 'For SARS, peak infectiousness took place many days after first symptoms, hence the success of quarantine of patients with SARS soon after symptoms started 7 and the lack of success for this measure for influenza A and possibly for COVID-19.The third uncertainty is whether there are a large number of asymptomatic cases of COVID-19.', 'Estimates suggest that about 80% of people with COVID-19 have mild or asymptomatic disease, 14% have severe disease, and 6% are critically ill, 9 implying that symptom-based control is unlikely to be sufficient unless these cases are only lightly infectious.The fourth uncertainty is the duration of the infectious period for COVID-19.', 'The infectious period is typically short for influenza A, but it seems long for COVID-19 on the basis of the few available clinical virological studies, perhaps lasting for 10 days or more after the incubation period.', '10 What do these comparisons with influenza A and SARS imply for the COVID-19 epidemic and its control?', 'COVID-19 had a doubling time in China of about 4-5 days in the early phases.', '3 Second, the COVID-19 epidemic could be more drawn out than seasonal influenza A, which has relevance for its potential economic impact.', 'Third, the effect of seasons on transmission of COVID-19 is unknown; 11 however, with an R 0 of 2-3, the warm months of summer in the northern hemisphere might not necessarily reduce transmission below the value of unity as they do for influenza A, which typically has an R 0 of around 1·1-1·5.', '12 Closely linked to these factors and their epidemiological determinants is the impact of different mitigation policies on the course of the COVID-19 epidemic.A key issue for epidemiologists is helping policy makers decide the main objectives of mitigation-eg, minimising morbidity and associated mortality, avoiding an epidemic peak that overwhelms health-care services, keeping the effects on the economy within manageable levels, and flattening the epidemic curve to wait for vaccine development and manufacture on scale and antiviral drug therapies.', '13 For COVID-19, the potential economic impact of self-isolation or mandated quarantine could be substantial, as occurred in China .No vaccine or effective antiviral drug is likely to be available soon.', 'Vaccine development is underway, but the key issues are not if a vaccine can be developed but where phase 3 trials will be done and who will manufacture vaccine at scale.', 'The number of cases of COVID-19 are falling quickly in China, 4 but a site for phase 3 vaccine trials needs to be in a location where there is ongoing transmission of the disease.', 'Manufacturing at scale requires one or more of the big vaccine manufacturers to take up the challenge and work closely with the biotechnology companies who are developing vaccine candidates.', 'This process will take time and we are probably a least 1 year to 18 months away from substantial vaccine production.So what is left at present for mitigation is voluntary plus mandated quarantine, stopping mass gatherings, closure of educational institutes or places of work where infection has been identified, and isolation of households, towns, or cities.', 'Some of the lessons from analyses of influenza A apply for COVID-19, but there are also differences.', 'Broader-scale social distancing provides time for the health services to treat cases and increase capacity, and, in the longer term, for vaccines and treatments to be developed.', 'This approach underway in northern Italy will provide valuable data on the effectiveness of such measures.', 'The greater the reduction in transmission, the longer and flatter the epidemic curve (figure), with the risk of resurgence when interventions are lifted perhaps to mitigate economic impact.The key epidemiological issues that determine the impact of social distancing measures are what proportion of infected individuals have mild symptoms and whether these individuals will self-isolate and to what effectiveness; how quickly symptomatic individuals take to isolate themselves after the onset of symptoms; and the duration of any non-symptomatic infectious period before clear symptoms occur with the linked issue of how transmissible COVID-19 is during this phase.Individual behaviour will be crucial to control the spread of COVID-19.', '15 This plan is light on detail, given the early stages of the COVID-19 epidemic and the many uncertainties, but it outlines four phases of action entitled contain, delay, research, and mitigate.', 'Italy, South Korea, Japan, and Iran are at the mitigate phase and trying to provide the best care possible for a rapidly growing number of people with COVID-19.The known epidemiological characteristics of COVID-19 point to urgent priorities.', 'Shortening the time from symptom onset to isolation is vital as it will reduce transmission and is likely to slow the epidemic (appendices 2, 3) However, strategies are also needed for reducing household transmission, supporting home treatment and diagnosis, and dealing with the economic consequences of absence from work.', 'Peak demand for health services could still be high and the extent and duration of presymptomatic or asymptomatic transmission-if this turns out to be a feature of COVID-19 infection-will determine the success of this strategy.', '17 Super-spreading events are inevitable, and could overwhelm the contact tracing system, leading to the need for broader-scale social distancing interventions.Data from China, South Korea, Italy, and Iran suggest that the CFR increases sharply with age and is higher in people with COVID-19 and underlying comorbidities.', '19 These events underline the importance of enhanced support for health-care infrastructure and effective procedures for protecting staff from infection.In northern countries, there is speculation that changing contact patterns and warmer weather might slow the spread of the virus in the summer.', '11 \n\nFigure: Illustrative simulations of a transmission model of COVID-19\n\nA baseline simulation with case isolation only (red); a simulation with social distancing in place throughout the epidemic, flattening the curve (green), and a simulation with more effective social distancing in place for a limited period only, typically followed by a resurgent epidemic when social distancing is halted (blue).', 'These are not quantitative predictions but robust qualitative illustrations for a range of model choices.See Online for appendices 2, 3 R 0 of 2·5 or higher, reductions in transmission by social distancing would have to be large; and much of the changes in transmission of pandemic influenza in the summer of 2009 within Europe were thought to be due to school closures, but children are not thought to be driving transmission of COVID-19.', 'Data from the southern hemisphere will assist in evaluating how much seasonality will influence COVID-19 transmission.Model-based predictions can help policy makers make the right decisions in a timely way, even with the uncertainties about COVID-19.', 'Ongoing data collection and epidemiological analysis are therefore essential parts of assessing the impacts of mitigation strategies, alongside clinical research on how to best manage seriously ill patients with COVID-19.There are difficult decisions ahead for governments.', 'Government communication strategies to keep the public informed of how best to avoid infection are vital, as is extra support to manage the economic downturn.']</t>
+  </si>
+  <si>
+    <t>['Viral fusion proteins are potential therapeutic and vaccine targets, and the above is indicative of the possibility that the kind of considerations discussed in the present paper can be extended to broader range of viruses.', 'It is believed that this is the same virus as that also called SARS-CoV-2 or COVID-19 virus after the disease now designated COVID-19.', 'As far as matters relating to findings regarding the genomics of 2019-nCoV and the design of synthetic vaccines, diagnostics and peptidomimetic drugs are concerned, ref [2] may be regarded as an early preprint to the present paper.', 'With 2019-nCoV now seen as a type or strain of SARS, this assumption seems not only justified but also rather trivial.', 'For that reason analysis is done in a way that relates to the design of diagnostic, vaccines, and therapeutic agents.', 'At the time of final writing of this text, the WHO named the disease COVID-19, so one can reasonably speak of the "COVID-10" or "Covid-19 virus".', 'Renaming the believed causative agent of COVID-19 to indicate it as a type of SARS does not alleviate the concern that different strains use different mechanisms: very few point mutations might change the modes of cell entry.', 'Genus Gammacoronavirus avian infectious bronchitis coronavirus (IBV).', 'The bioinformatics-based approach can also be reproduced by standard tools, but is facilitated by Q-UEL tools, especially with the explosive growth in studies regarding 2019-nCoV.The alphacoronavirus HCoV-NL63 and the betacoronavirus SARS-CoV recognize a zinc peptidase angiotensin-converting enzyme 2 (ACE2) for target cell binding but alphacoronaviruses such as TGEV, PEDV, and PRCV recognize a zinc peptidase called aminopeptidase N (APN).', 'Peptides as the bases of potential therapeutics and vaccines.', 'This choice reflects a history for synthetic (or otherwise biotechnologically produced) peptides that has developed rapidly since the 1980s, seen as the basis of therapeutics [11, 12] and vaccines [11, 13] .', 'Other example studies have included immunotherapeutic strategies, and putative vaccines against bacterial pathogens, Ebola and flaviviruses: see Ref.', '[20] for discussion and a general introductory review of this kind of approach.These projects resulted in a body of experience and design rules-ofthumb which the author and collaborators are seeking to capture by the methods described in Section 4.', 'Ensuring choice of segment of sequence for synthesis and presence of amino acids with at least some reasonable level of immunogenicity is just a small (but important) first step of the vaccine construct.', 'An alternative is the two cleavage sites S1/S2 and S2 0 required for activation for cell entry.', 'The sites may also represent epitopes serving as either the basis for design of a synthetic peptide vaccine, when linked to a carrier protein or a deigned cloned protein.', 'Ref [28] provided the first detailed description of the Q-UEL language as a means of interacting with the World Wide Web and potentially proving the basis of a "Thinking Web" for medicine, primarily by rendering the emerging Semantic Web as more fundamentally probabilistic [28] .', 'Nonetheless, these additions are to varying extents already understood support technologies (even if not as yet favored for human usesee discussion later below).', 'The various components can be seen as interchangeable and/or "reusable" parts, the essence of a "cartridge" approach to synthetic vaccines intended to facilitate a quicker response to new infectious diseases.', 'The specific software of the decision support system interacting with the Internet was the more recent BioIngine implementation of Q-UEL and associated software applications [29] [30] [31] [32] [33] [34] [35] .', 'Most of the "Bioinformatics Based Approach" on the right hand side of Fig.', 'Expertise capture\n\nOne of several motivations [36] for developing an integrated genomics and bioinformatics approach based on Q-UEL was that the popular highly integrated Biology Workbench at the San Diego Supercomputer Center is no longer available at the time of writing [37].', 'Nonetheless, an automated approach is valuable for speedier research, and for capturing knowledge from the Internet in Q-UEL tags.', 'Table 1 shows the one letter amino acid code used for peptide and protein primary structure throughout the study and in the following text, and also shows a consensus over conservative substitutions in the course of evolution (as accepted mutations), with common secondary structure propensities, and as alternatives in peptide design, i.e.', 'However, comparisons with SARS would make any alternative interpretations unlikely even prior to the recent naming as a SARS type.', 'Consensus tags show sequences of amino acid residues in the translated ORF that are usually associated with posttranslational modifications, binding and catalytic sites etc.,.', 'The first purpose is simply based on the empirical finding of the author that residues predicting as coil or loop c tend to form a good basis for peptides chosen in the design of diagnostics and vaccines (see discussion later below), irrespective of whether the prediction is correct and irrespective of rules for water-liking character, exposure, or intrinsic immunogenicity (discussed later below), albeit that they naturally overlap.', 'Similarly the intrinsic Q-UEL learning approach applied to predicting secondary structure [34] was not used.', 'the kinds of variations and alternatives that may be of interest in peptide design uncluttered by too many variations.', 'The "PIGAG" site would not be so suitable for designs based on the assumption of binding to a protease, and in general would seem to promise an increased ability for the virus to escape, by mutation, any successful vaccine or therapeutic based on that region.', 'Design of synthetic peptides as a basis for diagnostics and vaccines\n\nPeptides that mimic part of a protein of protein sequence in terms of amino acid sequence and, by intent, the biological function or an inhibitor of it, are often referred to as peptidomimetics.', "To bring it to the length of circa 20 amino acid residues considered in the author's experience (and frequently by other workers) as most suitable as a basis of a B-epitope for vaccine and diagnostic design, it was noted that the preceding serine (S) and following leucine (L) and alanine (A) are found in 2019-nCoV, well conserved in human host (AAR07628.1) and bat host species, and represent fairly conservative substitutions in the next most related coronaviruses, the pig host species.", 'The remaining principles used in this design are summarized at the end of Section 4.6 alongside the similar discussion for a peptidomimetic, because the method of design (as is typical for epitopes in synthetic peptide vaccines) is based on rules-ofthumb as discussed in that Section, and are similar in the two cases.', 'The choice is supported by the fact that it corresponds to an exposed loop in the SARS coronavirus, which will be important for raising antibodies.', 'Keyhole limpet haemocyanin is often used, at least for raising antibodies, and for early stage vaccine studies, using laboratory animals.', 'Some further conventional wisdom for selection of amino acid residues to synthesize as peptides and used as the basis of diagnostics and vaccines is as follows.', 'Concerns are for raising antibodies (B immune system), implanting immune system memory in the case of vaccines), and specificity, and avoiding unwanted cross reactions with other proteins with similar epitopes to the target protein of interest.', 'These matches are unlikely to be of concern.Conventional wisdom in designing peptides as the basis of diagnostics and vaccines is also that one should avoid pairs or triplets etc.', 'Conventional wisdom also says avoid extensive stretches of strongly nonpolar amino acids (residues VLIFW), although extensive hydrophobicity is also considered the characteristic feature of immunogenic MHC Class I T cell epitopes, and some epitopes can play a dual B and T epitope role.', "The zinc-based angiotensin converting enzyme ACE can cleave at cleavage sites (L|F)(H|R|K)L (where the vertical bar '|' separates alternatives), and converts Angiotensin I DRVYIHPFHL to angiotensin II DRVYIHPF.", 'While there are certain suggestive stretches of sequence in coronaviruses that weakly resemble angiotensin, e.g.', 'Judicious use of D (dextro) amino acids, mirror images of their natural L (laevo) counterparts, enhances biostability because they cannot be recognized by common proteases of the body, Consequently peptides containing them will not be degraded easily and have a longer-lasting effect as both vaccines and inhibitor drugs [42] [43] [44] .', 'Because of its relative simplicity and the theoretical basis, the retroinverso approach is regaining some popularity [45] .', 'FGGFNFSQILPDPSKPS(KRSFIEDLLFNKV)TLADAGFIKQYGDC\n\nTo compare, an alternative to the part in brackets is RRSFIDELAFGRG: it is an example of a tentative specific design "hunch" based on a section of a human semaphorin (GenBank NP_001243276.1) produced in response to lung diseases, a suggestive biologically-related match with conservative replacements but not one suggested by the general rules and probably coincidental.', 'In the first peptide suitable for as a candidate for a peptide vaccine, the principles, once given the core KRSFIEDLLFNKV sequence motif, are as follows.', 'The approach, described in more detail in Section 4.8, is one of molecular mechanics using energy minimization capable of exploring multiple minima, boosted by various algorithms to help explore the conformational energy space as a whole.', 'However, many conformers of comparable low energy are found, simply supporting the idea that these candidate peptides in Section 4.6 are conformationally flexible.', 'After all, any preliminary pharmacophore model might be later refined by adding an "except when" condition to its description.The choice of the target protein as model was governed by several considerations discussed below, mostly revealed by the auto-surfing approach, and motivated by the above problems of conformational flexibility for peptide ligands.', 'The core approach, which is of less usual character, is predominantly concerned with conformational space, not phase space based on molecular dynamics with a dimension of simulated time.', 'This core approach is a descendant of earlier developments in protein and peptide modeling [11] that did not simulate Newtonian dynamics but rather they applied energy minimization techniques, and in particular those called Simplex methods [11] .', 'This approach is then extended in pursuit of identifying the global minimum or minima by a Globex method that looks for trends in deep minima on the larger scale [11] , and then finally embellished by a variety of techniques that explore conformational space efficiently [63] .', 'Early alternative choices of binding protein as model included growth hormone secretagogue receptor type 1 GenPept accession NP_796304 because of some evidence in the literature of the action of anthraquinone, emoghrelin derivatives, and indanthrone, amongst others, which have some of the features of emodin, and because of an initial suspicion that a sequence segment in growth hormone receptor might contribute to binding and had some features relating to the current peptide of interest, but none of the alternatives were ultimately seen as persuasive as the steroid dehydrogenase choice.', 'In the present system, however, despite significant and differing conformational adjustments by the protein to accommodate these two ligands, there is a negative electrostatic tension in the region of the ketone group because due to close approach of the serine 170 side chain oxygen atom the phenolic oxygen of Tyr 183 and also by oxygen O7N in the NADP cofactor.', 'The proposed L-peptide\n\nRecall that it is the L-amino sequence GPSKRSFIEDLLFNKVTLAC that was proposed as an B-epitope to be synthesized with L amino acids and attached to a carrier, for purposes of raising antibodies as a diagnostics, or as a potential vaccine.', 'These are known considerations in the state of the art [50, 51] , although vaccines based on this synthetic approach are still relatively disfavored for human use despite being in increased use in veterinary medicine.', 'It is increasingly held that the synthetic peptide vaccine approach can sometimes be more effective than traditional vaccine methods [50] , and it has been steadily increasing in popularity [51] .', 'The main problem to overcome for vaccine and diagnostic design, with some analogous issues for therapeutic peptidomimetics, seems to be that in many pathogens, the B epitope antigenic determinants for antibody production are discontinuous sections of sequence, and using just one of them typically delivers poor results [51] .', 'The reason for the retroinverso approach is that an L-peptide would be susceptible to proteolysis from a variety of human proteins.', 'For design of synthetic vaccines, such automation has already been extensively implemented as prediction software by many workers [49] .', 'The scaling "adjustment" factors use in the molecular mechanics KRUNCH approach in Section 4.8 also depended on these more sophisticated, high grade simulations [48] .', 'Other sources of error includes also (typically) include neglect of quantum mechanical contributions, neglecting quantization of vibrations and with modeling based primarily with atoms representing centers of interaction, essentially meaning limitations in potential functions, which in turn may largely mean neglect of changes in interactions and interaction centers in the environment of other electrical fields.From the preliminary conformation and binding studies carried out in the present study, one may conclude that these approaches are, for the proposed peptides, challenging by involving many degrees of freedom, both in the conformational and general sense.', '[63] ), but so far these particular cited approaches have not provided a quick solution on a standard personal computer..For pharmaceutical reasons too, moving toward smaller non-peptide analogues may be the best direction.', 'However, the thioketone group is not an optimal choice to explore and might well cause oligomerization in practice, but studies like that above do support the idea that other replacements to the corresponding ketone group in multiple ring substructures of the steroid-like structure might reasonably be explored in pursuit of potent analogues.', 'Effectiveness of peptide based approaches in general\n\nMany principles similar to those of epitope selection apply to therapeutic pepidomimetic design, at least for the relatively simple step of proposing a retroinverso candidate.', 'It is a worthy early strategy, if only on the grounds that it shows suggestive wanted activity, or it does not, and one might well consider it unfortunate if a great deal of computational medicinal chemistry and laboratory synthesis and testing is done, only to find later that using the retroinverso approach would have created a successful first candidate at the outset.', 'A limitation of the approach is that one must be aware of coincidental matches that are not truly significant unless one can see that the proteins being compared are essentially of the same function or family, with the order of similar sections preserved, and that the correspondences make sense in the light of background biological knowledge.', 'In some cases, one might find that repurposing existing drugs or herbal extracts with suspected genuine efficacy may help in the challenge.', 'Design or discovery of more rigid molecules with similar van der Waals\'s and electrostatic surfaces would be the more traditional pharmaceutical choice.In the 2011 fictional movie "Contagion" [73] a herbal plant supplement claimed to cure a fictional viral infection played the role of the villain compared with established mainstream methods of vaccine and drug design; however, the villainy was not in the herbal origins but rather the fraudulent experiment in the movie that claimed to support its efficacy.', 'Q-UEL tools, or other similar approaches, can help there.', 'Declaration of competing interest\n\nThis paper is provided to the community to promote the more general applications of the thinking of Professor Paul A. M. Dirac in human and animal medicine in accordance with the charter of The Dirac Foundation, to emphasize the advantages and simplicity of the basic form of the Hyperbolic Dirac Net, to encourage its use, and to propose at least some of the principles of the associated Q-UEL, a universal exchange language for medicine, as a basis for a standard for interoperability.', 'Barry Robson BSc(Hons) PhD DSc, Professor Emeritus Medicine was five years as Chief Scientific Officer IBM Global Healthcare, Pharmaceutical, and Life Sciences and, prior to that, six years as the Strategic Advisor at IBM Global Research Headquarters (T. J. Watson Research Centre).', "While continuing to work for, and then collaborate with IBM, he was also University Research Director and Professor of EBM, Biostatistics and Epidemiology at St. Matthew's University School of Medicine which he helped established in its earlier days in the Cayman Islands.", 'Before moving to the US, Barry was the scientific founder of Proteus International plc in the UK, designing and leading the development of the PROMETHEUS Expert System and its underlying GLOBAL Expert System, bioinformatics and simulation language for drug, vaccine, and diagnostic discovery.', 'At Proteus, he also led the team that used the above Expert System to invent and patent several diagnostics and vaccines including the Mad Cow disease diagnostic subsequently marketed worldwide by Abbott.', 'From the Dawn of Medicine to Medical and Pharmaceutical Informatics" Robson and Baek, 2009, Wiley, 600 pages)" and "Introduction to Proteins and Protein Engineering" (B. Robson and J. Garnier, 1984 Garnier, , 1988 , Elsevier, 700 pages).']</t>
+  </si>
+  <si>
+    <t>['Summary\n\nBackground Whether the patients with COVID-19 infected by SARS-CoV-2 would commonly develop acute renal function damage is a problem worthy of clinical attention.', 'This study aimed to explore the effects of SARS-CoV-2 infection on renal function through analyzing the clinical data of 116 hospitalized COVID-19-confirmed patients.Methods 116 hospitalized COVID-19-confirmed patients enrolled in this study were hospitalized in the Department of Infectious Diseases, Renmin Hospital of Wuhan University from January 14 to February 13, 2020.', 'SARS-CoV-2 RNA in 53 urine sediments of enrolled patients was examined by real-time RT-PCR.Findings 12 (10.8%) and 8 (7.2%) patients showed mild elevation of blood urea nitrogen or creatinine, and trace or 1+ albuminuria respectively in 111 COVID-19-confirmed patients without basic kidney disease.', 'In addition, 5 patients with chronic renal failure (CRF) were undergone regular continuous renal replacement therapy (CRRT) were confirmed infection of SARS-CoV-2, and diagnosed as COVID-19.', 'Beside the treatment of COVID-19, CRRT was also applied three times weekly.', 'As of 24:00 on February 13, 2020, a total of 63,851 COVID-19-confirmed cases were reported in China [4] .', 'Internationally, cases have been reported in 24 countries and 5 continents [5] .On January 3, 2020, a novel coronavirus was identified in a bronchial alveolar lavage fluid sample from a patient in Wuhan and confirmed to be the cause of COVID-19 [6] .', 'Currently, there are no specific treatments or vaccines for COVID-19.', 'firstreported 41 COVID-19 cases, most of whom had a history of exposure to Huanan Seafood Wholesale Market [9] .', 'reported in 138 hospitalized COVID-19-confirmed cases, presumed hospital-related transmission of SARS-CoV-2 was suspected in 41% of patients, 26% of patients received ICU care, and mortality was 4.3% [10] .', 'In this study, the clinical data of 116 hospitalized COVID-19-confirmed patients were analyzed, and the effects of SARS-CoV-2 infection on renal function were explored.', 'Study design and participants\n\nRenmin Hospital of Wuhan University is located in Wuhan City, Hubei Province, an area where COVID-19 is endemic.', "It is one of the city's major tertiary teaching hospitals and the designated COVID-19-treatment hospital by the Wuhan Municipal Government.", 'In this study, 116 COVID-19-confirmed patients were enrolled, who were hospitalized in the Department of Infectious Diseases, Renmin Hospital of Wuhan University from January 14 to February 13, 2020 (before January 20, they were diagnosed as unknown origin viral pneumonia).', "A confirmed-diagnosis of all COVID-19 patients participating in this study was made according to the WHO's interim guidelines [11] .", 'Nucleic acid detection of SARS-CoV-2\n\nAll COVID-19 patients enrolled in this study were laboratory-confirmed cases, which were identified with nucleic acid detection of SARS-CoV-2 from a throat swab samples using reverse transcription-polymerase chain reaction (RT-PCR).', 'Specific primers and probes for SARS-CoV-2 RNA detection were based on the recommendation by the National Institute for Viral Disease Control and Prevention (China) (http://ivdc.chinacdc.cn /kyjz/202001/t20200121_211337.html).', 'antiviral therapy, glucocorticoid usage, breathing support, kidney replacement therapy).', "Different clinical categories were defined for all COVID-19 patients participating in the study according to the WHO's interim guidelines, including Mild pneumonia, Severe pneumonia, and Acute Respiratory Distress Syndrome (ARDS) [11] .", 'Presenting Characteristics\n\nIn this study, the median age of 116 COVID-19-confirmed patients was 54 years (IQR, 38-69; range 20-95 years), of which 67 (57.8%) were male.', 'Data from above two studies suggested that acute renal impairment was uncommon in COVID-19, and SARS-CoV-2 infection does not significantly cause obvious azotemia and acute renal injury.Based on the clinical, pathologic study, and laboratory features of SARS-CoV infection in SARS patients in 2003, the data showed that acute renal impairment was uncommon, but carried a formidably high mortality (91.7%, 33 of 36 cases) [17] .', 'In this study, all of the patients without basic kidney disease showed no obvious abnormality of renal function during the hospitalization of COVID-19, and none of the patients exhibited ARF.', 'In this study, we also observed that the patients with chronic renal failure (CRF) who were undergone regular continuous renal replacement therapy (CRRT) were infected with SARS-CoV-2, and confirmed as COVID-19.', 'Except regular CRRT, the monitoring of renal function indicators showed stable, without exacerbation of CRF during the course of treatment of COVID-19.', 'Unlike a formidably high mortality in SARS complicated with renal impairment, none of the patients died from the aggravation of CRF or from COVID-19 itself caused by infection with SARS-CoV-2.', 'It was also suggested that CRRT plays an important role in the treatment of COVID-19 complicated with CRF.CRRT is a mode of renal replacement therapy for hemodynamically unstable, fluid overloaded patients and the patients with sepsis and septic shock in management of ARF, especially in the retained in the body.', 'Nevertheless, the renal function of patients with COVID-19 needs to be monitored regularly, especially in patients with elevated plasma creatinine.']</t>
   </si>
   <si>
     <t>['The causative agent was identified from throat swab samples conducted by the Chinese Centre for Disease Control and Prevention (CCDC) on 7th January 2020, and was subsequently named Severe Acute Respiratory Syndrome Coronavirus 2 (SARS-CoV-2).', 'The disease was named COVID-19 by the World Health Organization (WHO) [2] .To date, most SARS-CoV-2 infected patients have developed mild symptoms such as dry cough, sore throat, and fever.', 'Notably, patients who required intensive care support were older and had multiple comorbidities including cardiovascular, cerebrovascular, endocrine, digestive, and respiratory disease.', 'WHO global health emergency\n\nOn 30th January 2020, the WHO declared the Chinese outbreak of COVID-19 to be a Public Health Emergency of International Concern posing a high risk to countries with vulnerable health systems.', 'The emergency committee have stated that the spread of COVID-19 may be interrupted by early detection, isolation, prompt treatment, and the implementation of a robust system to trace contacts [5] .', 'In light of this, various bodies have committed to making articles pertaining to COVID-19 immediately available via open access to support a unified global response [6] .https://doi.org/10.1016/j.ijsu.2020.02.034 Received 3 February 2020; Received in revised form 17 February 2020; Accepted 24 February 2020\n\nGlobal response\n\nEfforts aimed at deciphering the pathophysiology of COVID-19 have led to the EU mobilising a €10,000,000 research fund to "contribute to more efficient clinical management of patients infected with the virus, as well as public health preparedness and response" [7] .', "Regarding diagnostic testing, US-based companies such as Co-Diagnostics and the Novacyt's molecular diagnostics division Primerdesign have launched COVID-2019 testing kits for use in the research setting [8, 9] .", 'The United Kingdom (UK) government have also invested £20,000,000 to help develop a COVID-19 vaccine [10] .', 'Strikers are demanding that the border to mainland China be closed completely to prevent further COVID-19 transmission.', "In addition, growing fears regarding China's economy has led the Chinese central bank to invest ¥150 billion to support the stability of the currency market [13] .", 'Confirmed UK cases and British response\n\nAs of 4th March 2020, a total of 16,659 tests for COVID-19 have been conducted across the UK.', 'Any detected cases of COVID-19 should be transferred to an Airborne High Consequence Infectious Diseases (HCID) centre, including the two principal centres in England (the Royal Free Hospital in London and the Newcastle Royal Victoria Infirmary).The DoH and UK Chief Medical Officers have also advised individuals having visited Wuhan and the Hubei Province in the last 14 days to remain indoors and to call NHS 111.', 'Viral transmission and spread\n\nThere are currently few studies that define the pathophysiological characteristics of COVID-19, and there is great uncertainty regarding its mechanism of spread.', 'However, there is an increasing body of evidence to suggest that human-to-human transmission may be occurring during the asymptomatic incubation period of COVID-19, which has been estimated to be between 2 and 10 days [20] [21] [22] .As of 3rd March 2020, 90,870 cases of COVID-19 have been confirmed, 80,304 of which are confined to China.', 'Prevention\n\nVarious bodies including the WHO and US Centers for Disease Control and Prevention (CDC) have issued advice on preventing further spread of COVID-19 [20, 24] .', 'They recommend avoiding travel to highrisk areas, contact with individuals who are symptomatic, and the consumption of meat from regions with known COVID-19 outbreak.', 'Diagnosis\n\nClinical features of COVID-19 include dry cough, fever, diarrhoea, vomiting, and myalgia.', 'The WHO and CDC have both issued guidance on key clinical and epidemiological findings suggestive of a COVID-19 infection (Table 1 ) [27] .', 'Patients may present with an elevated C-reactive protein, erythrocyte sedimentation rate, lactate dehydrogenase, creatinine, and a prolonged prothrombin time [4] .Full genome sequencing and phylogenetic analysis on fluid from bronchoalveolar lavage can confirm COVID-2019 infection [29] .', 'Treatment\n\nAt present, no effective antiviral treatment or vaccine is available for COVID-19.', 'However, a randomized multicentre controlled clinical trial is currently underway to assess the efficacy and safety of abidole in patients with COVID-19 (ChiCTR2000029573).', 'Oseltamivir, a neurominidase inhibitor, is currently being used by medical staff in China for suspected infections despite the lack of any conclusive evidence regarding its effectiveness on COVID-19.', 'The current reported mortality for COVID-19 is approximately 3.4% compared with 9.6% for SARS [37] and 34.4% for Middle East respiratory syndrome (MERS) [38] .', 'The clinical features of COVID-19 versus its distance relative SARS are summarised in Table 2 .', 'To date, COVID-19 has been shown to have a mean incubation period of 5.2 days and a median duration from the onset of symptoms to death of 14 days [22, 39] , which is comparable to that of MERS [40] .', "All forms of public transportation including long-distance bus routes, metros, express railways, and aviation were uncompromisingly sealed off -a process facilitated by China's mega city-region infrastructure [43] .", 'Outside of China, aviation restrictions are being employed.', 'COVID-19 pathophysiology\n\nCOVID-19 is caused by SARS-CoV-2, a betacoronavirus.', 'The wider consequences of COVID-19\n\nChina is integral to nearly every sector of the global economy.', 'The recent outbreak of the COVID-19 has already challenged an economy strained by trade wars with the US; national growth hit a 30year low in 2019 [58] .', 'The key difference between COVID-19 and SARS however is the complexity of supply chains that China is now enmeshed in.', 'Lessons learned from the COVID-19 outbreak\n\nThe international response to COVID-19 has been more transparent and efficient when compared to the SARS outbreak.', 'However, several learning points should be taken away from COVID-19 in the event of future outbreaks (Table 3) .', 'Conclusion\n\nThe recent COVID-19 outbreak has been deemed a global health emergency.', 'It is perhaps clear that quarantine alone may not be sufficient to prevent the spread of COVID-19, and the global impact of this viral infection is one of heightening concern.', 'Further research is undoubtedly required to help define the exact mechanism of human-to-human and animal-to-human transmission to facilitate the development of a virus-specific vaccine.', 'Evidently, the pandemic potential of COVID-19 demands rigorous surveillance and on-going monitoring to accurately track and potentially predict its future host adaptation, evolution, transmissibility, and pathogenicity.', 'However, the rapidly evolving nature of the COVID-2019 epidemic, ever changing statistics, and constant unravelling of new research findings represents a major limitation to the present review.']</t>
   </si>
   <si>
-    <t>['Introduction\n\nThe new viral pathogen SARS-CoV-2 emerged in late 2019, leading to exponential rise of new cases and causing tens of thousands of documented cases of COVID-19 disease to date.', 'No treatment is currently available, and while the development of a vaccine is proceeding as fast as possible, the need to test any candidates for safety in humans means that vaccines will not be available for several months at the earliest.', 'Rather than comparing transmission through these different physical routes, here we compare different transmission routes that are more closely aligned to their implications for prevention.', 'Environmental transmission: transmission via contamination, and specifically in a way that would not typically be attributable to contact with the source in a contact survey (i.e.', 'we exclude from this transmission pairs who were in extended close contact, but for whom in reality the infectious dose passed via the environment instead of more directly).', 'We acknowledge that boundaries between these categories may be blurred, but these broadly have different implications for prevention.', 'These will be spelled out in future work on modelling different prevention approaches, and may be mapped to other modelling studies, some old and general ( 5 ) ( 6 ) and one more specific to COVID-19 ( 7 ) .Evidence exists that each of these routes of transmission is possible: symptomatic ( 8 ) , pre-symptomatic ( 9 ) ; asymptomatic ( 10 ) ; and environmental ( 8 ) .', 'For prevention, the crucial information is the relative frequency of different routes of transmission: finite resources must be divided between different intervention strategies.Li et al ( 8 ) presented self-reported data on exposure for the first 425 cases in Wuhan.', 'By devoting considerable resources including police investigation, 75 of the 92 cases of local transmission have been traced back to their presumed exposure, either to a known case or to a location linked to spread (https://infographics.channelnewsasia.com/covid-19/coronavirus-singapore-clusters.html?cid=FBcna).', 'However, linking two cases generally includes the possibility that one infected the other pre-symptomatically and only later became symptomatic; furthermore, linking cases via a location generally includes the possibility of environmentally mediated transmission.', 'The distribution is lognormal with mean 5.5 days, median 5.2 days and standard deviation 2.1 days, and is included with our results in Figure 2 .Generation time distribution.', 'We did not take that approach here: we directly estimated the generation time distribution from 40 source-recipient pairs for whom direct transmission is suspected, and where time of onset of symptoms is known for both source and recipient.', 'The distribution is best described by a Weibull distribution with mean and median equal to 5.0 days and standard deviation of 1.9 days, shown in Figure  2 .', 'We used a Bayesian approach with an uninformative prior (transmission before or after symptoms equally likely).', 'https://doi.org/10.1101/2020.03.08.20032946 doi: medRxiv preprint one full infection, via that route -asymptomatic, pre-symptomatic, symptomatic or environmental -which we define to be R A , R P , R S and R E respectively.', 'This effect can be calculated through use of the renewal equation, as was recently done to calculate the distribution of time from onset of COVID-19 symptoms to recovery or death ( 15 ) (see Supplementary Information) .', 'The correction due to the epidemic dynamics is small compared to parameter uncertainties.We developed our mathematical model of infectiousness into a web application where users can test the effect of alternative parameter combinations: https://bdi-pathogens.shinyapps.io/covid-19-transmission-routesInterventions.', 'An algorithmic approach, embedded in a phone App or operating system, can make the contact tracing and notification instantaneous, and enables information to be spread to contacts whether recalled or not.', 'This approach is mathematically solved analytically in Supplement Information for the case of algorithmic instantaneous contact tracing of first-degree (i.e.', 'We suggest that a simple algorithm for first degree instantaneous contact tracing in the form of a mobile phone app could dramatically reduce onwards transmission from contacts, to a level that is sufficient to reach herd protection and so stop the virus from spreading in a population.Our estimate of R 0 is lower than most previous published estimates, for example ( 16 ) ( 17 ) ( 8 ) , which have assumed SARS-like generation times; emerging evidence for shorter generation times for COVID-19 results in a smaller R 0 .', 'We provide two approaches suggesting that between a third and a half of transmissions occur from pre-symptomatic individuals.', 'For SARS, the corresponding estimate was almost zero ( 5 ) , immediately telling us that different containment strategies will be needed for COVID-19.', 'While preparing this manuscript, results supporting a large role for pre-symptomatic submission were shared: Tindale et al.', 'found that serial intervals in Tianjin and Singapore were on average 2-3 days shorter than incubation periods ( https://github.com/carolinecolijn/ClustersCOVID19/blob/master/COVID_19_Singapore_Tianjin_analysi sSUPP-joined.pdf ), consistent with our estimate of a shorter generation time.Cleaning and decontamination are being deployed to varying levels in different settings, and improved estimates would help inform this as a priority.', 'For SARS, there were seemingly almost no asymptomatic infections ( 18 ) , whereas asymptomatic infection has been widely reported for COVID-19, e.g.', 'Published models ( 5 ) ( 20 ) ( 6 ) ( 7 ) suggest that in practice manual contact tracing can only improve on this to a limited extent.We have developed a web interface to explore the uncertainty in our modelling assumptions https://bdi-pathogens.shinyapps.io/covid-19-transmission-routes .', 'The probability that infection occurred before onset of symptoms for the infector was estimated for each transmission pair using a Bayesian approach based on the best fit for the generation time distribution (see Supplementary Information) .']</t>
-  </si>
-  <si>
-    <t>['How will country-based mitigation measures influence the course of the COVID-19 epidemic?', 'In our view, COVID-19 has developed into a pandemic, with small chains of transmission in many countries and large chains resulting in extensive spread in a few countries, such as Italy, Iran, South Korea, and Japan.', '1 Most countries are likely to have spread of COVID-19, at least in the early stages, before any mitigation measures have an impact.What has happened in China shows that quarantine, social distancing, and isolation of infected populations can contain the epidemic.', '1 This impact of the COVID-19 response in China is encouraging for the many countries where COVID-19 is beginning to spread.', 'In both places, COVID-19 has been managed well to date, despite early cases, by early government action and through social distancing measures taken by individuals.The course of an epidemic is defined by a series of key factors, some of which are poorly understood at present for COVID-19.', 'With R 0 values for COVID-19 in China around 2·5 in the early stages of the epidemic, 2 we calculate that approximately 60% of the population would become infected.', '3 By contrast, for COVID-19, the serial interval is estimated at 4·4-7·5 days, which is more similar to SARS.', '4 First among the important unknowns about COVID-19 is the case fatality rate (CFR), which requires information on the denominator that defines the number infected.', 'We are unaware of any completed large-scale serology surveys to detect specific antibodies to COVID-19.', 'Best estimates suggest a CFR for COVID-19 of about 0·3-1%, 4 which is higher than the order of 0·1% CFR for a moderate influenza A season.', 'The incubation period for COVID-19 is about 5-6 days.', '7 There have been few clinical studies to measure COVID-19 viraemia and how it changes over time in individuals.', 'In one study of 17 patients with COVID-19, peak viraemia seems to be at the end of the incubation period, 8 pointing to the possibility that viraemia might be high enough to trigger transmission for 1-2 days before onset of symptoms.', 'If these patterns are verified by more extensive clinical virological studies, COVID-19 would be expected to be more like influenza A than SARS.', 'For SARS, peak infectiousness took place many days after first symptoms, hence the success of quarantine of patients with SARS soon after symptoms started 7 and the lack of success for this measure for influenza A and possibly for COVID-19.The third uncertainty is whether there are a large number of asymptomatic cases of COVID-19.', 'Estimates suggest that about 80% of people with COVID-19 have mild or asymptomatic disease, 14% have severe disease, and 6% are critically ill, 9 implying that symptom-based control is unlikely to be sufficient unless these cases are only lightly infectious.The fourth uncertainty is the duration of the infectious period for COVID-19.', 'The infectious period is typically short for influenza A, but it seems long for COVID-19 on the basis of the few available clinical virological studies, perhaps lasting for 10 days or more after the incubation period.', '10 What do these comparisons with influenza A and SARS imply for the COVID-19 epidemic and its control?', 'COVID-19 had a doubling time in China of about 4-5 days in the early phases.', '3 Second, the COVID-19 epidemic could be more drawn out than seasonal influenza A, which has relevance for its potential economic impact.', 'Third, the effect of seasons on transmission of COVID-19 is unknown; 11 however, with an R 0 of 2-3, the warm months of summer in the northern hemisphere might not necessarily reduce transmission below the value of unity as they do for influenza A, which typically has an R 0 of around 1·1-1·5.', '12 Closely linked to these factors and their epidemiological determinants is the impact of different mitigation policies on the course of the COVID-19 epidemic.A key issue for epidemiologists is helping policy makers decide the main objectives of mitigation-eg, minimising morbidity and associated mortality, avoiding an epidemic peak that overwhelms health-care services, keeping the effects on the economy within manageable levels, and flattening the epidemic curve to wait for vaccine development and manufacture on scale and antiviral drug therapies.', '13 For COVID-19, the potential economic impact of self-isolation or mandated quarantine could be substantial, as occurred in China .No vaccine or effective antiviral drug is likely to be available soon.', 'Vaccine development is underway, but the key issues are not if a vaccine can be developed but where phase 3 trials will be done and who will manufacture vaccine at scale.', 'The number of cases of COVID-19 are falling quickly in China, 4 but a site for phase 3 vaccine trials needs to be in a location where there is ongoing transmission of the disease.', 'Manufacturing at scale requires one or more of the big vaccine manufacturers to take up the challenge and work closely with the biotechnology companies who are developing vaccine candidates.', 'This process will take time and we are probably a least 1 year to 18 months away from substantial vaccine production.So what is left at present for mitigation is voluntary plus mandated quarantine, stopping mass gatherings, closure of educational institutes or places of work where infection has been identified, and isolation of households, towns, or cities.', 'Some of the lessons from analyses of influenza A apply for COVID-19, but there are also differences.', 'Broader-scale social distancing provides time for the health services to treat cases and increase capacity, and, in the longer term, for vaccines and treatments to be developed.', 'This approach underway in northern Italy will provide valuable data on the effectiveness of such measures.', 'The greater the reduction in transmission, the longer and flatter the epidemic curve (figure), with the risk of resurgence when interventions are lifted perhaps to mitigate economic impact.The key epidemiological issues that determine the impact of social distancing measures are what proportion of infected individuals have mild symptoms and whether these individuals will self-isolate and to what effectiveness; how quickly symptomatic individuals take to isolate themselves after the onset of symptoms; and the duration of any non-symptomatic infectious period before clear symptoms occur with the linked issue of how transmissible COVID-19 is during this phase.Individual behaviour will be crucial to control the spread of COVID-19.', '15 This plan is light on detail, given the early stages of the COVID-19 epidemic and the many uncertainties, but it outlines four phases of action entitled contain, delay, research, and mitigate.', 'Italy, South Korea, Japan, and Iran are at the mitigate phase and trying to provide the best care possible for a rapidly growing number of people with COVID-19.The known epidemiological characteristics of COVID-19 point to urgent priorities.', 'Shortening the time from symptom onset to isolation is vital as it will reduce transmission and is likely to slow the epidemic (appendices 2, 3) However, strategies are also needed for reducing household transmission, supporting home treatment and diagnosis, and dealing with the economic consequences of absence from work.', 'Peak demand for health services could still be high and the extent and duration of presymptomatic or asymptomatic transmission-if this turns out to be a feature of COVID-19 infection-will determine the success of this strategy.', '17 Super-spreading events are inevitable, and could overwhelm the contact tracing system, leading to the need for broader-scale social distancing interventions.Data from China, South Korea, Italy, and Iran suggest that the CFR increases sharply with age and is higher in people with COVID-19 and underlying comorbidities.', '19 These events underline the importance of enhanced support for health-care infrastructure and effective procedures for protecting staff from infection.In northern countries, there is speculation that changing contact patterns and warmer weather might slow the spread of the virus in the summer.', '11 \n\nFigure: Illustrative simulations of a transmission model of COVID-19\n\nA baseline simulation with case isolation only (red); a simulation with social distancing in place throughout the epidemic, flattening the curve (green), and a simulation with more effective social distancing in place for a limited period only, typically followed by a resurgent epidemic when social distancing is halted (blue).', 'These are not quantitative predictions but robust qualitative illustrations for a range of model choices.See Online for appendices 2, 3 R 0 of 2·5 or higher, reductions in transmission by social distancing would have to be large; and much of the changes in transmission of pandemic influenza in the summer of 2009 within Europe were thought to be due to school closures, but children are not thought to be driving transmission of COVID-19.', 'Data from the southern hemisphere will assist in evaluating how much seasonality will influence COVID-19 transmission.Model-based predictions can help policy makers make the right decisions in a timely way, even with the uncertainties about COVID-19.', 'Ongoing data collection and epidemiological analysis are therefore essential parts of assessing the impacts of mitigation strategies, alongside clinical research on how to best manage seriously ill patients with COVID-19.There are difficult decisions ahead for governments.', 'Government communication strategies to keep the public informed of how best to avoid infection are vital, as is extra support to manage the economic downturn.']</t>
-  </si>
-  <si>
-    <t>['Introduction\n\nThe outbreak of the pneumonia named COVID-19 caused by the novel coronavirus SARS-CoV-2 (2019-nCoV) has infected over 110,000 people worldwide by 8th March, 2020.', 'Apart from China, other countries or regions including South Korea, Iran, and Europe have reported a rapid increase in the number of COVID-19 cases, implying that this novel coronavirus has posed a global health threat.', 'Under the current circumstance of the absence of the specific vaccines and medicines against SARS-CoV-2, it is urgent to discover effective therapies especially drugs to treat the resulting COVID-19 disease and prevent the virus from further spreading.', 'Considering that the development of a new drug generally takes years, probably the best therapeutic shortcut is to apply the drug repositioning strategy (i.e., finding the new uses of old drugs) [1, 2, 3] to identify the potential antiviral effects against SARS-CoV-2 of existing drugs that have been approved for clinical use or to enter clinical trials.', 'Those existing drugs with potent antiviral efficacy can be directly applied to treat COVID-19 in a short time, as their safety has been verified in principle in clinical trials.In this study, we applied a data-driven framework that combines both machine learning and statistical analysis methods to systematically integrate large-scale available coronavirus-related data and identify the drug candidates against SARS-CoV-2 from a set of over 6000 drug candidates (mainly including approved, investigational and experimental drugs).', 'In addition, we found that in human peripheral blood mononuclear cells (PBMCs), CVL218 is able to suppress the CpG-induced production of IL-6, which has been reported previously to be of high relevance to the viral pathogenesis of COVID-19, especially for those intensive care unit (ICU) patients infected by SARS-CoV-2.', 'Cyclosporine, a calcineurin inhibitor approved as an immunomodulatory drug [11] , was observed to block the replication of SARS-CoV [12] , and also successfully predicted by our approach.', 'More specifically, olaparib inhibited SARS-CoV-2 replication by 15.48% at a concentration of 3.2 µM, while CVL218 reached 35 .16% reduction at a concentration of 3 µM.Notably, the antiviral efficacy of CVL218 even surpassed arbidol, which is one of the standard treatments for COVID-19 in the Diagnosis and Treatment Protocol for Novel Coronavirus Pneumonia (Trial Version 6) promulgated by the Chinese government (http://www.nhc.gov.cn/yzygj/s7653p/202002/8334a8326dd94d329df 351d7da8aefc2/files/b218cfeb1bc54639af227f922bf6b817.pdf).', 'Remdesivir, which has entered the clinical trials for the treatment of COVID-19 (https://clinicaltrials.gov/ct2/show/NCT04257656), was also tested in this assay for comparison.', 'All together, the results of these in vitro assays indicated that CVL218 can be further evaluated as a potential therapeutic agent for treating COVID-19.', 'These findings supported a hypothesis that rapid production of IL-6 might be a possible mechanism leading to the deleterious clinical manifestations in viral pathogenesis [24] .', 'The pathological role of IL-6 in SARS-CoV-2 infection indicated that IL-6 blockade may provide a feasible therapy for the treatment of COVID-19.To test whether CVL218 is able to regulate the IL-6 production in vitro, we stimulated the IL-6 production of the peripheral blood mononuclear cells (PMBCs) by CpG-ODN 1826, which is an effective stimulator of cytokines and chemokines.', 'These results provided an in vitro evidence to support CVL218 as a potential therapeutic agent for treating pro-inflammatory response caused by SARS-CoV-2 infection.2.5.', 'Therefore, we also used the experimentally solved structure of HCoV-OC43-N-NTD complexed with PJ-34 as a reference to analyze our docking results.Our docking results (more details can also be found in Supplementary \n\nDiscussion\n\nIn this study we reported a top down data integration approach by combining both machine learning and statistical analysis techniques, followed by web-lab experimental validation, to identify potential drug candidates for treating SARS-CoV-2 infection.', 'We showed that the PARP1 inhibitor CVL218 discovered by our in silico drug repurposing framework may have the therapeutic potential for the treatment of COVID-19.', 'Although we mainly conducted in vitro assays to experimentally validate the anti-SARS-CoV-2 effects of olaparib and CVL218 due to limited time, it is natural to speculate that other PARP1 inhibitors may also have antiviral activities against SARS-CoV-2 infection, based on our computational prediction and experimental validation results.Based on the data present in this study and the previously known evidences reported in the literature, we propose several potential mechanisms to help understand the involvement of PARP1 inhibitors in the treatment of COVID-19 ( Figure 6 ).', 'First, during the life cycle of the coronavirus, PARP1 inhibitors may inhibit the viral growth through suppressing viral replication and impeding the binding of the nucleocapsid protein to viral RNAs [31, 34, 35, 36] , which can also be supported by our molecular docking results (see Section 2.6).', 'All these studies suggest that PARP1 inhibitors are of high relevance to the treatment of the novel pneumonia caused by SARS-CoV-2 infection, possibly via their roles in modulating inflammatory response.Notably, current pathological studies have shown that the severe patients infected by SARS-CoV-2 generally have higher plasma levels of IL-2, IL-6, IL-10, TNFα, IFN-γ [25, 27, 28, 29] , implying a high risk of the inflammatory-associated cytokine storm after viral infection.', 'In addition, reduction and functional exhaustion of T cells have also been observed in COVID-19 patients [27] .', 'Therefore, blocking the overactive inflammatory response may be an effective strategy for the treatment of COVID-19, particularly for those ICU patients infected by SARS-CoV-2.', 'https://doi.org/10.1101/2020.03.11.986836 doi: bioRxiv preprint body drug targeting IL-6, has been recommended for the treatment of COVID-19 in the Diagnosis and Treatment Protocol for Novel Coronavirus Pneumonia (Trial Version 7) promulgated by the Chinese government (http://www.nhc.gov.cn/yzygj/s7653p/20e964.pdf), which also highlights the vital role of anti-inflammatory response in current therapeutics against SARS-CoV-2.', 'Fortunately, there are numerous existing pre-clinical and clinical studies on repurposing PARP1 inhibitors into non-oncological diseases, including the aforementioned acute diseases (e.g., acute respiratory distress syndrome (ARDS), stroke) [52] and chronic diseases (e.g., rheumatoid arthritis and vascular diseases) [52, 53] .', 'Such a tissue specific enrichment in lung may bring an extra advantage for CVL218 to be used for the anti-SARS-CoV-2 purpose, as lung is the therapeutically targeted tissue for COVID-19.', 'The unlabeled corpus that we used in this work for text-mining the coronavirus related drugs was obtained from approximately 2.2 million PMC full-text articles, with entities of interest annotated using the aforementioned named entity recognition approach.', 'Connectivity map analysis\n\nWe used the transcriptome analysis approach to further filter the potential drug candidates for treating the COVID-19 patients infected by SARS-CoV-2.', 'Due to the lack of gene expression data from the SARS-CoV-2 infected patients, we used those from the SARS-CoV infected patients to screen the potential therapeutic drug candidates against COVID-19.', 'https://doi.org/10.1101/2020.03.11.986836 doi: bioRxiv preprint where Z infected stands for the z-scores of the SARS-CoV infected patients, X infected and X healthy stand for the gene expression values in logarithm scale of the infected and healthy persons, respectively, median(·) stands for the median operation, MAD(·) stands for the median absolute deviation operation, and C = 1.4826 is a constant for normalization.', 'The monkeys were observed twice daily for viability/mortality and for any change in behavior, reaction to treatment or ill-health.', 'Statistical analysis\n\nAll data represent the means ± standard deviations (SDs) of n values, where n corresponds to the number of data points used.', 'https://doi.org/10.1101/2020.03.11.986836 doi: bioRxiv preprint Y109, Y111, R149, P151) participate in the interaction with olaparib via hydrophobic interactions.43 author/funder.']</t>
-  </si>
-  <si>
-    <t>['\n\nSince the end of 2019, an outbreak of the 2019 novel coronavirus disease (COVID-19) 1 has fast spread widely.', 'By 19 February 2020, over 70 000 laboratory-confirmed COVID-19 have been reported, with over 1800 patients died.', 'At least 12 neonates have been diagnosed with COVID-19.', 'Neonatologists belonging to the Chinese Neonatologist Association of Chinese Doctor Association have proposed measurements for the prevention and control of COVID-19 in neonates.The delivery room or operating room serving suspected or confirmed infected mothers should be specially prepared, preferably with negative pressure.', 'Neonatal resuscitation is performed according to the Neonatal Resuscitation Program seventh edition as usual.Newborns are considered at high risk of COVID-19 in case that they are born to mothers diagnosed with COVID-19, or have close contact with someone with probable or confirmed COVID-19, or live in or travel to the epidemic area.', 'All infants with suspected COVID-19 should be isolated and monitored regardless of whether or not they present with symptoms.', 'Diagnosis of neonatal COVID-19 could be confirmed if the suspected patients have positive nucleic acid test for COVID-19 from the respiratory tract, stool or blood specimens.', '4 Infants with highly suspected or confirmed COVID-19 should be referred to the designated neonatal ward.', 'Due to the strong infectivity of COVID-19, negative pressure isolation rooms are recommended.After admission, the following prevention and control strategies should be adequately performed.', 'Avoid breast feeding from COVID-19 mother until recovery.', "Strict hand hygiene and disinfecting environment protocol are required.The patients could be discharged if the following requirements are met: (1) the temperature returned to normal for more than 3 days; (2) respiratory symptoms and chest radiography improved dramatically;(3) nasopharyngeal and pharyngeal swabs, and sputum show negative for COVID-19 for two consecutive times (with at least a 24-hour interval).COVID-19 outbreak might bring psychological stress to the patient's parents and medical staff.", 'Appropriate psychological support is needed.Due to the limited cases and clinical evidence in neonatal COVID-19, the proposal will be continuously modified based on accumulated clinic evidence and experience.']</t>
-  </si>
-  <si>
-    <t>['support', 'approach', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'etc', 'vaccine', 'etc', 'support', 'vaccine', 'via', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'covid', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'covid', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'etc', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'alternative', 'etc', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'support', 'via', 'covid', 'via', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'support', 'covid', 'covid', 'vaccine', 'existing', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'covid', 'alternative', 'prevention', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid', 'support', 'via', 'covid', 'covid', 'covid', 'covid', 'covid', 'medicine', 'covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'existing', 'vaccine', 'covid', 'covid', 'covid', 'covid', 'covid', 'support', 'prevention', 'covid', 'prevention', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'mapping', 'approach', 'covid', 'covid', 'support']</t>
-  </si>
-  <si>
-    <t>['covid', 'prevention', 'covid', 'prevention', 'covid', 'covid', 'prevention', 'covid', 'prevention', 'prevention', 'covid', 'medicine', 'covid', 'medicine', 'covid', 'covid', 'vaccine', 'covid', 'approach']</t>
-  </si>
-  <si>
-    <t>['prevention', 'covid', 'support', 'covid', 'covid', 'covid', 'support', 'via', 'covid', 'covid', 'vaccine', 'covid', 'support', 'covid', 'covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'covid', 'covid', 'covid', 'covid', 'via', 'via', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'vaccine', 'prevention', 'via', 'via', 'prevention', 'covid', 'prevention', 'approach', 'prevention', 'covid', 'via', 'via', 'approach', 'via', 'approach', 'via', 'covid', 'covid', 'alternative', 'approach', 'approach', 'covid', 'approach', 'covid', 'support', 'covid', 'covid', 'covid', 'approach']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'vaccine', 'vaccine', 'covid', 'vaccine', 'vaccine', 'vaccine', 'covid', 'vaccine', 'approach', 'covid', 'covid', 'covid', 'support', 'covid', 'covid', 'support', 'covid', 'covid', 'covid', 'covid', 'support']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'vaccine', 'medicine', 'existing', 'covid', 'existing', 'covid', 'approach', 'covid', 'covid', 'covid', 'support', 'covid', 'support', 'approach', 'covid', 'covid', 'support', 'via', 'covid', 'covid', 'covid', 'existing', 'covid', 'approach', 'covid', 'approach', 'covid', 'via', 'via', 'via', 'via']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid', 'covid', 'support']</t>
+    <t>['Introduction\n\nThe epidemic of COVID-19 is caused by a novel virus first detected in Wuhan, China.', 'Outbreak of the COVID-19 started with the report of a first suspected case on December 8, 2019 in Wuhan.', 'During this period, one study by the Chinese Center for Disease Prevention and Control (CDC) and Hubei Provincial CDC with data collected by Wuhan CDC documented the details of the epidemic day by day from December 8, 2019 to January 21, 2020 [1] .', 'Data in this study showed that detected and confirmed cases with COVID-19 infection declined from the peak of 44 on January 8 to only 2 on January 19, 2020, suggesting that the epidemic was likely under control.China officially declared the epidemic as an outbreak on January 20 when obvious human-to-human transmissions were ascertained with reagent probes and primers distributed to local agencies on that day.', 'An Anti-COVID-19 Group headed by Premier Li Keqiang was established to lead the massive national efforts.', 'The negative emotional responses soon spread from Wuhan to other parts of China, and further to the world via almost all communication channels, particularly social media.', 'The highly emotional responses of the public were fueled by (1) sudden increases in the number of detected new cases after the massive intervention measures to identify the infected;(2) massive growing needs for masks; (3) a large number of suspected patients waiting to confirm their diagnose; (4) a large number of diagnosed COVID-19 patients for treatment; and (5) a growing number of deaths, despite national efforts to improve therapy, including the decision to build two large hospitals within a period of days.', 'This is particularly true for the COVID-19.', 'Therefore, there is no so-called rational responses, no standardoperating-procedure (SOP) to follow, no measures to take without negative consequences [2] .However, defining the COVID-19 as nonlinear and chaotic does not mean that we cannot do anything after we knew it was an outbreak, but simply waiting.', 'Daily detected and confirmed cases\n\nData for this study were daily cumulative cases with COVID-19 infection for the first two months (63 days) of the epidemic from December 8, 2019 to February 8, 2020.', 'These data were used together with the data from the first source to monitor the dynamic of COVID-19 on a daily basis to 1) assess whether the COVID-19 epidemic was nonlinear and chaotic, 2) evaluate the responsiveness of the epidemic to the massive measures against it, and 3) inform the future trend of the epidemic.', 'Understanding of the detected cases on a daily basis\n\nIn theory, the true number of persons with COVID-19 infection can never be known no matter how we try to detect it.', 'Model daily change in the epidemic\n\nWe started our modeling analysis with data of cumulative number of diagnosed COVID-19 infections per day.', 'Let x i =diagnosed new cases at day i, i =(1, 2, …t), the cumulative number of diagnosed new cases F(x) can be mathematically described as below:Results of F(x) provide information most useful for resource allocation to support the prevention and treatment; however F(x) is very insensitive to changes in the epidemic.', '(2) During the early period of massive intervention, an increase trend in P i over time was used as evidence supporting the effectiveness of the massive intervention in detecting and quarantining more infected cases.', 'As a reference to assess the level of severity of the COVID-19 epidemic, the natural mortality rate of Wuhan population was obtained from the 2018 Statistical Report of Wuhan National Economy and Social Development.', 'Cumulative number of detected and diagnosed cases\n\nThe COVID-19 epidemic was initiated in Wuhan, the Provincial Capital of Hubei Province with a total population of 14.2 million, including 5.1 million mobile population.', 'Assuming all diagnosed cases in China were infected in Wuhan (an exaggerated scenarios for illustration purpose), the two-month incidence rate of COVID-19 was 2.6/1000 among Wuhan residents.', 'Based on reported case mortality of 2.3%, the population-based mortality of COVID-19 was 0.6/1000, or 1/9th of the mortality of Wuhan residents.', 'These findings suggest the nonlinear and chaotic character of the COVID-19 outbreak.After declaring the outbreak on January 20, information revealed by F ′ ′ (x) differed much from F ′ (x).', 'In other words, we have to wait for at least 14 days after the massive anti-COVID-19 epidemic without using information derived from F ′ ′ (x).', 'Quite different from F ′ (x), F ′′ (x) removed the time trend of F ′ (x) to show the acceleration/deceleration of diagnosed COVID-19.', 'Consequently, F ′ ′ (x) was much more sensitive than F ′ (x) to gauge the intrinsic dynamics of the epidemic in response to the massive anti-COVID-19 action.', 'Since January 21, 2020 after the massive anti-COVID actions, the F ′ ′ (x) suddenly became very active, as indicated by the alternative accelerations and decelerations.', 'In addition to informing whether the epidemic was responsive to the massive interventions, information from F ′′ (x) signaled an overall downturn of the epidemic since the beginning of the massive anti-COVID-19 action on January 21, 2020.', 'Using this estimated growth rate, it takes only 4 days for the diagnosed COVID-19 to double.', '1 and 2, we divided the COVID-19 epidemic during the first two months of the epidemic into five phases.', 'Unfortunately, the COVID-19 as an outbreak was silently stepping in during this period.Phase 4 was from January 20 to 27, 2020 with the estimated P i increased from 1% on January 20, 2020 to surpass 100%, and reached the peak of 170% on January 27, 2020.', 'Different from the previous four phases, reductions in the estimated P i during this phase were not an indication of underdetection but an indication of declines in the epidemic reflected by the detected and confirmed cases of COVID-19.', '2 and 3 (Phase 4 and 5), three pieces of information can be derived: (1) The epidemic was highly sensitive to external interventions, supporting the nonlinear and chaotic characters revealed by the long latent period in the first three phases; (2) the massive national efforts were highly effective in detecting the detectable COVID-19; (3) signal for the COVID-19 in China to decline appeared on January 21 in 2020, 14 days before the start of eventual declines on February 4, as indicated by F ′ ′ (x) and F ′ (x) in Fig.', 'Disscussion\n\nIn this study, we used a novel approach to distill information from the cumulative number of diagnosed cases of COVID-19 infection.', 'Findings from this study provided useful information in a real time manner to monitor, evaluate and forecast the COVID-19 epidemic in China.', 'Nonlinear and chaotic nature of the COVID-19 outbreak\n\nAlthough an analytical demonstration of the COVID-19 outbreak as nonlinear, chaotic and catastrophic requires more time to wait till the epidemic ends, evidence in the first 2 months suggests that the COVID-19 outbreak in China is nonlinear and chaotic.', 'The high responsiveness of the epidemic to interventions adds additional evidence supporting the chaotic and catastrophic nature, and demonstrating the selection of a good timing to start intervention.', 'The significance of nonlinear and chaotic nature of COVID-19 means that no methods are available to predict exactly at what point in time the epidemic will emerge as an outbreak, just like volcanoes and earthquakes.', 'Therefore, knowing the nonlinear and chaotic nature of an epidemic outbreak, like COVID-19, for all stockholders will be essential to the mobilization of resources, working together, taking all actions possible to control the epidemic, and minimizing the negative consequences.Specifically, what we can do to deal with an outbreak like COVID-19 would be to (1) collect information as early as possible, (2) monitor the epidemic as close as possible just like we do for an earthquake and make preparations for a hurricane and (3) communicate with the society and use confirmed data appropriately reframed not causing or exacerbating fear and panic in the public, stress and distress among medical and public health professionals, as well as administrators to make right decisions and take the right strategies at the right time in the right places for the right people.Knowing the nonlinear and chaotic nature is also essential for taking actions to control the outbreak of an epidemic like the COVID-19 infection.', 'As soon as an outbreak is confirmed, the follow measures should be in position immediately 1) closely and carefully monitor the epidemic; 2) take evidence-based interventions to control the epidemic, 3) actively assess responses of the epidemic to the interventions; 4) allow errors in the intervention, particularly during the early period of the epidemic, 5) always prepare for alternatives.Another confusion is, when an epidemic starts, everyone asks what it is?', 'We can take actions to prevent COVID-19 immediately while waiting for answers to these questions.', 'This is because we have the evidence-based strategy for control and prevention of any infectious disease without complete understanding of an infection.', 'Typical examples of control and prevention measures include locking down of cities, communities, and villages with potential of large scale transmission, massive environment sterilization, promotion of mask use, efforts to locate, isolate and treat the infected.', 'More importantly, most of these actions are initiated, mobilized, coordinated and supported by the government from central to local, and enhanced by volunteers and international support.', 'From day one on January 21, 2020 when the massive intervention measures activated to February 4, 2020 is the latent period of COVID-19 infection.', 'Based on the findings from our analysis, the COVID-19 in China may end up soon.', 'Despite a delay of 43 days from the first confirmed cases on December 8, 2019 to January 20, 2020, the COVID-19 epidemic was highly responsive to massive interventions, supporting the effectiveness of these interventions.', 'It is our prediction that the outbreak of the COVID-19 infection will be brought under control by the end of February 2020, given the effective control measures known to everyone, increases in immune level in the total population due to latent infections, and most widely spread of knowledge and skills for infectious disease control and prevention among the 1.4 billion people in China.', 'By inclusion of the mortality rate as a reference, results from our approach will be (1) comprehensive to inform the public to be prepared, not scared and not to blame others; (2) useful for administrators to make decisions; (3) valuable for medical and health professionals to take actions.Second, we conceptually separated (1) the true number of infections, which will never be practically detected, from (2) the infections that are practically detectable if services are available and accessible and detection technologies are sensitive and reliable, and (3) the actually detected cases of infections.', 'The clarification also enhanced our analytical approach by adding an exponential model to evaluate the detection rate and to bring more data assessing the responsiveness of the epidemic to the massive interventions.', 'We highly recommend the inclusion of the methods as a part of routine surveillance in disease control and prevention institutions.', 'We will follow the epidemic closely and prepare for further research on the topic when more data become available.Despite the limitations, this study provided new data to encourage those who are infected to better fight against the infections; to inform and encourage the general public, the medical and health professionals and the government to continue their current measures and to think of more measures that are innovative and effective to end the COVID-19 epidemic.', 'Of the diagnosed COVID-19 cases, less than 20% are severe.', 'Although the total cases COVID-19 reached to big numbers, but the 2-month incidence rate was about a half of the natural death rate for Wuhan residents.']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'etc', 'alternative', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'support', 'via', 'covid', 'via', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'support', 'covid', 'vaccine', 'covid', 'existing', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'covid', 'covid', 'alternative', 'prevention', 'covid']</t>
+  </si>
+  <si>
+    <t>['support', 'approach', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'etc', 'vaccine', 'vaccine', 'etc', 'support', 'vaccine', 'via', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'covid', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'covid', 'vaccine', 'vaccine', 'vaccine', 'etc', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support']</t>
+  </si>
+  <si>
+    <t>['covid', 'vaccine', 'covid', 'medicine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'covid', 'covid', 'approach', 'vaccine', 'covid', 'covid', 'vaccine', 'approach', 'vaccine', 'vaccine', 'approach', 'vaccine', 'covid', 'vaccine', 'covid', 'approach', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'covid', 'vaccine', 'covid', 'vaccine', 'covid', 'vaccine', 'vaccine', 'covid', 'support']</t>
+  </si>
+  <si>
+    <t>['vaccine', 'prevention', 'covid', 'support', 'support', 'vaccine', 'via', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'approach', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid', 'covid', 'existing', 'via', 'via', 'covid', 'prevention', 'prevention', 'prevention', 'prevention', 'covid', 'prevention', 'covid', 'covid', 'prevention', 'support', 'support', 'covid', 'covid', 'support', 'medicine', 'covid', 'covid', 'medicine', 'etc', 'medicine', 'covid', 'covid', 'medicine', 'prevention', 'medicine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'prevention', 'prevention', 'via', 'vaccine', 'prevention', 'vaccine', 'covid', 'prevention', 'vaccine']</t>
+  </si>
+  <si>
+    <t>['medicine', 'covid', 'medicine', 'medicine', 'medicine', 'medicine', 'approach', 'medicine', 'approach', 'alternative', 'medicine', 'medicine', 'approach', 'alternative', 'medicine', 'alternative', 'medicine', 'medicine', 'medicine', 'approach', 'alternative', 'medicine', 'medicine', 'medicine', 'medicine', 'existing', 'existing', 'existing', 'medicine', 'alternative', 'support', 'support', 'approach', 'alternative', 'support', 'medicine', 'alternative', 'alternative', 'medicine', 'medicine', 'alternative', 'alternative', 'alternative', 'medicine', 'alternative', 'alternative', 'alternative', 'alternative', 'medicine', 'existing', 'medicine', 'existing', 'prevention', 'prevention', 'medicine', 'prevention', 'support', 'medicine', 'approach', 'alternative', 'alternative', 'medicine', 'medicine', 'medicine', 'medicine', 'vaccine', 'approach', 'medicine', 'support', 'medicine', 'medicine', 'alternative', 'support', 'medicine', 'alternative', 'approach', 'medicine', 'medicine', 'alternative', 'approach', 'medicine', 'support', 'medicine']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'vaccine', 'covid', 'vaccine', 'vaccine', 'covid', 'vaccine', 'vaccine', 'covid', 'vaccine', 'approach', 'covid', 'covid', 'covid', 'support', 'covid', 'covid', 'support', 'covid', 'covid', 'covid', 'covid', 'support']</t>
+  </si>
+  <si>
+    <t>['vaccine', 'covid', 'vaccine', 'via', 'vaccine', 'covid', 'covid', 'via', 'via', 'approach', 'vaccine', 'vaccine', 'vaccine', 'approach', 'vaccine', 'alternative', 'vaccine', 'medicine', 'support', 'approach', 'vaccine', 'support', 'approach', 'approach', 'approach', 'alternative', 'alternative', 'etc', 'vaccine', 'approach', 'alternative', 'vaccine', 'vaccine', 'vaccine', 'vaccine', 'support', 'vaccine', 'vaccine', 'vaccine', 'etc', 'vaccine', 'etc', 'alternative', 'etc', 'vaccine', 'approach', 'alternative', 'vaccine', 'approach', 'support', 'approach', 'approach', 'approach', 'approach', 'alternative', 'approach', 'vaccine', 'approach', 'vaccine', 'medicine', 'approach', 'vaccine', 'vaccine', 'approach', 'vaccine', 'approach', 'approach', 'approach', 'support', 'approach', 'approach', 'approach', 'existing', 'vaccine', 'support', 'approach', 'medicine', 'medicine', 'medicine', 'vaccine', 'vaccine', 'medicine']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'prevention', 'support', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['prevention', 'covid', 'support', 'covid', 'covid', 'covid', 'support', 'via', 'covid', 'vaccine', 'covid', 'covid', 'support', 'covid', 'covid', 'covid', 'covid', 'prevention', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'via', 'via', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccine', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'prevention', 'covid', 'covid', 'via', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'prevention', 'support', 'support', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'alternative', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'support', 'approach', 'covid', 'covid', 'covid', 'support', 'covid', 'covid', 'alternative', 'covid', 'prevention', 'prevention', 'support', 'covid', 'covid', 'covid', 'support', 'prevention', 'covid', 'approach', 'approach', 'prevention', 'covid', 'covid', 'covid']</t>
   </si>
 </sst>
 </file>
@@ -586,22 +598,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>349</v>
+        <v>28792</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -612,42 +621,48 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>28792</v>
+        <v>349</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>17045</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -655,22 +670,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>27534</v>
+        <v>23533</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -678,45 +693,45 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>18274</v>
+        <v>23267</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>18427</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
+        <v>22700</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -724,25 +739,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>127</v>
+        <v>22442</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -750,65 +762,71 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>22700</v>
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>160</v>
+        <v>18427</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>11860</v>
+        <v>5011</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
